--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1167F29F-BBDA-4956-B4B5-1A5DBC6BC95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="722">
   <si>
     <t>id</t>
   </si>
@@ -2181,12 +2182,21 @@
   </si>
   <si>
     <t>Cantidad de NNA</t>
+  </si>
+  <si>
+    <t>SEXO_POB</t>
+  </si>
+  <si>
+    <t>EDAD_POB</t>
+  </si>
+  <si>
+    <t>ASCENDENCIA_POB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2403,10 +2413,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2717,42 +2727,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="I142" sqref="I142"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="13"/>
-    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="13"/>
+    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.109375" style="13"/>
+    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2811,13 +2821,13 @@
         <v>693</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -12089,7 +12099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12097,11 +12107,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1167F29F-BBDA-4956-B4B5-1A5DBC6BC95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AI$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AI$136</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2196,7 +2195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2413,10 +2412,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2727,42 +2726,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.109375" style="13"/>
-    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="13"/>
+    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="13"/>
+    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2880,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="R2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="6" customFormat="1">
@@ -2939,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="Q3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="6">
         <v>0</v>
@@ -3001,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="6">
         <v>0</v>
@@ -3063,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="6">
         <v>0</v>
@@ -3875,16 +3874,16 @@
         <v>1</v>
       </c>
       <c r="R18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -5238,7 +5237,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="6">
         <v>0</v>
@@ -5300,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="Q38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="6">
         <v>0</v>
@@ -5362,7 +5361,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="6">
         <v>0</v>
@@ -5424,7 +5423,7 @@
         <v>17</v>
       </c>
       <c r="Q40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="6">
         <v>0</v>
@@ -6621,7 +6620,7 @@
         <v>17</v>
       </c>
       <c r="Q56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="6">
         <v>0</v>
@@ -6683,7 +6682,7 @@
         <v>17</v>
       </c>
       <c r="Q57" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="6">
         <v>0</v>
@@ -6745,7 +6744,7 @@
         <v>17</v>
       </c>
       <c r="Q58" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="6">
         <v>0</v>
@@ -6807,7 +6806,7 @@
         <v>17</v>
       </c>
       <c r="Q59" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="6">
         <v>0</v>
@@ -8355,7 +8354,7 @@
         <v>17</v>
       </c>
       <c r="Q83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" s="6">
         <v>0</v>
@@ -8418,7 +8417,7 @@
         <v>17</v>
       </c>
       <c r="Q84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="6">
         <v>0</v>
@@ -8495,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="Q85" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="6">
         <v>0</v>
@@ -8571,7 +8570,7 @@
         <v>17</v>
       </c>
       <c r="Q86" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="6">
         <v>0</v>
@@ -12099,7 +12098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12107,11 +12106,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55FF2A-303C-4F74-8723-C06AE9E5BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -2195,7 +2196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2412,10 +2413,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2726,42 +2727,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="13"/>
-    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="13"/>
+    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.109375" style="13"/>
+    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2876,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="6">
         <v>0</v>
@@ -4145,7 +4146,7 @@
         <v>510</v>
       </c>
       <c r="Q22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="6">
         <v>0</v>
@@ -5110,7 +5111,7 @@
         <v>17</v>
       </c>
       <c r="Q35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="6">
         <v>0</v>
@@ -11879,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="T134" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U134" s="6">
         <v>0</v>
@@ -12098,7 +12099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12106,11 +12107,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55FF2A-303C-4F74-8723-C06AE9E5BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -969,9 +968,6 @@
     <t>Para cada año calcular: (Cantidad de nacidos vivos -o niños y niñas- inmunizados según tipo de vacuna / Total de nacidos vivos -o niños y niñas-)*100</t>
   </si>
   <si>
-    <t>Porcentaje de nacidos vivos o niños inmunizados según tipo de vacuna y dosis (estimación OMS - UNICEF)</t>
-  </si>
-  <si>
     <t>No es un gasto soportable en vivienda aquel cuya erogación tiene como consecuencia que una persona se ubique debajo de la línea de pobreza monetaria.</t>
   </si>
   <si>
@@ -2191,12 +2187,15 @@
   </si>
   <si>
     <t>ASCENDENCIA_POB</t>
+  </si>
+  <si>
+    <t>Porcentaje de niños y niñas inmunizados según tipo de vacuna y dosis (estimación OMS - UNICEF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2413,10 +2412,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2727,107 +2726,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.109375" style="13"/>
-    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="13"/>
+    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="13"/>
+    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>351</v>
-      </c>
       <c r="D1" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S1" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="T1" s="35" t="s">
         <v>719</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>720</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2844,13 +2843,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>114</v>
@@ -2862,16 +2861,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2906,13 +2905,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -2924,16 +2923,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -2968,13 +2967,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -2986,16 +2985,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3030,13 +3029,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3054,10 +3053,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3092,16 +3091,16 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3116,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3154,16 +3153,16 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3178,10 +3177,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3216,13 +3215,13 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>115</v>
@@ -3240,10 +3239,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3278,13 +3277,13 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>30</v>
@@ -3302,10 +3301,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3340,13 +3339,13 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>86</v>
@@ -3364,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3402,13 +3401,13 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -3426,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3464,16 +3463,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3488,13 +3487,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>526</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3526,13 +3525,13 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>299</v>
@@ -3550,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3588,13 +3587,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
@@ -3612,10 +3611,10 @@
         <v>300</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3650,16 +3649,16 @@
         <v>307</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3712,16 +3711,16 @@
         <v>307</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3774,16 +3773,16 @@
         <v>307</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>306</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3836,13 +3835,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>139</v>
@@ -3869,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3901,13 +3900,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>140</v>
@@ -3934,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -3966,13 +3965,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>141</v>
@@ -3999,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4031,13 +4030,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>148</v>
@@ -4064,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4110,13 +4109,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>149</v>
@@ -4143,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4189,13 +4188,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
@@ -4222,7 +4221,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4254,13 +4253,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>301</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>302</v>
@@ -4287,7 +4286,7 @@
         <v>234</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4333,13 +4332,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>236</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>235</v>
@@ -4366,7 +4365,7 @@
         <v>234</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4412,13 +4411,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>142</v>
@@ -4436,16 +4435,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4477,13 +4476,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>143</v>
@@ -4501,16 +4500,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4556,13 +4555,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4580,16 +4579,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4635,16 +4634,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>5</v>
@@ -4659,16 +4658,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4700,16 +4699,16 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>5</v>
@@ -4724,16 +4723,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="N30" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4779,13 +4778,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>144</v>
@@ -4803,10 +4802,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4856,13 +4855,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>145</v>
@@ -4880,10 +4879,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4933,13 +4932,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -4957,10 +4956,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -4996,13 +4995,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5020,10 +5019,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5075,13 +5074,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5140,13 +5139,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>153</v>
@@ -5173,7 +5172,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5205,13 +5204,13 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>119</v>
@@ -5223,16 +5222,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5267,13 +5266,13 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>121</v>
@@ -5291,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5329,16 +5328,16 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5347,16 +5346,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5391,13 +5390,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5415,10 +5414,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5453,19 +5452,19 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>6</v>
@@ -5477,14 +5476,14 @@
         <v>8</v>
       </c>
       <c r="M41" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="6">
         <v>0</v>
@@ -5530,38 +5529,38 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="I42" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q42" s="6">
         <v>0</v>
@@ -5607,38 +5606,38 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="I43" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q43" s="6">
         <v>0</v>
@@ -5684,13 +5683,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -5717,7 +5716,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5763,13 +5762,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5796,7 +5795,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5842,13 +5841,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>155</v>
@@ -5875,7 +5874,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5921,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>189</v>
@@ -5951,10 +5950,10 @@
         <v>195</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q47" s="6">
         <v>1</v>
@@ -5986,13 +5985,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6019,7 +6018,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6051,16 +6050,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6081,10 +6080,10 @@
         <v>195</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q49" s="6">
         <v>0</v>
@@ -6116,16 +6115,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6146,10 +6145,10 @@
         <v>195</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6195,16 +6194,16 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6225,10 +6224,10 @@
         <v>195</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6274,16 +6273,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6304,10 +6303,10 @@
         <v>195</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6353,16 +6352,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F53" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="G53" s="28" t="s">
-        <v>685</v>
-      </c>
       <c r="H53" s="34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6383,10 +6382,10 @@
         <v>195</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6432,13 +6431,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>156</v>
@@ -6465,7 +6464,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6511,13 +6510,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>157</v>
@@ -6542,7 +6541,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6588,13 +6587,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6606,16 +6605,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6650,13 +6649,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6674,10 +6673,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6712,16 +6711,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6730,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6774,13 +6773,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6798,10 +6797,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6836,13 +6835,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6860,10 +6859,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6898,13 +6897,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6922,10 +6921,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="N61" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -6960,13 +6959,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>680</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -6984,10 +6983,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="N62" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7022,13 +7021,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7040,7 +7039,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>8</v>
@@ -7087,13 +7086,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>304</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7120,7 +7119,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q64" s="6">
         <v>1</v>
@@ -7152,16 +7151,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7185,7 +7184,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7223,10 +7222,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7250,7 +7249,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7282,16 +7281,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7347,16 +7346,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7412,13 +7411,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>303</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>159</v>
@@ -7445,7 +7444,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
@@ -7477,16 +7476,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7542,16 +7541,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7607,16 +7606,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7672,16 +7671,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7737,16 +7736,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7802,16 +7801,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7867,16 +7866,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7932,16 +7931,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -7997,16 +7996,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8062,16 +8061,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8127,16 +8126,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8192,16 +8191,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8257,13 +8256,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8322,13 +8321,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8340,16 +8339,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8384,13 +8383,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8408,10 +8407,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8461,16 +8460,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8479,16 +8478,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8538,13 +8537,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8562,10 +8561,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="N86" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8600,16 +8599,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>238</v>
@@ -8677,16 +8676,16 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>243</v>
@@ -8739,16 +8738,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>245</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>238</v>
@@ -8816,16 +8815,16 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>248</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>243</v>
@@ -8893,13 +8892,13 @@
         <v>307</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>314</v>
+        <v>721</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>313</v>
@@ -8967,16 +8966,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>190</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>191</v>
@@ -9001,7 +9000,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9044,7 +9043,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9053,10 +9052,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>192</v>
@@ -9078,7 +9077,7 @@
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9121,19 +9120,19 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>295</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>296</v>
@@ -9198,10 +9197,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>197</v>
@@ -9210,7 +9209,7 @@
         <v>198</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>199</v>
@@ -9260,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>231</v>
@@ -9272,7 +9271,7 @@
         <v>203</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>199</v>
@@ -9322,19 +9321,19 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>204</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>199</v>
@@ -9384,10 +9383,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>232</v>
@@ -9396,7 +9395,7 @@
         <v>205</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>206</v>
@@ -9446,10 +9445,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>207</v>
@@ -9458,7 +9457,7 @@
         <v>208</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>209</v>
@@ -9508,10 +9507,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>225</v>
@@ -9520,7 +9519,7 @@
         <v>214</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>215</v>
@@ -9570,10 +9569,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>226</v>
@@ -9582,7 +9581,7 @@
         <v>217</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>215</v>
@@ -9632,10 +9631,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>227</v>
@@ -9644,7 +9643,7 @@
         <v>218</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>215</v>
@@ -9694,10 +9693,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>228</v>
@@ -9706,7 +9705,7 @@
         <v>219</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>215</v>
@@ -9771,10 +9770,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>229</v>
@@ -9783,7 +9782,7 @@
         <v>220</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>215</v>
@@ -9848,10 +9847,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>230</v>
@@ -9860,7 +9859,7 @@
         <v>221</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>215</v>
@@ -9928,13 +9927,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>260</v>
@@ -9990,13 +9989,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>262</v>
@@ -10052,13 +10051,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>264</v>
@@ -10114,13 +10113,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>270</v>
@@ -10191,13 +10190,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>266</v>
@@ -10253,13 +10252,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>268</v>
@@ -10330,13 +10329,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>250</v>
@@ -10392,13 +10391,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>252</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>253</v>
@@ -10454,13 +10453,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>255</v>
@@ -10516,13 +10515,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F115" s="21" t="s">
         <v>256</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>257</v>
@@ -10578,16 +10577,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>273</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10655,16 +10654,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>298</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10732,7 +10731,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>210</v>
@@ -10741,7 +10740,7 @@
         <v>222</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>211</v>
@@ -10794,7 +10793,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>212</v>
@@ -10803,7 +10802,7 @@
         <v>223</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>211</v>
@@ -10856,7 +10855,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>213</v>
@@ -10865,7 +10864,7 @@
         <v>224</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>211</v>
@@ -10918,16 +10917,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>272</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10992,16 +10991,16 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>274</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>275</v>
@@ -11052,13 +11051,13 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>279</v>
@@ -11112,10 +11111,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>281</v>
@@ -11172,10 +11171,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>284</v>
@@ -11247,19 +11246,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>287</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
@@ -11322,10 +11321,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>288</v>
@@ -11396,10 +11395,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>292</v>
@@ -11476,15 +11475,15 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="F129" s="33" t="s">
         <v>702</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>703</v>
       </c>
       <c r="G129" s="36"/>
       <c r="H129" s="37"/>
       <c r="I129" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11549,15 +11548,15 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="F130" s="33" t="s">
         <v>704</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>705</v>
       </c>
       <c r="G130" s="36"/>
       <c r="H130" s="37"/>
       <c r="I130" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11622,15 +11621,15 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="F131" s="33" t="s">
         <v>706</v>
-      </c>
-      <c r="F131" s="33" t="s">
-        <v>707</v>
       </c>
       <c r="G131" s="36"/>
       <c r="H131" s="37"/>
       <c r="I131" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11695,10 +11694,10 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="F132" s="33" t="s">
         <v>708</v>
-      </c>
-      <c r="F132" s="33" t="s">
-        <v>709</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="37"/>
@@ -11768,10 +11767,10 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
+        <v>709</v>
+      </c>
+      <c r="F133" s="33" t="s">
         <v>710</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>711</v>
       </c>
       <c r="G133" s="36"/>
       <c r="H133" s="37"/>
@@ -11841,10 +11840,10 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="F134" s="33" t="s">
         <v>712</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>713</v>
       </c>
       <c r="G134" s="36"/>
       <c r="H134" s="37"/>
@@ -11914,10 +11913,10 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
+        <v>713</v>
+      </c>
+      <c r="F135" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>715</v>
       </c>
       <c r="G135" s="36"/>
       <c r="H135" s="37"/>
@@ -11987,10 +11986,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="F136" s="33" t="s">
         <v>716</v>
-      </c>
-      <c r="F136" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="G136" s="36"/>
       <c r="H136" s="37"/>
@@ -12099,7 +12098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12107,11 +12106,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -12124,7 +12123,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>175</v>
@@ -12132,7 +12131,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>177</v>
@@ -12140,7 +12139,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -12148,7 +12147,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -12156,15 +12155,15 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
@@ -12172,7 +12171,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -12180,7 +12179,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>181</v>
@@ -12188,7 +12187,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>182</v>
@@ -12196,7 +12195,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>183</v>
@@ -12204,7 +12203,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>184</v>
@@ -12212,7 +12211,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
@@ -12220,7 +12219,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>186</v>
@@ -12228,7 +12227,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
@@ -12236,7 +12235,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
@@ -12244,42 +12243,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shari\Dropbox\UMAD\DESCA\NUEVO REPOSITORIO\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B6CF7-94F4-4CCE-9B68-FBB4CEFC63D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="738">
   <si>
     <t>id</t>
   </si>
@@ -2190,12 +2191,60 @@
   </si>
   <si>
     <t>Porcentaje de niños y niñas inmunizados según tipo de vacuna y dosis (estimación OMS - UNICEF)</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares contributivas.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares contributivas.</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Tarjeta Uruguay Social.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Tarjeta Uruguay Social</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad en el total de hogares pobres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Tarjeta Uruguay Social en el total de hogares pobres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo/Cantidad de niños, niñas y adolescentes)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social/Cantidad de niños, niñas y adolescentes)*100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2276,18 +2325,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2305,7 +2348,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2404,18 +2447,12 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2726,42 +2763,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.7265625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.26953125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.7265625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.1796875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.453125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.7265625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.1796875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.7265625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="13"/>
-    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="13"/>
+    <col min="21" max="21" width="15.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.453125" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.1796875" style="13"/>
+    <col min="30" max="30" width="55.1796875" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -11480,8 +11517,12 @@
       <c r="F129" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="37"/>
+      <c r="G129" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="I129" s="23" t="s">
         <v>717</v>
       </c>
@@ -11553,8 +11594,12 @@
       <c r="F130" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="37"/>
+      <c r="G130" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>725</v>
+      </c>
       <c r="I130" s="23" t="s">
         <v>717</v>
       </c>
@@ -11626,8 +11671,12 @@
       <c r="F131" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="G131" s="36"/>
-      <c r="H131" s="37"/>
+      <c r="G131" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>727</v>
+      </c>
       <c r="I131" s="23" t="s">
         <v>717</v>
       </c>
@@ -11699,8 +11748,12 @@
       <c r="F132" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="37"/>
+      <c r="G132" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>729</v>
+      </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
       </c>
@@ -11772,8 +11825,12 @@
       <c r="F133" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="37"/>
+      <c r="G133" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>731</v>
+      </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
       </c>
@@ -11845,8 +11902,12 @@
       <c r="F134" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="37"/>
+      <c r="G134" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>733</v>
+      </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
       </c>
@@ -11918,8 +11979,12 @@
       <c r="F135" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="G135" s="36"/>
-      <c r="H135" s="37"/>
+      <c r="G135" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>735</v>
+      </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
       </c>
@@ -11991,8 +12056,12 @@
       <c r="F136" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="G136" s="36"/>
-      <c r="H136" s="37"/>
+      <c r="G136" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>737</v>
+      </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
       </c>
@@ -12098,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12106,11 +12175,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55FF2A-303C-4F74-8723-C06AE9E5BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -2196,7 +2195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2413,10 +2412,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2727,42 +2726,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Hoja1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1" filterMode="1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomLeft" activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.109375" style="13"/>
-    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="13"/>
+    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="13"/>
+    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2830,7 +2829,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1">
+    <row r="2" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A2" s="6">
         <v>120101</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="6" customFormat="1">
+    <row r="3" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A3" s="6">
         <v>120102</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1">
+    <row r="4" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A4" s="6">
         <v>120103</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1">
+    <row r="5" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A5" s="6">
         <v>120104</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1">
+    <row r="6" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A6" s="6">
         <v>120105</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="6" customFormat="1">
+    <row r="7" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A7" s="6">
         <v>120106</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1">
+    <row r="8" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A8" s="6">
         <v>120107</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="6" customFormat="1">
+    <row r="9" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A9" s="6">
         <v>120108</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1">
+    <row r="10" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A10" s="6">
         <v>120109</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1">
+    <row r="11" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A11" s="6">
         <v>120110</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="6" customFormat="1">
+    <row r="12" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A12" s="6">
         <v>120111</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="6" customFormat="1">
+    <row r="13" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A13" s="6">
         <v>120112</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="6" customFormat="1">
+    <row r="14" spans="1:21" s="6" customFormat="1" hidden="1">
       <c r="A14" s="6">
         <v>120113</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="7" customFormat="1">
+    <row r="15" spans="1:21" s="7" customFormat="1" hidden="1">
       <c r="A15" s="6">
         <v>120114</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="7" customFormat="1">
+    <row r="16" spans="1:21" s="7" customFormat="1" hidden="1">
       <c r="A16" s="6">
         <v>120115</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1">
+    <row r="17" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A17" s="6">
         <v>120116</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" hidden="1">
       <c r="A18" s="13">
         <v>130101</v>
       </c>
@@ -3878,16 +3877,16 @@
         <v>1</v>
       </c>
       <c r="S18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="6">
         <v>1</v>
       </c>
       <c r="U18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" hidden="1">
       <c r="A19" s="13">
         <v>130102</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" hidden="1">
       <c r="A20" s="13">
         <v>130103</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="6" customFormat="1">
+    <row r="21" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A21" s="14">
         <v>130104</v>
       </c>
@@ -4096,7 +4095,7 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="1:35" s="6" customFormat="1">
+    <row r="22" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A22" s="14">
         <v>130105</v>
       </c>
@@ -4175,7 +4174,7 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" hidden="1">
       <c r="A23" s="14">
         <v>130106</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" hidden="1">
       <c r="A24" s="15">
         <v>130107</v>
       </c>
@@ -4319,7 +4318,7 @@
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" hidden="1">
       <c r="A25" s="15">
         <v>130108</v>
       </c>
@@ -4398,7 +4397,7 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
     </row>
-    <row r="26" spans="1:35" s="6" customFormat="1">
+    <row r="26" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A26" s="6">
         <v>130201</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" hidden="1">
       <c r="A27" s="6">
         <v>130202</v>
       </c>
@@ -4542,7 +4541,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" hidden="1">
       <c r="A28" s="6">
         <v>130203</v>
       </c>
@@ -4621,7 +4620,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" hidden="1">
       <c r="A29" s="6">
         <v>130204</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="15" customFormat="1">
+    <row r="30" spans="1:35" s="15" customFormat="1" hidden="1">
       <c r="A30" s="6">
         <v>130205</v>
       </c>
@@ -4765,7 +4764,7 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" s="15" customFormat="1">
+    <row r="31" spans="1:35" s="15" customFormat="1" hidden="1">
       <c r="A31" s="6">
         <v>130301</v>
       </c>
@@ -4842,7 +4841,7 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
-    <row r="32" spans="1:35" s="6" customFormat="1">
+    <row r="32" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A32" s="6">
         <v>130302</v>
       </c>
@@ -4919,7 +4918,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" hidden="1">
       <c r="A33" s="6">
         <v>130303</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" hidden="1">
       <c r="A34" s="6">
         <v>130304</v>
       </c>
@@ -5061,7 +5060,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1">
+    <row r="35" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A35" s="6">
         <v>130305</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" hidden="1">
       <c r="A36" s="6">
         <v>130306</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="6">
         <v>0</v>
@@ -5188,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="U36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" s="6" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A37" s="6">
         <v>220101</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="6" customFormat="1">
+    <row r="38" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A38" s="6">
         <v>220102</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="6" customFormat="1">
+    <row r="39" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A39" s="6">
         <v>220103</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="6" customFormat="1">
+    <row r="40" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A40" s="6">
         <v>220104</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" hidden="1">
       <c r="A41" s="6">
         <v>220105</v>
       </c>
@@ -5516,7 +5515,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" hidden="1">
       <c r="A42" s="6">
         <v>220106</v>
       </c>
@@ -5593,7 +5592,7 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" hidden="1">
       <c r="A43" s="6">
         <v>220107</v>
       </c>
@@ -5670,7 +5669,7 @@
       <c r="AH43" s="25"/>
       <c r="AI43" s="25"/>
     </row>
-    <row r="44" spans="1:35" s="6" customFormat="1">
+    <row r="44" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A44" s="17">
         <v>230101</v>
       </c>
@@ -5749,7 +5748,7 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
     </row>
-    <row r="45" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="45" spans="1:35" s="6" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A45" s="17">
         <v>230201</v>
       </c>
@@ -5828,7 +5827,7 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
     </row>
-    <row r="46" spans="1:35" s="6" customFormat="1">
+    <row r="46" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A46" s="17">
         <v>230202</v>
       </c>
@@ -5907,7 +5906,7 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
     </row>
-    <row r="47" spans="1:35" s="6" customFormat="1">
+    <row r="47" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A47" s="10">
         <v>230203</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="6" customFormat="1">
+    <row r="48" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A48" s="10">
         <v>230204</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="6" customFormat="1">
+    <row r="49" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A49" s="6">
         <v>230301</v>
       </c>
@@ -6087,13 +6086,13 @@
         <v>513</v>
       </c>
       <c r="Q49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="6">
         <v>0</v>
@@ -6102,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" hidden="1">
       <c r="A50" s="6">
         <v>230302</v>
       </c>
@@ -6181,7 +6180,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" hidden="1">
       <c r="A51" s="6">
         <v>230303</v>
       </c>
@@ -6260,7 +6259,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" hidden="1">
       <c r="A52" s="6">
         <v>230304</v>
       </c>
@@ -6339,7 +6338,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" hidden="1">
       <c r="A53" s="6">
         <v>230401</v>
       </c>
@@ -6418,7 +6417,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" s="6" customFormat="1">
+    <row r="54" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A54" s="17">
         <v>230402</v>
       </c>
@@ -6497,7 +6496,7 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" s="6" customFormat="1">
+    <row r="55" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A55" s="17">
         <v>230501</v>
       </c>
@@ -6574,7 +6573,7 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" s="6" customFormat="1">
+    <row r="56" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A56" s="6">
         <v>320101</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="6" customFormat="1">
+    <row r="57" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A57" s="6">
         <v>320102</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="6" customFormat="1">
+    <row r="58" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A58" s="6">
         <v>320103</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="6" customFormat="1">
+    <row r="59" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A59" s="6">
         <v>320104</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="6" customFormat="1">
+    <row r="60" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A60" s="6">
         <v>320105</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="6" customFormat="1">
+    <row r="61" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A61" s="6">
         <v>320106</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="6" customFormat="1">
+    <row r="62" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A62" s="6">
         <v>320107</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="6" customFormat="1">
@@ -7256,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="R66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="6">
         <v>0</v>
@@ -7265,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="6" customFormat="1">
@@ -8308,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35" s="6" customFormat="1">
+    <row r="83" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A83" s="6">
         <v>420101</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35" s="7" customFormat="1">
+    <row r="84" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A84" s="6">
         <v>420102</v>
       </c>
@@ -8447,7 +8446,7 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
     </row>
-    <row r="85" spans="1:35" s="7" customFormat="1">
+    <row r="85" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A85" s="6">
         <v>420103</v>
       </c>
@@ -8524,7 +8523,7 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
     </row>
-    <row r="86" spans="1:35" s="6" customFormat="1">
+    <row r="86" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A86" s="6">
         <v>420104</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" s="7" customFormat="1">
+    <row r="87" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A87" s="6">
         <v>420105</v>
       </c>
@@ -8663,7 +8662,7 @@
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
     </row>
-    <row r="88" spans="1:35" s="6" customFormat="1">
+    <row r="88" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A88" s="6">
         <v>420106</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" s="6" customFormat="1">
+    <row r="89" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A89" s="6">
         <v>420107</v>
       </c>
@@ -8802,7 +8801,7 @@
       <c r="AH89" s="7"/>
       <c r="AI89" s="7"/>
     </row>
-    <row r="90" spans="1:35" s="11" customFormat="1">
+    <row r="90" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A90" s="6">
         <v>420108</v>
       </c>
@@ -8879,7 +8878,7 @@
       <c r="AH90" s="7"/>
       <c r="AI90" s="7"/>
     </row>
-    <row r="91" spans="1:35" s="11" customFormat="1">
+    <row r="91" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A91" s="6">
         <v>420109</v>
       </c>
@@ -8956,7 +8955,7 @@
       <c r="AH91" s="7"/>
       <c r="AI91" s="7"/>
     </row>
-    <row r="92" spans="1:35" s="7" customFormat="1">
+    <row r="92" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A92" s="6">
         <v>430101</v>
       </c>
@@ -9033,7 +9032,7 @@
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
     </row>
-    <row r="93" spans="1:35" s="11" customFormat="1">
+    <row r="93" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A93" s="6">
         <v>430102</v>
       </c>
@@ -9110,7 +9109,7 @@
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
     </row>
-    <row r="94" spans="1:35" s="6" customFormat="1">
+    <row r="94" spans="1:35" s="6" customFormat="1" hidden="1">
       <c r="A94" s="6">
         <v>430103</v>
       </c>
@@ -9187,7 +9186,7 @@
       <c r="AH94" s="11"/>
       <c r="AI94" s="11"/>
     </row>
-    <row r="95" spans="1:35" s="11" customFormat="1">
+    <row r="95" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A95" s="6">
         <v>430104</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="R95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" s="6">
         <v>0</v>
@@ -9249,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35" s="11" customFormat="1">
+    <row r="96" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A96" s="6">
         <v>430105</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35" s="11" customFormat="1">
+    <row r="97" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A97" s="6">
         <v>430106</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:35" s="11" customFormat="1">
+    <row r="98" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A98" s="6">
         <v>430107</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35" s="11" customFormat="1">
+    <row r="99" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A99" s="6">
         <v>430108</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" s="6">
         <v>0</v>
@@ -9497,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35" s="11" customFormat="1">
+    <row r="100" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A100" s="6">
         <v>430109</v>
       </c>
@@ -9559,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35" s="11" customFormat="1">
+    <row r="101" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A101" s="6">
         <v>430110</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:35" s="11" customFormat="1">
+    <row r="102" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A102" s="6">
         <v>430111</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:35" s="7" customFormat="1">
+    <row r="103" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A103" s="6">
         <v>430112</v>
       </c>
@@ -9760,7 +9759,7 @@
       <c r="AH103" s="11"/>
       <c r="AI103" s="11"/>
     </row>
-    <row r="104" spans="1:35" s="7" customFormat="1">
+    <row r="104" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A104" s="6">
         <v>430113</v>
       </c>
@@ -9837,7 +9836,7 @@
       <c r="AH104" s="11"/>
       <c r="AI104" s="11"/>
     </row>
-    <row r="105" spans="1:35" s="7" customFormat="1">
+    <row r="105" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A105" s="6">
         <v>430114</v>
       </c>
@@ -9914,7 +9913,7 @@
       <c r="AH105" s="11"/>
       <c r="AI105" s="11"/>
     </row>
-    <row r="106" spans="1:35" s="7" customFormat="1">
+    <row r="106" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A106" s="6">
         <v>430201</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:35" s="7" customFormat="1">
+    <row r="107" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A107" s="6">
         <v>430202</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:35" s="7" customFormat="1">
+    <row r="108" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A108" s="6">
         <v>430203</v>
       </c>
@@ -10100,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:35" s="23" customFormat="1">
+    <row r="109" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A109" s="6">
         <v>430204</v>
       </c>
@@ -10177,7 +10176,7 @@
       <c r="AH109" s="7"/>
       <c r="AI109" s="7"/>
     </row>
-    <row r="110" spans="1:35" s="7" customFormat="1">
+    <row r="110" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A110" s="6">
         <v>430205</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:35" s="23" customFormat="1">
+    <row r="111" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A111" s="6">
         <v>430206</v>
       </c>
@@ -10316,7 +10315,7 @@
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
     </row>
-    <row r="112" spans="1:35" s="7" customFormat="1">
+    <row r="112" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A112" s="6">
         <v>430207</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:35" s="7" customFormat="1">
+    <row r="113" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A113" s="6">
         <v>430208</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" s="7" customFormat="1">
+    <row r="114" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A114" s="6">
         <v>430209</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:35" s="7" customFormat="1">
+    <row r="115" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A115" s="29">
         <v>430301</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:35" s="23" customFormat="1">
+    <row r="116" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A116" s="29">
         <v>430302</v>
       </c>
@@ -10641,7 +10640,7 @@
       <c r="AH116" s="7"/>
       <c r="AI116" s="7"/>
     </row>
-    <row r="117" spans="1:35" s="25" customFormat="1">
+    <row r="117" spans="1:35" s="25" customFormat="1" hidden="1">
       <c r="A117" s="29">
         <v>430303</v>
       </c>
@@ -10718,7 +10717,7 @@
       <c r="AH117" s="11"/>
       <c r="AI117" s="11"/>
     </row>
-    <row r="118" spans="1:35" s="11" customFormat="1">
+    <row r="118" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A118" s="29">
         <v>430304</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35" s="11" customFormat="1">
+    <row r="119" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A119" s="29">
         <v>430305</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" s="11" customFormat="1">
+    <row r="120" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A120" s="29">
         <v>430306</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:35" s="23" customFormat="1">
+    <row r="121" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A121" s="29">
         <v>430307</v>
       </c>
@@ -10981,7 +10980,7 @@
       <c r="AH121" s="7"/>
       <c r="AI121" s="7"/>
     </row>
-    <row r="122" spans="1:35" s="23" customFormat="1">
+    <row r="122" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A122" s="7">
         <v>430401</v>
       </c>
@@ -11041,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:35" s="23" customFormat="1">
+    <row r="123" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A123" s="7">
         <v>430402</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:35" s="23" customFormat="1">
+    <row r="124" spans="1:35" s="23" customFormat="1" hidden="1">
       <c r="A124" s="7">
         <v>430403</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:35" s="11" customFormat="1">
+    <row r="125" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A125" s="7">
         <v>430404</v>
       </c>
@@ -11236,7 +11235,7 @@
       <c r="AH125" s="23"/>
       <c r="AI125" s="23"/>
     </row>
-    <row r="126" spans="1:35" s="11" customFormat="1">
+    <row r="126" spans="1:35" s="11" customFormat="1" hidden="1">
       <c r="A126" s="7">
         <v>430405</v>
       </c>
@@ -11311,7 +11310,7 @@
       <c r="AH126" s="23"/>
       <c r="AI126" s="23"/>
     </row>
-    <row r="127" spans="1:35" s="7" customFormat="1">
+    <row r="127" spans="1:35" s="7" customFormat="1" hidden="1">
       <c r="A127" s="7">
         <v>430406</v>
       </c>
@@ -11385,7 +11384,7 @@
       <c r="AH127" s="23"/>
       <c r="AI127" s="23"/>
     </row>
-    <row r="128" spans="1:35">
+    <row r="128" spans="1:35" hidden="1">
       <c r="A128" s="7">
         <v>430407</v>
       </c>
@@ -12092,6 +12091,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:AI136">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Seguridad Social"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Resultados"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -12099,7 +12110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12107,11 +12118,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -2727,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
       <selection pane="bottomLeft" activeCell="U66" sqref="U66"/>
@@ -2829,7 +2829,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="2" spans="1:21" s="6" customFormat="1">
       <c r="A2" s="6">
         <v>120101</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="3" spans="1:21" s="6" customFormat="1">
       <c r="A3" s="6">
         <v>120102</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="4" spans="1:21" s="6" customFormat="1">
       <c r="A4" s="6">
         <v>120103</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="5" spans="1:21" s="6" customFormat="1">
       <c r="A5" s="6">
         <v>120104</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="6" spans="1:21" s="6" customFormat="1">
       <c r="A6" s="6">
         <v>120105</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="7" spans="1:21" s="6" customFormat="1">
       <c r="A7" s="6">
         <v>120106</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="8" spans="1:21" s="6" customFormat="1">
       <c r="A8" s="6">
         <v>120107</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="9" spans="1:21" s="6" customFormat="1">
       <c r="A9" s="6">
         <v>120108</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="10" spans="1:21" s="6" customFormat="1">
       <c r="A10" s="6">
         <v>120109</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="11" spans="1:21" s="6" customFormat="1">
       <c r="A11" s="6">
         <v>120110</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="12" spans="1:21" s="6" customFormat="1">
       <c r="A12" s="6">
         <v>120111</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="13" spans="1:21" s="6" customFormat="1">
       <c r="A13" s="6">
         <v>120112</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="6" customFormat="1" hidden="1">
+    <row r="14" spans="1:21" s="6" customFormat="1">
       <c r="A14" s="6">
         <v>120113</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="7" customFormat="1" hidden="1">
+    <row r="15" spans="1:21" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>120114</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="7" customFormat="1" hidden="1">
+    <row r="16" spans="1:21" s="7" customFormat="1">
       <c r="A16" s="6">
         <v>120115</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="17" spans="1:35" s="7" customFormat="1">
       <c r="A17" s="6">
         <v>120116</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" hidden="1">
+    <row r="18" spans="1:35">
       <c r="A18" s="13">
         <v>130101</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1">
+    <row r="19" spans="1:35">
       <c r="A19" s="13">
         <v>130102</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1">
+    <row r="20" spans="1:35">
       <c r="A20" s="13">
         <v>130103</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="21" spans="1:35" s="6" customFormat="1">
       <c r="A21" s="14">
         <v>130104</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="22" spans="1:35" s="6" customFormat="1">
       <c r="A22" s="14">
         <v>130105</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35" hidden="1">
+    <row r="23" spans="1:35">
       <c r="A23" s="14">
         <v>130106</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" hidden="1">
+    <row r="24" spans="1:35">
       <c r="A24" s="15">
         <v>130107</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
     </row>
-    <row r="25" spans="1:35" hidden="1">
+    <row r="25" spans="1:35">
       <c r="A25" s="15">
         <v>130108</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
     </row>
-    <row r="26" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="26" spans="1:35" s="6" customFormat="1">
       <c r="A26" s="6">
         <v>130201</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" hidden="1">
+    <row r="27" spans="1:35">
       <c r="A27" s="6">
         <v>130202</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35" hidden="1">
+    <row r="28" spans="1:35">
       <c r="A28" s="6">
         <v>130203</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="1:35" hidden="1">
+    <row r="29" spans="1:35">
       <c r="A29" s="6">
         <v>130204</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="15" customFormat="1" hidden="1">
+    <row r="30" spans="1:35" s="15" customFormat="1">
       <c r="A30" s="6">
         <v>130205</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" s="15" customFormat="1" hidden="1">
+    <row r="31" spans="1:35" s="15" customFormat="1">
       <c r="A31" s="6">
         <v>130301</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
-    <row r="32" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="32" spans="1:35" s="6" customFormat="1">
       <c r="A32" s="6">
         <v>130302</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35" hidden="1">
+    <row r="33" spans="1:35">
       <c r="A33" s="6">
         <v>130303</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1">
+    <row r="34" spans="1:35">
       <c r="A34" s="6">
         <v>130304</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="35" spans="1:35" s="6" customFormat="1">
       <c r="A35" s="6">
         <v>130305</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1">
+    <row r="36" spans="1:35">
       <c r="A36" s="6">
         <v>130306</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="37" spans="1:35" s="6" customFormat="1">
       <c r="A37" s="6">
         <v>220101</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="38" spans="1:35" s="6" customFormat="1">
       <c r="A38" s="6">
         <v>220102</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="39" spans="1:35" s="6" customFormat="1">
       <c r="A39" s="6">
         <v>220103</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="40" spans="1:35" s="6" customFormat="1">
       <c r="A40" s="6">
         <v>220104</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1">
+    <row r="41" spans="1:35">
       <c r="A41" s="6">
         <v>220105</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" spans="1:35" hidden="1">
+    <row r="42" spans="1:35">
       <c r="A42" s="6">
         <v>220106</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
     </row>
-    <row r="43" spans="1:35" hidden="1">
+    <row r="43" spans="1:35">
       <c r="A43" s="6">
         <v>220107</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="AH43" s="25"/>
       <c r="AI43" s="25"/>
     </row>
-    <row r="44" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="44" spans="1:35" s="6" customFormat="1">
       <c r="A44" s="17">
         <v>230101</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
     </row>
-    <row r="45" spans="1:35" s="6" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="45" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="17">
         <v>230201</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
     </row>
-    <row r="46" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="46" spans="1:35" s="6" customFormat="1">
       <c r="A46" s="17">
         <v>230202</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
     </row>
-    <row r="47" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="47" spans="1:35" s="6" customFormat="1">
       <c r="A47" s="10">
         <v>230203</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="48" spans="1:35" s="6" customFormat="1">
       <c r="A48" s="10">
         <v>230204</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="49" spans="1:35" s="6" customFormat="1">
       <c r="A49" s="6">
         <v>230301</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1">
+    <row r="50" spans="1:35">
       <c r="A50" s="6">
         <v>230302</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="1:35" hidden="1">
+    <row r="51" spans="1:35">
       <c r="A51" s="6">
         <v>230303</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="1:35" hidden="1">
+    <row r="52" spans="1:35">
       <c r="A52" s="6">
         <v>230304</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" hidden="1">
+    <row r="53" spans="1:35">
       <c r="A53" s="6">
         <v>230401</v>
       </c>
@@ -6417,7 +6417,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="54" spans="1:35" s="6" customFormat="1">
       <c r="A54" s="17">
         <v>230402</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="55" spans="1:35" s="6" customFormat="1">
       <c r="A55" s="17">
         <v>230501</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="56" spans="1:35" s="6" customFormat="1">
       <c r="A56" s="6">
         <v>320101</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="57" spans="1:35" s="6" customFormat="1">
       <c r="A57" s="6">
         <v>320102</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="58" spans="1:35" s="6" customFormat="1">
       <c r="A58" s="6">
         <v>320103</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="59" spans="1:35" s="6" customFormat="1">
       <c r="A59" s="6">
         <v>320104</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="60" spans="1:35" s="6" customFormat="1">
       <c r="A60" s="6">
         <v>320105</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="61" spans="1:35" s="6" customFormat="1">
       <c r="A61" s="6">
         <v>320106</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="62" spans="1:35" s="6" customFormat="1">
       <c r="A62" s="6">
         <v>320107</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="83" spans="1:35" s="6" customFormat="1">
       <c r="A83" s="6">
         <v>420101</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="84" spans="1:35" s="7" customFormat="1">
       <c r="A84" s="6">
         <v>420102</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
     </row>
-    <row r="85" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="85" spans="1:35" s="7" customFormat="1">
       <c r="A85" s="6">
         <v>420103</v>
       </c>
@@ -8523,7 +8523,7 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
     </row>
-    <row r="86" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="86" spans="1:35" s="6" customFormat="1">
       <c r="A86" s="6">
         <v>420104</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="87" spans="1:35" s="7" customFormat="1">
       <c r="A87" s="6">
         <v>420105</v>
       </c>
@@ -8662,7 +8662,7 @@
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
     </row>
-    <row r="88" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="88" spans="1:35" s="6" customFormat="1">
       <c r="A88" s="6">
         <v>420106</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="89" spans="1:35" s="6" customFormat="1">
       <c r="A89" s="6">
         <v>420107</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="AH89" s="7"/>
       <c r="AI89" s="7"/>
     </row>
-    <row r="90" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="90" spans="1:35" s="11" customFormat="1">
       <c r="A90" s="6">
         <v>420108</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="AH90" s="7"/>
       <c r="AI90" s="7"/>
     </row>
-    <row r="91" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="91" spans="1:35" s="11" customFormat="1">
       <c r="A91" s="6">
         <v>420109</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="AH91" s="7"/>
       <c r="AI91" s="7"/>
     </row>
-    <row r="92" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="92" spans="1:35" s="7" customFormat="1">
       <c r="A92" s="6">
         <v>430101</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
     </row>
-    <row r="93" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="93" spans="1:35" s="11" customFormat="1">
       <c r="A93" s="6">
         <v>430102</v>
       </c>
@@ -9109,7 +9109,7 @@
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
     </row>
-    <row r="94" spans="1:35" s="6" customFormat="1" hidden="1">
+    <row r="94" spans="1:35" s="6" customFormat="1">
       <c r="A94" s="6">
         <v>430103</v>
       </c>
@@ -9186,7 +9186,7 @@
       <c r="AH94" s="11"/>
       <c r="AI94" s="11"/>
     </row>
-    <row r="95" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="95" spans="1:35" s="11" customFormat="1">
       <c r="A95" s="6">
         <v>430104</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="96" spans="1:35" s="11" customFormat="1">
       <c r="A96" s="6">
         <v>430105</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="97" spans="1:35" s="11" customFormat="1">
       <c r="A97" s="6">
         <v>430106</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="98" spans="1:35" s="11" customFormat="1">
       <c r="A98" s="6">
         <v>430107</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="99" spans="1:35" s="11" customFormat="1">
       <c r="A99" s="6">
         <v>430108</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="100" spans="1:35" s="11" customFormat="1">
       <c r="A100" s="6">
         <v>430109</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="101" spans="1:35" s="11" customFormat="1">
       <c r="A101" s="6">
         <v>430110</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="102" spans="1:35" s="11" customFormat="1">
       <c r="A102" s="6">
         <v>430111</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="103" spans="1:35" s="7" customFormat="1">
       <c r="A103" s="6">
         <v>430112</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="AH103" s="11"/>
       <c r="AI103" s="11"/>
     </row>
-    <row r="104" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="104" spans="1:35" s="7" customFormat="1">
       <c r="A104" s="6">
         <v>430113</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="AH104" s="11"/>
       <c r="AI104" s="11"/>
     </row>
-    <row r="105" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="105" spans="1:35" s="7" customFormat="1">
       <c r="A105" s="6">
         <v>430114</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="AH105" s="11"/>
       <c r="AI105" s="11"/>
     </row>
-    <row r="106" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="106" spans="1:35" s="7" customFormat="1">
       <c r="A106" s="6">
         <v>430201</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="107" spans="1:35" s="7" customFormat="1">
       <c r="A107" s="6">
         <v>430202</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="108" spans="1:35" s="7" customFormat="1">
       <c r="A108" s="6">
         <v>430203</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="109" spans="1:35" s="23" customFormat="1">
       <c r="A109" s="6">
         <v>430204</v>
       </c>
@@ -10176,7 +10176,7 @@
       <c r="AH109" s="7"/>
       <c r="AI109" s="7"/>
     </row>
-    <row r="110" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="110" spans="1:35" s="7" customFormat="1">
       <c r="A110" s="6">
         <v>430205</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="111" spans="1:35" s="23" customFormat="1">
       <c r="A111" s="6">
         <v>430206</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
     </row>
-    <row r="112" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="112" spans="1:35" s="7" customFormat="1">
       <c r="A112" s="6">
         <v>430207</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="113" spans="1:35" s="7" customFormat="1">
       <c r="A113" s="6">
         <v>430208</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="114" spans="1:35" s="7" customFormat="1">
       <c r="A114" s="6">
         <v>430209</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="115" spans="1:35" s="7" customFormat="1">
       <c r="A115" s="29">
         <v>430301</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="116" spans="1:35" s="23" customFormat="1">
       <c r="A116" s="29">
         <v>430302</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="AH116" s="7"/>
       <c r="AI116" s="7"/>
     </row>
-    <row r="117" spans="1:35" s="25" customFormat="1" hidden="1">
+    <row r="117" spans="1:35" s="25" customFormat="1">
       <c r="A117" s="29">
         <v>430303</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="AH117" s="11"/>
       <c r="AI117" s="11"/>
     </row>
-    <row r="118" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="118" spans="1:35" s="11" customFormat="1">
       <c r="A118" s="29">
         <v>430304</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="119" spans="1:35" s="11" customFormat="1">
       <c r="A119" s="29">
         <v>430305</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="120" spans="1:35" s="11" customFormat="1">
       <c r="A120" s="29">
         <v>430306</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="121" spans="1:35" s="23" customFormat="1">
       <c r="A121" s="29">
         <v>430307</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="AH121" s="7"/>
       <c r="AI121" s="7"/>
     </row>
-    <row r="122" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="122" spans="1:35" s="23" customFormat="1">
       <c r="A122" s="7">
         <v>430401</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="123" spans="1:35" s="23" customFormat="1">
       <c r="A123" s="7">
         <v>430402</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:35" s="23" customFormat="1" hidden="1">
+    <row r="124" spans="1:35" s="23" customFormat="1">
       <c r="A124" s="7">
         <v>430403</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="125" spans="1:35" s="11" customFormat="1">
       <c r="A125" s="7">
         <v>430404</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="AH125" s="23"/>
       <c r="AI125" s="23"/>
     </row>
-    <row r="126" spans="1:35" s="11" customFormat="1" hidden="1">
+    <row r="126" spans="1:35" s="11" customFormat="1">
       <c r="A126" s="7">
         <v>430405</v>
       </c>
@@ -11310,7 +11310,7 @@
       <c r="AH126" s="23"/>
       <c r="AI126" s="23"/>
     </row>
-    <row r="127" spans="1:35" s="7" customFormat="1" hidden="1">
+    <row r="127" spans="1:35" s="7" customFormat="1">
       <c r="A127" s="7">
         <v>430406</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="AH127" s="23"/>
       <c r="AI127" s="23"/>
     </row>
-    <row r="128" spans="1:35" hidden="1">
+    <row r="128" spans="1:35">
       <c r="A128" s="7">
         <v>430407</v>
       </c>
@@ -12091,18 +12091,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AI136">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Seguridad Social"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Resultados"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -749,12 +749,6 @@
     <t>2014-2020</t>
   </si>
   <si>
-    <t>SINADI - MSP</t>
-  </si>
-  <si>
-    <t>UMAD con base en SINADI - MSP</t>
-  </si>
-  <si>
     <t>Promedio de camas de cuidados moderados</t>
   </si>
   <si>
@@ -1121,24 +1115,6 @@
     <t>DIMENSIÓN</t>
   </si>
   <si>
-    <t>El indicador mide el promedio anual de consultas urgentes y no urgentes, en consultorio y en domicilio, por usuario.</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de consultas no urgentes, en consultorio y en domicilio, por usuario.</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de consultas urgentes, en consultorio y en domicilio, por usuario.</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de radiologías indicadas por usuario (en todas las modalidades de atención).</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de recetas de medicamentos indicadas por usuario (en consultas urgentes, no urgentes e internación).</t>
-  </si>
-  <si>
-    <t>El indicador mide la razón de las consultas médicas no urgentes sobre las consultas médicas urgentes y busca reflejar el control periódico, la prevención y detección temprana de las afecciones de salud.</t>
-  </si>
-  <si>
     <t>El indicador del índice de satisfacción global con la institución de salud de los usuarios según tipo de institución prestadora de salud del SNIS se construye a partir de las respuestas obtenidas en la siguiente pregunta de la Encuesta de Satisfacción de PNA: Teniendo en cuenta todos los aspectos evaluados ¿Cuán satisfecho se encuentra con (Institución)?</t>
   </si>
   <si>
@@ -1325,15 +1301,6 @@
     <t>El indicador refleja la distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente.</t>
   </si>
   <si>
-    <t>El indicador mide el promedio anual de cirugías por 1000 usuarios.</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de cirugías coordinadas por 1000 usuarios.</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de cirugías urgentes por 1000 usuarios.</t>
-  </si>
-  <si>
     <t>El indicador mide la cantidad anual de defunciones registradas en el año en relación a la población del país proyectada según censo 1996.</t>
   </si>
   <si>
@@ -1346,9 +1313,6 @@
     <t>El indicador de esperanza de vida al nacer representa la duración media de la vida de hombres y mujeres, que integran una cohorte hipotética de nacimientos, sometidos en todas las edades a los riesgos de mortalidad del período en estudio. .</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje partos registrados en el período anual considerado que requirieron la realización de cesárea.</t>
-  </si>
-  <si>
     <t>El indicador mide el ratio entre cantidad de estudiantes y docentes en la educación primaria privada.</t>
   </si>
   <si>
@@ -1415,12 +1379,6 @@
     <t>El indicador mide el porcentaje de cobertura de vacunación en nacidos vivos o niños y niñas (de acuerdo al esquema de vacunación). Las vacunas consideradas son: primera dosis contra tuberculosis (BCG); primera y tercera dosis contra difteria, tétanos y tosferina (DTP1 y DTP2); tercera dosis contra hepatitis B (HepB3); tercera dosis contra Haemophilus influenzae tipo b (Hib3); primera y tercera dosis contra poliomielitis (IPV1 y Pol3); primera y segunda dosis contra el sarampión (MCV1 y MCV2); tercera dosis antineumocócica (PcV3) y primera dosis contra la rubéola (RCV1).</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de mujeres con partos registrados en el período anual considerado, cuyo embarazo fue captado en el primer trimestre.</t>
-  </si>
-  <si>
-    <t>El indicador mide el promedio anual de exámenes de laboratorio indicados por usuario (en consultas urgentes, no urgentes e internación).</t>
-  </si>
-  <si>
     <t>Para cada año calcular: Porcentaje de usuarios según tipo de institución prestadora de salud del SNIS que en la Encuesta de Satisfacción de PNA respondieron que son Muy fácil y Fácil a la pregunta: Los trámites y gestiones que debe realizar en su Institución para consultar médico de medicina general o especialista, ¿le resultan fáciles o difíciles?</t>
   </si>
   <si>
@@ -2190,6 +2148,48 @@
   </si>
   <si>
     <t>ASCENDENCIA_POB</t>
+  </si>
+  <si>
+    <t>SINADI - MSP (*2020 datos preliminares)</t>
+  </si>
+  <si>
+    <t>UMAD con base en SINADI - MSP (*2020 datos preliminares)</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de consultas urgentes y no urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de consultas no urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de consultas urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de recetas de medicamentos indicadas por usuario (en consultas urgentes, no urgentes e internación). El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de exámenes de laboratorio indicados por usuario (en consultas urgentes, no urgentes e internación). El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de radiologías indicadas por usuario (en todas las modalidades de atención). El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de cirugías por 1000 usuarios. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de cirugías coordinadas por 1000 usuarios. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de cirugías urgentes por 1000 usuarios. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide la razón de las consultas médicas no urgentes sobre las consultas médicas urgentes y busca reflejar el control periódico, la prevención y detección temprana de las afecciones de salud. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres con partos registrados en el período anual considerado, cuyo embarazo fue captado en el primer trimestre. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje partos registrados en el período anual considerado que requirieron la realización de cesárea. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
   </si>
 </sst>
 </file>
@@ -2730,10 +2730,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="U66" sqref="U66"/>
+      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2766,67 +2766,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2843,13 +2843,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>114</v>
@@ -2861,16 +2861,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2905,13 +2905,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -2923,16 +2923,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -2967,13 +2967,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -2985,16 +2985,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3029,13 +3029,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3053,10 +3053,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3091,16 +3091,16 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3115,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3153,16 +3153,16 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3177,10 +3177,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3215,13 +3215,13 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>115</v>
@@ -3239,10 +3239,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3277,13 +3277,13 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>30</v>
@@ -3301,10 +3301,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3339,13 +3339,13 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>86</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3401,13 +3401,13 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -3425,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3463,16 +3463,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3487,13 +3487,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3525,16 +3525,16 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>94</v>
@@ -3549,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3587,13 +3587,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
@@ -3608,13 +3608,13 @@
         <v>95</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3643,22 +3643,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3667,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>8</v>
@@ -3705,22 +3705,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3729,7 +3729,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>8</v>
@@ -3767,22 +3767,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3791,7 +3791,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>8</v>
@@ -3835,13 +3835,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>139</v>
@@ -3868,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3900,13 +3900,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>140</v>
@@ -3933,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -3965,13 +3965,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>141</v>
@@ -3998,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>148</v>
@@ -4063,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>149</v>
@@ -4142,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
@@ -4221,7 +4221,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4253,16 +4253,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>5</v>
@@ -4286,7 +4286,7 @@
         <v>234</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4332,13 +4332,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>236</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>235</v>
@@ -4365,7 +4365,7 @@
         <v>234</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4411,13 +4411,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>142</v>
@@ -4435,16 +4435,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4476,13 +4476,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>143</v>
@@ -4500,16 +4500,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4555,13 +4555,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4579,16 +4579,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>5</v>
@@ -4658,16 +4658,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4699,16 +4699,16 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>5</v>
@@ -4723,16 +4723,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>144</v>
@@ -4802,10 +4802,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4855,13 +4855,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>145</v>
@@ -4879,10 +4879,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4932,13 +4932,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -4956,10 +4956,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -4995,13 +4995,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5019,10 +5019,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5074,13 +5074,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5139,13 +5139,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>153</v>
@@ -5172,7 +5172,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5204,13 +5204,13 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>119</v>
@@ -5222,16 +5222,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5266,13 +5266,13 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>121</v>
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5328,16 +5328,16 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5346,16 +5346,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5390,13 +5390,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5414,10 +5414,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5452,19 +5452,19 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>6</v>
@@ -5476,14 +5476,14 @@
         <v>8</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q41" s="6">
         <v>0</v>
@@ -5529,38 +5529,38 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q42" s="6">
         <v>0</v>
@@ -5606,38 +5606,38 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="I43" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q43" s="6">
         <v>0</v>
@@ -5683,13 +5683,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -5716,7 +5716,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5762,13 +5762,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5795,7 +5795,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5841,13 +5841,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>155</v>
@@ -5874,7 +5874,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5920,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>189</v>
@@ -5950,10 +5950,10 @@
         <v>195</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q47" s="6">
         <v>1</v>
@@ -5985,13 +5985,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6018,7 +6018,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6050,16 +6050,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6080,10 +6080,10 @@
         <v>195</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6115,16 +6115,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6145,10 +6145,10 @@
         <v>195</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6224,10 +6224,10 @@
         <v>195</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6273,16 +6273,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6303,10 +6303,10 @@
         <v>195</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6352,16 +6352,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6382,10 +6382,10 @@
         <v>195</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6431,13 +6431,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>156</v>
@@ -6464,7 +6464,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6510,13 +6510,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>157</v>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6587,13 +6587,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6605,16 +6605,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6649,13 +6649,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6673,10 +6673,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6711,16 +6711,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6773,13 +6773,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6797,10 +6797,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6835,13 +6835,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6859,10 +6859,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6897,13 +6897,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6921,10 +6921,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -6959,13 +6959,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -6983,10 +6983,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7021,13 +7021,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7039,7 +7039,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>8</v>
@@ -7086,13 +7086,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7119,7 +7119,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q64" s="6">
         <v>1</v>
@@ -7151,16 +7151,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7184,7 +7184,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7222,10 +7222,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7249,7 +7249,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7281,16 +7281,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7346,16 +7346,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7411,13 +7411,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>159</v>
@@ -7444,7 +7444,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
@@ -7476,16 +7476,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7541,16 +7541,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7606,16 +7606,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7671,16 +7671,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7736,16 +7736,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7801,16 +7801,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7866,16 +7866,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7931,16 +7931,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -7996,16 +7996,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8126,16 +8126,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8191,16 +8191,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8256,13 +8256,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8321,13 +8321,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8339,16 +8339,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8383,13 +8383,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8407,10 +8407,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8460,16 +8460,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8478,16 +8478,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8537,13 +8537,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8561,10 +8561,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8599,16 +8599,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>238</v>
@@ -8623,10 +8623,10 @@
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8676,34 +8676,34 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8738,16 +8738,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>238</v>
@@ -8756,20 +8756,20 @@
         <v>239</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q89" s="6">
         <v>0</v>
@@ -8815,38 +8815,38 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q90" s="6">
         <v>0</v>
@@ -8886,22 +8886,22 @@
         <v>70</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -8916,14 +8916,14 @@
         <v>8</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O91" s="7"/>
       <c r="P91" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q91" s="6">
         <v>0</v>
@@ -8966,16 +8966,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>190</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>191</v>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9043,7 +9043,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9052,10 +9052,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>192</v>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9120,28 +9120,28 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
@@ -9197,10 +9197,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>197</v>
@@ -9209,7 +9209,7 @@
         <v>198</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>199</v>
@@ -9259,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>231</v>
@@ -9271,7 +9271,7 @@
         <v>203</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>199</v>
@@ -9321,19 +9321,19 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>204</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>199</v>
@@ -9383,10 +9383,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>232</v>
@@ -9395,7 +9395,7 @@
         <v>205</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>206</v>
@@ -9445,10 +9445,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>207</v>
@@ -9457,7 +9457,7 @@
         <v>208</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>209</v>
@@ -9507,10 +9507,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>225</v>
@@ -9519,7 +9519,7 @@
         <v>214</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>215</v>
@@ -9569,10 +9569,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>226</v>
@@ -9581,7 +9581,7 @@
         <v>217</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>215</v>
@@ -9631,10 +9631,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>227</v>
@@ -9643,7 +9643,7 @@
         <v>218</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>215</v>
@@ -9693,10 +9693,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>228</v>
@@ -9705,7 +9705,7 @@
         <v>219</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>215</v>
@@ -9770,10 +9770,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>229</v>
@@ -9782,7 +9782,7 @@
         <v>220</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>215</v>
@@ -9847,10 +9847,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>230</v>
@@ -9859,7 +9859,7 @@
         <v>221</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>215</v>
@@ -9927,37 +9927,37 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="F106" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>668</v>
-      </c>
       <c r="G106" s="6" t="s">
-        <v>365</v>
+        <v>710</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q106" s="6">
         <v>0</v>
@@ -9989,37 +9989,37 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="F107" s="8" t="s">
-        <v>669</v>
-      </c>
       <c r="G107" s="6" t="s">
-        <v>366</v>
+        <v>711</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q107" s="6">
         <v>0</v>
@@ -10051,37 +10051,37 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>670</v>
-      </c>
       <c r="G108" s="6" t="s">
-        <v>367</v>
+        <v>712</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q108" s="6">
         <v>0</v>
@@ -10113,38 +10113,38 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q109" s="6">
         <v>0</v>
@@ -10190,37 +10190,37 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>464</v>
+        <v>714</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q110" s="6">
         <v>0</v>
@@ -10252,38 +10252,38 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>368</v>
+        <v>715</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q111" s="6">
         <v>0</v>
@@ -10329,37 +10329,37 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I112" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q112" s="6">
         <v>0</v>
@@ -10391,37 +10391,37 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>434</v>
+        <v>717</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q113" s="6">
         <v>0</v>
@@ -10453,37 +10453,37 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>435</v>
+        <v>718</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q114" s="6">
         <v>0</v>
@@ -10515,37 +10515,37 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F115" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q115" s="6">
         <v>1</v>
@@ -10577,16 +10577,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>463</v>
+        <v>720</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10595,20 +10595,20 @@
         <v>239</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q116" s="6">
         <v>0</v>
@@ -10654,16 +10654,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10672,7 +10672,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
@@ -10731,7 +10731,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>210</v>
@@ -10740,7 +10740,7 @@
         <v>222</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>211</v>
@@ -10793,7 +10793,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>212</v>
@@ -10802,7 +10802,7 @@
         <v>223</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>211</v>
@@ -10855,7 +10855,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>213</v>
@@ -10864,7 +10864,7 @@
         <v>224</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>211</v>
@@ -10917,16 +10917,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>440</v>
+        <v>721</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10935,20 +10935,20 @@
         <v>239</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q121" s="6">
         <v>0</v>
@@ -10991,38 +10991,38 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K122" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N122" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N122" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="O122" s="7"/>
       <c r="P122" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q122" s="6">
         <v>0</v>
@@ -11051,38 +11051,38 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K123" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N123" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L123" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M123" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N123" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="O123" s="7"/>
       <c r="P123" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q123" s="6">
         <v>0</v>
@@ -11111,38 +11111,38 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F124" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H124" s="23" t="s">
         <v>281</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>283</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K124" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M124" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N124" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L124" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M124" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N124" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="O124" s="7"/>
       <c r="P124" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q124" s="6">
         <v>0</v>
@@ -11171,39 +11171,39 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F125" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H125" s="23" t="s">
         <v>284</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="I125" s="23"/>
       <c r="J125" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K125" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N125" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L125" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M125" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N125" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="O125" s="7"/>
       <c r="P125" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q125" s="6">
         <v>0</v>
@@ -11246,39 +11246,39 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K126" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="N126" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L126" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M126" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N126" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="O126" s="7"/>
       <c r="P126" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q126" s="6">
         <v>0</v>
@@ -11321,38 +11321,38 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F127" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H127" s="23" t="s">
         <v>288</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H127" s="23" t="s">
-        <v>290</v>
       </c>
       <c r="I127" s="23"/>
       <c r="J127" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P127" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q127" s="6">
         <v>0</v>
@@ -11395,19 +11395,19 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="F128" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H128" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="I128" s="23" t="s">
         <v>5</v>
@@ -11419,17 +11419,17 @@
         <v>2017</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O128" s="7"/>
       <c r="P128" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q128" s="6">
         <v>0</v>
@@ -11475,15 +11475,15 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="G129" s="36"/>
       <c r="H129" s="37"/>
       <c r="I129" s="23" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11548,15 +11548,15 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="G130" s="36"/>
       <c r="H130" s="37"/>
       <c r="I130" s="23" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11621,15 +11621,15 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="G131" s="36"/>
       <c r="H131" s="37"/>
       <c r="I131" s="23" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11694,10 +11694,10 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="37"/>
@@ -11767,10 +11767,10 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="G133" s="36"/>
       <c r="H133" s="37"/>
@@ -11840,10 +11840,10 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="G134" s="36"/>
       <c r="H134" s="37"/>
@@ -11913,10 +11913,10 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="F135" s="33" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="G135" s="36"/>
       <c r="H135" s="37"/>
@@ -11986,10 +11986,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="G136" s="36"/>
       <c r="H136" s="37"/>
@@ -12123,7 +12123,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>175</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>177</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -12155,15 +12155,15 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>181</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>182</v>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>183</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>184</v>
@@ -12211,7 +12211,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
@@ -12219,7 +12219,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>186</v>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
@@ -12235,7 +12235,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
@@ -12243,42 +12243,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="738">
   <si>
     <t>id</t>
   </si>
@@ -2190,6 +2190,54 @@
   </si>
   <si>
     <t>El indicador mide el porcentaje partos registrados en el período anual considerado que requirieron la realización de cesárea. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares contributivas.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares contributivas.</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Tarjeta Uruguay Social.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Tarjeta Uruguay Social</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad en el total de hogares pobres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Tarjeta Uruguay Social en el total de hogares pobres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo/Cantidad de niños, niñas y adolescentes)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social/Cantidad de niños, niñas y adolescentes)*100</t>
   </si>
 </sst>
 </file>
@@ -2200,11 +2248,18 @@
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2276,18 +2331,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2301,113 +2350,110 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2730,10 +2776,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129:P136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11477,11 +11523,15 @@
       <c r="E129" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="F129" s="33" t="s">
+      <c r="F129" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="37"/>
+      <c r="G129" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="I129" s="23" t="s">
         <v>704</v>
       </c>
@@ -11550,11 +11600,15 @@
       <c r="E130" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="36" t="s">
         <v>691</v>
       </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="37"/>
+      <c r="G130" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>725</v>
+      </c>
       <c r="I130" s="23" t="s">
         <v>704</v>
       </c>
@@ -11623,11 +11677,15 @@
       <c r="E131" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="F131" s="33" t="s">
+      <c r="F131" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="G131" s="36"/>
-      <c r="H131" s="37"/>
+      <c r="G131" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>727</v>
+      </c>
       <c r="I131" s="23" t="s">
         <v>704</v>
       </c>
@@ -11696,11 +11754,15 @@
       <c r="E132" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="F132" s="33" t="s">
+      <c r="F132" s="36" t="s">
         <v>695</v>
       </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="37"/>
+      <c r="G132" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>729</v>
+      </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
       </c>
@@ -11769,11 +11831,15 @@
       <c r="E133" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="F133" s="33" t="s">
+      <c r="F133" s="36" t="s">
         <v>697</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="37"/>
+      <c r="G133" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>731</v>
+      </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
       </c>
@@ -11842,11 +11908,15 @@
       <c r="E134" s="32" t="s">
         <v>698</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="37"/>
+      <c r="G134" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>733</v>
+      </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
       </c>
@@ -11915,11 +11985,15 @@
       <c r="E135" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="F135" s="33" t="s">
+      <c r="F135" s="36" t="s">
         <v>701</v>
       </c>
-      <c r="G135" s="36"/>
-      <c r="H135" s="37"/>
+      <c r="G135" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>735</v>
+      </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
       </c>
@@ -11988,11 +12062,15 @@
       <c r="E136" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="F136" s="33" t="s">
+      <c r="F136" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="G136" s="36"/>
-      <c r="H136" s="37"/>
+      <c r="G136" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>737</v>
+      </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
       </c>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -959,12 +959,6 @@
     <t>WHO and UNICEF estimates of immunization coverage (2019 revision)</t>
   </si>
   <si>
-    <t>Para cada año calcular: (Cantidad de nacidos vivos -o niños y niñas- inmunizados según tipo de vacuna / Total de nacidos vivos -o niños y niñas-)*100</t>
-  </si>
-  <si>
-    <t>Porcentaje de nacidos vivos o niños inmunizados según tipo de vacuna y dosis (estimación OMS - UNICEF)</t>
-  </si>
-  <si>
     <t>No es un gasto soportable en vivienda aquel cuya erogación tiene como consecuencia que una persona se ubique debajo de la línea de pobreza monetaria.</t>
   </si>
   <si>
@@ -2238,6 +2232,12 @@
   </si>
   <si>
     <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social/Cantidad de niños, niñas y adolescentes)*100</t>
+  </si>
+  <si>
+    <t>Porcentaje de niños y niñas inmunizados según tipo de vacuna y dosis (estimación OMS - UNICEF)</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de niños y niñas inmunizados según tipo de vacuna / Total de niños y niñas)*100</t>
   </si>
 </sst>
 </file>
@@ -2776,10 +2776,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129:P136"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2812,67 +2812,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="S1" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>705</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2889,13 +2889,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>114</v>
@@ -2907,16 +2907,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2951,13 +2951,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -2969,16 +2969,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -3013,13 +3013,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -3031,16 +3031,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3075,13 +3075,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3099,10 +3099,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3137,16 +3137,16 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3161,10 +3161,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3199,16 +3199,16 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3223,10 +3223,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3261,13 +3261,13 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>115</v>
@@ -3285,10 +3285,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3323,13 +3323,13 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>30</v>
@@ -3347,10 +3347,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3385,13 +3385,13 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>86</v>
@@ -3409,10 +3409,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3447,13 +3447,13 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -3471,10 +3471,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3509,16 +3509,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3533,13 +3533,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3571,13 +3571,13 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>297</v>
@@ -3595,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3633,13 +3633,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
@@ -3657,10 +3657,10 @@
         <v>298</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3695,16 +3695,16 @@
         <v>305</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>307</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3757,16 +3757,16 @@
         <v>305</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>306</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3819,16 +3819,16 @@
         <v>305</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3881,13 +3881,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>139</v>
@@ -3914,7 +3914,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3946,13 +3946,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>140</v>
@@ -3979,7 +3979,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4011,13 +4011,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>141</v>
@@ -4044,7 +4044,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4076,13 +4076,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>148</v>
@@ -4109,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>149</v>
@@ -4188,7 +4188,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4234,13 +4234,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
@@ -4267,7 +4267,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4299,13 +4299,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>299</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>300</v>
@@ -4332,7 +4332,7 @@
         <v>234</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4378,13 +4378,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>236</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>235</v>
@@ -4411,7 +4411,7 @@
         <v>234</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4457,13 +4457,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>142</v>
@@ -4481,16 +4481,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>143</v>
@@ -4546,16 +4546,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4601,13 +4601,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4625,16 +4625,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4680,16 +4680,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>5</v>
@@ -4704,16 +4704,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4745,16 +4745,16 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>5</v>
@@ -4769,16 +4769,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4824,13 +4824,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>144</v>
@@ -4848,10 +4848,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4901,13 +4901,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>145</v>
@@ -4925,10 +4925,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4978,13 +4978,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -5002,10 +5002,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -5041,13 +5041,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5065,10 +5065,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5120,13 +5120,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5185,13 +5185,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>153</v>
@@ -5218,7 +5218,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5250,13 +5250,13 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>119</v>
@@ -5268,16 +5268,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5312,13 +5312,13 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>121</v>
@@ -5336,10 +5336,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5374,16 +5374,16 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5392,16 +5392,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5436,13 +5436,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5460,10 +5460,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5498,19 +5498,19 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>6</v>
@@ -5522,14 +5522,14 @@
         <v>8</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q41" s="6">
         <v>0</v>
@@ -5575,38 +5575,38 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q42" s="6">
         <v>0</v>
@@ -5652,38 +5652,38 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="I43" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q43" s="6">
         <v>0</v>
@@ -5729,13 +5729,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -5762,7 +5762,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5808,13 +5808,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5841,7 +5841,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5887,13 +5887,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>155</v>
@@ -5920,7 +5920,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5966,13 +5966,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>189</v>
@@ -5996,10 +5996,10 @@
         <v>195</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q47" s="6">
         <v>1</v>
@@ -6031,13 +6031,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6064,7 +6064,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6096,16 +6096,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6126,10 +6126,10 @@
         <v>195</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6161,16 +6161,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6191,10 +6191,10 @@
         <v>195</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6240,16 +6240,16 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6270,10 +6270,10 @@
         <v>195</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6319,16 +6319,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6349,10 +6349,10 @@
         <v>195</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6398,16 +6398,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6428,10 +6428,10 @@
         <v>195</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6477,13 +6477,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>156</v>
@@ -6510,7 +6510,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6556,13 +6556,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>157</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6633,13 +6633,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6651,16 +6651,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6695,13 +6695,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6719,10 +6719,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6757,16 +6757,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6775,16 +6775,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6819,13 +6819,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6843,10 +6843,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6881,13 +6881,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6905,10 +6905,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6943,13 +6943,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6967,10 +6967,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -7005,13 +7005,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -7029,10 +7029,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7067,13 +7067,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7085,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>8</v>
@@ -7132,13 +7132,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>302</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7165,7 +7165,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q64" s="6">
         <v>1</v>
@@ -7197,16 +7197,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7230,7 +7230,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7268,10 +7268,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7295,7 +7295,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7327,16 +7327,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7392,16 +7392,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7457,13 +7457,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>301</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>159</v>
@@ -7490,7 +7490,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
@@ -7522,16 +7522,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7587,16 +7587,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7652,16 +7652,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7717,16 +7717,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7782,16 +7782,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7847,16 +7847,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7912,16 +7912,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7977,16 +7977,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -8042,16 +8042,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8107,16 +8107,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8172,16 +8172,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8237,16 +8237,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8302,13 +8302,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8367,13 +8367,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8385,16 +8385,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8429,13 +8429,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8453,10 +8453,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8506,16 +8506,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8524,16 +8524,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8583,13 +8583,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8607,10 +8607,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8645,16 +8645,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>238</v>
@@ -8669,10 +8669,10 @@
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8722,16 +8722,16 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>241</v>
@@ -8746,10 +8746,10 @@
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8784,16 +8784,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>243</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>238</v>
@@ -8808,10 +8808,10 @@
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
@@ -8861,16 +8861,16 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>246</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>241</v>
@@ -8885,10 +8885,10 @@
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
@@ -8938,16 +8938,16 @@
         <v>305</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>312</v>
+        <v>736</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>311</v>
+        <v>737</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -9012,16 +9012,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>190</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>191</v>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9098,10 +9098,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>192</v>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9166,19 +9166,19 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>293</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>294</v>
@@ -9243,10 +9243,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>197</v>
@@ -9255,7 +9255,7 @@
         <v>198</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>199</v>
@@ -9305,10 +9305,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>231</v>
@@ -9317,7 +9317,7 @@
         <v>203</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>199</v>
@@ -9367,19 +9367,19 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>204</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>199</v>
@@ -9429,10 +9429,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>232</v>
@@ -9441,7 +9441,7 @@
         <v>205</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>206</v>
@@ -9491,10 +9491,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>207</v>
@@ -9503,7 +9503,7 @@
         <v>208</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>209</v>
@@ -9553,10 +9553,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>225</v>
@@ -9565,7 +9565,7 @@
         <v>214</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>215</v>
@@ -9615,10 +9615,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>226</v>
@@ -9627,7 +9627,7 @@
         <v>217</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>215</v>
@@ -9677,10 +9677,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>227</v>
@@ -9689,7 +9689,7 @@
         <v>218</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>215</v>
@@ -9739,10 +9739,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>228</v>
@@ -9751,7 +9751,7 @@
         <v>219</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>215</v>
@@ -9816,10 +9816,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>229</v>
@@ -9828,7 +9828,7 @@
         <v>220</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>215</v>
@@ -9893,10 +9893,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>230</v>
@@ -9905,7 +9905,7 @@
         <v>221</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>215</v>
@@ -9973,13 +9973,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>258</v>
@@ -9997,10 +9997,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>245</v>
@@ -10035,13 +10035,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>260</v>
@@ -10059,10 +10059,10 @@
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P107" s="7" t="s">
         <v>245</v>
@@ -10097,13 +10097,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>262</v>
@@ -10121,10 +10121,10 @@
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>245</v>
@@ -10159,13 +10159,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>268</v>
@@ -10183,10 +10183,10 @@
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
@@ -10236,13 +10236,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>264</v>
@@ -10260,10 +10260,10 @@
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>245</v>
@@ -10298,13 +10298,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>266</v>
@@ -10322,10 +10322,10 @@
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
@@ -10375,13 +10375,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>247</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>248</v>
@@ -10399,10 +10399,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P112" s="7" t="s">
         <v>245</v>
@@ -10437,13 +10437,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>250</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>251</v>
@@ -10461,10 +10461,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>245</v>
@@ -10499,13 +10499,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>252</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>253</v>
@@ -10523,10 +10523,10 @@
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>245</v>
@@ -10561,13 +10561,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F115" s="21" t="s">
         <v>254</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>255</v>
@@ -10585,10 +10585,10 @@
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P115" s="7" t="s">
         <v>245</v>
@@ -10623,16 +10623,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>271</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10647,10 +10647,10 @@
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
@@ -10700,16 +10700,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10777,7 +10777,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>210</v>
@@ -10786,7 +10786,7 @@
         <v>222</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>211</v>
@@ -10839,7 +10839,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>212</v>
@@ -10848,7 +10848,7 @@
         <v>223</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>211</v>
@@ -10901,7 +10901,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>213</v>
@@ -10910,7 +10910,7 @@
         <v>224</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>211</v>
@@ -10963,16 +10963,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>270</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10987,10 +10987,10 @@
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
@@ -11037,16 +11037,16 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>272</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>273</v>
@@ -11097,13 +11097,13 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>277</v>
@@ -11157,10 +11157,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>279</v>
@@ -11217,10 +11217,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>282</v>
@@ -11292,19 +11292,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>285</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
@@ -11367,10 +11367,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>286</v>
@@ -11441,10 +11441,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>290</v>
@@ -11521,19 +11521,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11598,19 +11598,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11675,19 +11675,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F131" s="36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11752,16 +11752,16 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11829,16 +11829,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11906,16 +11906,16 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11983,16 +11983,16 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12060,16 +12060,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>175</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>177</v>
@@ -12217,7 +12217,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -12225,7 +12225,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -12233,15 +12233,15 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>181</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>182</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>183</v>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>184</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>186</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
@@ -12321,42 +12321,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="739">
   <si>
     <t>id</t>
   </si>
@@ -596,9 +596,6 @@
     <t>Para cada año calcular: (Cantidad de personas que residen en viviendas sin energía eléctrica / Cantidad total de personas en viviendas particulares)*100</t>
   </si>
   <si>
-    <t>Distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente</t>
-  </si>
-  <si>
     <t>Para cada año calcular: (Cantidad de personas según tipo de institución prestadora de salud en la que tienen derechos vigentes / Cantidad de habitantes)*100</t>
   </si>
   <si>
@@ -911,9 +908,6 @@
     <t>Fallecidos cada 1000 habitantes</t>
   </si>
   <si>
-    <t>1996-2019</t>
-  </si>
-  <si>
     <t>Porcentaje de embarazos en madres adolescentes (19 años o menos) sobre el total nacimientos</t>
   </si>
   <si>
@@ -2238,6 +2232,15 @@
   </si>
   <si>
     <t>Para cada año calcular: (Cantidad de niños y niñas inmunizados según tipo de vacuna / Total de niños y niñas)*100</t>
+  </si>
+  <si>
+    <t>1996-2020</t>
+  </si>
+  <si>
+    <t>2000-2020</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
   </si>
 </sst>
 </file>
@@ -2776,10 +2779,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2790,12 +2793,12 @@
     <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="181.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="13" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="13" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
     <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
     <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
@@ -2812,67 +2815,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="S1" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>703</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>704</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2889,13 +2892,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>114</v>
@@ -2907,16 +2910,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2951,13 +2954,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -2969,16 +2972,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -3013,13 +3016,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -3031,16 +3034,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3075,13 +3078,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3099,10 +3102,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3137,16 +3140,16 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3161,10 +3164,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3199,16 +3202,16 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3223,10 +3226,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3261,13 +3264,13 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>115</v>
@@ -3285,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3323,13 +3326,13 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>30</v>
@@ -3347,10 +3350,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3385,13 +3388,13 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>86</v>
@@ -3409,10 +3412,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3447,13 +3450,13 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -3471,10 +3474,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3509,16 +3512,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3533,13 +3536,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3571,16 +3574,16 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>94</v>
@@ -3595,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3633,13 +3636,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
@@ -3654,13 +3657,13 @@
         <v>95</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3689,22 +3692,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3713,16 +3716,16 @@
         <v>6</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>72</v>
@@ -3751,22 +3754,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3775,16 +3778,16 @@
         <v>6</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>72</v>
@@ -3813,22 +3816,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3837,16 +3840,16 @@
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>72</v>
@@ -3881,13 +3884,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>139</v>
@@ -3908,13 +3911,13 @@
         <v>9</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3946,13 +3949,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>140</v>
@@ -3973,13 +3976,13 @@
         <v>9</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4011,13 +4014,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>141</v>
@@ -4038,13 +4041,13 @@
         <v>9</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4076,13 +4079,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>148</v>
@@ -4103,13 +4106,13 @@
         <v>9</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4155,13 +4158,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>149</v>
@@ -4182,13 +4185,13 @@
         <v>9</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4234,13 +4237,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
@@ -4261,13 +4264,13 @@
         <v>9</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4299,16 +4302,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>5</v>
@@ -4326,13 +4329,13 @@
         <v>9</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4378,16 +4381,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>5</v>
@@ -4405,13 +4408,13 @@
         <v>9</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4457,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>142</v>
@@ -4481,16 +4484,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4522,13 +4525,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>143</v>
@@ -4546,16 +4549,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4601,13 +4604,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4625,16 +4628,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4680,16 +4683,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>5</v>
@@ -4704,16 +4707,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4745,16 +4748,16 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>5</v>
@@ -4769,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4824,13 +4827,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>144</v>
@@ -4848,10 +4851,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4901,13 +4904,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>145</v>
@@ -4925,10 +4928,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4978,13 +4981,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -5002,10 +5005,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -5041,13 +5044,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5065,10 +5068,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5120,13 +5123,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5147,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>23</v>
@@ -5185,13 +5188,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>153</v>
@@ -5212,13 +5215,13 @@
         <v>9</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5250,13 +5253,13 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>119</v>
@@ -5268,16 +5271,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5312,13 +5315,13 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>121</v>
@@ -5336,10 +5339,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5374,16 +5377,16 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5392,16 +5395,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5436,13 +5439,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5460,10 +5463,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5498,38 +5501,38 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q41" s="6">
         <v>0</v>
@@ -5575,38 +5578,38 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q42" s="6">
         <v>0</v>
@@ -5652,38 +5655,38 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="I43" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q43" s="6">
         <v>0</v>
@@ -5729,13 +5732,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -5756,13 +5759,13 @@
         <v>9</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O44" s="13" t="s">
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5808,13 +5811,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5835,13 +5838,13 @@
         <v>9</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O45" s="13" t="s">
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5887,13 +5890,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>155</v>
@@ -5914,13 +5917,13 @@
         <v>9</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5966,13 +5969,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>189</v>
@@ -5993,13 +5996,13 @@
         <v>9</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q47" s="6">
         <v>1</v>
@@ -6031,13 +6034,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6058,13 +6061,13 @@
         <v>9</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6096,16 +6099,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6123,13 +6126,13 @@
         <v>9</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6161,16 +6164,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6188,13 +6191,13 @@
         <v>9</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6240,16 +6243,16 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6267,13 +6270,13 @@
         <v>9</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6319,16 +6322,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6346,13 +6349,13 @@
         <v>9</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6398,16 +6401,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6425,13 +6428,13 @@
         <v>9</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6477,13 +6480,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>156</v>
@@ -6504,13 +6507,13 @@
         <v>9</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O54" s="13" t="s">
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6556,13 +6559,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>157</v>
@@ -6583,11 +6586,11 @@
         <v>9</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6633,13 +6636,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6651,16 +6654,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6695,13 +6698,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6719,10 +6722,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6757,16 +6760,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6775,16 +6778,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6819,13 +6822,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6843,10 +6846,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6881,13 +6884,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6905,10 +6908,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6943,13 +6946,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6967,10 +6970,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -7005,13 +7008,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -7029,10 +7032,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7067,13 +7070,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7085,7 +7088,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>8</v>
@@ -7094,7 +7097,7 @@
         <v>9</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>54</v>
@@ -7132,13 +7135,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7159,13 +7162,13 @@
         <v>9</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q64" s="6">
         <v>1</v>
@@ -7197,16 +7200,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7224,13 +7227,13 @@
         <v>9</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7268,10 +7271,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7289,13 +7292,13 @@
         <v>9</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7327,16 +7330,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7354,7 +7357,7 @@
         <v>9</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>54</v>
@@ -7392,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7419,7 +7422,7 @@
         <v>9</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>54</v>
@@ -7457,13 +7460,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>159</v>
@@ -7484,13 +7487,13 @@
         <v>9</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
@@ -7522,16 +7525,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7549,7 +7552,7 @@
         <v>9</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>61</v>
@@ -7587,16 +7590,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7614,7 +7617,7 @@
         <v>9</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>61</v>
@@ -7652,16 +7655,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7679,7 +7682,7 @@
         <v>9</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>61</v>
@@ -7717,16 +7720,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7744,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>61</v>
@@ -7782,16 +7785,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7809,7 +7812,7 @@
         <v>9</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>61</v>
@@ -7847,16 +7850,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7874,7 +7877,7 @@
         <v>9</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>61</v>
@@ -7912,16 +7915,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7939,7 +7942,7 @@
         <v>9</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O76" s="6" t="s">
         <v>61</v>
@@ -7977,16 +7980,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -8004,7 +8007,7 @@
         <v>9</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O77" s="6" t="s">
         <v>61</v>
@@ -8042,16 +8045,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8069,7 +8072,7 @@
         <v>9</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O78" s="6" t="s">
         <v>61</v>
@@ -8107,16 +8110,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8134,7 +8137,7 @@
         <v>9</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O79" s="6" t="s">
         <v>61</v>
@@ -8172,16 +8175,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8199,7 +8202,7 @@
         <v>9</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O80" s="6" t="s">
         <v>61</v>
@@ -8237,16 +8240,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8264,7 +8267,7 @@
         <v>9</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>61</v>
@@ -8302,13 +8305,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8329,7 +8332,7 @@
         <v>9</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>61</v>
@@ -8367,13 +8370,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8385,16 +8388,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8429,13 +8432,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8453,10 +8456,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8506,16 +8509,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8524,16 +8527,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8583,13 +8586,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8607,10 +8610,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8645,34 +8648,34 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I87" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="K87" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8722,34 +8725,34 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I88" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8784,38 +8787,38 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F89" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q89" s="6">
         <v>0</v>
@@ -8861,38 +8864,38 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q90" s="6">
         <v>0</v>
@@ -8932,22 +8935,22 @@
         <v>70</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -8956,20 +8959,20 @@
         <v>6</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O91" s="7"/>
       <c r="P91" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q91" s="6">
         <v>0</v>
@@ -9012,19 +9015,19 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>5</v>
@@ -9042,11 +9045,11 @@
         <v>9</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9089,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9098,32 +9101,32 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L93" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9166,37 +9169,37 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I94" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>295</v>
+        <v>736</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N94" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N94" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O94" s="11"/>
       <c r="P94" s="11" t="s">
@@ -9243,37 +9246,37 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F95" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="H95" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="I95" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="J95" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M95" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N95" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N95" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>17</v>
@@ -9305,37 +9308,37 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J96" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M96" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N96" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>17</v>
@@ -9367,37 +9370,37 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J97" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M97" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N97" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N97" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>17</v>
@@ -9429,37 +9432,37 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="I98" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M98" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N98" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N98" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P98" s="11" t="s">
         <v>17</v>
@@ -9491,37 +9494,37 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F99" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="H99" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="I99" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="J99" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M99" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N99" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N99" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P99" s="11" t="s">
         <v>17</v>
@@ -9553,40 +9556,40 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G100" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="I100" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="J100" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M100" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N100" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="N100" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="P100" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q100" s="6">
         <v>0</v>
@@ -9615,40 +9618,40 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J101" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M101" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N101" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="N101" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="P101" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q101" s="6">
         <v>0</v>
@@ -9677,40 +9680,40 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N102" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="N102" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="P102" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q102" s="6">
         <v>0</v>
@@ -9739,41 +9742,41 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J103" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M103" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N103" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N103" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q103" s="6">
         <v>0</v>
@@ -9816,37 +9819,37 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M104" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N104" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N104" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11" t="s">
@@ -9893,41 +9896,41 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J105" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M105" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N105" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N105" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q105" s="6">
         <v>0</v>
@@ -9973,37 +9976,37 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H106" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I106" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I106" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="J106" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q106" s="6">
         <v>0</v>
@@ -10035,37 +10038,37 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H107" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="J107" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q107" s="6">
         <v>0</v>
@@ -10097,37 +10100,37 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H108" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="J108" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q108" s="6">
         <v>0</v>
@@ -10159,38 +10162,38 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H109" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I109" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="J109" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q109" s="6">
         <v>0</v>
@@ -10236,37 +10239,37 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H110" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I110" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="I110" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="J110" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q110" s="6">
         <v>0</v>
@@ -10298,38 +10301,38 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I111" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I111" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="J111" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q111" s="6">
         <v>0</v>
@@ -10375,37 +10378,37 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G112" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="H112" s="7" t="s">
+      <c r="I112" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="I112" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="J112" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q112" s="6">
         <v>0</v>
@@ -10437,37 +10440,37 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F113" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="H113" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="I113" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q113" s="6">
         <v>0</v>
@@ -10499,37 +10502,37 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F114" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="I114" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q114" s="6">
         <v>0</v>
@@ -10561,37 +10564,37 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F115" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="H115" s="7" t="s">
+      <c r="I115" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="J115" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q115" s="6">
         <v>1</v>
@@ -10623,38 +10626,38 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q116" s="6">
         <v>0</v>
@@ -10700,16 +10703,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10718,16 +10721,16 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>295</v>
+        <v>736</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M117" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N117" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N117" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O117" s="11"/>
       <c r="P117" s="11" t="s">
@@ -10777,34 +10780,34 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F118" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I118" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="J118" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M118" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N118" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N118" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P118" s="11" t="s">
         <v>17</v>
@@ -10839,34 +10842,34 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J119" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M119" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N119" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N119" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P119" s="11" t="s">
         <v>17</v>
@@ -10901,34 +10904,34 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J120" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M120" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N120" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N120" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P120" s="11" t="s">
         <v>17</v>
@@ -10963,38 +10966,38 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q121" s="6">
         <v>0</v>
@@ -11037,38 +11040,38 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F122" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H122" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="G122" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="H122" s="23" t="s">
+      <c r="J122" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J122" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K122" s="7" t="s">
+      <c r="L122" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M122" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M122" s="7" t="s">
+      <c r="N122" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="N122" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="O122" s="7"/>
       <c r="P122" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q122" s="6">
         <v>0</v>
@@ -11097,38 +11100,38 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G123" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H123" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H123" s="23" t="s">
-        <v>278</v>
-      </c>
       <c r="J123" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K123" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M123" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M123" s="7" t="s">
+      <c r="N123" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="N123" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="O123" s="7"/>
       <c r="P123" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q123" s="6">
         <v>0</v>
@@ -11157,38 +11160,38 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F124" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="H124" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H124" s="23" t="s">
-        <v>281</v>
-      </c>
       <c r="J124" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K124" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M124" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M124" s="7" t="s">
+      <c r="N124" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="N124" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="O124" s="7"/>
       <c r="P124" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q124" s="6">
         <v>0</v>
@@ -11217,39 +11220,39 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F125" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="H125" s="23" t="s">
         <v>283</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>284</v>
       </c>
       <c r="I125" s="23"/>
       <c r="J125" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K125" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M125" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L125" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M125" s="7" t="s">
+      <c r="N125" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="N125" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="O125" s="7"/>
       <c r="P125" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q125" s="6">
         <v>0</v>
@@ -11292,39 +11295,39 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K126" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M126" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L126" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M126" s="7" t="s">
+      <c r="N126" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="N126" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="O126" s="7"/>
       <c r="P126" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q126" s="6">
         <v>0</v>
@@ -11367,38 +11370,38 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F127" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G127" s="6" t="s">
+      <c r="H127" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="H127" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="I127" s="23"/>
       <c r="J127" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M127" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="N127" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="N127" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="P127" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q127" s="6">
         <v>0</v>
@@ -11441,41 +11444,41 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F128" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G128" s="6" t="s">
+      <c r="H128" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="I128" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K128" s="7">
         <v>2017</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M128" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="N128" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="N128" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="O128" s="7"/>
       <c r="P128" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q128" s="6">
         <v>0</v>
@@ -11521,19 +11524,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11548,7 +11551,7 @@
         <v>9</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O129" s="7"/>
       <c r="P129" s="7" t="s">
@@ -11598,19 +11601,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11625,7 +11628,7 @@
         <v>9</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O130" s="7"/>
       <c r="P130" s="7" t="s">
@@ -11675,25 +11678,25 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F131" s="36" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>8</v>
@@ -11702,7 +11705,7 @@
         <v>9</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O131" s="7"/>
       <c r="P131" s="7" t="s">
@@ -11752,16 +11755,16 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11770,7 +11773,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>8</v>
@@ -11779,7 +11782,7 @@
         <v>9</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O132" s="7"/>
       <c r="P132" s="7" t="s">
@@ -11829,16 +11832,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11847,7 +11850,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>8</v>
@@ -11856,7 +11859,7 @@
         <v>9</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O133" s="7"/>
       <c r="P133" s="7" t="s">
@@ -11906,16 +11909,16 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11924,7 +11927,7 @@
         <v>6</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>8</v>
@@ -11933,7 +11936,7 @@
         <v>9</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O134" s="7"/>
       <c r="P134" s="7" t="s">
@@ -11983,16 +11986,16 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12010,7 +12013,7 @@
         <v>9</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O135" s="7"/>
       <c r="P135" s="7" t="s">
@@ -12060,16 +12063,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
@@ -12087,7 +12090,7 @@
         <v>9</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O136" s="7"/>
       <c r="P136" s="7" t="s">
@@ -12196,12 +12199,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>175</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>177</v>
@@ -12217,7 +12220,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -12225,7 +12228,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -12233,15 +12236,15 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
@@ -12249,7 +12252,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -12257,7 +12260,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>181</v>
@@ -12265,7 +12268,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>182</v>
@@ -12273,7 +12276,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>183</v>
@@ -12281,7 +12284,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>184</v>
@@ -12289,7 +12292,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
@@ -12297,7 +12300,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>186</v>
@@ -12305,7 +12308,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
@@ -12313,7 +12316,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
@@ -12321,42 +12324,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1286,9 +1286,6 @@
     <t>El indicador mide el peso del gasto público en salud en el total de gasto público social (GPS) EL GPS se compone del gasto en salud; salud; seguridad y asistencia social; salud, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
   </si>
   <si>
-    <t>El indicador refleja la distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente.</t>
-  </si>
-  <si>
     <t>El indicador mide la cantidad anual de defunciones registradas en el año en relación a la población del país proyectada según censo 1996.</t>
   </si>
   <si>
@@ -2241,6 +2238,9 @@
   </si>
   <si>
     <t>Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
+  </si>
+  <si>
+    <t>El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
 </sst>
 </file>
@@ -2779,10 +2779,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G106:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2793,12 +2793,12 @@
     <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="181.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
     <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
     <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
     <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
@@ -2827,7 +2827,7 @@
         <v>358</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>347</v>
@@ -2863,19 +2863,19 @@
         <v>357</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S1" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="T1" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>702</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2892,7 +2892,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
@@ -2910,16 +2910,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2954,7 +2954,7 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
@@ -2972,16 +2972,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -3016,7 +3016,7 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
@@ -3034,16 +3034,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3078,13 +3078,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3102,10 +3102,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3140,7 +3140,7 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
@@ -3149,7 +3149,7 @@
         <v>365</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3164,10 +3164,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3202,7 +3202,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
@@ -3211,7 +3211,7 @@
         <v>366</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3226,10 +3226,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
@@ -3288,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3326,7 +3326,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
@@ -3350,10 +3350,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3388,7 +3388,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
@@ -3412,10 +3412,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3450,7 +3450,7 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
@@ -3474,10 +3474,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3512,16 +3512,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3536,13 +3536,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>508</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3574,13 +3574,13 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>295</v>
@@ -3598,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3636,7 +3636,7 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
@@ -3660,10 +3660,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3698,16 +3698,16 @@
         <v>303</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3760,16 +3760,16 @@
         <v>303</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3822,16 +3822,16 @@
         <v>303</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3884,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
@@ -3917,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
@@ -3982,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
@@ -4047,7 +4047,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
@@ -4112,7 +4112,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
@@ -4191,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
@@ -4270,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>297</v>
@@ -4335,7 +4335,7 @@
         <v>233</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>235</v>
@@ -4414,7 +4414,7 @@
         <v>233</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
@@ -4484,16 +4484,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
@@ -4549,16 +4549,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4628,16 +4628,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
@@ -4707,16 +4707,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
@@ -4772,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="N30" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
@@ -4851,10 +4851,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4904,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
@@ -4928,10 +4928,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4981,13 +4981,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -5005,10 +5005,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -5044,13 +5044,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5068,10 +5068,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5123,13 +5123,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5188,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
@@ -5221,7 +5221,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
@@ -5271,16 +5271,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5315,7 +5315,7 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
@@ -5339,10 +5339,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5377,7 +5377,7 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
@@ -5386,7 +5386,7 @@
         <v>389</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5395,16 +5395,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5439,13 +5439,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5463,10 +5463,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5501,13 +5501,13 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>316</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>317</v>
@@ -5578,13 +5578,13 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>322</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>323</v>
@@ -5655,7 +5655,7 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>327</v>
@@ -5732,7 +5732,7 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
@@ -5765,7 +5765,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5811,13 +5811,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5844,7 +5844,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
@@ -5923,7 +5923,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>313</v>
@@ -6034,13 +6034,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6067,7 +6067,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6099,16 +6099,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6132,7 +6132,7 @@
         <v>309</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6164,16 +6164,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>340</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6197,7 +6197,7 @@
         <v>341</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>339</v>
@@ -6252,7 +6252,7 @@
         <v>338</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6273,10 +6273,10 @@
         <v>194</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6322,16 +6322,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>337</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6352,10 +6352,10 @@
         <v>194</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6401,16 +6401,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F53" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="G53" s="28" t="s">
-        <v>667</v>
-      </c>
       <c r="H53" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6431,10 +6431,10 @@
         <v>194</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6480,7 +6480,7 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
@@ -6513,7 +6513,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
@@ -6654,16 +6654,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6698,7 +6698,7 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
@@ -6722,10 +6722,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6760,7 +6760,7 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
@@ -6769,7 +6769,7 @@
         <v>396</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6778,16 +6778,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6822,13 +6822,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6846,10 +6846,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6884,7 +6884,7 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
@@ -6908,10 +6908,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6946,7 +6946,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
@@ -6970,10 +6970,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="N61" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -7008,10 +7008,10 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>399</v>
@@ -7032,10 +7032,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="N62" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7070,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
@@ -7135,7 +7135,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>300</v>
@@ -7168,7 +7168,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q64" s="6">
         <v>1</v>
@@ -7200,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
@@ -7209,7 +7209,7 @@
         <v>402</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7233,7 +7233,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>403</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7298,7 +7298,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7330,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
@@ -7339,7 +7339,7 @@
         <v>404</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7395,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7460,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>299</v>
@@ -7493,7 +7493,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
@@ -7534,7 +7534,7 @@
         <v>405</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7590,7 +7590,7 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
@@ -7599,7 +7599,7 @@
         <v>406</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7655,7 +7655,7 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
@@ -7664,7 +7664,7 @@
         <v>407</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7720,7 +7720,7 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
@@ -7729,7 +7729,7 @@
         <v>408</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7785,7 +7785,7 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
@@ -7794,7 +7794,7 @@
         <v>409</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7850,7 +7850,7 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
@@ -7859,7 +7859,7 @@
         <v>410</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7915,7 +7915,7 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
@@ -7924,7 +7924,7 @@
         <v>411</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7980,7 +7980,7 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
@@ -7989,7 +7989,7 @@
         <v>412</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -8045,7 +8045,7 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
@@ -8054,7 +8054,7 @@
         <v>413</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8110,7 +8110,7 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
@@ -8119,7 +8119,7 @@
         <v>414</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8175,7 +8175,7 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
@@ -8184,7 +8184,7 @@
         <v>415</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8240,7 +8240,7 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
@@ -8249,7 +8249,7 @@
         <v>416</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8305,13 +8305,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8370,7 +8370,7 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
@@ -8388,16 +8388,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8432,7 +8432,7 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
@@ -8456,10 +8456,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8509,7 +8509,7 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
@@ -8518,7 +8518,7 @@
         <v>419</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8527,16 +8527,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8586,13 +8586,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8610,10 +8610,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N86" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8648,16 +8648,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>237</v>
@@ -8672,10 +8672,10 @@
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N87" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8725,16 +8725,16 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>334</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>240</v>
@@ -8749,10 +8749,10 @@
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N88" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8787,16 +8787,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>237</v>
@@ -8811,10 +8811,10 @@
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N89" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N89" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
@@ -8864,16 +8864,16 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>245</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>240</v>
@@ -8888,10 +8888,10 @@
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N90" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
@@ -8941,16 +8941,16 @@
         <v>303</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -9015,16 +9015,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>190</v>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9101,10 +9101,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>191</v>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9169,19 +9169,19 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>292</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>293</v>
@@ -9190,7 +9190,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
@@ -9246,10 +9246,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>196</v>
@@ -9258,7 +9258,7 @@
         <v>197</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>198</v>
@@ -9267,7 +9267,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>8</v>
@@ -9308,10 +9308,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>230</v>
@@ -9320,7 +9320,7 @@
         <v>202</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>198</v>
@@ -9329,7 +9329,7 @@
         <v>6</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>8</v>
@@ -9370,10 +9370,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>335</v>
@@ -9382,7 +9382,7 @@
         <v>203</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>198</v>
@@ -9391,7 +9391,7 @@
         <v>6</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>8</v>
@@ -9432,10 +9432,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>231</v>
@@ -9444,7 +9444,7 @@
         <v>204</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>205</v>
@@ -9453,7 +9453,7 @@
         <v>6</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>8</v>
@@ -9494,10 +9494,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>206</v>
@@ -9506,7 +9506,7 @@
         <v>207</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>208</v>
@@ -9515,7 +9515,7 @@
         <v>6</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>8</v>
@@ -9556,10 +9556,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>224</v>
@@ -9568,7 +9568,7 @@
         <v>213</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>214</v>
@@ -9577,7 +9577,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>8</v>
@@ -9618,10 +9618,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>225</v>
@@ -9630,7 +9630,7 @@
         <v>216</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>214</v>
@@ -9639,7 +9639,7 @@
         <v>6</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>8</v>
@@ -9680,10 +9680,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>226</v>
@@ -9692,7 +9692,7 @@
         <v>217</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>214</v>
@@ -9701,7 +9701,7 @@
         <v>6</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>8</v>
@@ -9742,10 +9742,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>227</v>
@@ -9754,7 +9754,7 @@
         <v>218</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>214</v>
@@ -9763,7 +9763,7 @@
         <v>6</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>8</v>
@@ -9819,10 +9819,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>228</v>
@@ -9831,7 +9831,7 @@
         <v>219</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>214</v>
@@ -9840,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>8</v>
@@ -9896,10 +9896,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>229</v>
@@ -9908,7 +9908,7 @@
         <v>220</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>214</v>
@@ -9917,7 +9917,7 @@
         <v>6</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>8</v>
@@ -9976,13 +9976,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>257</v>
@@ -10000,10 +10000,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N106" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N106" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>244</v>
@@ -10038,13 +10038,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>259</v>
@@ -10062,10 +10062,10 @@
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N107" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N107" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P107" s="7" t="s">
         <v>244</v>
@@ -10100,13 +10100,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>261</v>
@@ -10124,10 +10124,10 @@
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N108" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N108" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>244</v>
@@ -10162,13 +10162,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>267</v>
@@ -10186,10 +10186,10 @@
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N109" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N109" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
@@ -10239,13 +10239,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>263</v>
@@ -10263,10 +10263,10 @@
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N110" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N110" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>244</v>
@@ -10301,13 +10301,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>265</v>
@@ -10325,10 +10325,10 @@
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N111" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N111" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
@@ -10378,13 +10378,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>247</v>
@@ -10402,10 +10402,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N112" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N112" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P112" s="7" t="s">
         <v>244</v>
@@ -10440,13 +10440,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>250</v>
@@ -10464,10 +10464,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N113" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N113" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>244</v>
@@ -10502,13 +10502,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>252</v>
@@ -10526,10 +10526,10 @@
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N114" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N114" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>244</v>
@@ -10564,13 +10564,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F115" s="21" t="s">
         <v>253</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>254</v>
@@ -10588,10 +10588,10 @@
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N115" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N115" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="P115" s="7" t="s">
         <v>244</v>
@@ -10626,16 +10626,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10650,10 +10650,10 @@
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N116" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N116" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
@@ -10703,16 +10703,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10721,7 +10721,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
@@ -10780,7 +10780,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>209</v>
@@ -10789,7 +10789,7 @@
         <v>221</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>210</v>
@@ -10798,7 +10798,7 @@
         <v>6</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>8</v>
@@ -10842,7 +10842,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>211</v>
@@ -10851,7 +10851,7 @@
         <v>222</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>210</v>
@@ -10860,7 +10860,7 @@
         <v>6</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>8</v>
@@ -10904,7 +10904,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>212</v>
@@ -10913,7 +10913,7 @@
         <v>223</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>210</v>
@@ -10922,7 +10922,7 @@
         <v>6</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>8</v>
@@ -10966,16 +10966,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10990,10 +10990,10 @@
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="N121" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N121" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
@@ -11040,10 +11040,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>271</v>
@@ -11100,10 +11100,10 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F123" s="33" t="s">
         <v>336</v>
@@ -11160,10 +11160,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>278</v>
@@ -11220,10 +11220,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>281</v>
@@ -11295,19 +11295,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>284</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
@@ -11370,10 +11370,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>285</v>
@@ -11444,10 +11444,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>289</v>
@@ -11524,19 +11524,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="F129" s="36" t="s">
         <v>684</v>
       </c>
-      <c r="F129" s="36" t="s">
-        <v>685</v>
-      </c>
       <c r="G129" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="H129" s="7" t="s">
-        <v>719</v>
-      </c>
       <c r="I129" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11601,19 +11601,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="F130" s="36" t="s">
         <v>686</v>
       </c>
-      <c r="F130" s="36" t="s">
-        <v>687</v>
-      </c>
       <c r="G130" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="H130" s="7" t="s">
-        <v>721</v>
-      </c>
       <c r="I130" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11678,19 +11678,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="F131" s="36" t="s">
         <v>688</v>
       </c>
-      <c r="F131" s="36" t="s">
-        <v>689</v>
-      </c>
       <c r="G131" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="H131" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="I131" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11755,16 +11755,16 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="F132" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="F132" s="36" t="s">
-        <v>691</v>
-      </c>
       <c r="G132" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="H132" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>725</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11832,16 +11832,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="F133" s="36" t="s">
         <v>692</v>
       </c>
-      <c r="F133" s="36" t="s">
-        <v>693</v>
-      </c>
       <c r="G133" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="H133" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11909,16 +11909,16 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="F134" s="36" t="s">
         <v>694</v>
       </c>
-      <c r="F134" s="36" t="s">
-        <v>695</v>
-      </c>
       <c r="G134" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="H134" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11986,16 +11986,16 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="F135" s="36" t="s">
         <v>696</v>
       </c>
-      <c r="F135" s="36" t="s">
-        <v>697</v>
-      </c>
       <c r="G135" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="H135" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12063,16 +12063,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="F136" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="F136" s="36" t="s">
-        <v>699</v>
-      </c>
       <c r="G136" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="H136" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>733</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
@@ -12324,42 +12324,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="741">
   <si>
     <t>id</t>
   </si>
@@ -2141,9 +2141,6 @@
     <t>UMAD con base en SINADI - MSP (*2020 datos preliminares)</t>
   </si>
   <si>
-    <t>El indicador mide el promedio anual de consultas urgentes y no urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
-  </si>
-  <si>
     <t>El indicador mide el promedio anual de consultas no urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
   </si>
   <si>
@@ -2241,6 +2238,15 @@
   </si>
   <si>
     <t>El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
+  </si>
+  <si>
+    <t>El indicador mide el promedio anual de consultas urgentes y no urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador. Los datos de 2020 incluyen las consultas por telemedicina.</t>
+  </si>
+  <si>
+    <t>Observatorio Territorio Uruguay - OPP a partir de estimaciones de INE.</t>
+  </si>
+  <si>
+    <t>UMAD con base en Observatorio Territorio Uruguay - OPP a partir de estimaciones de INE.</t>
   </si>
 </sst>
 </file>
@@ -2780,9 +2786,9 @@
   <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G106:G107"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8944,13 +8950,13 @@
         <v>599</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>445</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -9021,10 +9027,10 @@
         <v>626</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>738</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>190</v>
@@ -9119,10 +9125,10 @@
         <v>8</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>193</v>
+        <v>739</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>195</v>
+        <v>740</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
@@ -9190,7 +9196,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
@@ -9267,7 +9273,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>8</v>
@@ -9329,7 +9335,7 @@
         <v>6</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>8</v>
@@ -9391,7 +9397,7 @@
         <v>6</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>8</v>
@@ -9453,7 +9459,7 @@
         <v>6</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>8</v>
@@ -9515,7 +9521,7 @@
         <v>6</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>8</v>
@@ -9577,7 +9583,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>8</v>
@@ -9639,7 +9645,7 @@
         <v>6</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>8</v>
@@ -9701,7 +9707,7 @@
         <v>6</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>8</v>
@@ -9763,7 +9769,7 @@
         <v>6</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>8</v>
@@ -9840,7 +9846,7 @@
         <v>6</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>8</v>
@@ -9917,7 +9923,7 @@
         <v>6</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>8</v>
@@ -9982,7 +9988,7 @@
         <v>649</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>257</v>
@@ -10044,7 +10050,7 @@
         <v>650</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>259</v>
@@ -10106,7 +10112,7 @@
         <v>651</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>261</v>
@@ -10168,7 +10174,7 @@
         <v>652</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>267</v>
@@ -10245,7 +10251,7 @@
         <v>653</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>263</v>
@@ -10307,7 +10313,7 @@
         <v>654</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>265</v>
@@ -10384,7 +10390,7 @@
         <v>246</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>247</v>
@@ -10446,7 +10452,7 @@
         <v>249</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>250</v>
@@ -10508,7 +10514,7 @@
         <v>251</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>252</v>
@@ -10570,7 +10576,7 @@
         <v>253</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>254</v>
@@ -10632,7 +10638,7 @@
         <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>488</v>
@@ -10721,7 +10727,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
@@ -10798,7 +10804,7 @@
         <v>6</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>8</v>
@@ -10860,7 +10866,7 @@
         <v>6</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>8</v>
@@ -10922,7 +10928,7 @@
         <v>6</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>8</v>
@@ -10972,7 +10978,7 @@
         <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>487</v>
@@ -11530,10 +11536,10 @@
         <v>684</v>
       </c>
       <c r="G129" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>718</v>
       </c>
       <c r="I129" s="23" t="s">
         <v>699</v>
@@ -11607,10 +11613,10 @@
         <v>686</v>
       </c>
       <c r="G130" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>720</v>
       </c>
       <c r="I130" s="23" t="s">
         <v>699</v>
@@ -11684,10 +11690,10 @@
         <v>688</v>
       </c>
       <c r="G131" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="I131" s="23" t="s">
         <v>699</v>
@@ -11761,10 +11767,10 @@
         <v>690</v>
       </c>
       <c r="G132" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="H132" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11838,10 +11844,10 @@
         <v>692</v>
       </c>
       <c r="G133" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="H133" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>726</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11915,10 +11921,10 @@
         <v>694</v>
       </c>
       <c r="G134" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="H134" s="7" t="s">
         <v>727</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>728</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11992,10 +11998,10 @@
         <v>696</v>
       </c>
       <c r="G135" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="H135" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12069,10 +12075,10 @@
         <v>698</v>
       </c>
       <c r="G136" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="H136" s="7" t="s">
         <v>731</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>732</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D923C-3B06-4231-A7A7-CD1AC685F8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -2234,12 +2235,6 @@
     <t>2000-2020</t>
   </si>
   <si>
-    <t>Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
-  </si>
-  <si>
-    <t>El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
-  </si>
-  <si>
     <t>El indicador mide el promedio anual de consultas urgentes y no urgentes, en consultorio y en domicilio, por usuario. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador. Los datos de 2020 incluyen las consultas por telemedicina.</t>
   </si>
   <si>
@@ -2247,12 +2242,18 @@
   </si>
   <si>
     <t>UMAD con base en Observatorio Territorio Uruguay - OPP a partir de estimaciones de INE.</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de personas según institución prestadora en la cual declaran tener cobertura vigente</t>
+  </si>
+  <si>
+    <t>El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual declaran tener cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2467,10 +2468,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2781,42 +2782,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="13"/>
-    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="13"/>
+    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.109375" style="13"/>
+    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -9027,10 +9028,10 @@
         <v>626</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>190</v>
@@ -9125,10 +9126,10 @@
         <v>8</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
@@ -9988,7 +9989,7 @@
         <v>649</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>257</v>
@@ -12185,7 +12186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12193,11 +12194,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D923C-3B06-4231-A7A7-CD1AC685F8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -2253,7 +2252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2468,10 +2467,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_DISEÑO" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_DISEÑO" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2782,42 +2781,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="U69" sqref="U69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="94.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="157.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="255.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="181.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
-    <col min="13" max="14" width="255.6640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="230.109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="98.6640625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="157.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="181.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13" max="14" width="255.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="230.140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="98.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="9.44140625" style="13" customWidth="1"/>
-    <col min="27" max="29" width="9.109375" style="13"/>
-    <col min="30" max="30" width="55.109375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="13"/>
+    <col min="21" max="21" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.42578125" style="13" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="13"/>
+    <col min="30" max="30" width="55.140625" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -7178,13 +7177,13 @@
         <v>496</v>
       </c>
       <c r="Q64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="6">
         <v>0</v>
@@ -7455,7 +7454,7 @@
     </row>
     <row r="69" spans="1:21" s="6" customFormat="1">
       <c r="A69" s="10">
-        <v>330107</v>
+        <v>330115</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>52</v>
@@ -7503,13 +7502,13 @@
         <v>496</v>
       </c>
       <c r="Q69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="6">
         <v>0</v>
@@ -12186,7 +12185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12194,11 +12193,11 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -1208,15 +1208,6 @@
     <t>El indicador mide el porcentaje de personas en viviendas ubicadas en asentamiento irregular.</t>
   </si>
   <si>
-    <t>El indicador mide el peso del gasto público en seguridad social en el Producto Bruto Interno (PBI).</t>
-  </si>
-  <si>
-    <t>El indicador mide el peso del gasto público en seguridad social en el gasto público total.</t>
-  </si>
-  <si>
-    <t>El indicador mide el peso del gasto público en seguridad social en el total de gasto público social (GPS) EL GPS se compone del gasto en seguridad social; salud; seguridad y asistencia social; seguridad social, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
-  </si>
-  <si>
     <t>El indicador refleja la distribución porcentual de las fuentes de financiamiento del Banco de Previsión Social, clasificada en función de dos categorías:  Régimen Contributivo (IVS, Seguro de Enfermedad, Fondos Especiales e Ingresos Varios) y Asistencia del Estado (transferencias netas del gobierno central e impuestos afectados).</t>
   </si>
   <si>
@@ -2036,18 +2027,12 @@
     <t>WEB</t>
   </si>
   <si>
-    <t>DINEM - MIDES / MIDES-MEF-OPP</t>
-  </si>
-  <si>
     <t>2005-2020</t>
   </si>
   <si>
     <t>1985-2020</t>
   </si>
   <si>
-    <t>UMAD con base en DINEM - MIDES / MIDES-MEF-OPP</t>
-  </si>
-  <si>
     <t>WEB_POB</t>
   </si>
   <si>
@@ -2247,6 +2232,21 @@
   </si>
   <si>
     <t>El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual declaran tener cobertura (derecho vigente según la pregunta específica de la ECH).</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en seguridad social y asistencia social en el Producto Bruto Interno (PBI).</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en seguridad social y asistencia social en el gasto público total.</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en seguridad social y asistencia social en el total de gasto público social (GPS). EL GPS se compone del gasto en seguridad social; salud; seguridad y asistencia social; seguridad social, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
+  </si>
+  <si>
+    <t>DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
+  </si>
+  <si>
+    <t>UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2257,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2327,13 +2327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2363,7 +2356,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,10 +2449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2785,10 +2775,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="U69" sqref="U69"/>
+      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2833,7 +2823,7 @@
         <v>358</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>347</v>
@@ -2869,19 +2859,19 @@
         <v>357</v>
       </c>
       <c r="Q1" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>701</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>702</v>
+      <c r="S1" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2898,7 +2888,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
@@ -2916,16 +2906,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2960,7 +2950,7 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
@@ -2978,16 +2968,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -3022,7 +3012,7 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
@@ -3040,16 +3030,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3084,13 +3074,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3108,10 +3098,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3146,7 +3136,7 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
@@ -3155,7 +3145,7 @@
         <v>365</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3170,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3208,7 +3198,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
@@ -3217,7 +3207,7 @@
         <v>366</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3232,10 +3222,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3270,7 +3260,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
@@ -3294,10 +3284,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3332,7 +3322,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
@@ -3356,10 +3346,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3394,7 +3384,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
@@ -3418,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3456,7 +3446,7 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
@@ -3480,10 +3470,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3518,16 +3508,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3542,13 +3532,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3580,13 +3570,13 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>295</v>
@@ -3604,7 +3594,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3642,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
@@ -3666,10 +3656,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3704,16 +3694,16 @@
         <v>303</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3766,16 +3756,16 @@
         <v>303</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3828,16 +3818,16 @@
         <v>303</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3890,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
@@ -3923,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3955,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
@@ -3988,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4020,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
@@ -4053,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4085,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
@@ -4118,7 +4108,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4164,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
@@ -4197,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4243,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
@@ -4276,7 +4266,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4308,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>297</v>
@@ -4341,7 +4331,7 @@
         <v>233</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4387,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>235</v>
@@ -4420,7 +4410,7 @@
         <v>233</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4466,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
@@ -4490,16 +4480,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4531,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
@@ -4555,16 +4545,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4610,13 +4600,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4634,16 +4624,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4689,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
@@ -4713,16 +4703,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4754,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
@@ -4778,16 +4768,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4833,7 +4823,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
@@ -4857,10 +4847,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4910,7 +4900,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
@@ -4934,10 +4924,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4987,13 +4977,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -5011,10 +5001,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -5050,13 +5040,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5074,10 +5064,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5129,13 +5119,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5194,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
@@ -5227,7 +5217,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5259,7 +5249,7 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
@@ -5277,16 +5267,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5321,7 +5311,7 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
@@ -5345,10 +5335,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5383,7 +5373,7 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
@@ -5392,7 +5382,7 @@
         <v>389</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5401,16 +5391,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5445,13 +5435,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5469,10 +5459,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5507,13 +5497,13 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>316</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>317</v>
@@ -5584,13 +5574,13 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>322</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>323</v>
@@ -5661,7 +5651,7 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>327</v>
@@ -5738,7 +5728,7 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
@@ -5771,7 +5761,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5817,13 +5807,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5850,7 +5840,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5896,7 +5886,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
@@ -5929,7 +5919,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5975,7 +5965,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>313</v>
@@ -6040,13 +6030,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6073,7 +6063,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6105,16 +6095,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6138,7 +6128,7 @@
         <v>309</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6170,16 +6160,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>340</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6203,7 +6193,7 @@
         <v>341</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6249,7 +6239,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>339</v>
@@ -6258,7 +6248,7 @@
         <v>338</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6279,10 +6269,10 @@
         <v>194</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6328,16 +6318,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>337</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6358,10 +6348,10 @@
         <v>194</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6407,16 +6397,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="H53" s="27" t="s">
         <v>659</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>666</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>662</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6437,10 +6427,10 @@
         <v>194</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6486,7 +6476,7 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
@@ -6519,7 +6509,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6565,7 +6555,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
@@ -6596,7 +6586,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6642,13 +6632,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>394</v>
+        <v>736</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6660,16 +6650,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6704,13 +6694,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>395</v>
+        <v>737</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6728,10 +6718,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6766,16 +6756,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>396</v>
+        <v>738</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6784,16 +6774,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6828,13 +6818,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6852,10 +6842,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6890,13 +6880,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6914,10 +6904,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6952,13 +6942,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6976,10 +6966,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -7014,13 +7004,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -7038,10 +7028,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7076,13 +7066,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7141,13 +7131,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>300</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7174,7 +7164,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q64" s="6">
         <v>0</v>
@@ -7206,16 +7196,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7239,7 +7229,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7277,10 +7267,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7304,7 +7294,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7336,16 +7326,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7401,16 +7391,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7466,13 +7456,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>299</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>159</v>
@@ -7499,7 +7489,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q69" s="6">
         <v>1</v>
@@ -7531,16 +7521,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7596,16 +7586,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7661,16 +7651,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7726,16 +7716,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7791,16 +7781,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7856,16 +7846,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7921,16 +7911,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7986,16 +7976,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -8051,16 +8041,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8116,16 +8106,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8181,16 +8171,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8246,16 +8236,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8311,13 +8301,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8376,13 +8366,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8394,16 +8384,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8438,13 +8428,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8462,10 +8452,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8515,16 +8505,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8533,16 +8523,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8592,13 +8582,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8616,10 +8606,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8654,16 +8644,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>237</v>
@@ -8678,10 +8668,10 @@
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8731,16 +8721,16 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>334</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>240</v>
@@ -8755,10 +8745,10 @@
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8793,16 +8783,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>237</v>
@@ -8817,10 +8807,10 @@
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
@@ -8870,16 +8860,16 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>245</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>240</v>
@@ -8894,10 +8884,10 @@
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
@@ -8947,16 +8937,16 @@
         <v>303</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -9021,16 +9011,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>190</v>
@@ -9055,7 +9045,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9098,7 +9088,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9107,10 +9097,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>191</v>
@@ -9125,14 +9115,14 @@
         <v>8</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9175,19 +9165,19 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>292</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>293</v>
@@ -9196,7 +9186,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
@@ -9252,10 +9242,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>196</v>
@@ -9264,7 +9254,7 @@
         <v>197</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>198</v>
@@ -9273,7 +9263,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>8</v>
@@ -9314,10 +9304,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>230</v>
@@ -9326,7 +9316,7 @@
         <v>202</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>198</v>
@@ -9335,7 +9325,7 @@
         <v>6</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>8</v>
@@ -9376,10 +9366,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>335</v>
@@ -9388,7 +9378,7 @@
         <v>203</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>198</v>
@@ -9397,7 +9387,7 @@
         <v>6</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>8</v>
@@ -9438,10 +9428,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>231</v>
@@ -9450,7 +9440,7 @@
         <v>204</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>205</v>
@@ -9459,7 +9449,7 @@
         <v>6</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>8</v>
@@ -9500,10 +9490,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>206</v>
@@ -9512,7 +9502,7 @@
         <v>207</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>208</v>
@@ -9521,7 +9511,7 @@
         <v>6</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>8</v>
@@ -9562,10 +9552,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>224</v>
@@ -9574,7 +9564,7 @@
         <v>213</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>214</v>
@@ -9583,7 +9573,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>8</v>
@@ -9624,10 +9614,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>225</v>
@@ -9636,7 +9626,7 @@
         <v>216</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>214</v>
@@ -9645,7 +9635,7 @@
         <v>6</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>8</v>
@@ -9686,10 +9676,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>226</v>
@@ -9698,7 +9688,7 @@
         <v>217</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>214</v>
@@ -9707,7 +9697,7 @@
         <v>6</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>8</v>
@@ -9748,10 +9738,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>227</v>
@@ -9760,7 +9750,7 @@
         <v>218</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>214</v>
@@ -9769,7 +9759,7 @@
         <v>6</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>8</v>
@@ -9825,10 +9815,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>228</v>
@@ -9837,7 +9827,7 @@
         <v>219</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>214</v>
@@ -9846,7 +9836,7 @@
         <v>6</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>8</v>
@@ -9902,10 +9892,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>229</v>
@@ -9914,7 +9904,7 @@
         <v>220</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>214</v>
@@ -9923,7 +9913,7 @@
         <v>6</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>8</v>
@@ -9982,13 +9972,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>257</v>
@@ -10006,10 +9996,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>244</v>
@@ -10044,13 +10034,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>259</v>
@@ -10068,10 +10058,10 @@
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P107" s="7" t="s">
         <v>244</v>
@@ -10106,13 +10096,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>261</v>
@@ -10130,10 +10120,10 @@
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>244</v>
@@ -10168,13 +10158,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>267</v>
@@ -10192,10 +10182,10 @@
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
@@ -10245,13 +10235,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>263</v>
@@ -10269,10 +10259,10 @@
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>244</v>
@@ -10307,13 +10297,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>265</v>
@@ -10331,10 +10321,10 @@
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
@@ -10384,13 +10374,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>247</v>
@@ -10408,10 +10398,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P112" s="7" t="s">
         <v>244</v>
@@ -10446,13 +10436,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>250</v>
@@ -10470,10 +10460,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>244</v>
@@ -10508,13 +10498,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>252</v>
@@ -10532,10 +10522,10 @@
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>244</v>
@@ -10570,13 +10560,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F115" s="21" t="s">
         <v>253</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>254</v>
@@ -10594,10 +10584,10 @@
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P115" s="7" t="s">
         <v>244</v>
@@ -10632,16 +10622,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10656,10 +10646,10 @@
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
@@ -10709,16 +10699,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10727,7 +10717,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
@@ -10786,7 +10776,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>209</v>
@@ -10795,7 +10785,7 @@
         <v>221</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>210</v>
@@ -10804,7 +10794,7 @@
         <v>6</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>8</v>
@@ -10848,7 +10838,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>211</v>
@@ -10857,7 +10847,7 @@
         <v>222</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>210</v>
@@ -10866,7 +10856,7 @@
         <v>6</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>8</v>
@@ -10910,7 +10900,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>212</v>
@@ -10919,7 +10909,7 @@
         <v>223</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>210</v>
@@ -10928,7 +10918,7 @@
         <v>6</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>8</v>
@@ -10972,16 +10962,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10996,10 +10986,10 @@
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
@@ -11046,10 +11036,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>271</v>
@@ -11106,10 +11096,10 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F123" s="33" t="s">
         <v>336</v>
@@ -11166,10 +11156,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>278</v>
@@ -11226,10 +11216,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>281</v>
@@ -11301,19 +11291,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>284</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
@@ -11376,10 +11366,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>285</v>
@@ -11450,10 +11440,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>289</v>
@@ -11530,19 +11520,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="F129" s="36" t="s">
-        <v>684</v>
+        <v>678</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>679</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11607,19 +11597,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="F130" s="36" t="s">
-        <v>686</v>
+        <v>680</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>681</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11684,19 +11674,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>687</v>
-      </c>
-      <c r="F131" s="36" t="s">
-        <v>688</v>
+        <v>682</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>683</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11761,16 +11751,16 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="F132" s="36" t="s">
-        <v>690</v>
+        <v>684</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>685</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11838,16 +11828,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="F133" s="36" t="s">
-        <v>692</v>
+        <v>686</v>
+      </c>
+      <c r="F133" s="35" t="s">
+        <v>687</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11915,16 +11905,16 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="F134" s="36" t="s">
-        <v>694</v>
+        <v>688</v>
+      </c>
+      <c r="F134" s="35" t="s">
+        <v>689</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11992,16 +11982,16 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>695</v>
-      </c>
-      <c r="F135" s="36" t="s">
-        <v>696</v>
+        <v>690</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>691</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12069,16 +12059,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>697</v>
-      </c>
-      <c r="F136" s="36" t="s">
-        <v>698</v>
+        <v>692</v>
+      </c>
+      <c r="F136" s="35" t="s">
+        <v>693</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
@@ -12330,42 +12320,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="743">
   <si>
     <t>id</t>
   </si>
@@ -1010,9 +1010,6 @@
     <t>Cantidad anual de soluciones habitacionales implementadas por la Agencia Nacional de Vivienda</t>
   </si>
   <si>
-    <t>El indicador mide la cantidad de soluciones habitacionales anuales implementadas por la Agencia Nacional de Vivienda (ANV), incluyendo refacción y comercialización de viviendas libres; préstamos para refacción; reestructura de deudas y regularización; escrituras de cancelación y viviendas en proyectos promovidos (Ley n°18.795).</t>
-  </si>
-  <si>
     <t>Para cada año calcular: Cantidad de soluciones habitacionales implementadas por la Agencia Nacional de Vivienda</t>
   </si>
   <si>
@@ -1118,9 +1115,6 @@
     <t>El indicador mide el peso del gasto público en educación en el gasto público total.</t>
   </si>
   <si>
-    <t>El indicador mide el peso del gasto público en educación en el total de gasto público social (GPS) EL GPS se compone del gasto en educación; salud; seguridad y asistencia social; vivienda, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
-  </si>
-  <si>
     <t>El indicador mide el peso del gasto público en educación obligatoria en el Producto Bruto Interno (PBI).</t>
   </si>
   <si>
@@ -1193,12 +1187,6 @@
     <t>El indicador mide el peso del gasto público en vivienda en el gasto público total.</t>
   </si>
   <si>
-    <t>El indicador mide el peso del gasto público en vivienda en el total de gasto público social (GPS) EL GPS se compone del gasto en vivienda; salud; seguridad y asistencia social; vivienda, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
-  </si>
-  <si>
-    <t>El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura.</t>
-  </si>
-  <si>
     <t>El indicador mide el porcentaje de personas en viviendas sin conexión a red general de saneamiento, fosa séptica o pozo negro, y sin servicio sanitario de uso exclusivo del hogar.</t>
   </si>
   <si>
@@ -1214,15 +1202,9 @@
     <t>El indicador refleja la distribución porcentual de las erogaciones del Banco de Previsión Social, clasificada en función de seis categorías:  IVS, Subsidio por desempleo, Subsidio por enfermedad, Apoyo familiar y maternidad, Otros, Gastos de funcionamiento.</t>
   </si>
   <si>
-    <t>El indicador mide el peso del apoyo del Estado al Banco de Previsión Social en el Producto Bruto Interno (PBI).</t>
-  </si>
-  <si>
     <t>El indicador mide el porcentaje de desempleados que no cobra seguro de desempleo.</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de mayores de 65 años que no perciben pensiones ni pensiones.</t>
-  </si>
-  <si>
     <t>El indicador mide el porcentaje de la población económicamente activa que no aporta a la seguridad social.</t>
   </si>
   <si>
@@ -1274,9 +1256,6 @@
     <t>El indicador mide el peso del gasto público en salud en el gasto público total.</t>
   </si>
   <si>
-    <t>El indicador mide el peso del gasto público en salud en el total de gasto público social (GPS) EL GPS se compone del gasto en salud; salud; seguridad y asistencia social; salud, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
-  </si>
-  <si>
     <t>El indicador mide la cantidad anual de defunciones registradas en el año en relación a la población del país proyectada según censo 1996.</t>
   </si>
   <si>
@@ -1286,9 +1265,6 @@
     <t>El indicador es un índice que refleja la variación de los salarios reales que reciben los trabajadores del sector enseñanza por su trabajo.</t>
   </si>
   <si>
-    <t>El indicador de esperanza de vida al nacer representa la duración media de la vida de hombres y mujeres, que integran una cohorte hipotética de nacimientos, sometidos en todas las edades a los riesgos de mortalidad del período en estudio. .</t>
-  </si>
-  <si>
     <t>El indicador mide el ratio entre cantidad de estudiantes y docentes en la educación primaria privada.</t>
   </si>
   <si>
@@ -1307,9 +1283,6 @@
     <t>El indicador mide el gasto público anual en educación por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población					.</t>
   </si>
   <si>
-    <t>El indicador mide el gasto público anual en seguridad social por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población    .</t>
-  </si>
-  <si>
     <t>El indicador mide el gasto público anual en salud por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población.</t>
   </si>
   <si>
@@ -2177,33 +2150,18 @@
     <t>Para cada año calcular: Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que alguno de sus integrantes es beneficiario de Tarjeta Uruguay Social</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad en el total de hogares pobres</t>
-  </si>
-  <si>
     <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Tarjeta Uruguay Social en el total de hogares pobres</t>
-  </si>
-  <si>
     <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
-  </si>
-  <si>
     <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo</t>
-  </si>
-  <si>
     <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo/Cantidad de niños, niñas y adolescentes)*100</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social</t>
-  </si>
-  <si>
     <t>Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social/Cantidad de niños, niñas y adolescentes)*100</t>
   </si>
   <si>
@@ -2240,13 +2198,61 @@
     <t>El indicador mide el peso del gasto público en seguridad social y asistencia social en el gasto público total.</t>
   </si>
   <si>
-    <t>El indicador mide el peso del gasto público en seguridad social y asistencia social en el total de gasto público social (GPS). EL GPS se compone del gasto en seguridad social; salud; seguridad y asistencia social; seguridad social, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
-  </si>
-  <si>
     <t>DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
   </si>
   <si>
     <t>UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aqeulla en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mayores de 60 años inactivos que no perciben jubilaciones ni pensiones.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mayores de 65 años que no perciben jubilaciones ni pensiones.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mayores de 60 años inactivos que no cobran pensiones ni pensiones / Cantidad total de personas mayores de 60 años)*100</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de soluciones habitacionales anuales implementadas por la Agencia Nacional de Vivienda (ANV), incluyendo refacción y comercialización de viviendas libres; préstamos para refacción; reestructura de deudas y regularización; escrituras de cancelación y viviendas en proyectos promovidos (Ley 18.795).</t>
+  </si>
+  <si>
+    <t>El indicador mide el gasto público anual en seguridad social por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población.</t>
+  </si>
+  <si>
+    <t>El indicador de esperanza de vida al nacer representa la duración media de la vida de hombres y mujeres, que integran una cohorte hipotética de nacimientos, sometidos en todas las edades a los riesgos de mortalidad del período en estudio.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad en el total de hogares pobres.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Tarjeta Uruguay Social en el total de hogares pobres.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo.</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social.</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en educación en el total de gasto público social (GPS). El GPS se compone del gasto en educación; salud; seguridad y asistencia social; vivienda, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en vivienda en el total de gasto público social (GPS). El GPS se compone del gasto en vivienda; salud; seguridad y asistencia social; vivienda, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en seguridad social y asistencia social en el total de gasto público social (GPS). El GPS se compone del gasto en seguridad social; salud; seguridad y asistencia social; seguridad social, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso de la asistencia del Estado al Banco de Previsión Social en el Producto Bruto Interno (PBI).</t>
+  </si>
+  <si>
+    <t>El indicador mide el peso del gasto público en salud en el total de gasto público social (GPS). El GPS se compone del gasto en salud; salud; seguridad y asistencia social; salud, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
   </si>
 </sst>
 </file>
@@ -2775,10 +2781,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2811,67 +2817,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>345</v>
-      </c>
       <c r="D1" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2888,13 +2894,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>114</v>
@@ -2906,16 +2912,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2950,13 +2956,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -2968,16 +2974,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -3012,13 +3018,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>364</v>
+        <v>738</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -3030,16 +3036,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3074,13 +3080,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3098,10 +3104,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3136,16 +3142,16 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3160,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3198,16 +3204,16 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3222,10 +3228,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3260,13 +3266,13 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>115</v>
@@ -3284,10 +3290,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3322,13 +3328,13 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>30</v>
@@ -3346,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3384,13 +3390,13 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>86</v>
@@ -3408,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3446,13 +3452,13 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -3470,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3508,16 +3514,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3532,13 +3538,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3570,13 +3576,13 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>295</v>
@@ -3594,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3632,13 +3638,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
@@ -3656,10 +3662,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3694,16 +3700,16 @@
         <v>303</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3756,16 +3762,16 @@
         <v>303</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3818,16 +3824,16 @@
         <v>303</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3880,13 +3886,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>139</v>
@@ -3913,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3945,13 +3951,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>140</v>
@@ -3978,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4010,13 +4016,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>141</v>
@@ -4043,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4075,13 +4081,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>148</v>
@@ -4108,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4154,13 +4160,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>149</v>
@@ -4187,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4233,13 +4239,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
@@ -4266,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4298,13 +4304,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>297</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>298</v>
@@ -4331,7 +4337,7 @@
         <v>233</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4377,13 +4383,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>235</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>234</v>
@@ -4410,7 +4416,7 @@
         <v>233</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4456,13 +4462,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>142</v>
@@ -4480,16 +4486,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4521,13 +4527,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>143</v>
@@ -4545,16 +4551,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4600,13 +4606,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4624,16 +4630,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4679,16 +4685,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>5</v>
@@ -4703,16 +4709,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4744,16 +4750,16 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>5</v>
@@ -4768,16 +4774,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4823,13 +4829,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>144</v>
@@ -4847,10 +4853,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4900,13 +4906,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>145</v>
@@ -4924,10 +4930,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4977,13 +4983,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -5001,10 +5007,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -5040,13 +5046,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5064,10 +5070,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5119,13 +5125,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5184,13 +5190,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>153</v>
@@ -5217,7 +5223,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5249,13 +5255,13 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>119</v>
@@ -5267,16 +5273,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5311,13 +5317,13 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>121</v>
@@ -5335,10 +5341,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5373,16 +5379,16 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>389</v>
+        <v>739</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5391,16 +5397,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5435,13 +5441,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5459,10 +5465,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5497,13 +5503,13 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>316</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>317</v>
@@ -5574,13 +5580,13 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>322</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>323</v>
@@ -5651,16 +5657,16 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>327</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>318</v>
@@ -5669,16 +5675,16 @@
         <v>6</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="6" t="s">
@@ -5728,13 +5734,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>390</v>
+        <v>726</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -5761,7 +5767,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5807,13 +5813,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5840,7 +5846,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5886,13 +5892,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>155</v>
@@ -5919,7 +5925,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5965,7 +5971,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>313</v>
@@ -6030,13 +6036,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6063,7 +6069,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6095,16 +6101,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6128,7 +6134,7 @@
         <v>309</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6160,16 +6166,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6190,10 +6196,10 @@
         <v>194</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6239,16 +6245,16 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6269,10 +6275,10 @@
         <v>194</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6318,16 +6324,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6348,10 +6354,10 @@
         <v>194</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6397,16 +6403,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6427,10 +6433,10 @@
         <v>194</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6476,13 +6482,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>156</v>
@@ -6509,7 +6515,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6555,13 +6561,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>157</v>
@@ -6586,7 +6592,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6632,13 +6638,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6650,16 +6656,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6694,13 +6700,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6718,10 +6724,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6756,16 +6762,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6774,16 +6780,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6818,13 +6824,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>427</v>
+        <v>731</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6842,10 +6848,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6880,13 +6886,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6904,10 +6910,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6942,13 +6948,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6966,10 +6972,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -7004,13 +7010,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>396</v>
+        <v>741</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -7028,10 +7034,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7066,13 +7072,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7131,13 +7137,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>300</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>398</v>
+        <v>728</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7164,7 +7170,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q64" s="6">
         <v>0</v>
@@ -7196,16 +7202,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7229,7 +7235,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7267,10 +7273,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7294,7 +7300,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7326,16 +7332,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7391,16 +7397,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7456,16 +7462,16 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>299</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>398</v>
+        <v>727</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>159</v>
+        <v>729</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>5</v>
@@ -7489,7 +7495,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q69" s="6">
         <v>1</v>
@@ -7521,16 +7527,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7586,16 +7592,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7651,16 +7657,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7716,16 +7722,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7781,16 +7787,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7846,16 +7852,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7911,16 +7917,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7976,16 +7982,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -8041,16 +8047,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8106,16 +8112,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8171,16 +8177,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8236,16 +8242,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8301,13 +8307,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8366,13 +8372,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8384,16 +8390,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8428,13 +8434,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8452,10 +8458,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8505,16 +8511,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>416</v>
+        <v>742</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8523,16 +8529,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8582,13 +8588,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8606,10 +8612,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8644,16 +8650,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>237</v>
@@ -8668,10 +8674,10 @@
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8721,16 +8727,16 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>240</v>
@@ -8745,10 +8751,10 @@
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8783,16 +8789,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>237</v>
@@ -8807,10 +8813,10 @@
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
@@ -8860,16 +8866,16 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>245</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>240</v>
@@ -8884,10 +8890,10 @@
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
@@ -8937,16 +8943,16 @@
         <v>303</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -9011,16 +9017,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>190</v>
@@ -9045,7 +9051,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9088,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9097,10 +9103,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>420</v>
+        <v>732</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>191</v>
@@ -9115,14 +9121,14 @@
         <v>8</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9165,19 +9171,19 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>292</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>293</v>
@@ -9186,7 +9192,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
@@ -9242,10 +9248,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>196</v>
@@ -9254,7 +9260,7 @@
         <v>197</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>198</v>
@@ -9263,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>8</v>
@@ -9304,10 +9310,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>230</v>
@@ -9316,7 +9322,7 @@
         <v>202</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>198</v>
@@ -9325,7 +9331,7 @@
         <v>6</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>8</v>
@@ -9366,19 +9372,19 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>203</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>198</v>
@@ -9387,7 +9393,7 @@
         <v>6</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>8</v>
@@ -9428,10 +9434,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>231</v>
@@ -9440,7 +9446,7 @@
         <v>204</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>205</v>
@@ -9449,7 +9455,7 @@
         <v>6</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>8</v>
@@ -9490,10 +9496,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>206</v>
@@ -9502,7 +9508,7 @@
         <v>207</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>208</v>
@@ -9511,7 +9517,7 @@
         <v>6</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>8</v>
@@ -9552,10 +9558,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>224</v>
@@ -9564,7 +9570,7 @@
         <v>213</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>214</v>
@@ -9573,7 +9579,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>8</v>
@@ -9614,10 +9620,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>225</v>
@@ -9626,7 +9632,7 @@
         <v>216</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>214</v>
@@ -9635,7 +9641,7 @@
         <v>6</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>8</v>
@@ -9676,10 +9682,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>226</v>
@@ -9688,7 +9694,7 @@
         <v>217</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>214</v>
@@ -9697,7 +9703,7 @@
         <v>6</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>8</v>
@@ -9738,10 +9744,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>227</v>
@@ -9750,7 +9756,7 @@
         <v>218</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>214</v>
@@ -9759,7 +9765,7 @@
         <v>6</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>8</v>
@@ -9815,10 +9821,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>228</v>
@@ -9827,7 +9833,7 @@
         <v>219</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>214</v>
@@ -9836,7 +9842,7 @@
         <v>6</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>8</v>
@@ -9892,10 +9898,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>229</v>
@@ -9904,7 +9910,7 @@
         <v>220</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>214</v>
@@ -9913,7 +9919,7 @@
         <v>6</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>8</v>
@@ -9972,13 +9978,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>257</v>
@@ -9996,10 +10002,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>244</v>
@@ -10034,13 +10040,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>259</v>
@@ -10058,10 +10064,10 @@
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P107" s="7" t="s">
         <v>244</v>
@@ -10096,13 +10102,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>261</v>
@@ -10120,10 +10126,10 @@
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>244</v>
@@ -10158,13 +10164,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>267</v>
@@ -10182,10 +10188,10 @@
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
@@ -10235,13 +10241,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>263</v>
@@ -10259,10 +10265,10 @@
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>244</v>
@@ -10297,13 +10303,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>265</v>
@@ -10321,10 +10327,10 @@
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
@@ -10374,13 +10380,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>247</v>
@@ -10398,10 +10404,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P112" s="7" t="s">
         <v>244</v>
@@ -10436,13 +10442,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>250</v>
@@ -10460,10 +10466,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>244</v>
@@ -10498,13 +10504,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>252</v>
@@ -10522,10 +10528,10 @@
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>244</v>
@@ -10560,13 +10566,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F115" s="21" t="s">
         <v>253</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>254</v>
@@ -10584,10 +10590,10 @@
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P115" s="7" t="s">
         <v>244</v>
@@ -10622,16 +10628,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10646,10 +10652,10 @@
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
@@ -10699,16 +10705,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10717,7 +10723,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
@@ -10776,7 +10782,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>209</v>
@@ -10785,7 +10791,7 @@
         <v>221</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>210</v>
@@ -10794,7 +10800,7 @@
         <v>6</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>8</v>
@@ -10838,7 +10844,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>211</v>
@@ -10847,7 +10853,7 @@
         <v>222</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>210</v>
@@ -10856,7 +10862,7 @@
         <v>6</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>8</v>
@@ -10900,7 +10906,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>212</v>
@@ -10909,7 +10915,7 @@
         <v>223</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>210</v>
@@ -10918,7 +10924,7 @@
         <v>6</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>8</v>
@@ -10962,16 +10968,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10986,10 +10992,10 @@
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
@@ -11036,16 +11042,16 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>271</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>272</v>
@@ -11096,13 +11102,13 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>276</v>
@@ -11156,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>278</v>
@@ -11216,10 +11222,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>281</v>
@@ -11291,19 +11297,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>284</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
@@ -11366,10 +11372,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>285</v>
@@ -11440,10 +11446,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>289</v>
@@ -11520,19 +11526,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11597,19 +11603,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11674,19 +11680,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11751,16 +11757,16 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11828,16 +11834,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11905,16 +11911,16 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11982,16 +11988,16 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F135" s="35" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12059,16 +12065,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
@@ -12200,7 +12206,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>175</v>
@@ -12208,7 +12214,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>177</v>
@@ -12216,7 +12222,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -12224,7 +12230,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -12232,15 +12238,15 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
@@ -12248,7 +12254,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -12256,7 +12262,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>181</v>
@@ -12264,7 +12270,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>182</v>
@@ -12272,7 +12278,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>183</v>
@@ -12280,7 +12286,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>184</v>
@@ -12288,7 +12294,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
@@ -12296,7 +12302,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>186</v>
@@ -12304,7 +12310,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
@@ -12312,7 +12318,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
@@ -12320,42 +12326,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -2781,10 +2781,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -2234,12 +2234,6 @@
     <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres.</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados sin seguro de desempleo.</t>
-  </si>
-  <si>
-    <t>El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad social.</t>
-  </si>
-  <si>
     <t>El indicador mide el peso del gasto público en educación en el total de gasto público social (GPS). El GPS se compone del gasto en educación; salud; seguridad y asistencia social; vivienda, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
   </si>
   <si>
@@ -2253,6 +2247,12 @@
   </si>
   <si>
     <t>El indicador mide el peso del gasto público en salud en el total de gasto público social (GPS). El GPS se compone del gasto en salud; salud; seguridad y asistencia social; salud, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están ocupados y no aportan a la seguridad, sobre el total de NNA con jefes/as o cónyuges ocupados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados y no perciben seguro de desempleo, sobre el total de NNA que residen en hogares cuyo jefe/a y/o cónyuge están desempleados. </t>
   </si>
 </sst>
 </file>
@@ -2781,10 +2781,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128:E128"/>
+      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3024,7 +3024,7 @@
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -5385,7 +5385,7 @@
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>416</v>
@@ -6768,7 +6768,7 @@
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>415</v>
@@ -7016,7 +7016,7 @@
         <v>649</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -8517,7 +8517,7 @@
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>414</v>
@@ -11994,7 +11994,7 @@
         <v>682</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>711</v>
@@ -12071,7 +12071,7 @@
         <v>684</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>712</v>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -923,9 +923,6 @@
     <t>Para cada año calcular: (Cantidad de personas de 21 a 23 años que no culminaron la educación media básica / Cantidad de población de 21 a 23 años)*100</t>
   </si>
   <si>
-    <t>Porcentaje de inactivos mayores de 60 años que no perciben jubilaciones ni pensiones</t>
-  </si>
-  <si>
     <t>Porcentaje de mayores de 65 años que no perciben jubilaciones ni pensiones</t>
   </si>
   <si>
@@ -1712,9 +1709,6 @@
     <t>Mayores de 65 años sin pensión ni jubilación</t>
   </si>
   <si>
-    <t>Inactivos mayores de 60 años sin pensión ni jubilación</t>
-  </si>
-  <si>
     <t>Población activa que no aporta a la seguridad social</t>
   </si>
   <si>
@@ -2207,9 +2201,6 @@
     <t>El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aqeulla en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
   </si>
   <si>
-    <t>El indicador mide el porcentaje de mayores de 60 años inactivos que no perciben jubilaciones ni pensiones.</t>
-  </si>
-  <si>
     <t>El indicador mide el porcentaje de mayores de 65 años que no perciben jubilaciones ni pensiones.</t>
   </si>
   <si>
@@ -2253,6 +2244,15 @@
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares cuyo jefe/a y/o cónyuge están desocupados y no perciben seguro de desempleo, sobre el total de NNA que residen en hogares cuyo jefe/a y/o cónyuge están desempleados. </t>
+  </si>
+  <si>
+    <t>Mayores de 60 años sin pensión ni jubilación y que no participan del mercado de trabajo</t>
+  </si>
+  <si>
+    <t>Porcentaje de mayores de 60 años que no perciben jubilaciones ni pensiones y que no participan del mercado de trabajo</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mayores de 60 años inactivos (que no participan del mercado de trabajo) que no perciben jubilaciones ni pensiones.</t>
   </si>
 </sst>
 </file>
@@ -2781,10 +2781,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2817,67 +2817,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="D1" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="S1" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="U1" s="34" t="s">
         <v>686</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>687</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1">
@@ -2894,13 +2894,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>114</v>
@@ -2912,16 +2912,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>17</v>
@@ -2956,13 +2956,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -2974,16 +2974,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>17</v>
@@ -3018,13 +3018,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>116</v>
@@ -3036,16 +3036,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>17</v>
@@ -3080,13 +3080,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>112</v>
@@ -3104,10 +3104,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>17</v>
@@ -3142,16 +3142,16 @@
         <v>104</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -3166,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -3204,16 +3204,16 @@
         <v>104</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>5</v>
@@ -3228,10 +3228,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>25</v>
@@ -3266,13 +3266,13 @@
         <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>115</v>
@@ -3290,10 +3290,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>25</v>
@@ -3328,13 +3328,13 @@
         <v>104</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>30</v>
@@ -3352,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>85</v>
@@ -3390,13 +3390,13 @@
         <v>104</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>86</v>
@@ -3414,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>85</v>
@@ -3452,13 +3452,13 @@
         <v>104</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -3476,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>85</v>
@@ -3514,16 +3514,16 @@
         <v>104</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
@@ -3538,13 +3538,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>495</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>104</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>295</v>
@@ -3600,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
@@ -3638,13 +3638,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
@@ -3662,10 +3662,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>96</v>
@@ -3694,22 +3694,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>5</v>
@@ -3718,7 +3718,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>8</v>
@@ -3756,22 +3756,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>5</v>
@@ -3780,7 +3780,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>8</v>
@@ -3818,22 +3818,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>5</v>
@@ -3842,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>8</v>
@@ -3886,13 +3886,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>139</v>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -3951,13 +3951,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>140</v>
@@ -3984,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>141</v>
@@ -4049,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
@@ -4081,13 +4081,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>148</v>
@@ -4114,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -4160,13 +4160,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>149</v>
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
@@ -4272,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>297</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>298</v>
@@ -4337,7 +4337,7 @@
         <v>233</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -4383,13 +4383,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>235</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>234</v>
@@ -4416,7 +4416,7 @@
         <v>233</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -4462,13 +4462,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>142</v>
@@ -4486,16 +4486,16 @@
         <v>8</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
@@ -4527,13 +4527,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>143</v>
@@ -4551,16 +4551,16 @@
         <v>8</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
@@ -4606,13 +4606,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>151</v>
@@ -4630,16 +4630,16 @@
         <v>8</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -4685,16 +4685,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>5</v>
@@ -4709,16 +4709,16 @@
         <v>8</v>
       </c>
       <c r="M29" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
@@ -4750,16 +4750,16 @@
         <v>12</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>5</v>
@@ -4774,16 +4774,16 @@
         <v>8</v>
       </c>
       <c r="M30" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="N30" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4829,13 +4829,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>144</v>
@@ -4853,10 +4853,10 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="13" t="s">
@@ -4906,13 +4906,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>145</v>
@@ -4930,10 +4930,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="13" t="s">
@@ -4983,13 +4983,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>146</v>
@@ -5007,10 +5007,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="13" t="s">
@@ -5046,13 +5046,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>147</v>
@@ -5070,10 +5070,10 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
@@ -5125,13 +5125,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>152</v>
@@ -5190,13 +5190,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>153</v>
@@ -5223,7 +5223,7 @@
         <v>75</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
@@ -5255,13 +5255,13 @@
         <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>119</v>
@@ -5273,16 +5273,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>17</v>
@@ -5317,13 +5317,13 @@
         <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>121</v>
@@ -5341,10 +5341,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>17</v>
@@ -5379,16 +5379,16 @@
         <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>5</v>
@@ -5397,16 +5397,16 @@
         <v>6</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>17</v>
@@ -5441,13 +5441,13 @@
         <v>104</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>124</v>
@@ -5465,10 +5465,10 @@
         <v>8</v>
       </c>
       <c r="M40" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>17</v>
@@ -5503,19 +5503,19 @@
         <v>104</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>6</v>
@@ -5527,14 +5527,14 @@
         <v>8</v>
       </c>
       <c r="M41" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q41" s="6">
         <v>0</v>
@@ -5580,38 +5580,38 @@
         <v>104</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="I42" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q42" s="6">
         <v>0</v>
@@ -5657,38 +5657,38 @@
         <v>104</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="I43" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q43" s="6">
         <v>0</v>
@@ -5734,13 +5734,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -5767,7 +5767,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q44" s="6">
         <v>1</v>
@@ -5813,13 +5813,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>154</v>
@@ -5846,7 +5846,7 @@
         <v>43</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q45" s="6">
         <v>0</v>
@@ -5892,13 +5892,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>155</v>
@@ -5925,7 +5925,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q46" s="6">
         <v>0</v>
@@ -5971,13 +5971,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>189</v>
@@ -6001,10 +6001,10 @@
         <v>194</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q47" s="6">
         <v>1</v>
@@ -6036,13 +6036,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>162</v>
@@ -6069,7 +6069,7 @@
         <v>163</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q48" s="6">
         <v>0</v>
@@ -6101,16 +6101,16 @@
         <v>46</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>5</v>
@@ -6131,10 +6131,10 @@
         <v>194</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q49" s="6">
         <v>1</v>
@@ -6166,16 +6166,16 @@
         <v>46</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>5</v>
@@ -6196,10 +6196,10 @@
         <v>194</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -6245,16 +6245,16 @@
         <v>46</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>5</v>
@@ -6275,10 +6275,10 @@
         <v>194</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -6324,16 +6324,16 @@
         <v>46</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>5</v>
@@ -6354,10 +6354,10 @@
         <v>194</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -6403,16 +6403,16 @@
         <v>47</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>5</v>
@@ -6433,10 +6433,10 @@
         <v>194</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -6482,13 +6482,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>156</v>
@@ -6515,7 +6515,7 @@
         <v>49</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -6561,13 +6561,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>157</v>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q55" s="6">
         <v>1</v>
@@ -6638,13 +6638,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>126</v>
@@ -6656,16 +6656,16 @@
         <v>6</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>17</v>
@@ -6700,13 +6700,13 @@
         <v>104</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>128</v>
@@ -6724,10 +6724,10 @@
         <v>8</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>17</v>
@@ -6762,16 +6762,16 @@
         <v>104</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>5</v>
@@ -6780,16 +6780,16 @@
         <v>6</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>17</v>
@@ -6824,13 +6824,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>131</v>
@@ -6848,10 +6848,10 @@
         <v>8</v>
       </c>
       <c r="M59" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>17</v>
@@ -6886,13 +6886,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>170</v>
@@ -6910,10 +6910,10 @@
         <v>8</v>
       </c>
       <c r="M60" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>17</v>
@@ -6948,13 +6948,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>173</v>
@@ -6972,10 +6972,10 @@
         <v>8</v>
       </c>
       <c r="M61" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N61" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>17</v>
@@ -7010,13 +7010,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>174</v>
@@ -7034,10 +7034,10 @@
         <v>8</v>
       </c>
       <c r="M62" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N62" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>17</v>
@@ -7072,13 +7072,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>158</v>
@@ -7090,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>8</v>
@@ -7137,13 +7137,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>159</v>
@@ -7170,7 +7170,7 @@
         <v>54</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q64" s="6">
         <v>0</v>
@@ -7202,16 +7202,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>5</v>
@@ -7235,7 +7235,7 @@
         <v>54</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7273,10 +7273,10 @@
         <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>5</v>
@@ -7300,7 +7300,7 @@
         <v>54</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q66" s="6">
         <v>1</v>
@@ -7332,16 +7332,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>5</v>
@@ -7397,16 +7397,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>5</v>
@@ -7462,16 +7462,16 @@
         <v>3</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>562</v>
+        <v>740</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>299</v>
+        <v>741</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>5</v>
@@ -7495,7 +7495,7 @@
         <v>54</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q69" s="6">
         <v>1</v>
@@ -7527,16 +7527,16 @@
         <v>59</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>5</v>
@@ -7592,16 +7592,16 @@
         <v>59</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>5</v>
@@ -7657,16 +7657,16 @@
         <v>59</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>5</v>
@@ -7722,16 +7722,16 @@
         <v>59</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>5</v>
@@ -7787,16 +7787,16 @@
         <v>59</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>5</v>
@@ -7852,16 +7852,16 @@
         <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         <v>59</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>5</v>
@@ -7982,16 +7982,16 @@
         <v>59</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>5</v>
@@ -8047,16 +8047,16 @@
         <v>59</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>5</v>
@@ -8112,16 +8112,16 @@
         <v>59</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>5</v>
@@ -8177,16 +8177,16 @@
         <v>59</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>5</v>
@@ -8242,16 +8242,16 @@
         <v>59</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>5</v>
@@ -8307,13 +8307,13 @@
         <v>59</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>160</v>
@@ -8372,13 +8372,13 @@
         <v>104</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>133</v>
@@ -8390,16 +8390,16 @@
         <v>6</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>17</v>
@@ -8434,13 +8434,13 @@
         <v>104</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>135</v>
@@ -8458,10 +8458,10 @@
         <v>8</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6" t="s">
@@ -8511,16 +8511,16 @@
         <v>104</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>5</v>
@@ -8529,16 +8529,16 @@
         <v>6</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6" t="s">
@@ -8588,13 +8588,13 @@
         <v>104</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>138</v>
@@ -8612,10 +8612,10 @@
         <v>8</v>
       </c>
       <c r="M86" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="N86" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>17</v>
@@ -8650,16 +8650,16 @@
         <v>104</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>237</v>
@@ -8674,10 +8674,10 @@
         <v>8</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6" t="s">
@@ -8727,16 +8727,16 @@
         <v>104</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>240</v>
@@ -8751,10 +8751,10 @@
         <v>8</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>17</v>
@@ -8789,16 +8789,16 @@
         <v>104</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>237</v>
@@ -8813,10 +8813,10 @@
         <v>8</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7" t="s">
@@ -8866,16 +8866,16 @@
         <v>104</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>245</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>240</v>
@@ -8890,10 +8890,10 @@
         <v>8</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7" t="s">
@@ -8937,22 +8937,22 @@
         <v>70</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>5</v>
@@ -8967,14 +8967,14 @@
         <v>8</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O91" s="7"/>
       <c r="P91" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q91" s="6">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>190</v>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q92" s="6">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>71</v>
@@ -9103,10 +9103,10 @@
         <v>71</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>191</v>
@@ -9121,14 +9121,14 @@
         <v>8</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q93" s="6">
         <v>1</v>
@@ -9171,19 +9171,19 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>292</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>293</v>
@@ -9192,7 +9192,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>8</v>
@@ -9248,10 +9248,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>196</v>
@@ -9260,7 +9260,7 @@
         <v>197</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>198</v>
@@ -9269,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>8</v>
@@ -9310,10 +9310,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>230</v>
@@ -9322,7 +9322,7 @@
         <v>202</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>198</v>
@@ -9331,7 +9331,7 @@
         <v>6</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>8</v>
@@ -9372,19 +9372,19 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>203</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>198</v>
@@ -9393,7 +9393,7 @@
         <v>6</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>8</v>
@@ -9434,10 +9434,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>231</v>
@@ -9446,7 +9446,7 @@
         <v>204</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>205</v>
@@ -9455,7 +9455,7 @@
         <v>6</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>8</v>
@@ -9496,10 +9496,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>206</v>
@@ -9508,7 +9508,7 @@
         <v>207</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>208</v>
@@ -9517,7 +9517,7 @@
         <v>6</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>8</v>
@@ -9558,10 +9558,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>224</v>
@@ -9570,7 +9570,7 @@
         <v>213</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>214</v>
@@ -9579,7 +9579,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>8</v>
@@ -9620,10 +9620,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>225</v>
@@ -9632,7 +9632,7 @@
         <v>216</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>214</v>
@@ -9641,7 +9641,7 @@
         <v>6</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>8</v>
@@ -9682,10 +9682,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>226</v>
@@ -9694,7 +9694,7 @@
         <v>217</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>214</v>
@@ -9703,7 +9703,7 @@
         <v>6</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>8</v>
@@ -9744,10 +9744,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>227</v>
@@ -9756,7 +9756,7 @@
         <v>218</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>214</v>
@@ -9765,7 +9765,7 @@
         <v>6</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>8</v>
@@ -9821,10 +9821,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>228</v>
@@ -9833,7 +9833,7 @@
         <v>219</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>214</v>
@@ -9842,7 +9842,7 @@
         <v>6</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>8</v>
@@ -9898,10 +9898,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>229</v>
@@ -9910,7 +9910,7 @@
         <v>220</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>214</v>
@@ -9919,7 +9919,7 @@
         <v>6</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>8</v>
@@ -9978,13 +9978,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>257</v>
@@ -10002,10 +10002,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>244</v>
@@ -10040,13 +10040,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>259</v>
@@ -10064,10 +10064,10 @@
         <v>8</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P107" s="7" t="s">
         <v>244</v>
@@ -10102,13 +10102,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>261</v>
@@ -10126,10 +10126,10 @@
         <v>8</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>244</v>
@@ -10164,13 +10164,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>267</v>
@@ -10188,10 +10188,10 @@
         <v>8</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7" t="s">
@@ -10241,13 +10241,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>263</v>
@@ -10265,10 +10265,10 @@
         <v>8</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>244</v>
@@ -10303,13 +10303,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>265</v>
@@ -10327,10 +10327,10 @@
         <v>8</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7" t="s">
@@ -10380,13 +10380,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>247</v>
@@ -10404,10 +10404,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P112" s="7" t="s">
         <v>244</v>
@@ -10442,13 +10442,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>250</v>
@@ -10466,10 +10466,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>244</v>
@@ -10504,13 +10504,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>252</v>
@@ -10528,10 +10528,10 @@
         <v>8</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>244</v>
@@ -10566,13 +10566,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F115" s="21" t="s">
         <v>253</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>254</v>
@@ -10590,10 +10590,10 @@
         <v>8</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P115" s="7" t="s">
         <v>244</v>
@@ -10628,16 +10628,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>5</v>
@@ -10652,10 +10652,10 @@
         <v>8</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7" t="s">
@@ -10705,16 +10705,16 @@
         <v>15</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>5</v>
@@ -10723,7 +10723,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>8</v>
@@ -10782,7 +10782,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>209</v>
@@ -10791,7 +10791,7 @@
         <v>221</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>210</v>
@@ -10800,7 +10800,7 @@
         <v>6</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>8</v>
@@ -10844,7 +10844,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>211</v>
@@ -10853,7 +10853,7 @@
         <v>222</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>210</v>
@@ -10862,7 +10862,7 @@
         <v>6</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>8</v>
@@ -10906,7 +10906,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>212</v>
@@ -10915,7 +10915,7 @@
         <v>223</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>210</v>
@@ -10924,7 +10924,7 @@
         <v>6</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>8</v>
@@ -10968,16 +10968,16 @@
         <v>15</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>5</v>
@@ -10992,10 +10992,10 @@
         <v>8</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O121" s="7"/>
       <c r="P121" s="7" t="s">
@@ -11042,16 +11042,16 @@
         <v>2</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>271</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>272</v>
@@ -11102,13 +11102,13 @@
         <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>276</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>278</v>
@@ -11222,10 +11222,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>281</v>
@@ -11297,19 +11297,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>284</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I126" s="23"/>
       <c r="J126" s="7" t="s">
@@ -11372,10 +11372,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>285</v>
@@ -11446,10 +11446,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>289</v>
@@ -11526,19 +11526,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>6</v>
@@ -11603,19 +11603,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>6</v>
@@ -11680,19 +11680,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>6</v>
@@ -11757,16 +11757,16 @@
         <v>3</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>5</v>
@@ -11834,16 +11834,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>5</v>
@@ -11911,16 +11911,16 @@
         <v>3</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>5</v>
@@ -11988,16 +11988,16 @@
         <v>3</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F135" s="35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>5</v>
@@ -12065,16 +12065,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I136" s="23" t="s">
         <v>5</v>
@@ -12206,7 +12206,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>175</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>177</v>
@@ -12222,7 +12222,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -12230,7 +12230,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -12238,15 +12238,15 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>181</v>
@@ -12270,7 +12270,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>182</v>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>183</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>184</v>
@@ -12294,7 +12294,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>186</v>
@@ -12310,7 +12310,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
@@ -12318,7 +12318,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
@@ -12326,42 +12326,42 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="744">
   <si>
     <t>id</t>
   </si>
@@ -2253,6 +2253,9 @@
   </si>
   <si>
     <t>El indicador mide el porcentaje de mayores de 60 años inactivos (que no participan del mercado de trabajo) que no perciben jubilaciones ni pensiones.</t>
+  </si>
+  <si>
+    <t>Informalidad (Ocupados que no aportan a la seguridad social)</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2787,7 @@
     <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7267,7 +7270,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>56</v>
+        <v>743</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>56</v>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app-mainRESPALDO 01.9.2022\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3377,9 +3377,6 @@
     <t>Poseer ingresos por debajo de la línea de pobreza</t>
   </si>
   <si>
-    <t>Ingresos insuficientes (inferiores al salario mínimo nacional de línea de pobreza)</t>
-  </si>
-  <si>
     <t>Porcentaje de ocupados con salario por debajo del Salario Mínimo Nacional</t>
   </si>
   <si>
@@ -4085,6 +4082,9 @@
   </si>
   <si>
     <t xml:space="preserve">Porcentaje de convenios colectivos que incorporan cláusulas no salariales,: </t>
+  </si>
+  <si>
+    <t>Ingresos insuficientes (inferiores al salario mínimo nacional)</t>
   </si>
 </sst>
 </file>
@@ -4663,9 +4663,9 @@
   <dimension ref="A1:AK269"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
+      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4766,7 +4766,7 @@
         <v>675</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="6" customFormat="1">
@@ -7156,10 +7156,10 @@
         <v>8</v>
       </c>
       <c r="N35" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O35" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>23</v>
@@ -7339,7 +7339,7 @@
         <v>792</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>377</v>
@@ -7405,7 +7405,7 @@
         <v>795</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>722</v>
@@ -9205,10 +9205,10 @@
         <v>8</v>
       </c>
       <c r="N63" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O63" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>54</v>
@@ -9258,7 +9258,7 @@
         <v>714</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>5</v>
@@ -9273,10 +9273,10 @@
         <v>8</v>
       </c>
       <c r="N64" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O64" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>54</v>
@@ -9342,10 +9342,10 @@
         <v>8</v>
       </c>
       <c r="N65" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O65" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>54</v>
@@ -9410,10 +9410,10 @@
         <v>8</v>
       </c>
       <c r="N66" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>54</v>
@@ -9478,10 +9478,10 @@
         <v>8</v>
       </c>
       <c r="N67" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O67" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>54</v>
@@ -9547,10 +9547,10 @@
         <v>8</v>
       </c>
       <c r="N68" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O68" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>54</v>
@@ -9611,16 +9611,16 @@
         <v>6</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O69" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7" t="s">
@@ -10248,7 +10248,7 @@
         <v>730</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>5</v>
@@ -10332,10 +10332,10 @@
         <v>8</v>
       </c>
       <c r="N78" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O78" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>61</v>
@@ -10401,10 +10401,10 @@
         <v>8</v>
       </c>
       <c r="N79" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O79" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O79" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>61</v>
@@ -10470,10 +10470,10 @@
         <v>8</v>
       </c>
       <c r="N80" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O80" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>61</v>
@@ -10539,10 +10539,10 @@
         <v>8</v>
       </c>
       <c r="N81" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>61</v>
@@ -10608,10 +10608,10 @@
         <v>8</v>
       </c>
       <c r="N82" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O82" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O82" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>61</v>
@@ -10677,10 +10677,10 @@
         <v>8</v>
       </c>
       <c r="N83" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O83" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O83" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>61</v>
@@ -10747,10 +10747,10 @@
         <v>8</v>
       </c>
       <c r="N84" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O84" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>61</v>
@@ -10829,10 +10829,10 @@
         <v>8</v>
       </c>
       <c r="N85" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O85" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O85" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>61</v>
@@ -10910,10 +10910,10 @@
         <v>8</v>
       </c>
       <c r="N86" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O86" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>61</v>
@@ -10980,10 +10980,10 @@
         <v>8</v>
       </c>
       <c r="N87" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O87" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>61</v>
@@ -11061,10 +11061,10 @@
         <v>8</v>
       </c>
       <c r="N88" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O88" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O88" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>61</v>
@@ -11130,10 +11130,10 @@
         <v>8</v>
       </c>
       <c r="N89" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O89" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O89" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>61</v>
@@ -11200,10 +11200,10 @@
         <v>8</v>
       </c>
       <c r="N90" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O90" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>61</v>
@@ -15296,7 +15296,7 @@
         <v>1098</v>
       </c>
       <c r="H143" s="52" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>1099</v>
@@ -15494,7 +15494,7 @@
         <v>1104</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>1105</v>
@@ -15559,7 +15559,7 @@
         <v>1088</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>1089</v>
@@ -15624,7 +15624,7 @@
         <v>1090</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>1091</v>
@@ -15692,7 +15692,7 @@
         <v>1092</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>1093</v>
@@ -15757,7 +15757,7 @@
         <v>1094</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>1095</v>
@@ -15822,7 +15822,7 @@
         <v>1096</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>1097</v>
@@ -15887,7 +15887,7 @@
         <v>1106</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>1107</v>
@@ -15949,16 +15949,16 @@
         <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="H153" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I153" s="6" t="s">
         <v>1110</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>1111</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>5</v>
@@ -15973,13 +15973,13 @@
         <v>8</v>
       </c>
       <c r="N153" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O153" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="O153" s="6" t="s">
+      <c r="P153" s="7" t="s">
         <v>1113</v>
-      </c>
-      <c r="P153" s="7" t="s">
-        <v>1114</v>
       </c>
       <c r="Q153" s="6" t="s">
         <v>470</v>
@@ -16017,16 +16017,16 @@
         <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I154" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>1116</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>5</v>
@@ -16082,16 +16082,16 @@
         <v>15</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G155" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="H155" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="I155" s="6" t="s">
         <v>1119</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>1120</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>5</v>
@@ -16112,7 +16112,7 @@
         <v>187</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q155" s="7" t="s">
         <v>475</v>
@@ -16150,16 +16150,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H156" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H156" s="7" t="s">
+      <c r="I156" s="7" t="s">
         <v>1123</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>1124</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>5</v>
@@ -16168,16 +16168,16 @@
         <v>231</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N156" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O156" s="7" t="s">
         <v>1126</v>
-      </c>
-      <c r="O156" s="7" t="s">
-        <v>1127</v>
       </c>
       <c r="Q156" s="7" t="s">
         <v>17</v>
@@ -16215,16 +16215,16 @@
         <v>15</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H157" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H157" s="7" t="s">
+      <c r="I157" s="7" t="s">
         <v>1129</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>1130</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>5</v>
@@ -16233,16 +16233,16 @@
         <v>231</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N157" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O157" s="7" t="s">
         <v>1132</v>
-      </c>
-      <c r="O157" s="7" t="s">
-        <v>1133</v>
       </c>
       <c r="Q157" s="7" t="s">
         <v>17</v>
@@ -16280,19 +16280,19 @@
         <v>15</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="I158" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="I158" s="7" t="s">
+      <c r="J158" s="7" t="s">
         <v>1137</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>1138</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>231</v>
@@ -16346,16 +16346,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="40" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H159" s="40" t="s">
         <v>1139</v>
       </c>
-      <c r="G159" s="40" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H159" s="40" t="s">
+      <c r="I159" s="40" t="s">
         <v>1140</v>
-      </c>
-      <c r="I159" s="40" t="s">
-        <v>1141</v>
       </c>
       <c r="J159" s="40" t="s">
         <v>5</v>
@@ -16364,20 +16364,20 @@
         <v>6</v>
       </c>
       <c r="L159" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M159" s="44" t="s">
         <v>1142</v>
       </c>
-      <c r="M159" s="44" t="s">
+      <c r="N159" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="N159" s="40" t="s">
+      <c r="O159" s="40" t="s">
         <v>1144</v>
-      </c>
-      <c r="O159" s="40" t="s">
-        <v>1145</v>
       </c>
       <c r="P159" s="40"/>
       <c r="Q159" s="40" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R159" s="44">
         <v>0</v>
@@ -16412,10 +16412,10 @@
         <v>104</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>790</v>
@@ -16478,10 +16478,10 @@
         <v>104</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>793</v>
@@ -16544,10 +16544,10 @@
         <v>104</v>
       </c>
       <c r="F162" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>1291</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>1292</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>796</v>
@@ -17261,10 +17261,10 @@
         <v>3</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>798</v>
@@ -17329,10 +17329,10 @@
         <v>3</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>378</v>
@@ -17397,10 +17397,10 @@
         <v>3</v>
       </c>
       <c r="F175" s="36" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>419</v>
@@ -18697,19 +18697,19 @@
         <v>2</v>
       </c>
       <c r="E194" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="G194" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="G194" s="6" t="s">
+      <c r="H194" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="I194" s="7" t="s">
         <v>1150</v>
-      </c>
-      <c r="I194" s="7" t="s">
-        <v>1151</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>5</v>
@@ -18765,19 +18765,19 @@
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F195" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G195" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="G195" s="6" t="s">
+      <c r="H195" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="I195" s="46" t="s">
         <v>1154</v>
-      </c>
-      <c r="I195" s="46" t="s">
-        <v>1155</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>979</v>
@@ -18833,19 +18833,19 @@
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F196" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H196" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H196" s="7" t="s">
+      <c r="I196" s="7" t="s">
         <v>1157</v>
-      </c>
-      <c r="I196" s="7" t="s">
-        <v>1158</v>
       </c>
       <c r="J196" s="7" t="s">
         <v>806</v>
@@ -18866,7 +18866,7 @@
         <v>909</v>
       </c>
       <c r="Q196" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R196" s="44">
         <v>0</v>
@@ -19395,7 +19395,7 @@
         <v>912</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H204" s="7" t="s">
         <v>913</v>
@@ -19464,7 +19464,7 @@
         <v>919</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H205" s="7" t="s">
         <v>920</v>
@@ -19533,7 +19533,7 @@
         <v>922</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>923</v>
@@ -19602,7 +19602,7 @@
         <v>925</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H207" s="7" t="s">
         <v>926</v>
@@ -19742,10 +19742,10 @@
         <v>3</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>1048</v>
@@ -19810,10 +19810,10 @@
         <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>1051</v>
@@ -19878,10 +19878,10 @@
         <v>3</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>1053</v>
@@ -19946,10 +19946,10 @@
         <v>3</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>1055</v>
@@ -20014,10 +20014,10 @@
         <v>3</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>1057</v>
@@ -20082,10 +20082,10 @@
         <v>3</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>1059</v>
@@ -20150,10 +20150,10 @@
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>1061</v>
@@ -20218,10 +20218,10 @@
         <v>3</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>1063</v>
@@ -20286,10 +20286,10 @@
         <v>3</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>1065</v>
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>2</v>
@@ -20372,7 +20372,7 @@
         <v>6</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M218" s="7" t="s">
         <v>940</v>
@@ -20417,7 +20417,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>2</v>
@@ -20444,7 +20444,7 @@
         <v>6</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M219" s="7" t="s">
         <v>940</v>
@@ -20489,7 +20489,7 @@
         <v>35</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>2</v>
@@ -20498,16 +20498,16 @@
         <v>36</v>
       </c>
       <c r="F220" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G220" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="H220" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="H220" s="6" t="s">
+      <c r="I220" s="6" t="s">
         <v>1168</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>1169</v>
       </c>
       <c r="J220" s="6" t="s">
         <v>5</v>
@@ -20516,7 +20516,7 @@
         <v>6</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M220" s="7" t="s">
         <v>940</v>
@@ -20560,7 +20560,7 @@
         <v>35</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>2</v>
@@ -20569,16 +20569,16 @@
         <v>41</v>
       </c>
       <c r="F221" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G221" s="7" t="s">
         <v>1170</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>1171</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>419</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>5</v>
@@ -20587,7 +20587,7 @@
         <v>6</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M221" s="7" t="s">
         <v>940</v>
@@ -20631,7 +20631,7 @@
         <v>35</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>2</v>
@@ -20640,16 +20640,16 @@
         <v>41</v>
       </c>
       <c r="F222" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G222" s="7" t="s">
         <v>1173</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>1174</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>378</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="J222" s="6" t="s">
         <v>5</v>
@@ -20658,7 +20658,7 @@
         <v>6</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M222" s="7" t="s">
         <v>940</v>
@@ -20702,7 +20702,7 @@
         <v>35</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>2</v>
@@ -20711,16 +20711,16 @@
         <v>41</v>
       </c>
       <c r="F223" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G223" s="7" t="s">
         <v>1176</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J223" s="6" t="s">
         <v>5</v>
@@ -20729,7 +20729,7 @@
         <v>6</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M223" s="7" t="s">
         <v>940</v>
@@ -20773,7 +20773,7 @@
         <v>35</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>2</v>
@@ -20782,16 +20782,16 @@
         <v>41</v>
       </c>
       <c r="F224" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>1179</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>1180</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>420</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J224" s="6" t="s">
         <v>5</v>
@@ -20800,7 +20800,7 @@
         <v>6</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M224" s="7" t="s">
         <v>940</v>
@@ -20850,7 +20850,7 @@
         <v>35</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>2</v>
@@ -20859,16 +20859,16 @@
         <v>46</v>
       </c>
       <c r="F225" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>1182</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>1183</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>421</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J225" s="6" t="s">
         <v>5</v>
@@ -20877,7 +20877,7 @@
         <v>6</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M225" s="7" t="s">
         <v>940</v>
@@ -20927,7 +20927,7 @@
         <v>35</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>2</v>
@@ -20936,16 +20936,16 @@
         <v>47</v>
       </c>
       <c r="F226" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>1185</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>1186</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>641</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J226" s="6" t="s">
         <v>5</v>
@@ -20954,7 +20954,7 @@
         <v>6</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M226" s="7" t="s">
         <v>940</v>
@@ -21004,7 +21004,7 @@
         <v>35</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>2</v>
@@ -21013,16 +21013,16 @@
         <v>47</v>
       </c>
       <c r="F227" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>1188</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>1189</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>379</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J227" s="6" t="s">
         <v>5</v>
@@ -21031,7 +21031,7 @@
         <v>6</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M227" s="7" t="s">
         <v>940</v>
@@ -21081,7 +21081,7 @@
         <v>52</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>2</v>
@@ -21108,7 +21108,7 @@
         <v>6</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M228" s="7" t="s">
         <v>940</v>
@@ -21155,7 +21155,7 @@
         <v>52</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>2</v>
@@ -21167,13 +21167,13 @@
         <v>996</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J229" s="6" t="s">
         <v>5</v>
@@ -21182,7 +21182,7 @@
         <v>6</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M229" s="7" t="s">
         <v>940</v>
@@ -21232,7 +21232,7 @@
         <v>52</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>2</v>
@@ -21244,7 +21244,7 @@
         <v>997</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>384</v>
@@ -21259,7 +21259,7 @@
         <v>6</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M230" s="7" t="s">
         <v>940</v>
@@ -21309,7 +21309,7 @@
         <v>52</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>2</v>
@@ -21321,13 +21321,13 @@
         <v>999</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J231" s="6" t="s">
         <v>5</v>
@@ -21336,7 +21336,7 @@
         <v>6</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M231" s="7" t="s">
         <v>940</v>
@@ -21386,7 +21386,7 @@
         <v>70</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>2</v>
@@ -21413,7 +21413,7 @@
         <v>6</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M232" s="7" t="s">
         <v>940</v>
@@ -21463,7 +21463,7 @@
         <v>1000</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>2</v>
@@ -21478,7 +21478,7 @@
         <v>1074</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I233" s="6" t="s">
         <v>1075</v>
@@ -21490,7 +21490,7 @@
         <v>6</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M233" s="7" t="s">
         <v>940</v>
@@ -21531,7 +21531,7 @@
         <v>1000</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>2</v>
@@ -21546,7 +21546,7 @@
         <v>1076</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I234" s="6" t="s">
         <v>1078</v>
@@ -21558,7 +21558,7 @@
         <v>6</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M234" s="7" t="s">
         <v>940</v>
@@ -21599,7 +21599,7 @@
         <v>1000</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>2</v>
@@ -21626,7 +21626,7 @@
         <v>6</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M235" s="7" t="s">
         <v>940</v>
@@ -21667,7 +21667,7 @@
         <v>1000</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
@@ -21682,7 +21682,7 @@
         <v>1081</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I236" s="6" t="s">
         <v>1082</v>
@@ -21694,7 +21694,7 @@
         <v>6</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M236" s="7" t="s">
         <v>940</v>
@@ -21735,7 +21735,7 @@
         <v>1000</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>2</v>
@@ -21750,7 +21750,7 @@
         <v>1083</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I237" s="6" t="s">
         <v>1084</v>
@@ -21762,7 +21762,7 @@
         <v>6</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M237" s="7" t="s">
         <v>940</v>
@@ -21803,7 +21803,7 @@
         <v>1000</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>2</v>
@@ -21815,10 +21815,10 @@
         <v>1085</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I238" s="6" t="s">
         <v>1086</v>
@@ -21830,7 +21830,7 @@
         <v>6</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M238" s="7" t="s">
         <v>940</v>
@@ -22090,16 +22090,16 @@
         <v>47</v>
       </c>
       <c r="F242" s="41" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G242" s="41" t="s">
         <v>1160</v>
       </c>
-      <c r="G242" s="41" t="s">
+      <c r="H242" s="40" t="s">
         <v>1161</v>
       </c>
-      <c r="H242" s="40" t="s">
+      <c r="I242" s="41" t="s">
         <v>1162</v>
-      </c>
-      <c r="I242" s="41" t="s">
-        <v>1163</v>
       </c>
       <c r="J242" s="40" t="s">
         <v>5</v>
@@ -22114,10 +22114,10 @@
         <v>8</v>
       </c>
       <c r="N242" s="41" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O242" s="40" t="s">
         <v>1164</v>
-      </c>
-      <c r="O242" s="40" t="s">
-        <v>1165</v>
       </c>
       <c r="P242" s="40"/>
       <c r="Q242" s="40" t="s">
@@ -22386,7 +22386,7 @@
         <v>1072</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>1073</v>
@@ -22441,25 +22441,25 @@
         <v>884</v>
       </c>
       <c r="D247" s="40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F247" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="E247" s="40" t="s">
+      <c r="G247" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="H247" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="G247" s="6" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H247" s="6" t="s">
+      <c r="I247" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="I247" s="6" t="s">
+      <c r="J247" s="6" t="s">
         <v>1194</v>
-      </c>
-      <c r="J247" s="6" t="s">
-        <v>1195</v>
       </c>
       <c r="K247" s="6" t="s">
         <v>6</v>
@@ -22508,22 +22508,22 @@
         <v>911</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F248" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="G248" s="7" t="s">
+      <c r="H248" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="I248" s="7" t="s">
         <v>1198</v>
-      </c>
-      <c r="I248" s="7" t="s">
-        <v>1199</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>5</v>
@@ -22544,7 +22544,7 @@
         <v>917</v>
       </c>
       <c r="Q248" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R248" s="7">
         <v>0</v>
@@ -22574,22 +22574,22 @@
         <v>911</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F249" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="H249" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="I249" s="7" t="s">
         <v>1203</v>
-      </c>
-      <c r="I249" s="7" t="s">
-        <v>1204</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>5</v>
@@ -22610,7 +22610,7 @@
         <v>917</v>
       </c>
       <c r="Q249" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R249" s="7">
         <v>0</v>
@@ -22640,22 +22640,22 @@
         <v>911</v>
       </c>
       <c r="D250" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F250" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="G250" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="H250" s="7" t="s">
+      <c r="I250" s="7" t="s">
         <v>1207</v>
-      </c>
-      <c r="I250" s="7" t="s">
-        <v>1208</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>5</v>
@@ -22676,7 +22676,7 @@
         <v>917</v>
       </c>
       <c r="Q250" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R250" s="7">
         <v>0</v>
@@ -22706,22 +22706,22 @@
         <v>911</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F251" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="G251" s="7" t="s">
+      <c r="H251" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="H251" s="7" t="s">
+      <c r="I251" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>1212</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>5</v>
@@ -22742,7 +22742,7 @@
         <v>917</v>
       </c>
       <c r="Q251" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R251" s="7">
         <v>0</v>
@@ -22773,22 +22773,22 @@
         <v>911</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F252" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="G252" s="7" t="s">
+      <c r="H252" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="H252" s="7" t="s">
+      <c r="I252" s="7" t="s">
         <v>1215</v>
-      </c>
-      <c r="I252" s="7" t="s">
-        <v>1216</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>5</v>
@@ -22810,7 +22810,7 @@
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R252" s="7">
         <v>0</v>
@@ -22845,22 +22845,22 @@
         <v>911</v>
       </c>
       <c r="D253" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F253" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="G253" s="7" t="s">
+      <c r="H253" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="H253" s="7" t="s">
+      <c r="I253" s="7" t="s">
         <v>1219</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>1220</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>5</v>
@@ -22881,7 +22881,7 @@
         <v>917</v>
       </c>
       <c r="Q253" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R253" s="7">
         <v>0</v>
@@ -22918,22 +22918,22 @@
         <v>911</v>
       </c>
       <c r="D254" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F254" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="G254" s="7" t="s">
+      <c r="H254" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="H254" s="7" t="s">
+      <c r="I254" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>1224</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>5</v>
@@ -22954,7 +22954,7 @@
         <v>917</v>
       </c>
       <c r="Q254" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R254" s="7">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>911</v>
       </c>
       <c r="D255" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="G255" s="7" t="s">
+      <c r="H255" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="H255" s="7" t="s">
+      <c r="I255" s="7" t="s">
         <v>1227</v>
-      </c>
-      <c r="I255" s="7" t="s">
-        <v>1228</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>5</v>
@@ -23029,7 +23029,7 @@
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R255" s="7">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>911</v>
       </c>
       <c r="D256" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F256" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="G256" s="7" t="s">
+      <c r="H256" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="I256" s="7" t="s">
         <v>1231</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>1232</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>5</v>
@@ -23103,7 +23103,7 @@
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R256" s="7">
         <v>0</v>
@@ -23140,22 +23140,22 @@
         <v>911</v>
       </c>
       <c r="D257" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F257" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="G257" s="7" t="s">
+      <c r="H257" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="H257" s="7" t="s">
+      <c r="I257" s="7" t="s">
         <v>1235</v>
-      </c>
-      <c r="I257" s="7" t="s">
-        <v>1236</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>5</v>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R257" s="7">
         <v>0</v>
@@ -23214,22 +23214,22 @@
         <v>911</v>
       </c>
       <c r="D258" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F258" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H258" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="G258" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H258" s="7" t="s">
+      <c r="I258" s="45" t="s">
         <v>1238</v>
-      </c>
-      <c r="I258" s="45" t="s">
-        <v>1239</v>
       </c>
       <c r="J258" s="7" t="s">
         <v>979</v>
@@ -23288,22 +23288,22 @@
         <v>911</v>
       </c>
       <c r="D259" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F259" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H259" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="G259" s="7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H259" s="7" t="s">
-        <v>1241</v>
-      </c>
       <c r="I259" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J259" s="7" t="s">
         <v>979</v>
@@ -23362,22 +23362,22 @@
         <v>911</v>
       </c>
       <c r="D260" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F260" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H260" s="7" t="s">
         <v>1242</v>
       </c>
-      <c r="G260" s="7" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H260" s="7" t="s">
-        <v>1243</v>
-      </c>
       <c r="I260" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J260" s="7" t="s">
         <v>979</v>
@@ -23436,22 +23436,22 @@
         <v>911</v>
       </c>
       <c r="D261" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F261" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H261" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="G261" s="7" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H261" s="7" t="s">
-        <v>1245</v>
-      </c>
       <c r="I261" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J261" s="7" t="s">
         <v>979</v>
@@ -23510,22 +23510,22 @@
         <v>911</v>
       </c>
       <c r="D262" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F262" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H262" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="G262" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H262" s="7" t="s">
-        <v>1247</v>
-      </c>
       <c r="I262" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J262" s="7" t="s">
         <v>979</v>
@@ -23581,25 +23581,25 @@
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D263" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H263" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I263" s="6" t="s">
         <v>1278</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>1279</v>
       </c>
       <c r="J263" s="7" t="s">
         <v>979</v>
@@ -23608,7 +23608,7 @@
         <v>6</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M263" s="6" t="s">
         <v>8</v>
@@ -23652,22 +23652,22 @@
         <v>875</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F264" s="40" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G264" s="41" t="s">
         <v>1248</v>
       </c>
-      <c r="G264" s="41" t="s">
+      <c r="H264" s="40" t="s">
         <v>1249</v>
       </c>
-      <c r="H264" s="40" t="s">
+      <c r="I264" s="41" t="s">
         <v>1250</v>
-      </c>
-      <c r="I264" s="41" t="s">
-        <v>1251</v>
       </c>
       <c r="J264" s="40" t="s">
         <v>806</v>
@@ -23676,16 +23676,16 @@
         <v>231</v>
       </c>
       <c r="L264" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M264" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N264" s="41" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O264" s="40" t="s">
         <v>1253</v>
-      </c>
-      <c r="O264" s="40" t="s">
-        <v>1254</v>
       </c>
       <c r="P264" s="40"/>
       <c r="Q264" s="40" t="s">
@@ -23726,22 +23726,22 @@
         <v>875</v>
       </c>
       <c r="D265" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F265" s="41" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G265" s="41" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H265" s="47" t="s">
         <v>1255</v>
       </c>
-      <c r="G265" s="41" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H265" s="47" t="s">
+      <c r="I265" s="41" t="s">
         <v>1256</v>
-      </c>
-      <c r="I265" s="41" t="s">
-        <v>1257</v>
       </c>
       <c r="J265" s="41" t="s">
         <v>1050</v>
@@ -23750,16 +23750,16 @@
         <v>231</v>
       </c>
       <c r="L265" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M265" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N265" s="41" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O265" s="40" t="s">
         <v>1258</v>
-      </c>
-      <c r="O265" s="40" t="s">
-        <v>1259</v>
       </c>
       <c r="P265" s="40"/>
       <c r="Q265" s="40" t="s">
@@ -23800,22 +23800,22 @@
         <v>875</v>
       </c>
       <c r="D266" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F266" s="40" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G266" s="41" t="s">
         <v>1260</v>
       </c>
-      <c r="G266" s="41" t="s">
+      <c r="H266" s="47" t="s">
         <v>1261</v>
       </c>
-      <c r="H266" s="47" t="s">
+      <c r="I266" s="41" t="s">
         <v>1262</v>
-      </c>
-      <c r="I266" s="41" t="s">
-        <v>1263</v>
       </c>
       <c r="J266" s="40" t="s">
         <v>806</v>
@@ -23830,10 +23830,10 @@
         <v>8</v>
       </c>
       <c r="N266" s="41" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O266" s="40" t="s">
         <v>1264</v>
-      </c>
-      <c r="O266" s="40" t="s">
-        <v>1265</v>
       </c>
       <c r="P266" s="40"/>
       <c r="Q266" s="40" t="s">
@@ -23874,22 +23874,22 @@
         <v>875</v>
       </c>
       <c r="D267" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E267" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F267" s="41" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G267" s="41" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H267" s="47" t="s">
         <v>1266</v>
       </c>
-      <c r="G267" s="41" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H267" s="47" t="s">
+      <c r="I267" s="41" t="s">
         <v>1267</v>
-      </c>
-      <c r="I267" s="41" t="s">
-        <v>1268</v>
       </c>
       <c r="J267" s="40" t="s">
         <v>979</v>
@@ -23904,10 +23904,10 @@
         <v>8</v>
       </c>
       <c r="N267" s="40" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O267" s="40" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="P267" s="40"/>
       <c r="Q267" s="40" t="s">
@@ -23948,22 +23948,22 @@
         <v>875</v>
       </c>
       <c r="D268" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E268" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F268" s="40" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G268" s="41" t="s">
         <v>1269</v>
       </c>
-      <c r="G268" s="41" t="s">
+      <c r="H268" s="47" t="s">
         <v>1270</v>
       </c>
-      <c r="H268" s="47" t="s">
+      <c r="I268" s="41" t="s">
         <v>1271</v>
-      </c>
-      <c r="I268" s="41" t="s">
-        <v>1272</v>
       </c>
       <c r="J268" s="40" t="s">
         <v>806</v>
@@ -23978,14 +23978,14 @@
         <v>8</v>
       </c>
       <c r="N268" s="41" t="s">
+        <v>1272</v>
+      </c>
+      <c r="O268" s="40" t="s">
         <v>1273</v>
-      </c>
-      <c r="O268" s="40" t="s">
-        <v>1274</v>
       </c>
       <c r="P268" s="40"/>
       <c r="Q268" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="R268" s="7">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>875</v>
       </c>
       <c r="D269" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F269" s="41" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G269" s="41" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H269" s="47" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I269" s="41" t="s">
         <v>1276</v>
-      </c>
-      <c r="G269" s="41" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H269" s="47" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I269" s="41" t="s">
-        <v>1277</v>
       </c>
       <c r="J269" s="40" t="s">
         <v>979</v>
@@ -24052,14 +24052,14 @@
         <v>8</v>
       </c>
       <c r="N269" s="40" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O269" s="40" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="P269" s="40"/>
       <c r="Q269" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="R269" s="7">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>333</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -24145,7 +24145,7 @@
         <v>732</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -24161,7 +24161,7 @@
         <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -24169,7 +24169,7 @@
         <v>337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -24241,7 +24241,7 @@
         <v>346</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -24294,10 +24294,10 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -3404,12 +3404,6 @@
     <t>Porcentaje de personas ocupadas a tiempo completo que perciben ingresos por debajo de la línea de pobreza</t>
   </si>
   <si>
-    <t>El indicador mide el procentaje de personas ocupadas con al menos 40 horas de trabajo semanales que perciben ingresos por debajo de la línea de pobreza.</t>
-  </si>
-  <si>
-    <t>Para cada año calcular: (Cantidad de personas ocupadas con al menos 40 horas semanales con ingreso por debajo de la línea de pobreza / Cantidad de personas ocupadas con al menos 40 horas semanales) *100</t>
-  </si>
-  <si>
     <t>Percibir ingresos por debajo de la línea de pobreza</t>
   </si>
   <si>
@@ -4085,6 +4079,12 @@
   </si>
   <si>
     <t>Ingresos insuficientes (inferiores al salario mínimo nacional)</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: ((Cantidad de personas ocupadas que trabajan más de 40 horas semanales con ingresos inferiores a la LP / Cantidad de personas ocupadas que trabajan más de 40 horas semanaless)) * 100</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de ocupados que trabajan más de 40 horas semanales y perciben un salario inferior a la línea de pobreza individual.</t>
   </si>
 </sst>
 </file>
@@ -4201,7 +4201,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4341,6 +4341,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4663,9 +4666,9 @@
   <dimension ref="A1:AK269"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4687,12 +4690,13 @@
     <col min="15" max="15" width="130.42578125" style="13" customWidth="1"/>
     <col min="16" max="16" width="230.140625" style="13" customWidth="1"/>
     <col min="17" max="17" width="98.7109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="13" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="9.42578125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="13" customWidth="1"/>
     <col min="28" max="30" width="9.140625" style="13"/>
     <col min="31" max="31" width="55.140625" style="13" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="13"/>
@@ -4766,7 +4770,7 @@
         <v>675</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="6" customFormat="1">
@@ -7156,10 +7160,10 @@
         <v>8</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>23</v>
@@ -7339,7 +7343,7 @@
         <v>792</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>377</v>
@@ -7405,7 +7409,7 @@
         <v>795</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>722</v>
@@ -9205,10 +9209,10 @@
         <v>8</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>54</v>
@@ -9258,7 +9262,7 @@
         <v>714</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>5</v>
@@ -9273,10 +9277,10 @@
         <v>8</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>54</v>
@@ -9342,10 +9346,10 @@
         <v>8</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>54</v>
@@ -9410,10 +9414,10 @@
         <v>8</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>54</v>
@@ -9478,10 +9482,10 @@
         <v>8</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>54</v>
@@ -9547,10 +9551,10 @@
         <v>8</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>54</v>
@@ -9611,16 +9615,16 @@
         <v>6</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7" t="s">
@@ -10248,7 +10252,7 @@
         <v>730</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>5</v>
@@ -10332,10 +10336,10 @@
         <v>8</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>61</v>
@@ -10401,10 +10405,10 @@
         <v>8</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>61</v>
@@ -10470,10 +10474,10 @@
         <v>8</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>61</v>
@@ -10539,10 +10543,10 @@
         <v>8</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>61</v>
@@ -10608,10 +10612,10 @@
         <v>8</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>61</v>
@@ -10677,10 +10681,10 @@
         <v>8</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>61</v>
@@ -10747,10 +10751,10 @@
         <v>8</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>61</v>
@@ -10829,10 +10833,10 @@
         <v>8</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>61</v>
@@ -10910,10 +10914,10 @@
         <v>8</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>61</v>
@@ -10980,10 +10984,10 @@
         <v>8</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>61</v>
@@ -11061,10 +11065,10 @@
         <v>8</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>61</v>
@@ -11130,10 +11134,10 @@
         <v>8</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>61</v>
@@ -11200,10 +11204,10 @@
         <v>8</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>61</v>
@@ -15296,7 +15300,7 @@
         <v>1098</v>
       </c>
       <c r="H143" s="52" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>1099</v>
@@ -15494,7 +15498,7 @@
         <v>1104</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>1105</v>
@@ -15559,7 +15563,7 @@
         <v>1088</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>1089</v>
@@ -15624,7 +15628,7 @@
         <v>1090</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>1091</v>
@@ -15692,7 +15696,7 @@
         <v>1092</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>1093</v>
@@ -15757,7 +15761,7 @@
         <v>1094</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>1095</v>
@@ -15822,7 +15826,7 @@
         <v>1096</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>1097</v>
@@ -15867,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="7" customFormat="1">
+    <row r="152" spans="1:23" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A152" s="10">
         <v>530206</v>
       </c>
@@ -15887,7 +15891,7 @@
         <v>1106</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>1107</v>
@@ -15949,13 +15953,13 @@
         <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>1109</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>1110</v>
@@ -16020,10 +16024,10 @@
         <v>1114</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>1115</v>
@@ -16068,71 +16072,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="7" customFormat="1">
-      <c r="A155" s="10">
+    <row r="155" spans="1:23" s="54" customFormat="1">
+      <c r="A155" s="54">
         <v>530209</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="44" t="s">
         <v>1000</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="54" t="s">
         <v>1116</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="G155" s="44" t="s">
         <v>1117</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="H155" s="44" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I155" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L155" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M155" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N155" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O155" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="P155" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="I155" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L155" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M155" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N155" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O155" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P155" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="Q155" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="R155" s="44">
-        <v>0</v>
-      </c>
-      <c r="S155" s="44">
-        <v>0</v>
-      </c>
-      <c r="T155" s="44">
-        <v>0</v>
-      </c>
-      <c r="U155" s="44">
-        <v>0</v>
-      </c>
-      <c r="V155" s="44">
-        <v>0</v>
-      </c>
-      <c r="W155" s="6">
+      <c r="Q155" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="R155" s="54">
+        <v>0</v>
+      </c>
+      <c r="S155" s="54">
+        <v>0</v>
+      </c>
+      <c r="T155" s="54">
+        <v>0</v>
+      </c>
+      <c r="U155" s="54">
+        <v>0</v>
+      </c>
+      <c r="V155" s="54">
+        <v>0</v>
+      </c>
+      <c r="W155" s="54">
         <v>0</v>
       </c>
     </row>
@@ -16150,16 +16154,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I156" s="7" t="s">
         <v>1121</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>1123</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>5</v>
@@ -16168,16 +16172,16 @@
         <v>231</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="Q156" s="7" t="s">
         <v>17</v>
@@ -16215,16 +16219,16 @@
         <v>15</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I157" s="7" t="s">
         <v>1127</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>1129</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>5</v>
@@ -16233,16 +16237,16 @@
         <v>231</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="Q157" s="7" t="s">
         <v>17</v>
@@ -16280,19 +16284,19 @@
         <v>15</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H158" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="I158" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="J158" s="7" t="s">
         <v>1135</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>1137</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>231</v>
@@ -16346,16 +16350,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="40" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H159" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I159" s="40" t="s">
         <v>1138</v>
-      </c>
-      <c r="G159" s="40" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H159" s="40" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I159" s="40" t="s">
-        <v>1140</v>
       </c>
       <c r="J159" s="40" t="s">
         <v>5</v>
@@ -16364,20 +16368,20 @@
         <v>6</v>
       </c>
       <c r="L159" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M159" s="44" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N159" s="40" t="s">
         <v>1141</v>
       </c>
-      <c r="M159" s="44" t="s">
+      <c r="O159" s="40" t="s">
         <v>1142</v>
-      </c>
-      <c r="N159" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O159" s="40" t="s">
-        <v>1144</v>
       </c>
       <c r="P159" s="40"/>
       <c r="Q159" s="40" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="R159" s="44">
         <v>0</v>
@@ -16412,10 +16416,10 @@
         <v>104</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>790</v>
@@ -16478,10 +16482,10 @@
         <v>104</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>793</v>
@@ -16544,10 +16548,10 @@
         <v>104</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>796</v>
@@ -17261,10 +17265,10 @@
         <v>3</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>1280</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>1282</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>798</v>
@@ -17329,10 +17333,10 @@
         <v>3</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>1281</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>1283</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>378</v>
@@ -17397,10 +17401,10 @@
         <v>3</v>
       </c>
       <c r="F175" s="36" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>419</v>
@@ -18697,19 +18701,19 @@
         <v>2</v>
       </c>
       <c r="E194" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G194" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="H194" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="G194" s="6" t="s">
+      <c r="I194" s="7" t="s">
         <v>1148</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I194" s="7" t="s">
-        <v>1150</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>5</v>
@@ -18765,19 +18769,19 @@
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F195" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H195" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="G195" s="6" t="s">
+      <c r="I195" s="46" t="s">
         <v>1152</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I195" s="46" t="s">
-        <v>1154</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>979</v>
@@ -18833,19 +18837,19 @@
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F196" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I196" s="7" t="s">
         <v>1155</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I196" s="7" t="s">
-        <v>1157</v>
       </c>
       <c r="J196" s="7" t="s">
         <v>806</v>
@@ -18866,7 +18870,7 @@
         <v>909</v>
       </c>
       <c r="Q196" s="7" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="R196" s="44">
         <v>0</v>
@@ -19395,7 +19399,7 @@
         <v>912</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="H204" s="7" t="s">
         <v>913</v>
@@ -19464,7 +19468,7 @@
         <v>919</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H205" s="7" t="s">
         <v>920</v>
@@ -19533,7 +19537,7 @@
         <v>922</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>923</v>
@@ -19602,7 +19606,7 @@
         <v>925</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="H207" s="7" t="s">
         <v>926</v>
@@ -19742,10 +19746,10 @@
         <v>3</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>1048</v>
@@ -19810,10 +19814,10 @@
         <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>1051</v>
@@ -19878,10 +19882,10 @@
         <v>3</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>1053</v>
@@ -19946,10 +19950,10 @@
         <v>3</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>1055</v>
@@ -20014,10 +20018,10 @@
         <v>3</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>1057</v>
@@ -20082,10 +20086,10 @@
         <v>3</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>1059</v>
@@ -20150,10 +20154,10 @@
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>1061</v>
@@ -20218,10 +20222,10 @@
         <v>3</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>1063</v>
@@ -20286,10 +20290,10 @@
         <v>3</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>1065</v>
@@ -20345,7 +20349,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>2</v>
@@ -20372,7 +20376,7 @@
         <v>6</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M218" s="7" t="s">
         <v>940</v>
@@ -20417,7 +20421,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>2</v>
@@ -20444,7 +20448,7 @@
         <v>6</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M219" s="7" t="s">
         <v>940</v>
@@ -20489,7 +20493,7 @@
         <v>35</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>2</v>
@@ -20498,16 +20502,16 @@
         <v>36</v>
       </c>
       <c r="F220" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H220" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="I220" s="6" t="s">
         <v>1166</v>
-      </c>
-      <c r="H220" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>1168</v>
       </c>
       <c r="J220" s="6" t="s">
         <v>5</v>
@@ -20516,7 +20520,7 @@
         <v>6</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M220" s="7" t="s">
         <v>940</v>
@@ -20560,7 +20564,7 @@
         <v>35</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>2</v>
@@ -20569,16 +20573,16 @@
         <v>41</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>419</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>5</v>
@@ -20587,7 +20591,7 @@
         <v>6</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M221" s="7" t="s">
         <v>940</v>
@@ -20631,7 +20635,7 @@
         <v>35</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>2</v>
@@ -20640,16 +20644,16 @@
         <v>41</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>378</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="J222" s="6" t="s">
         <v>5</v>
@@ -20658,7 +20662,7 @@
         <v>6</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M222" s="7" t="s">
         <v>940</v>
@@ -20702,7 +20706,7 @@
         <v>35</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>2</v>
@@ -20711,16 +20715,16 @@
         <v>41</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J223" s="6" t="s">
         <v>5</v>
@@ -20729,7 +20733,7 @@
         <v>6</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M223" s="7" t="s">
         <v>940</v>
@@ -20773,7 +20777,7 @@
         <v>35</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>2</v>
@@ -20782,16 +20786,16 @@
         <v>41</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>420</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="J224" s="6" t="s">
         <v>5</v>
@@ -20800,7 +20804,7 @@
         <v>6</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M224" s="7" t="s">
         <v>940</v>
@@ -20850,7 +20854,7 @@
         <v>35</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>2</v>
@@ -20859,16 +20863,16 @@
         <v>46</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>421</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J225" s="6" t="s">
         <v>5</v>
@@ -20877,7 +20881,7 @@
         <v>6</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M225" s="7" t="s">
         <v>940</v>
@@ -20927,7 +20931,7 @@
         <v>35</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>2</v>
@@ -20936,16 +20940,16 @@
         <v>47</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>641</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J226" s="6" t="s">
         <v>5</v>
@@ -20954,7 +20958,7 @@
         <v>6</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M226" s="7" t="s">
         <v>940</v>
@@ -21004,7 +21008,7 @@
         <v>35</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>2</v>
@@ -21013,16 +21017,16 @@
         <v>47</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>379</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J227" s="6" t="s">
         <v>5</v>
@@ -21031,7 +21035,7 @@
         <v>6</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M227" s="7" t="s">
         <v>940</v>
@@ -21081,7 +21085,7 @@
         <v>52</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>2</v>
@@ -21108,7 +21112,7 @@
         <v>6</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M228" s="7" t="s">
         <v>940</v>
@@ -21155,7 +21159,7 @@
         <v>52</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>2</v>
@@ -21167,13 +21171,13 @@
         <v>996</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J229" s="6" t="s">
         <v>5</v>
@@ -21182,7 +21186,7 @@
         <v>6</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M229" s="7" t="s">
         <v>940</v>
@@ -21232,7 +21236,7 @@
         <v>52</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>2</v>
@@ -21244,7 +21248,7 @@
         <v>997</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>384</v>
@@ -21259,7 +21263,7 @@
         <v>6</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M230" s="7" t="s">
         <v>940</v>
@@ -21309,7 +21313,7 @@
         <v>52</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>2</v>
@@ -21321,13 +21325,13 @@
         <v>999</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J231" s="6" t="s">
         <v>5</v>
@@ -21336,7 +21340,7 @@
         <v>6</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M231" s="7" t="s">
         <v>940</v>
@@ -21386,7 +21390,7 @@
         <v>70</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>2</v>
@@ -21413,7 +21417,7 @@
         <v>6</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M232" s="7" t="s">
         <v>940</v>
@@ -21463,7 +21467,7 @@
         <v>1000</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>2</v>
@@ -21478,7 +21482,7 @@
         <v>1074</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I233" s="6" t="s">
         <v>1075</v>
@@ -21490,7 +21494,7 @@
         <v>6</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M233" s="7" t="s">
         <v>940</v>
@@ -21531,7 +21535,7 @@
         <v>1000</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>2</v>
@@ -21546,7 +21550,7 @@
         <v>1076</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I234" s="6" t="s">
         <v>1078</v>
@@ -21558,7 +21562,7 @@
         <v>6</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M234" s="7" t="s">
         <v>940</v>
@@ -21599,7 +21603,7 @@
         <v>1000</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>2</v>
@@ -21626,7 +21630,7 @@
         <v>6</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M235" s="7" t="s">
         <v>940</v>
@@ -21667,7 +21671,7 @@
         <v>1000</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
@@ -21682,7 +21686,7 @@
         <v>1081</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I236" s="6" t="s">
         <v>1082</v>
@@ -21694,7 +21698,7 @@
         <v>6</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M236" s="7" t="s">
         <v>940</v>
@@ -21735,7 +21739,7 @@
         <v>1000</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>2</v>
@@ -21750,7 +21754,7 @@
         <v>1083</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I237" s="6" t="s">
         <v>1084</v>
@@ -21762,7 +21766,7 @@
         <v>6</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M237" s="7" t="s">
         <v>940</v>
@@ -21803,7 +21807,7 @@
         <v>1000</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>2</v>
@@ -21815,10 +21819,10 @@
         <v>1085</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I238" s="6" t="s">
         <v>1086</v>
@@ -21830,7 +21834,7 @@
         <v>6</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M238" s="7" t="s">
         <v>940</v>
@@ -22090,16 +22094,16 @@
         <v>47</v>
       </c>
       <c r="F242" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G242" s="41" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H242" s="40" t="s">
         <v>1159</v>
       </c>
-      <c r="G242" s="41" t="s">
+      <c r="I242" s="41" t="s">
         <v>1160</v>
-      </c>
-      <c r="H242" s="40" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I242" s="41" t="s">
-        <v>1162</v>
       </c>
       <c r="J242" s="40" t="s">
         <v>5</v>
@@ -22114,10 +22118,10 @@
         <v>8</v>
       </c>
       <c r="N242" s="41" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="O242" s="40" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="P242" s="40"/>
       <c r="Q242" s="40" t="s">
@@ -22386,7 +22390,7 @@
         <v>1072</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>1073</v>
@@ -22441,25 +22445,25 @@
         <v>884</v>
       </c>
       <c r="D247" s="40" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H247" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="E247" s="40" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F247" s="7" t="s">
+      <c r="I247" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="G247" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H247" s="6" t="s">
+      <c r="J247" s="6" t="s">
         <v>1192</v>
-      </c>
-      <c r="I247" s="6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J247" s="6" t="s">
-        <v>1194</v>
       </c>
       <c r="K247" s="6" t="s">
         <v>6</v>
@@ -22508,22 +22512,22 @@
         <v>911</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F248" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H248" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="G248" s="7" t="s">
+      <c r="I248" s="7" t="s">
         <v>1196</v>
-      </c>
-      <c r="H248" s="7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I248" s="7" t="s">
-        <v>1198</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>5</v>
@@ -22544,7 +22548,7 @@
         <v>917</v>
       </c>
       <c r="Q248" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R248" s="7">
         <v>0</v>
@@ -22574,22 +22578,22 @@
         <v>911</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F249" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H249" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="I249" s="7" t="s">
         <v>1201</v>
-      </c>
-      <c r="H249" s="7" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I249" s="7" t="s">
-        <v>1203</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>5</v>
@@ -22610,7 +22614,7 @@
         <v>917</v>
       </c>
       <c r="Q249" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R249" s="7">
         <v>0</v>
@@ -22640,22 +22644,22 @@
         <v>911</v>
       </c>
       <c r="D250" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F250" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H250" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="G250" s="7" t="s">
+      <c r="I250" s="7" t="s">
         <v>1205</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I250" s="7" t="s">
-        <v>1207</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>5</v>
@@ -22676,7 +22680,7 @@
         <v>917</v>
       </c>
       <c r="Q250" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R250" s="7">
         <v>0</v>
@@ -22706,22 +22710,22 @@
         <v>911</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F251" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H251" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="G251" s="7" t="s">
+      <c r="I251" s="7" t="s">
         <v>1209</v>
-      </c>
-      <c r="H251" s="7" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>1211</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>5</v>
@@ -22742,7 +22746,7 @@
         <v>917</v>
       </c>
       <c r="Q251" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R251" s="7">
         <v>0</v>
@@ -22773,22 +22777,22 @@
         <v>911</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F252" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H252" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="G252" s="7" t="s">
+      <c r="I252" s="7" t="s">
         <v>1213</v>
-      </c>
-      <c r="H252" s="7" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I252" s="7" t="s">
-        <v>1215</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>5</v>
@@ -22810,7 +22814,7 @@
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R252" s="7">
         <v>0</v>
@@ -22845,22 +22849,22 @@
         <v>911</v>
       </c>
       <c r="D253" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F253" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H253" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="G253" s="7" t="s">
+      <c r="I253" s="7" t="s">
         <v>1217</v>
-      </c>
-      <c r="H253" s="7" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>1219</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>5</v>
@@ -22881,7 +22885,7 @@
         <v>917</v>
       </c>
       <c r="Q253" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R253" s="7">
         <v>0</v>
@@ -22918,22 +22922,22 @@
         <v>911</v>
       </c>
       <c r="D254" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F254" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H254" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="G254" s="7" t="s">
+      <c r="I254" s="7" t="s">
         <v>1221</v>
-      </c>
-      <c r="H254" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>1223</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>5</v>
@@ -22954,7 +22958,7 @@
         <v>917</v>
       </c>
       <c r="Q254" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R254" s="7">
         <v>0</v>
@@ -22992,22 +22996,22 @@
         <v>911</v>
       </c>
       <c r="D255" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H255" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="G255" s="7" t="s">
+      <c r="I255" s="7" t="s">
         <v>1225</v>
-      </c>
-      <c r="H255" s="7" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I255" s="7" t="s">
-        <v>1227</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>5</v>
@@ -23029,7 +23033,7 @@
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R255" s="7">
         <v>0</v>
@@ -23066,22 +23070,22 @@
         <v>911</v>
       </c>
       <c r="D256" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F256" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H256" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="G256" s="7" t="s">
+      <c r="I256" s="7" t="s">
         <v>1229</v>
-      </c>
-      <c r="H256" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>1231</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>5</v>
@@ -23103,7 +23107,7 @@
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R256" s="7">
         <v>0</v>
@@ -23140,22 +23144,22 @@
         <v>911</v>
       </c>
       <c r="D257" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F257" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H257" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="G257" s="7" t="s">
+      <c r="I257" s="7" t="s">
         <v>1233</v>
-      </c>
-      <c r="H257" s="7" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I257" s="7" t="s">
-        <v>1235</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>5</v>
@@ -23177,7 +23181,7 @@
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R257" s="7">
         <v>0</v>
@@ -23214,22 +23218,22 @@
         <v>911</v>
       </c>
       <c r="D258" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F258" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I258" s="45" t="s">
         <v>1236</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H258" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I258" s="45" t="s">
-        <v>1238</v>
       </c>
       <c r="J258" s="7" t="s">
         <v>979</v>
@@ -23288,22 +23292,22 @@
         <v>911</v>
       </c>
       <c r="D259" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I259" s="45" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="J259" s="7" t="s">
         <v>979</v>
@@ -23362,22 +23366,22 @@
         <v>911</v>
       </c>
       <c r="D260" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I260" s="45" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="J260" s="7" t="s">
         <v>979</v>
@@ -23436,22 +23440,22 @@
         <v>911</v>
       </c>
       <c r="D261" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I261" s="45" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="J261" s="7" t="s">
         <v>979</v>
@@ -23510,22 +23514,22 @@
         <v>911</v>
       </c>
       <c r="D262" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I262" s="45" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="J262" s="7" t="s">
         <v>979</v>
@@ -23581,25 +23585,25 @@
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D263" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="J263" s="7" t="s">
         <v>979</v>
@@ -23608,7 +23612,7 @@
         <v>6</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M263" s="6" t="s">
         <v>8</v>
@@ -23652,22 +23656,22 @@
         <v>875</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F264" s="40" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G264" s="41" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H264" s="40" t="s">
         <v>1247</v>
       </c>
-      <c r="G264" s="41" t="s">
+      <c r="I264" s="41" t="s">
         <v>1248</v>
-      </c>
-      <c r="H264" s="40" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I264" s="41" t="s">
-        <v>1250</v>
       </c>
       <c r="J264" s="40" t="s">
         <v>806</v>
@@ -23676,16 +23680,16 @@
         <v>231</v>
       </c>
       <c r="L264" s="40" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="M264" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N264" s="41" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="O264" s="40" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="P264" s="40"/>
       <c r="Q264" s="40" t="s">
@@ -23726,22 +23730,22 @@
         <v>875</v>
       </c>
       <c r="D265" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F265" s="41" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G265" s="41" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H265" s="47" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I265" s="41" t="s">
         <v>1254</v>
-      </c>
-      <c r="G265" s="41" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H265" s="47" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I265" s="41" t="s">
-        <v>1256</v>
       </c>
       <c r="J265" s="41" t="s">
         <v>1050</v>
@@ -23750,16 +23754,16 @@
         <v>231</v>
       </c>
       <c r="L265" s="40" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="M265" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N265" s="41" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="O265" s="40" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="P265" s="40"/>
       <c r="Q265" s="40" t="s">
@@ -23800,22 +23804,22 @@
         <v>875</v>
       </c>
       <c r="D266" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F266" s="40" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G266" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H266" s="47" t="s">
         <v>1259</v>
       </c>
-      <c r="G266" s="41" t="s">
+      <c r="I266" s="41" t="s">
         <v>1260</v>
-      </c>
-      <c r="H266" s="47" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I266" s="41" t="s">
-        <v>1262</v>
       </c>
       <c r="J266" s="40" t="s">
         <v>806</v>
@@ -23830,10 +23834,10 @@
         <v>8</v>
       </c>
       <c r="N266" s="41" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="O266" s="40" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="P266" s="40"/>
       <c r="Q266" s="40" t="s">
@@ -23874,22 +23878,22 @@
         <v>875</v>
       </c>
       <c r="D267" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E267" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F267" s="41" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G267" s="41" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H267" s="47" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I267" s="41" t="s">
         <v>1265</v>
-      </c>
-      <c r="G267" s="41" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H267" s="47" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I267" s="41" t="s">
-        <v>1267</v>
       </c>
       <c r="J267" s="40" t="s">
         <v>979</v>
@@ -23904,10 +23908,10 @@
         <v>8</v>
       </c>
       <c r="N267" s="40" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="O267" s="40" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="P267" s="40"/>
       <c r="Q267" s="40" t="s">
@@ -23948,22 +23952,22 @@
         <v>875</v>
       </c>
       <c r="D268" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E268" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F268" s="40" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G268" s="41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H268" s="47" t="s">
         <v>1268</v>
       </c>
-      <c r="G268" s="41" t="s">
+      <c r="I268" s="41" t="s">
         <v>1269</v>
-      </c>
-      <c r="H268" s="47" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I268" s="41" t="s">
-        <v>1271</v>
       </c>
       <c r="J268" s="40" t="s">
         <v>806</v>
@@ -23978,14 +23982,14 @@
         <v>8</v>
       </c>
       <c r="N268" s="41" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="O268" s="40" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="P268" s="40"/>
       <c r="Q268" s="40" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="R268" s="7">
         <v>0</v>
@@ -24022,22 +24026,22 @@
         <v>875</v>
       </c>
       <c r="D269" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F269" s="41" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G269" s="41" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H269" s="47" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I269" s="41" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="J269" s="40" t="s">
         <v>979</v>
@@ -24052,14 +24056,14 @@
         <v>8</v>
       </c>
       <c r="N269" s="40" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="O269" s="40" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="P269" s="40"/>
       <c r="Q269" s="40" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="R269" s="7">
         <v>0</v>
@@ -24129,7 +24133,7 @@
         <v>333</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -24145,7 +24149,7 @@
         <v>732</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -24161,7 +24165,7 @@
         <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -24169,7 +24173,7 @@
         <v>337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -24241,7 +24245,7 @@
         <v>346</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -24294,10 +24298,10 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="1341">
   <si>
     <t>id</t>
   </si>
@@ -3381,12 +3381,6 @@
   </si>
   <si>
     <t>Para cada año calcular: (Cantidad de personas ocupadas que perciben ingresos por hora en la ocupación principal por debajo del Salario Mínimo Nacional correspondiente al mes de relevamiento de la encuesta / Cantidad de personas ocupadas) *100</t>
-  </si>
-  <si>
-    <t>Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE y Series de Salario Mínimo Nacional (INE)</t>
-  </si>
-  <si>
-    <t>UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE y Series de Salario Mínimo Nacional (INE)</t>
   </si>
   <si>
     <t>Poseer ingresos laborales por debajo del Salario Mïnimo Nacional</t>
@@ -4666,9 +4660,9 @@
   <dimension ref="A1:AK269"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
+      <selection pane="bottomLeft" activeCell="Q159" sqref="Q159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4770,7 +4764,7 @@
         <v>675</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="6" customFormat="1">
@@ -7160,10 +7154,10 @@
         <v>8</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>23</v>
@@ -7343,7 +7337,7 @@
         <v>792</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>377</v>
@@ -7409,7 +7403,7 @@
         <v>795</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>722</v>
@@ -9209,10 +9203,10 @@
         <v>8</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>54</v>
@@ -9262,7 +9256,7 @@
         <v>714</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>5</v>
@@ -9277,10 +9271,10 @@
         <v>8</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>54</v>
@@ -9346,10 +9340,10 @@
         <v>8</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>54</v>
@@ -9414,10 +9408,10 @@
         <v>8</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>54</v>
@@ -9482,10 +9476,10 @@
         <v>8</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>54</v>
@@ -9551,10 +9545,10 @@
         <v>8</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>54</v>
@@ -9615,16 +9609,16 @@
         <v>6</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7" t="s">
@@ -10252,7 +10246,7 @@
         <v>730</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>5</v>
@@ -10336,10 +10330,10 @@
         <v>8</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>61</v>
@@ -10405,10 +10399,10 @@
         <v>8</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>61</v>
@@ -10474,10 +10468,10 @@
         <v>8</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>61</v>
@@ -10543,10 +10537,10 @@
         <v>8</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>61</v>
@@ -10612,10 +10606,10 @@
         <v>8</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>61</v>
@@ -10681,10 +10675,10 @@
         <v>8</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>61</v>
@@ -10751,10 +10745,10 @@
         <v>8</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>61</v>
@@ -10833,10 +10827,10 @@
         <v>8</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>61</v>
@@ -10914,10 +10908,10 @@
         <v>8</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>61</v>
@@ -10984,10 +10978,10 @@
         <v>8</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>61</v>
@@ -11065,10 +11059,10 @@
         <v>8</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>61</v>
@@ -11134,10 +11128,10 @@
         <v>8</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>61</v>
@@ -11204,10 +11198,10 @@
         <v>8</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>61</v>
@@ -15300,7 +15294,7 @@
         <v>1098</v>
       </c>
       <c r="H143" s="52" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>1099</v>
@@ -15312,19 +15306,19 @@
         <v>6</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q143" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R143" s="44">
         <v>0</v>
@@ -15378,19 +15372,19 @@
         <v>6</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q144" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R144" s="44">
         <v>0</v>
@@ -15444,19 +15438,19 @@
         <v>6</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R145" s="44">
         <v>0</v>
@@ -15498,7 +15492,7 @@
         <v>1104</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>1105</v>
@@ -15510,19 +15504,19 @@
         <v>6</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M146" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R146" s="44">
         <v>0</v>
@@ -15563,7 +15557,7 @@
         <v>1088</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>1089</v>
@@ -15575,19 +15569,19 @@
         <v>6</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R147" s="44">
         <v>0</v>
@@ -15628,7 +15622,7 @@
         <v>1090</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>1091</v>
@@ -15640,22 +15634,22 @@
         <v>6</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M148" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O148" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="P148" s="6" t="s">
         <v>54</v>
       </c>
       <c r="Q148" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R148" s="44">
         <v>0</v>
@@ -15696,7 +15690,7 @@
         <v>1092</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>1093</v>
@@ -15708,19 +15702,19 @@
         <v>6</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O149" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q149" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R149" s="44">
         <v>0</v>
@@ -15761,7 +15755,7 @@
         <v>1094</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>1095</v>
@@ -15773,19 +15767,19 @@
         <v>6</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O150" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q150" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R150" s="44">
         <v>0</v>
@@ -15826,7 +15820,7 @@
         <v>1096</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>1097</v>
@@ -15838,19 +15832,19 @@
         <v>6</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M151" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R151" s="44">
         <v>0</v>
@@ -15891,7 +15885,7 @@
         <v>1106</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>1107</v>
@@ -15903,22 +15897,22 @@
         <v>6</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O152" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="P152" s="7" t="s">
         <v>1108</v>
       </c>
       <c r="Q152" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R152" s="44">
         <v>0</v>
@@ -15953,13 +15947,13 @@
         <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>1109</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>1110</v>
@@ -15971,22 +15965,22 @@
         <v>6</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M153" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N153" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="P153" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="O153" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="P153" s="7" t="s">
-        <v>1113</v>
-      </c>
       <c r="Q153" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R153" s="44">
         <v>0</v>
@@ -16021,16 +16015,16 @@
         <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>5</v>
@@ -16039,19 +16033,19 @@
         <v>6</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O154" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="Q154" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R154" s="44">
         <v>0</v>
@@ -16086,16 +16080,16 @@
         <v>15</v>
       </c>
       <c r="F155" s="54" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G155" s="44" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H155" s="44" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="J155" s="14" t="s">
         <v>5</v>
@@ -16103,23 +16097,23 @@
       <c r="K155" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L155" s="14" t="s">
-        <v>7</v>
+      <c r="L155" s="6" t="s">
+        <v>966</v>
       </c>
       <c r="M155" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N155" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O155" s="13" t="s">
-        <v>187</v>
+      <c r="N155" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="Q155" s="13" t="s">
-        <v>470</v>
+        <v>1116</v>
+      </c>
+      <c r="Q155" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="R155" s="54">
         <v>0</v>
@@ -16154,16 +16148,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I156" s="7" t="s">
         <v>1119</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>1121</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>5</v>
@@ -16172,16 +16166,16 @@
         <v>231</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="Q156" s="7" t="s">
         <v>17</v>
@@ -16219,16 +16213,16 @@
         <v>15</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I157" s="7" t="s">
         <v>1125</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>1127</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>5</v>
@@ -16237,16 +16231,16 @@
         <v>231</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="Q157" s="7" t="s">
         <v>17</v>
@@ -16284,19 +16278,19 @@
         <v>15</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H158" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="I158" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="J158" s="7" t="s">
         <v>1133</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>1135</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>231</v>
@@ -16350,16 +16344,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="40" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H159" s="40" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I159" s="40" t="s">
         <v>1136</v>
-      </c>
-      <c r="G159" s="40" t="s">
-        <v>1339</v>
-      </c>
-      <c r="H159" s="40" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I159" s="40" t="s">
-        <v>1138</v>
       </c>
       <c r="J159" s="40" t="s">
         <v>5</v>
@@ -16368,20 +16362,20 @@
         <v>6</v>
       </c>
       <c r="L159" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M159" s="44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N159" s="40" t="s">
         <v>1139</v>
       </c>
-      <c r="M159" s="44" t="s">
+      <c r="O159" s="40" t="s">
         <v>1140</v>
-      </c>
-      <c r="N159" s="40" t="s">
-        <v>1141</v>
-      </c>
-      <c r="O159" s="40" t="s">
-        <v>1142</v>
       </c>
       <c r="P159" s="40"/>
       <c r="Q159" s="40" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="R159" s="44">
         <v>0</v>
@@ -16416,10 +16410,10 @@
         <v>104</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>790</v>
@@ -16482,10 +16476,10 @@
         <v>104</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>793</v>
@@ -16548,10 +16542,10 @@
         <v>104</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>796</v>
@@ -17265,10 +17259,10 @@
         <v>3</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>1278</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>1280</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>798</v>
@@ -17333,10 +17327,10 @@
         <v>3</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>1279</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>1281</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>378</v>
@@ -17401,10 +17395,10 @@
         <v>3</v>
       </c>
       <c r="F175" s="36" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>419</v>
@@ -18701,19 +18695,19 @@
         <v>2</v>
       </c>
       <c r="E194" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G194" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="H194" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="G194" s="6" t="s">
+      <c r="I194" s="7" t="s">
         <v>1146</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I194" s="7" t="s">
-        <v>1148</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>5</v>
@@ -18769,19 +18763,19 @@
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F195" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H195" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="G195" s="6" t="s">
+      <c r="I195" s="46" t="s">
         <v>1150</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I195" s="46" t="s">
-        <v>1152</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>979</v>
@@ -18837,19 +18831,19 @@
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F196" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I196" s="7" t="s">
         <v>1153</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I196" s="7" t="s">
-        <v>1155</v>
       </c>
       <c r="J196" s="7" t="s">
         <v>806</v>
@@ -18870,7 +18864,7 @@
         <v>909</v>
       </c>
       <c r="Q196" s="7" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="R196" s="44">
         <v>0</v>
@@ -19399,7 +19393,7 @@
         <v>912</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H204" s="7" t="s">
         <v>913</v>
@@ -19468,7 +19462,7 @@
         <v>919</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="H205" s="7" t="s">
         <v>920</v>
@@ -19537,7 +19531,7 @@
         <v>922</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>923</v>
@@ -19606,7 +19600,7 @@
         <v>925</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="H207" s="7" t="s">
         <v>926</v>
@@ -19746,10 +19740,10 @@
         <v>3</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>1048</v>
@@ -19814,10 +19808,10 @@
         <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>1051</v>
@@ -19882,10 +19876,10 @@
         <v>3</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>1053</v>
@@ -19950,10 +19944,10 @@
         <v>3</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>1055</v>
@@ -20018,10 +20012,10 @@
         <v>3</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>1057</v>
@@ -20086,10 +20080,10 @@
         <v>3</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>1059</v>
@@ -20154,10 +20148,10 @@
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>1061</v>
@@ -20222,10 +20216,10 @@
         <v>3</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>1063</v>
@@ -20290,10 +20284,10 @@
         <v>3</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>1065</v>
@@ -20349,7 +20343,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>2</v>
@@ -20376,7 +20370,7 @@
         <v>6</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M218" s="7" t="s">
         <v>940</v>
@@ -20421,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>2</v>
@@ -20448,7 +20442,7 @@
         <v>6</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M219" s="7" t="s">
         <v>940</v>
@@ -20493,7 +20487,7 @@
         <v>35</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>2</v>
@@ -20502,16 +20496,16 @@
         <v>36</v>
       </c>
       <c r="F220" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H220" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="I220" s="6" t="s">
         <v>1164</v>
-      </c>
-      <c r="H220" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>1166</v>
       </c>
       <c r="J220" s="6" t="s">
         <v>5</v>
@@ -20520,7 +20514,7 @@
         <v>6</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M220" s="7" t="s">
         <v>940</v>
@@ -20564,7 +20558,7 @@
         <v>35</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>2</v>
@@ -20573,16 +20567,16 @@
         <v>41</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>419</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>5</v>
@@ -20591,7 +20585,7 @@
         <v>6</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M221" s="7" t="s">
         <v>940</v>
@@ -20635,7 +20629,7 @@
         <v>35</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>2</v>
@@ -20644,16 +20638,16 @@
         <v>41</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>378</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="J222" s="6" t="s">
         <v>5</v>
@@ -20662,7 +20656,7 @@
         <v>6</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M222" s="7" t="s">
         <v>940</v>
@@ -20706,7 +20700,7 @@
         <v>35</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>2</v>
@@ -20715,16 +20709,16 @@
         <v>41</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J223" s="6" t="s">
         <v>5</v>
@@ -20733,7 +20727,7 @@
         <v>6</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M223" s="7" t="s">
         <v>940</v>
@@ -20777,7 +20771,7 @@
         <v>35</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>2</v>
@@ -20786,16 +20780,16 @@
         <v>41</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>420</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J224" s="6" t="s">
         <v>5</v>
@@ -20804,7 +20798,7 @@
         <v>6</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M224" s="7" t="s">
         <v>940</v>
@@ -20854,7 +20848,7 @@
         <v>35</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>2</v>
@@ -20863,16 +20857,16 @@
         <v>46</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>421</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J225" s="6" t="s">
         <v>5</v>
@@ -20881,7 +20875,7 @@
         <v>6</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M225" s="7" t="s">
         <v>940</v>
@@ -20931,7 +20925,7 @@
         <v>35</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>2</v>
@@ -20940,16 +20934,16 @@
         <v>47</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>641</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J226" s="6" t="s">
         <v>5</v>
@@ -20958,7 +20952,7 @@
         <v>6</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M226" s="7" t="s">
         <v>940</v>
@@ -21008,7 +21002,7 @@
         <v>35</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>2</v>
@@ -21017,16 +21011,16 @@
         <v>47</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>379</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="J227" s="6" t="s">
         <v>5</v>
@@ -21035,7 +21029,7 @@
         <v>6</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M227" s="7" t="s">
         <v>940</v>
@@ -21085,7 +21079,7 @@
         <v>52</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>2</v>
@@ -21112,7 +21106,7 @@
         <v>6</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M228" s="7" t="s">
         <v>940</v>
@@ -21159,7 +21153,7 @@
         <v>52</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>2</v>
@@ -21171,13 +21165,13 @@
         <v>996</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J229" s="6" t="s">
         <v>5</v>
@@ -21186,7 +21180,7 @@
         <v>6</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M229" s="7" t="s">
         <v>940</v>
@@ -21236,7 +21230,7 @@
         <v>52</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>2</v>
@@ -21248,7 +21242,7 @@
         <v>997</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>384</v>
@@ -21263,7 +21257,7 @@
         <v>6</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M230" s="7" t="s">
         <v>940</v>
@@ -21313,7 +21307,7 @@
         <v>52</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>2</v>
@@ -21325,13 +21319,13 @@
         <v>999</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J231" s="6" t="s">
         <v>5</v>
@@ -21340,7 +21334,7 @@
         <v>6</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M231" s="7" t="s">
         <v>940</v>
@@ -21390,7 +21384,7 @@
         <v>70</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>2</v>
@@ -21417,7 +21411,7 @@
         <v>6</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M232" s="7" t="s">
         <v>940</v>
@@ -21467,7 +21461,7 @@
         <v>1000</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>2</v>
@@ -21482,7 +21476,7 @@
         <v>1074</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I233" s="6" t="s">
         <v>1075</v>
@@ -21494,7 +21488,7 @@
         <v>6</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M233" s="7" t="s">
         <v>940</v>
@@ -21535,7 +21529,7 @@
         <v>1000</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>2</v>
@@ -21550,7 +21544,7 @@
         <v>1076</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I234" s="6" t="s">
         <v>1078</v>
@@ -21562,7 +21556,7 @@
         <v>6</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M234" s="7" t="s">
         <v>940</v>
@@ -21603,7 +21597,7 @@
         <v>1000</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>2</v>
@@ -21630,7 +21624,7 @@
         <v>6</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M235" s="7" t="s">
         <v>940</v>
@@ -21671,7 +21665,7 @@
         <v>1000</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
@@ -21686,7 +21680,7 @@
         <v>1081</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I236" s="6" t="s">
         <v>1082</v>
@@ -21698,7 +21692,7 @@
         <v>6</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M236" s="7" t="s">
         <v>940</v>
@@ -21739,7 +21733,7 @@
         <v>1000</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>2</v>
@@ -21754,7 +21748,7 @@
         <v>1083</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I237" s="6" t="s">
         <v>1084</v>
@@ -21766,7 +21760,7 @@
         <v>6</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M237" s="7" t="s">
         <v>940</v>
@@ -21807,7 +21801,7 @@
         <v>1000</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>2</v>
@@ -21819,10 +21813,10 @@
         <v>1085</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I238" s="6" t="s">
         <v>1086</v>
@@ -21834,7 +21828,7 @@
         <v>6</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M238" s="7" t="s">
         <v>940</v>
@@ -22094,16 +22088,16 @@
         <v>47</v>
       </c>
       <c r="F242" s="41" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G242" s="41" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H242" s="40" t="s">
         <v>1157</v>
       </c>
-      <c r="G242" s="41" t="s">
+      <c r="I242" s="41" t="s">
         <v>1158</v>
-      </c>
-      <c r="H242" s="40" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I242" s="41" t="s">
-        <v>1160</v>
       </c>
       <c r="J242" s="40" t="s">
         <v>5</v>
@@ -22118,10 +22112,10 @@
         <v>8</v>
       </c>
       <c r="N242" s="41" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="O242" s="40" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="P242" s="40"/>
       <c r="Q242" s="40" t="s">
@@ -22390,7 +22384,7 @@
         <v>1072</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>1073</v>
@@ -22445,25 +22439,25 @@
         <v>884</v>
       </c>
       <c r="D247" s="40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H247" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="E247" s="40" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F247" s="7" t="s">
+      <c r="I247" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="G247" s="6" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H247" s="6" t="s">
+      <c r="J247" s="6" t="s">
         <v>1190</v>
-      </c>
-      <c r="I247" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J247" s="6" t="s">
-        <v>1192</v>
       </c>
       <c r="K247" s="6" t="s">
         <v>6</v>
@@ -22512,22 +22506,22 @@
         <v>911</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F248" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H248" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="G248" s="7" t="s">
+      <c r="I248" s="7" t="s">
         <v>1194</v>
-      </c>
-      <c r="H248" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I248" s="7" t="s">
-        <v>1196</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>5</v>
@@ -22548,7 +22542,7 @@
         <v>917</v>
       </c>
       <c r="Q248" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R248" s="7">
         <v>0</v>
@@ -22578,22 +22572,22 @@
         <v>911</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F249" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H249" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="I249" s="7" t="s">
         <v>1199</v>
-      </c>
-      <c r="H249" s="7" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I249" s="7" t="s">
-        <v>1201</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>5</v>
@@ -22614,7 +22608,7 @@
         <v>917</v>
       </c>
       <c r="Q249" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R249" s="7">
         <v>0</v>
@@ -22644,22 +22638,22 @@
         <v>911</v>
       </c>
       <c r="D250" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F250" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H250" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="G250" s="7" t="s">
+      <c r="I250" s="7" t="s">
         <v>1203</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I250" s="7" t="s">
-        <v>1205</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>5</v>
@@ -22680,7 +22674,7 @@
         <v>917</v>
       </c>
       <c r="Q250" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R250" s="7">
         <v>0</v>
@@ -22710,22 +22704,22 @@
         <v>911</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F251" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H251" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="G251" s="7" t="s">
+      <c r="I251" s="7" t="s">
         <v>1207</v>
-      </c>
-      <c r="H251" s="7" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>1209</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>5</v>
@@ -22746,7 +22740,7 @@
         <v>917</v>
       </c>
       <c r="Q251" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R251" s="7">
         <v>0</v>
@@ -22777,22 +22771,22 @@
         <v>911</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F252" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H252" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="G252" s="7" t="s">
+      <c r="I252" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="H252" s="7" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I252" s="7" t="s">
-        <v>1213</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>5</v>
@@ -22814,7 +22808,7 @@
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R252" s="7">
         <v>0</v>
@@ -22849,22 +22843,22 @@
         <v>911</v>
       </c>
       <c r="D253" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F253" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H253" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="G253" s="7" t="s">
+      <c r="I253" s="7" t="s">
         <v>1215</v>
-      </c>
-      <c r="H253" s="7" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>1217</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>5</v>
@@ -22885,7 +22879,7 @@
         <v>917</v>
       </c>
       <c r="Q253" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R253" s="7">
         <v>0</v>
@@ -22922,22 +22916,22 @@
         <v>911</v>
       </c>
       <c r="D254" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F254" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H254" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G254" s="7" t="s">
+      <c r="I254" s="7" t="s">
         <v>1219</v>
-      </c>
-      <c r="H254" s="7" t="s">
-        <v>1220</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>1221</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>5</v>
@@ -22958,7 +22952,7 @@
         <v>917</v>
       </c>
       <c r="Q254" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R254" s="7">
         <v>0</v>
@@ -22996,22 +22990,22 @@
         <v>911</v>
       </c>
       <c r="D255" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H255" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="G255" s="7" t="s">
+      <c r="I255" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="H255" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I255" s="7" t="s">
-        <v>1225</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>5</v>
@@ -23033,7 +23027,7 @@
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R255" s="7">
         <v>0</v>
@@ -23070,22 +23064,22 @@
         <v>911</v>
       </c>
       <c r="D256" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F256" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H256" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="G256" s="7" t="s">
+      <c r="I256" s="7" t="s">
         <v>1227</v>
-      </c>
-      <c r="H256" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>1229</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>5</v>
@@ -23107,7 +23101,7 @@
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R256" s="7">
         <v>0</v>
@@ -23144,22 +23138,22 @@
         <v>911</v>
       </c>
       <c r="D257" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F257" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H257" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="G257" s="7" t="s">
+      <c r="I257" s="7" t="s">
         <v>1231</v>
-      </c>
-      <c r="H257" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I257" s="7" t="s">
-        <v>1233</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>5</v>
@@ -23181,7 +23175,7 @@
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R257" s="7">
         <v>0</v>
@@ -23218,22 +23212,22 @@
         <v>911</v>
       </c>
       <c r="D258" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F258" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I258" s="45" t="s">
         <v>1234</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H258" s="7" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I258" s="45" t="s">
-        <v>1236</v>
       </c>
       <c r="J258" s="7" t="s">
         <v>979</v>
@@ -23292,22 +23286,22 @@
         <v>911</v>
       </c>
       <c r="D259" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I259" s="45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J259" s="7" t="s">
         <v>979</v>
@@ -23366,22 +23360,22 @@
         <v>911</v>
       </c>
       <c r="D260" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I260" s="45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J260" s="7" t="s">
         <v>979</v>
@@ -23440,22 +23434,22 @@
         <v>911</v>
       </c>
       <c r="D261" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I261" s="45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J261" s="7" t="s">
         <v>979</v>
@@ -23514,22 +23508,22 @@
         <v>911</v>
       </c>
       <c r="D262" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I262" s="45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J262" s="7" t="s">
         <v>979</v>
@@ -23585,25 +23579,25 @@
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D263" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="J263" s="7" t="s">
         <v>979</v>
@@ -23612,7 +23606,7 @@
         <v>6</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M263" s="6" t="s">
         <v>8</v>
@@ -23656,22 +23650,22 @@
         <v>875</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F264" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G264" s="41" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H264" s="40" t="s">
         <v>1245</v>
       </c>
-      <c r="G264" s="41" t="s">
+      <c r="I264" s="41" t="s">
         <v>1246</v>
-      </c>
-      <c r="H264" s="40" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I264" s="41" t="s">
-        <v>1248</v>
       </c>
       <c r="J264" s="40" t="s">
         <v>806</v>
@@ -23680,16 +23674,16 @@
         <v>231</v>
       </c>
       <c r="L264" s="40" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M264" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N264" s="41" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="O264" s="40" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="P264" s="40"/>
       <c r="Q264" s="40" t="s">
@@ -23730,22 +23724,22 @@
         <v>875</v>
       </c>
       <c r="D265" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F265" s="41" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G265" s="41" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H265" s="47" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I265" s="41" t="s">
         <v>1252</v>
-      </c>
-      <c r="G265" s="41" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H265" s="47" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I265" s="41" t="s">
-        <v>1254</v>
       </c>
       <c r="J265" s="41" t="s">
         <v>1050</v>
@@ -23754,16 +23748,16 @@
         <v>231</v>
       </c>
       <c r="L265" s="40" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M265" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N265" s="41" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="O265" s="40" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="P265" s="40"/>
       <c r="Q265" s="40" t="s">
@@ -23804,22 +23798,22 @@
         <v>875</v>
       </c>
       <c r="D266" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F266" s="40" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G266" s="41" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H266" s="47" t="s">
         <v>1257</v>
       </c>
-      <c r="G266" s="41" t="s">
+      <c r="I266" s="41" t="s">
         <v>1258</v>
-      </c>
-      <c r="H266" s="47" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I266" s="41" t="s">
-        <v>1260</v>
       </c>
       <c r="J266" s="40" t="s">
         <v>806</v>
@@ -23834,10 +23828,10 @@
         <v>8</v>
       </c>
       <c r="N266" s="41" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="O266" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="P266" s="40"/>
       <c r="Q266" s="40" t="s">
@@ -23878,22 +23872,22 @@
         <v>875</v>
       </c>
       <c r="D267" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E267" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F267" s="41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G267" s="41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H267" s="47" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I267" s="41" t="s">
         <v>1263</v>
-      </c>
-      <c r="G267" s="41" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H267" s="47" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I267" s="41" t="s">
-        <v>1265</v>
       </c>
       <c r="J267" s="40" t="s">
         <v>979</v>
@@ -23908,10 +23902,10 @@
         <v>8</v>
       </c>
       <c r="N267" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="O267" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="P267" s="40"/>
       <c r="Q267" s="40" t="s">
@@ -23952,22 +23946,22 @@
         <v>875</v>
       </c>
       <c r="D268" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E268" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F268" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G268" s="41" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H268" s="47" t="s">
         <v>1266</v>
       </c>
-      <c r="G268" s="41" t="s">
+      <c r="I268" s="41" t="s">
         <v>1267</v>
-      </c>
-      <c r="H268" s="47" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I268" s="41" t="s">
-        <v>1269</v>
       </c>
       <c r="J268" s="40" t="s">
         <v>806</v>
@@ -23982,14 +23976,14 @@
         <v>8</v>
       </c>
       <c r="N268" s="41" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="O268" s="40" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="P268" s="40"/>
       <c r="Q268" s="40" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="R268" s="7">
         <v>0</v>
@@ -24026,22 +24020,22 @@
         <v>875</v>
       </c>
       <c r="D269" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F269" s="41" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="G269" s="41" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="H269" s="47" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I269" s="41" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J269" s="40" t="s">
         <v>979</v>
@@ -24056,14 +24050,14 @@
         <v>8</v>
       </c>
       <c r="N269" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="O269" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="P269" s="40"/>
       <c r="Q269" s="40" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="R269" s="7">
         <v>0</v>
@@ -24133,7 +24127,7 @@
         <v>333</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -24149,7 +24143,7 @@
         <v>732</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -24165,7 +24159,7 @@
         <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -24173,7 +24167,7 @@
         <v>337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -24245,7 +24239,7 @@
         <v>346</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -24298,10 +24292,10 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -4659,10 +4659,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AK269"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="Q159" sqref="Q159"/>
+      <selection pane="bottomLeft" activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11986,16 +11986,16 @@
         <v>6</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="6" t="s">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="1342">
   <si>
     <t>id</t>
   </si>
@@ -4079,6 +4079,9 @@
   </si>
   <si>
     <t>El indicador mide el porcentaje de ocupados que trabajan más de 40 horas semanales y perciben un salario inferior a la línea de pobreza individual.</t>
+  </si>
+  <si>
+    <t>NNA</t>
   </si>
 </sst>
 </file>
@@ -4659,10 +4662,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AK269"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="O112" sqref="O112"/>
+      <selection pane="bottomLeft" activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9583,7 +9586,9 @@
       <c r="B69" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D69" s="18" t="s">
         <v>2</v>
       </c>
@@ -9664,7 +9669,9 @@
       <c r="B70" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="18"/>
+      <c r="C70" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D70" s="18" t="s">
         <v>2</v>
       </c>
@@ -9690,16 +9697,16 @@
         <v>6</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>39</v>
+        <v>1275</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>187</v>
+      <c r="N70" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7" t="s">
@@ -9745,7 +9752,9 @@
       <c r="B71" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D71" s="18" t="s">
         <v>2</v>
       </c>
@@ -9771,16 +9780,16 @@
         <v>6</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>187</v>
+      <c r="N71" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7" t="s">
@@ -9825,7 +9834,9 @@
       <c r="B72" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="18"/>
+      <c r="C72" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D72" s="18" t="s">
         <v>2</v>
       </c>
@@ -9851,16 +9862,16 @@
         <v>6</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>187</v>
+      <c r="N72" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7" t="s">
@@ -9906,7 +9917,9 @@
       <c r="B73" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D73" s="18" t="s">
         <v>2</v>
       </c>
@@ -9932,16 +9945,16 @@
         <v>6</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>187</v>
+      <c r="N73" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7" t="s">
@@ -9987,7 +10000,9 @@
       <c r="B74" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="18"/>
+      <c r="C74" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D74" s="18" t="s">
         <v>2</v>
       </c>
@@ -10013,16 +10028,16 @@
         <v>6</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N74" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>187</v>
+      <c r="N74" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="7" t="s">
@@ -10068,7 +10083,9 @@
       <c r="B75" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="18"/>
+      <c r="C75" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D75" s="18" t="s">
         <v>2</v>
       </c>
@@ -10094,16 +10111,16 @@
         <v>6</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>187</v>
+      <c r="N75" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7" t="s">
@@ -10149,7 +10166,9 @@
       <c r="B76" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="18"/>
+      <c r="C76" s="18" t="s">
+        <v>1341</v>
+      </c>
       <c r="D76" s="18" t="s">
         <v>2</v>
       </c>
@@ -10175,16 +10194,16 @@
         <v>6</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>7</v>
+        <v>966</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>187</v>
+      <c r="N76" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="7" t="s">
@@ -10254,17 +10273,17 @@
       <c r="K77" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L77" s="6" t="s">
-        <v>7</v>
+      <c r="L77" s="7" t="s">
+        <v>966</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>9</v>
+        <v>1335</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>187</v>
+        <v>1336</v>
       </c>
       <c r="P77" s="6" t="s">
         <v>54</v>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -4198,7 +4198,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4340,6 +4340,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4660,12 +4663,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AK269"/>
+  <dimension ref="A1:AK274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="N82" sqref="N82"/>
+      <selection pane="bottomLeft" activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9182,16 +9185,16 @@
         <v>3</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>548</v>
+        <v>728</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>53</v>
+        <v>729</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>383</v>
+        <v>730</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>155</v>
+        <v>1304</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>5</v>
@@ -9199,7 +9202,7 @@
       <c r="K63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="L63" s="7" t="s">
         <v>966</v>
       </c>
       <c r="M63" s="6" t="s">
@@ -9214,17 +9217,17 @@
       <c r="P63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q63" s="6" t="s">
-        <v>17</v>
+      <c r="Q63" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="R63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="6">
         <v>0</v>
@@ -9235,6 +9238,7 @@
       <c r="W63" s="6">
         <v>0</v>
       </c>
+      <c r="AK63" s="11"/>
     </row>
     <row r="64" spans="1:37" s="6" customFormat="1">
       <c r="A64" s="10">
@@ -9319,16 +9323,16 @@
         <v>3</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>436</v>
+        <v>155</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>5</v>
@@ -9351,8 +9355,8 @@
       <c r="P65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q65" s="13" t="s">
-        <v>475</v>
+      <c r="Q65" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="R65" s="6">
         <v>0</v>
@@ -9387,16 +9391,16 @@
         <v>3</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>731</v>
+        <v>550</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>5</v>
@@ -9423,10 +9427,10 @@
         <v>475</v>
       </c>
       <c r="R66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="6">
         <v>0</v>
@@ -9435,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="6">
         <v>0</v>
@@ -9455,16 +9459,16 @@
         <v>3</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>551</v>
+        <v>731</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>5</v>
@@ -9487,14 +9491,14 @@
       <c r="P67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q67" s="6" t="s">
-        <v>17</v>
+      <c r="Q67" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="R67" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="6">
         <v>0</v>
@@ -9503,12 +9507,11 @@
         <v>0</v>
       </c>
       <c r="V67" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67" s="6">
         <v>0</v>
       </c>
-      <c r="AK67" s="11"/>
     </row>
     <row r="68" spans="1:37" s="6" customFormat="1">
       <c r="A68" s="10">
@@ -9524,16 +9527,16 @@
         <v>3</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>5</v>
@@ -9560,7 +9563,7 @@
         <v>17</v>
       </c>
       <c r="R68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -9580,43 +9583,40 @@
       <c r="AK68" s="11"/>
     </row>
     <row r="69" spans="1:37" s="6" customFormat="1">
-      <c r="A69" s="7">
+      <c r="A69" s="10">
         <v>330107</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>657</v>
+      <c r="F69" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="K69" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>1275</v>
-      </c>
-      <c r="M69" s="7" t="s">
+      <c r="L69" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="M69" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="6" t="s">
@@ -9625,12 +9625,14 @@
       <c r="O69" s="6" t="s">
         <v>1336</v>
       </c>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7" t="s">
+      <c r="P69" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="6">
         <v>0</v>
@@ -9647,23 +9649,10 @@
       <c r="W69" s="6">
         <v>0</v>
       </c>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="23"/>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="23"/>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="7"/>
+      <c r="AK69" s="11"/>
     </row>
     <row r="70" spans="1:37" s="6" customFormat="1">
-      <c r="A70" s="7">
+      <c r="A70" s="10">
         <v>330108</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -9679,16 +9668,16 @@
         <v>3</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J70" s="23" t="s">
         <v>672</v>
@@ -9743,10 +9732,10 @@
       <c r="AH70" s="23"/>
       <c r="AI70" s="23"/>
       <c r="AJ70" s="23"/>
-      <c r="AK70" s="11"/>
+      <c r="AK70" s="7"/>
     </row>
     <row r="71" spans="1:37" s="6" customFormat="1">
-      <c r="A71" s="7">
+      <c r="A71" s="10">
         <v>330109</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -9762,16 +9751,16 @@
         <v>3</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J71" s="23" t="s">
         <v>672</v>
@@ -9780,7 +9769,7 @@
         <v>6</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>321</v>
+        <v>1275</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>8</v>
@@ -9826,9 +9815,10 @@
       <c r="AH71" s="23"/>
       <c r="AI71" s="23"/>
       <c r="AJ71" s="23"/>
+      <c r="AK71" s="11"/>
     </row>
     <row r="72" spans="1:37" s="6" customFormat="1">
-      <c r="A72" s="7">
+      <c r="A72" s="10">
         <v>330110</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -9844,19 +9834,19 @@
         <v>3</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>5</v>
+        <v>672</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>6</v>
@@ -9908,10 +9898,9 @@
       <c r="AH72" s="23"/>
       <c r="AI72" s="23"/>
       <c r="AJ72" s="23"/>
-      <c r="AK72" s="11"/>
     </row>
     <row r="73" spans="1:37" s="6" customFormat="1">
-      <c r="A73" s="7">
+      <c r="A73" s="10">
         <v>330111</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -9927,16 +9916,16 @@
         <v>3</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>5</v>
@@ -9994,7 +9983,7 @@
       <c r="AK73" s="11"/>
     </row>
     <row r="74" spans="1:37" s="6" customFormat="1">
-      <c r="A74" s="7">
+      <c r="A74" s="10">
         <v>330112</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -10010,16 +9999,16 @@
         <v>3</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J74" s="23" t="s">
         <v>5</v>
@@ -10044,10 +10033,10 @@
         <v>17</v>
       </c>
       <c r="R74" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" s="6">
         <v>0</v>
@@ -10077,7 +10066,7 @@
       <c r="AK74" s="11"/>
     </row>
     <row r="75" spans="1:37" s="6" customFormat="1">
-      <c r="A75" s="7">
+      <c r="A75" s="10">
         <v>330113</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -10093,16 +10082,16 @@
         <v>3</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J75" s="23" t="s">
         <v>5</v>
@@ -10111,7 +10100,7 @@
         <v>6</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>966</v>
+        <v>321</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>8</v>
@@ -10127,10 +10116,10 @@
         <v>17</v>
       </c>
       <c r="R75" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="6">
         <v>0</v>
@@ -10160,7 +10149,7 @@
       <c r="AK75" s="11"/>
     </row>
     <row r="76" spans="1:37" s="6" customFormat="1">
-      <c r="A76" s="7">
+      <c r="A76" s="10">
         <v>330114</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -10176,16 +10165,16 @@
         <v>3</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J76" s="23" t="s">
         <v>5</v>
@@ -10246,37 +10235,40 @@
       <c r="A77" s="10">
         <v>330115</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>729</v>
+      <c r="F77" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>671</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J77" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="J77" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K77" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="M77" s="6" t="s">
+      <c r="M77" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N77" s="6" t="s">
@@ -10285,20 +10277,18 @@
       <c r="O77" s="6" t="s">
         <v>1336</v>
       </c>
-      <c r="P77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q77" s="13" t="s">
-        <v>475</v>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="R77" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" s="6">
         <v>0</v>
@@ -10309,6 +10299,19 @@
       <c r="W77" s="6">
         <v>0</v>
       </c>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="23"/>
+      <c r="AF77" s="23"/>
+      <c r="AG77" s="23"/>
+      <c r="AH77" s="23"/>
+      <c r="AI77" s="23"/>
+      <c r="AJ77" s="23"/>
       <c r="AK77" s="11"/>
     </row>
     <row r="78" spans="1:37" s="6" customFormat="1">
@@ -24103,6 +24106,14 @@
       <c r="AB269" s="7"/>
       <c r="AC269" s="7"/>
       <c r="AK269" s="13"/>
+    </row>
+    <row r="273" spans="6:7">
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+    </row>
+    <row r="274" spans="6:7">
+      <c r="F274" s="7"/>
+      <c r="G274" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AK$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -4665,10 +4665,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AK274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="F287" sqref="F287"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24134,7 +24134,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AK$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AL$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1349">
   <si>
     <t>id</t>
   </si>
@@ -4082,6 +4082,27 @@
   </si>
   <si>
     <t>NNA</t>
+  </si>
+  <si>
+    <t>Sin observaciones</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Para 2021 este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario presencial de implantación del panel del segundo semestre de 2021.</t>
+  </si>
+  <si>
+    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario de implantación de modalidad panel del segundo semestre de 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. A partir de 2020 cambia el modo de relevar cobertura de salud. Antes de esta fecha se les consultaba a los/as encuestados por cobertura en cada uno de los prestadores posibles. Durante el 2020 y el primer semestre de 2021, se relevó únicamente el principal prestador de salud. En el segundo semestre de 2021 se relevó el prestador principal y secundario, hecho que habilita reconstruir un indicador más próximo al calculado antes de 2019. Para 2021, este indicador se calcula únicamente a partir de la implantación de modalidad panel del segundo semestre de 2021. Dados los cambios metodológicos en la formulación de las preguntas,no se incopora a la serie el año 2020 y tampoco se considera la información del primer semestre de 2021. </t>
+  </si>
+  <si>
+    <t>Observaciones del indicador</t>
+  </si>
+  <si>
+    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre, el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4219,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4343,6 +4364,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4663,12 +4687,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AK274"/>
+  <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="R143" sqref="R143:R155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4689,20 +4713,20 @@
     <col min="14" max="14" width="57.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="130.42578125" style="13" customWidth="1"/>
     <col min="16" max="16" width="230.140625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="98.7109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="9.42578125" style="13" customWidth="1"/>
-    <col min="28" max="30" width="9.140625" style="13"/>
-    <col min="31" max="31" width="55.140625" style="13" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="13"/>
+    <col min="17" max="18" width="98.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="9.42578125" style="13" customWidth="1"/>
+    <col min="29" max="31" width="9.140625" style="13"/>
+    <col min="32" max="32" width="55.140625" style="13" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="26" t="s">
         <v>333</v>
       </c>
@@ -4754,26 +4778,29 @@
       <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>675</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="6" customFormat="1">
+    <row r="2" spans="1:38" s="6" customFormat="1">
       <c r="A2" s="6">
         <v>120101</v>
       </c>
@@ -4819,12 +4846,12 @@
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S2" s="6">
         <v>1</v>
       </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
       <c r="T2" s="6">
         <v>0</v>
       </c>
@@ -4837,9 +4864,12 @@
       <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="AK2" s="13"/>
-    </row>
-    <row r="3" spans="1:37" s="6" customFormat="1">
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="13"/>
+    </row>
+    <row r="3" spans="1:38" s="6" customFormat="1">
       <c r="A3" s="6">
         <v>120102</v>
       </c>
@@ -4885,12 +4915,12 @@
       <c r="Q3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S3" s="6">
         <v>1</v>
       </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
       <c r="T3" s="6">
         <v>0</v>
       </c>
@@ -4903,8 +4933,11 @@
       <c r="W3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" s="6" customFormat="1">
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="6" customFormat="1">
       <c r="A4" s="6">
         <v>120103</v>
       </c>
@@ -4950,12 +4983,12 @@
       <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S4" s="6">
         <v>1</v>
       </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
       <c r="T4" s="6">
         <v>0</v>
       </c>
@@ -4968,9 +5001,12 @@
       <c r="W4" s="6">
         <v>0</v>
       </c>
-      <c r="AK4" s="13"/>
-    </row>
-    <row r="5" spans="1:37" s="6" customFormat="1">
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="13"/>
+    </row>
+    <row r="5" spans="1:38" s="6" customFormat="1">
       <c r="A5" s="6">
         <v>120104</v>
       </c>
@@ -5016,12 +5052,12 @@
       <c r="Q5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S5" s="6">
         <v>1</v>
       </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
       <c r="T5" s="6">
         <v>0</v>
       </c>
@@ -5034,9 +5070,12 @@
       <c r="W5" s="6">
         <v>0</v>
       </c>
-      <c r="AK5" s="13"/>
-    </row>
-    <row r="6" spans="1:37" s="6" customFormat="1">
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="13"/>
+    </row>
+    <row r="6" spans="1:38" s="6" customFormat="1">
       <c r="A6" s="6">
         <v>120105</v>
       </c>
@@ -5082,8 +5121,8 @@
       <c r="Q6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
+      <c r="R6" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -5100,9 +5139,12 @@
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="AK6" s="13"/>
-    </row>
-    <row r="7" spans="1:37" s="6" customFormat="1">
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="1:38" s="6" customFormat="1">
       <c r="A7" s="6">
         <v>120106</v>
       </c>
@@ -5148,8 +5190,8 @@
       <c r="Q7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="6">
-        <v>0</v>
+      <c r="R7" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
@@ -5166,9 +5208,12 @@
       <c r="W7" s="6">
         <v>0</v>
       </c>
-      <c r="AK7" s="15"/>
-    </row>
-    <row r="8" spans="1:37" s="6" customFormat="1">
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15"/>
+    </row>
+    <row r="8" spans="1:38" s="6" customFormat="1">
       <c r="A8" s="6">
         <v>120107</v>
       </c>
@@ -5214,8 +5259,8 @@
       <c r="Q8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
+      <c r="R8" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -5232,9 +5277,12 @@
       <c r="W8" s="6">
         <v>0</v>
       </c>
-      <c r="AK8" s="15"/>
-    </row>
-    <row r="9" spans="1:37" s="6" customFormat="1">
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="15"/>
+    </row>
+    <row r="9" spans="1:38" s="6" customFormat="1">
       <c r="A9" s="6">
         <v>120108</v>
       </c>
@@ -5280,8 +5328,8 @@
       <c r="Q9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="6">
-        <v>0</v>
+      <c r="R9" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
@@ -5298,8 +5346,11 @@
       <c r="W9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" s="6" customFormat="1">
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="6" customFormat="1">
       <c r="A10" s="6">
         <v>120109</v>
       </c>
@@ -5345,8 +5396,8 @@
       <c r="Q10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="6">
-        <v>0</v>
+      <c r="R10" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -5363,9 +5414,12 @@
       <c r="W10" s="6">
         <v>0</v>
       </c>
-      <c r="AK10" s="13"/>
-    </row>
-    <row r="11" spans="1:37" s="6" customFormat="1">
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13"/>
+    </row>
+    <row r="11" spans="1:38" s="6" customFormat="1">
       <c r="A11" s="6">
         <v>120110</v>
       </c>
@@ -5411,8 +5465,8 @@
       <c r="Q11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="6">
-        <v>0</v>
+      <c r="R11" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
@@ -5429,9 +5483,12 @@
       <c r="W11" s="6">
         <v>0</v>
       </c>
-      <c r="AK11" s="13"/>
-    </row>
-    <row r="12" spans="1:37" s="6" customFormat="1">
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="13"/>
+    </row>
+    <row r="12" spans="1:38" s="6" customFormat="1">
       <c r="A12" s="6">
         <v>120111</v>
       </c>
@@ -5477,8 +5534,8 @@
       <c r="Q12" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="R12" s="6">
-        <v>0</v>
+      <c r="R12" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
@@ -5495,8 +5552,11 @@
       <c r="W12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1">
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1">
       <c r="A13" s="6">
         <v>120112</v>
       </c>
@@ -5542,8 +5602,8 @@
       <c r="Q13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
+      <c r="R13" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
@@ -5560,9 +5620,12 @@
       <c r="W13" s="6">
         <v>0</v>
       </c>
-      <c r="AK13" s="13"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1">
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="13"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1">
       <c r="A14" s="6">
         <v>120113</v>
       </c>
@@ -5608,8 +5671,8 @@
       <c r="Q14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="6">
-        <v>0</v>
+      <c r="R14" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -5626,8 +5689,11 @@
       <c r="W14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" s="7" customFormat="1">
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>120114</v>
       </c>
@@ -5673,8 +5739,8 @@
       <c r="Q15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="6">
-        <v>0</v>
+      <c r="R15" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S15" s="6">
         <v>0</v>
@@ -5691,9 +5757,12 @@
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="AK15" s="6"/>
-    </row>
-    <row r="16" spans="1:37" s="7" customFormat="1">
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="1:38" s="7" customFormat="1">
       <c r="A16" s="6">
         <v>120115</v>
       </c>
@@ -5739,8 +5808,8 @@
       <c r="Q16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="6">
-        <v>0</v>
+      <c r="R16" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S16" s="6">
         <v>0</v>
@@ -5757,9 +5826,12 @@
       <c r="W16" s="6">
         <v>0</v>
       </c>
-      <c r="AK16" s="6"/>
-    </row>
-    <row r="17" spans="1:37" s="7" customFormat="1">
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="1:38" s="7" customFormat="1">
       <c r="A17" s="6">
         <v>120116</v>
       </c>
@@ -5805,8 +5877,8 @@
       <c r="Q17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
+      <c r="R17" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S17" s="6">
         <v>0</v>
@@ -5823,9 +5895,12 @@
       <c r="W17" s="6">
         <v>0</v>
       </c>
-      <c r="AK17" s="6"/>
-    </row>
-    <row r="18" spans="1:37">
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="13">
         <v>130101</v>
       </c>
@@ -5874,26 +5949,29 @@
       <c r="Q18" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R18" s="6">
-        <v>1</v>
+      <c r="R18" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S18" s="6">
         <v>1</v>
       </c>
       <c r="T18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
         <v>1</v>
       </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
       <c r="W18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:37">
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="13">
         <v>130102</v>
       </c>
@@ -5942,12 +6020,12 @@
       <c r="Q19" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S19" s="6">
         <v>1</v>
       </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
       <c r="T19" s="6">
         <v>0</v>
       </c>
@@ -5960,8 +6038,11 @@
       <c r="W19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:37">
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="13">
         <v>130103</v>
       </c>
@@ -6010,8 +6091,8 @@
       <c r="Q20" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R20" s="6">
-        <v>0</v>
+      <c r="R20" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S20" s="6">
         <v>0</v>
@@ -6028,8 +6109,11 @@
       <c r="W20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" s="6" customFormat="1">
+      <c r="X20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" s="6" customFormat="1">
       <c r="A21" s="14">
         <v>130104</v>
       </c>
@@ -6079,8 +6163,8 @@
       <c r="Q21" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R21" s="6">
-        <v>0</v>
+      <c r="R21" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S21" s="6">
         <v>0</v>
@@ -6097,7 +6181,9 @@
       <c r="W21" s="6">
         <v>0</v>
       </c>
-      <c r="X21" s="13"/>
+      <c r="X21" s="6">
+        <v>0</v>
+      </c>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
@@ -6110,8 +6196,9 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="13"/>
-    </row>
-    <row r="22" spans="1:37" s="6" customFormat="1">
+      <c r="AK21" s="13"/>
+    </row>
+    <row r="22" spans="1:38" s="6" customFormat="1">
       <c r="A22" s="14">
         <v>130105</v>
       </c>
@@ -6161,8 +6248,8 @@
       <c r="Q22" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R22" s="6">
-        <v>0</v>
+      <c r="R22" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S22" s="6">
         <v>0</v>
@@ -6179,7 +6266,9 @@
       <c r="W22" s="6">
         <v>0</v>
       </c>
-      <c r="X22" s="13"/>
+      <c r="X22" s="6">
+        <v>0</v>
+      </c>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
@@ -6192,8 +6281,9 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
-    </row>
-    <row r="23" spans="1:37">
+      <c r="AK22" s="13"/>
+    </row>
+    <row r="23" spans="1:38">
       <c r="A23" s="14">
         <v>130106</v>
       </c>
@@ -6242,8 +6332,8 @@
       <c r="Q23" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R23" s="6">
-        <v>0</v>
+      <c r="R23" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S23" s="6">
         <v>0</v>
@@ -6260,9 +6350,12 @@
       <c r="W23" s="6">
         <v>0</v>
       </c>
-      <c r="AK23" s="6"/>
-    </row>
-    <row r="24" spans="1:37">
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="15">
         <v>130107</v>
       </c>
@@ -6312,8 +6405,8 @@
       <c r="Q24" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R24" s="6">
-        <v>0</v>
+      <c r="R24" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S24" s="6">
         <v>0</v>
@@ -6330,7 +6423,9 @@
       <c r="W24" s="6">
         <v>0</v>
       </c>
-      <c r="X24" s="15"/>
+      <c r="X24" s="6">
+        <v>0</v>
+      </c>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
@@ -6343,9 +6438,10 @@
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
-      <c r="AK24" s="6"/>
-    </row>
-    <row r="25" spans="1:37">
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="15">
         <v>130108</v>
       </c>
@@ -6395,12 +6491,12 @@
       <c r="Q25" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S25" s="6">
         <v>1</v>
       </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
       <c r="T25" s="6">
         <v>0</v>
       </c>
@@ -6413,7 +6509,9 @@
       <c r="W25" s="6">
         <v>0</v>
       </c>
-      <c r="X25" s="15"/>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
@@ -6426,9 +6524,10 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15"/>
-      <c r="AK25" s="6"/>
-    </row>
-    <row r="26" spans="1:37" s="6" customFormat="1">
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="6"/>
+    </row>
+    <row r="26" spans="1:38" s="6" customFormat="1">
       <c r="A26" s="6">
         <v>130201</v>
       </c>
@@ -6477,8 +6576,8 @@
       <c r="Q26" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="R26" s="6">
-        <v>0</v>
+      <c r="R26" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S26" s="6">
         <v>0</v>
@@ -6495,8 +6594,11 @@
       <c r="W26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="6">
         <v>130202</v>
       </c>
@@ -6546,8 +6648,8 @@
       <c r="Q27" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="R27" s="6">
-        <v>0</v>
+      <c r="R27" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S27" s="6">
         <v>0</v>
@@ -6564,7 +6666,9 @@
       <c r="W27" s="6">
         <v>0</v>
       </c>
-      <c r="X27" s="6"/>
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -6577,8 +6681,9 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
-    </row>
-    <row r="28" spans="1:37">
+      <c r="AK27" s="6"/>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="6">
         <v>130203</v>
       </c>
@@ -6628,8 +6733,8 @@
       <c r="Q28" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="R28" s="6">
-        <v>0</v>
+      <c r="R28" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
@@ -6646,7 +6751,9 @@
       <c r="W28" s="6">
         <v>0</v>
       </c>
-      <c r="X28" s="6"/>
+      <c r="X28" s="6">
+        <v>0</v>
+      </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -6659,8 +6766,9 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
-    </row>
-    <row r="29" spans="1:37">
+      <c r="AK28" s="6"/>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="6">
         <v>130204</v>
       </c>
@@ -6709,8 +6817,8 @@
       <c r="Q29" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="R29" s="6">
-        <v>0</v>
+      <c r="R29" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S29" s="6">
         <v>0</v>
@@ -6727,8 +6835,11 @@
       <c r="W29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" s="15" customFormat="1">
+      <c r="X29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" s="15" customFormat="1">
       <c r="A30" s="6">
         <v>130205</v>
       </c>
@@ -6778,8 +6889,8 @@
       <c r="Q30" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="R30" s="6">
-        <v>0</v>
+      <c r="R30" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S30" s="6">
         <v>0</v>
@@ -6796,7 +6907,9 @@
       <c r="W30" s="6">
         <v>0</v>
       </c>
-      <c r="X30" s="13"/>
+      <c r="X30" s="6">
+        <v>0</v>
+      </c>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
@@ -6810,8 +6923,9 @@
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="13"/>
-    </row>
-    <row r="31" spans="1:37" s="15" customFormat="1">
+      <c r="AL30" s="13"/>
+    </row>
+    <row r="31" spans="1:38" s="15" customFormat="1">
       <c r="A31" s="6">
         <v>130301</v>
       </c>
@@ -6859,8 +6973,8 @@
       <c r="Q31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R31" s="6">
-        <v>0</v>
+      <c r="R31" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S31" s="6">
         <v>0</v>
@@ -6877,7 +6991,9 @@
       <c r="W31" s="6">
         <v>0</v>
       </c>
-      <c r="X31" s="13"/>
+      <c r="X31" s="6">
+        <v>0</v>
+      </c>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
@@ -6890,9 +7006,10 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
-      <c r="AK31" s="6"/>
-    </row>
-    <row r="32" spans="1:37" s="6" customFormat="1">
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="6"/>
+    </row>
+    <row r="32" spans="1:38" s="6" customFormat="1">
       <c r="A32" s="6">
         <v>130302</v>
       </c>
@@ -6940,8 +7057,8 @@
       <c r="Q32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R32" s="6">
-        <v>0</v>
+      <c r="R32" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S32" s="6">
         <v>0</v>
@@ -6958,7 +7075,9 @@
       <c r="W32" s="6">
         <v>0</v>
       </c>
-      <c r="X32" s="13"/>
+      <c r="X32" s="6">
+        <v>0</v>
+      </c>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
@@ -6971,8 +7090,9 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="AK32" s="13"/>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="6">
         <v>130303</v>
       </c>
@@ -7019,8 +7139,8 @@
       <c r="Q33" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R33" s="6">
-        <v>0</v>
+      <c r="R33" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S33" s="6">
         <v>0</v>
@@ -7037,9 +7157,12 @@
       <c r="W33" s="6">
         <v>0</v>
       </c>
-      <c r="AK33" s="6"/>
-    </row>
-    <row r="34" spans="1:37">
+      <c r="X33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="6"/>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="6">
         <v>130304</v>
       </c>
@@ -7089,8 +7212,8 @@
       <c r="Q34" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R34" s="6">
-        <v>0</v>
+      <c r="R34" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S34" s="6">
         <v>0</v>
@@ -7107,7 +7230,9 @@
       <c r="W34" s="6">
         <v>0</v>
       </c>
-      <c r="X34" s="6"/>
+      <c r="X34" s="6">
+        <v>0</v>
+      </c>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
@@ -7121,8 +7246,9 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-    </row>
-    <row r="35" spans="1:37" s="6" customFormat="1">
+      <c r="AL34" s="6"/>
+    </row>
+    <row r="35" spans="1:38" s="6" customFormat="1">
       <c r="A35" s="6">
         <v>130305</v>
       </c>
@@ -7171,12 +7297,12 @@
       <c r="Q35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S35" s="6">
         <v>1</v>
       </c>
-      <c r="S35" s="6">
-        <v>0</v>
-      </c>
       <c r="T35" s="6">
         <v>0</v>
       </c>
@@ -7189,8 +7315,11 @@
       <c r="W35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:37">
+      <c r="X35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" s="6">
         <v>130306</v>
       </c>
@@ -7239,27 +7368,30 @@
       <c r="Q36" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R36" s="6">
-        <v>0</v>
+      <c r="R36" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S36" s="6">
+        <v>0</v>
+      </c>
+      <c r="T36" s="6">
         <v>1</v>
       </c>
-      <c r="T36" s="6">
-        <v>0</v>
-      </c>
       <c r="U36" s="6">
         <v>0</v>
       </c>
       <c r="V36" s="6">
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
         <v>1</v>
       </c>
-      <c r="W36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="6"/>
-    </row>
-    <row r="37" spans="1:37" s="6" customFormat="1">
+      <c r="X36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="6"/>
+    </row>
+    <row r="37" spans="1:38" s="6" customFormat="1">
       <c r="A37" s="6">
         <v>220101</v>
       </c>
@@ -7306,12 +7438,12 @@
       <c r="Q37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S37" s="6">
         <v>1</v>
       </c>
-      <c r="S37" s="6">
-        <v>0</v>
-      </c>
       <c r="T37" s="6">
         <v>0</v>
       </c>
@@ -7324,8 +7456,11 @@
       <c r="W37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" s="6" customFormat="1">
+      <c r="X37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" s="6" customFormat="1">
       <c r="A38" s="6">
         <v>220102</v>
       </c>
@@ -7372,12 +7507,12 @@
       <c r="Q38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S38" s="6">
         <v>1</v>
       </c>
-      <c r="S38" s="6">
-        <v>0</v>
-      </c>
       <c r="T38" s="6">
         <v>0</v>
       </c>
@@ -7390,8 +7525,11 @@
       <c r="W38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" s="6" customFormat="1">
+      <c r="X38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" s="6" customFormat="1">
       <c r="A39" s="6">
         <v>220103</v>
       </c>
@@ -7438,12 +7576,12 @@
       <c r="Q39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S39" s="6">
         <v>1</v>
       </c>
-      <c r="S39" s="6">
-        <v>0</v>
-      </c>
       <c r="T39" s="6">
         <v>0</v>
       </c>
@@ -7456,8 +7594,11 @@
       <c r="W39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" s="6" customFormat="1">
+      <c r="X39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" s="6" customFormat="1">
       <c r="A40" s="6">
         <v>220104</v>
       </c>
@@ -7504,12 +7645,12 @@
       <c r="Q40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S40" s="6">
         <v>1</v>
       </c>
-      <c r="S40" s="6">
-        <v>0</v>
-      </c>
       <c r="T40" s="6">
         <v>0</v>
       </c>
@@ -7522,8 +7663,11 @@
       <c r="W40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:37">
+      <c r="X40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="6">
         <v>220105</v>
       </c>
@@ -7570,8 +7714,8 @@
       <c r="Q41" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R41" s="6">
-        <v>0</v>
+      <c r="R41" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S41" s="6">
         <v>0</v>
@@ -7588,7 +7732,9 @@
       <c r="W41" s="6">
         <v>0</v>
       </c>
-      <c r="X41" s="6"/>
+      <c r="X41" s="6">
+        <v>0</v>
+      </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
@@ -7602,8 +7748,9 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
-    </row>
-    <row r="42" spans="1:37">
+      <c r="AL41" s="6"/>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="6">
         <v>220106</v>
       </c>
@@ -7650,8 +7797,8 @@
       <c r="Q42" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R42" s="6">
-        <v>0</v>
+      <c r="R42" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S42" s="6">
         <v>0</v>
@@ -7668,7 +7815,9 @@
       <c r="W42" s="6">
         <v>0</v>
       </c>
-      <c r="X42" s="25"/>
+      <c r="X42" s="6">
+        <v>0</v>
+      </c>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
       <c r="AA42" s="25"/>
@@ -7681,9 +7830,10 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
-      <c r="AK42" s="6"/>
-    </row>
-    <row r="43" spans="1:37">
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="6"/>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="6">
         <v>220107</v>
       </c>
@@ -7730,8 +7880,8 @@
       <c r="Q43" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R43" s="6">
-        <v>0</v>
+      <c r="R43" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S43" s="6">
         <v>0</v>
@@ -7748,7 +7898,9 @@
       <c r="W43" s="6">
         <v>0</v>
       </c>
-      <c r="X43" s="25"/>
+      <c r="X43" s="6">
+        <v>0</v>
+      </c>
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
       <c r="AA43" s="25"/>
@@ -7761,9 +7913,10 @@
       <c r="AH43" s="25"/>
       <c r="AI43" s="25"/>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="6"/>
-    </row>
-    <row r="44" spans="1:37" s="6" customFormat="1">
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="6"/>
+    </row>
+    <row r="44" spans="1:38" s="6" customFormat="1">
       <c r="A44" s="17">
         <v>230101</v>
       </c>
@@ -7813,12 +7966,12 @@
       <c r="Q44" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S44" s="6">
         <v>1</v>
       </c>
-      <c r="S44" s="6">
-        <v>0</v>
-      </c>
       <c r="T44" s="6">
         <v>0</v>
       </c>
@@ -7831,7 +7984,9 @@
       <c r="W44" s="6">
         <v>0</v>
       </c>
-      <c r="X44" s="13"/>
+      <c r="X44" s="6">
+        <v>0</v>
+      </c>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
@@ -7844,8 +7999,9 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
-    </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AK44" s="13"/>
+    </row>
+    <row r="45" spans="1:38" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="17">
         <v>230201</v>
       </c>
@@ -7895,8 +8051,8 @@
       <c r="Q45" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="R45" s="6">
-        <v>0</v>
+      <c r="R45" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S45" s="6">
         <v>0</v>
@@ -7913,7 +8069,9 @@
       <c r="W45" s="6">
         <v>0</v>
       </c>
-      <c r="X45" s="13"/>
+      <c r="X45" s="6">
+        <v>0</v>
+      </c>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
@@ -7926,8 +8084,9 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
-    </row>
-    <row r="46" spans="1:37" s="6" customFormat="1">
+      <c r="AK45" s="13"/>
+    </row>
+    <row r="46" spans="1:38" s="6" customFormat="1">
       <c r="A46" s="17">
         <v>230202</v>
       </c>
@@ -7977,8 +8136,8 @@
       <c r="Q46" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="R46" s="6">
-        <v>0</v>
+      <c r="R46" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S46" s="6">
         <v>0</v>
@@ -7995,7 +8154,9 @@
       <c r="W46" s="6">
         <v>0</v>
       </c>
-      <c r="X46" s="13"/>
+      <c r="X46" s="6">
+        <v>0</v>
+      </c>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
@@ -8008,8 +8169,9 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
-    </row>
-    <row r="47" spans="1:37" s="6" customFormat="1">
+      <c r="AK46" s="13"/>
+    </row>
+    <row r="47" spans="1:38" s="6" customFormat="1">
       <c r="A47" s="10">
         <v>230203</v>
       </c>
@@ -8058,12 +8220,12 @@
       <c r="Q47" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S47" s="6">
         <v>1</v>
       </c>
-      <c r="S47" s="6">
-        <v>0</v>
-      </c>
       <c r="T47" s="6">
         <v>0</v>
       </c>
@@ -8076,8 +8238,11 @@
       <c r="W47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" s="6" customFormat="1">
+      <c r="X47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" s="6" customFormat="1">
       <c r="A48" s="10">
         <v>230204</v>
       </c>
@@ -8126,8 +8291,8 @@
       <c r="Q48" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="R48" s="6">
-        <v>0</v>
+      <c r="R48" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S48" s="6">
         <v>0</v>
@@ -8144,8 +8309,11 @@
       <c r="W48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" s="6" customFormat="1">
+      <c r="X48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" s="6" customFormat="1">
       <c r="A49" s="6">
         <v>230301</v>
       </c>
@@ -8194,8 +8362,8 @@
       <c r="Q49" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="R49" s="6">
-        <v>1</v>
+      <c r="R49" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S49" s="6">
         <v>1</v>
@@ -8204,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="U49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="6">
         <v>0</v>
@@ -8212,8 +8380,11 @@
       <c r="W49" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:37">
+      <c r="X49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" s="6">
         <v>230302</v>
       </c>
@@ -8263,8 +8434,8 @@
       <c r="Q50" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="R50" s="6">
-        <v>0</v>
+      <c r="R50" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S50" s="6">
         <v>0</v>
@@ -8281,7 +8452,9 @@
       <c r="W50" s="6">
         <v>0</v>
       </c>
-      <c r="X50" s="6"/>
+      <c r="X50" s="6">
+        <v>0</v>
+      </c>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
@@ -8295,8 +8468,9 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
-    </row>
-    <row r="51" spans="1:37">
+      <c r="AL50" s="6"/>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" s="6">
         <v>230303</v>
       </c>
@@ -8346,8 +8520,8 @@
       <c r="Q51" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="R51" s="6">
-        <v>0</v>
+      <c r="R51" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S51" s="6">
         <v>0</v>
@@ -8364,7 +8538,9 @@
       <c r="W51" s="6">
         <v>0</v>
       </c>
-      <c r="X51" s="6"/>
+      <c r="X51" s="6">
+        <v>0</v>
+      </c>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
@@ -8378,8 +8554,9 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
-    </row>
-    <row r="52" spans="1:37">
+      <c r="AL51" s="6"/>
+    </row>
+    <row r="52" spans="1:38">
       <c r="A52" s="6">
         <v>230304</v>
       </c>
@@ -8429,8 +8606,8 @@
       <c r="Q52" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="R52" s="6">
-        <v>0</v>
+      <c r="R52" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S52" s="6">
         <v>0</v>
@@ -8447,7 +8624,9 @@
       <c r="W52" s="6">
         <v>0</v>
       </c>
-      <c r="X52" s="6"/>
+      <c r="X52" s="6">
+        <v>0</v>
+      </c>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
@@ -8461,8 +8640,9 @@
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
-    </row>
-    <row r="53" spans="1:37">
+      <c r="AL52" s="6"/>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" s="6">
         <v>230401</v>
       </c>
@@ -8512,12 +8692,12 @@
       <c r="Q53" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S53" s="6">
         <v>1</v>
       </c>
-      <c r="S53" s="6">
-        <v>0</v>
-      </c>
       <c r="T53" s="6">
         <v>0</v>
       </c>
@@ -8530,7 +8710,9 @@
       <c r="W53" s="6">
         <v>0</v>
       </c>
-      <c r="X53" s="6"/>
+      <c r="X53" s="6">
+        <v>0</v>
+      </c>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
@@ -8544,8 +8726,9 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
-    </row>
-    <row r="54" spans="1:37" s="6" customFormat="1">
+      <c r="AL53" s="6"/>
+    </row>
+    <row r="54" spans="1:38" s="6" customFormat="1">
       <c r="A54" s="17">
         <v>230402</v>
       </c>
@@ -8595,8 +8778,8 @@
       <c r="Q54" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="R54" s="6">
-        <v>0</v>
+      <c r="R54" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S54" s="6">
         <v>0</v>
@@ -8613,7 +8796,9 @@
       <c r="W54" s="6">
         <v>0</v>
       </c>
-      <c r="X54" s="13"/>
+      <c r="X54" s="6">
+        <v>0</v>
+      </c>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
@@ -8626,8 +8811,9 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
-    </row>
-    <row r="55" spans="1:37" s="6" customFormat="1">
+      <c r="AK54" s="13"/>
+    </row>
+    <row r="55" spans="1:38" s="6" customFormat="1">
       <c r="A55" s="17">
         <v>230501</v>
       </c>
@@ -8675,8 +8861,8 @@
       <c r="Q55" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="R55" s="6">
-        <v>1</v>
+      <c r="R55" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S55" s="6">
         <v>1</v>
@@ -8691,9 +8877,11 @@
         <v>1</v>
       </c>
       <c r="W55" s="6">
-        <v>0</v>
-      </c>
-      <c r="X55" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="X55" s="6">
+        <v>0</v>
+      </c>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
@@ -8706,8 +8894,9 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
-    </row>
-    <row r="56" spans="1:37" s="6" customFormat="1">
+      <c r="AK55" s="13"/>
+    </row>
+    <row r="56" spans="1:38" s="6" customFormat="1">
       <c r="A56" s="6">
         <v>320101</v>
       </c>
@@ -8754,12 +8943,12 @@
       <c r="Q56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R56" s="6">
+      <c r="R56" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S56" s="6">
         <v>1</v>
       </c>
-      <c r="S56" s="6">
-        <v>0</v>
-      </c>
       <c r="T56" s="6">
         <v>0</v>
       </c>
@@ -8772,8 +8961,11 @@
       <c r="W56" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:37" s="6" customFormat="1">
+      <c r="X56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" s="6" customFormat="1">
       <c r="A57" s="6">
         <v>320102</v>
       </c>
@@ -8820,12 +9012,12 @@
       <c r="Q57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S57" s="6">
         <v>1</v>
       </c>
-      <c r="S57" s="6">
-        <v>0</v>
-      </c>
       <c r="T57" s="6">
         <v>0</v>
       </c>
@@ -8838,8 +9030,11 @@
       <c r="W57" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" s="6" customFormat="1">
+      <c r="X57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" s="6" customFormat="1">
       <c r="A58" s="6">
         <v>320103</v>
       </c>
@@ -8886,12 +9081,12 @@
       <c r="Q58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="6">
+      <c r="R58" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S58" s="6">
         <v>1</v>
       </c>
-      <c r="S58" s="6">
-        <v>0</v>
-      </c>
       <c r="T58" s="6">
         <v>0</v>
       </c>
@@ -8904,8 +9099,11 @@
       <c r="W58" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" s="6" customFormat="1">
+      <c r="X58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" s="6" customFormat="1">
       <c r="A59" s="6">
         <v>320104</v>
       </c>
@@ -8952,12 +9150,12 @@
       <c r="Q59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S59" s="6">
         <v>1</v>
       </c>
-      <c r="S59" s="6">
-        <v>0</v>
-      </c>
       <c r="T59" s="6">
         <v>0</v>
       </c>
@@ -8970,8 +9168,11 @@
       <c r="W59" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" s="6" customFormat="1">
+      <c r="X59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" s="6" customFormat="1">
       <c r="A60" s="6">
         <v>320105</v>
       </c>
@@ -9018,8 +9219,8 @@
       <c r="Q60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R60" s="6">
-        <v>0</v>
+      <c r="R60" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S60" s="6">
         <v>0</v>
@@ -9036,8 +9237,11 @@
       <c r="W60" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:37" s="6" customFormat="1">
+      <c r="X60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" s="6" customFormat="1">
       <c r="A61" s="6">
         <v>320106</v>
       </c>
@@ -9084,8 +9288,8 @@
       <c r="Q61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R61" s="6">
-        <v>0</v>
+      <c r="R61" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S61" s="6">
         <v>0</v>
@@ -9102,9 +9306,12 @@
       <c r="W61" s="6">
         <v>0</v>
       </c>
-      <c r="AK61" s="7"/>
-    </row>
-    <row r="62" spans="1:37" s="6" customFormat="1">
+      <c r="X61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="7"/>
+    </row>
+    <row r="62" spans="1:38" s="6" customFormat="1">
       <c r="A62" s="6">
         <v>320107</v>
       </c>
@@ -9151,8 +9358,8 @@
       <c r="Q62" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R62" s="6">
-        <v>0</v>
+      <c r="R62" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S62" s="6">
         <v>0</v>
@@ -9169,9 +9376,12 @@
       <c r="W62" s="6">
         <v>0</v>
       </c>
-      <c r="AK62" s="7"/>
-    </row>
-    <row r="63" spans="1:37" s="6" customFormat="1">
+      <c r="X62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="7"/>
+    </row>
+    <row r="63" spans="1:38" s="6" customFormat="1">
       <c r="A63" s="10">
         <v>330101</v>
       </c>
@@ -9220,8 +9430,8 @@
       <c r="Q63" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R63" s="6">
-        <v>1</v>
+      <c r="R63" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S63" s="6">
         <v>1</v>
@@ -9230,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="U63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="6">
         <v>0</v>
@@ -9238,9 +9448,12 @@
       <c r="W63" s="6">
         <v>0</v>
       </c>
-      <c r="AK63" s="11"/>
-    </row>
-    <row r="64" spans="1:37" s="6" customFormat="1">
+      <c r="X63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="11"/>
+    </row>
+    <row r="64" spans="1:38" s="6" customFormat="1">
       <c r="A64" s="10">
         <v>330102</v>
       </c>
@@ -9289,8 +9502,8 @@
       <c r="Q64" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R64" s="6">
-        <v>0</v>
+      <c r="R64" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S64" s="6">
         <v>0</v>
@@ -9307,9 +9520,12 @@
       <c r="W64" s="6">
         <v>0</v>
       </c>
-      <c r="AK64" s="7"/>
-    </row>
-    <row r="65" spans="1:37" s="6" customFormat="1">
+      <c r="X64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="7"/>
+    </row>
+    <row r="65" spans="1:38" s="6" customFormat="1">
       <c r="A65" s="10">
         <v>330103</v>
       </c>
@@ -9358,8 +9574,8 @@
       <c r="Q65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="6">
-        <v>0</v>
+      <c r="R65" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S65" s="6">
         <v>0</v>
@@ -9376,8 +9592,11 @@
       <c r="W65" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:37" s="6" customFormat="1">
+      <c r="X65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" s="6" customFormat="1">
       <c r="A66" s="10">
         <v>330104</v>
       </c>
@@ -9426,8 +9645,8 @@
       <c r="Q66" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R66" s="6">
-        <v>0</v>
+      <c r="R66" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S66" s="6">
         <v>0</v>
@@ -9444,8 +9663,11 @@
       <c r="W66" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:37" s="6" customFormat="1">
+      <c r="X66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" s="6" customFormat="1">
       <c r="A67" s="10">
         <v>330105</v>
       </c>
@@ -9494,26 +9716,29 @@
       <c r="Q67" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R67" s="6">
-        <v>1</v>
+      <c r="R67" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S67" s="6">
         <v>1</v>
       </c>
       <c r="T67" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="6">
         <v>0</v>
       </c>
       <c r="V67" s="6">
+        <v>0</v>
+      </c>
+      <c r="W67" s="6">
         <v>1</v>
       </c>
-      <c r="W67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37" s="6" customFormat="1">
+      <c r="X67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" s="6" customFormat="1">
       <c r="A68" s="10">
         <v>330106</v>
       </c>
@@ -9562,8 +9787,8 @@
       <c r="Q68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="6">
-        <v>0</v>
+      <c r="R68" s="56" t="s">
+        <v>1344</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -9580,9 +9805,12 @@
       <c r="W68" s="6">
         <v>0</v>
       </c>
-      <c r="AK68" s="11"/>
-    </row>
-    <row r="69" spans="1:37" s="6" customFormat="1">
+      <c r="X68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="11"/>
+    </row>
+    <row r="69" spans="1:38" s="6" customFormat="1">
       <c r="A69" s="10">
         <v>330107</v>
       </c>
@@ -9631,12 +9859,12 @@
       <c r="Q69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="6">
+      <c r="R69" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S69" s="6">
         <v>1</v>
       </c>
-      <c r="S69" s="6">
-        <v>0</v>
-      </c>
       <c r="T69" s="6">
         <v>0</v>
       </c>
@@ -9649,9 +9877,12 @@
       <c r="W69" s="6">
         <v>0</v>
       </c>
-      <c r="AK69" s="11"/>
-    </row>
-    <row r="70" spans="1:37" s="6" customFormat="1">
+      <c r="X69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="11"/>
+    </row>
+    <row r="70" spans="1:38" s="6" customFormat="1">
       <c r="A70" s="10">
         <v>330108</v>
       </c>
@@ -9701,8 +9932,8 @@
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="6">
-        <v>0</v>
+      <c r="R70" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S70" s="6">
         <v>0</v>
@@ -9719,7 +9950,9 @@
       <c r="W70" s="6">
         <v>0</v>
       </c>
-      <c r="X70" s="23"/>
+      <c r="X70" s="6">
+        <v>0</v>
+      </c>
       <c r="Y70" s="23"/>
       <c r="Z70" s="23"/>
       <c r="AA70" s="23"/>
@@ -9732,9 +9965,10 @@
       <c r="AH70" s="23"/>
       <c r="AI70" s="23"/>
       <c r="AJ70" s="23"/>
-      <c r="AK70" s="7"/>
-    </row>
-    <row r="71" spans="1:37" s="6" customFormat="1">
+      <c r="AK70" s="23"/>
+      <c r="AL70" s="7"/>
+    </row>
+    <row r="71" spans="1:38" s="6" customFormat="1">
       <c r="A71" s="10">
         <v>330109</v>
       </c>
@@ -9784,8 +10018,8 @@
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R71" s="6">
-        <v>0</v>
+      <c r="R71" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S71" s="6">
         <v>0</v>
@@ -9802,7 +10036,9 @@
       <c r="W71" s="6">
         <v>0</v>
       </c>
-      <c r="X71" s="23"/>
+      <c r="X71" s="6">
+        <v>0</v>
+      </c>
       <c r="Y71" s="23"/>
       <c r="Z71" s="23"/>
       <c r="AA71" s="23"/>
@@ -9815,9 +10051,10 @@
       <c r="AH71" s="23"/>
       <c r="AI71" s="23"/>
       <c r="AJ71" s="23"/>
-      <c r="AK71" s="11"/>
-    </row>
-    <row r="72" spans="1:37" s="6" customFormat="1">
+      <c r="AK71" s="23"/>
+      <c r="AL71" s="11"/>
+    </row>
+    <row r="72" spans="1:38" s="6" customFormat="1">
       <c r="A72" s="10">
         <v>330110</v>
       </c>
@@ -9867,8 +10104,8 @@
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R72" s="6">
-        <v>0</v>
+      <c r="R72" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S72" s="6">
         <v>0</v>
@@ -9885,7 +10122,9 @@
       <c r="W72" s="6">
         <v>0</v>
       </c>
-      <c r="X72" s="23"/>
+      <c r="X72" s="6">
+        <v>0</v>
+      </c>
       <c r="Y72" s="23"/>
       <c r="Z72" s="23"/>
       <c r="AA72" s="23"/>
@@ -9898,8 +10137,9 @@
       <c r="AH72" s="23"/>
       <c r="AI72" s="23"/>
       <c r="AJ72" s="23"/>
-    </row>
-    <row r="73" spans="1:37" s="6" customFormat="1">
+      <c r="AK72" s="23"/>
+    </row>
+    <row r="73" spans="1:38" s="6" customFormat="1">
       <c r="A73" s="10">
         <v>330111</v>
       </c>
@@ -9949,8 +10189,8 @@
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R73" s="6">
-        <v>0</v>
+      <c r="R73" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S73" s="6">
         <v>0</v>
@@ -9967,7 +10207,9 @@
       <c r="W73" s="6">
         <v>0</v>
       </c>
-      <c r="X73" s="23"/>
+      <c r="X73" s="6">
+        <v>0</v>
+      </c>
       <c r="Y73" s="23"/>
       <c r="Z73" s="23"/>
       <c r="AA73" s="23"/>
@@ -9980,9 +10222,10 @@
       <c r="AH73" s="23"/>
       <c r="AI73" s="23"/>
       <c r="AJ73" s="23"/>
-      <c r="AK73" s="11"/>
-    </row>
-    <row r="74" spans="1:37" s="6" customFormat="1">
+      <c r="AK73" s="23"/>
+      <c r="AL73" s="11"/>
+    </row>
+    <row r="74" spans="1:38" s="6" customFormat="1">
       <c r="A74" s="10">
         <v>330112</v>
       </c>
@@ -10032,8 +10275,8 @@
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R74" s="6">
-        <v>0</v>
+      <c r="R74" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S74" s="6">
         <v>0</v>
@@ -10050,7 +10293,9 @@
       <c r="W74" s="6">
         <v>0</v>
       </c>
-      <c r="X74" s="23"/>
+      <c r="X74" s="6">
+        <v>0</v>
+      </c>
       <c r="Y74" s="23"/>
       <c r="Z74" s="23"/>
       <c r="AA74" s="23"/>
@@ -10063,9 +10308,10 @@
       <c r="AH74" s="23"/>
       <c r="AI74" s="23"/>
       <c r="AJ74" s="23"/>
-      <c r="AK74" s="11"/>
-    </row>
-    <row r="75" spans="1:37" s="6" customFormat="1">
+      <c r="AK74" s="23"/>
+      <c r="AL74" s="11"/>
+    </row>
+    <row r="75" spans="1:38" s="6" customFormat="1">
       <c r="A75" s="10">
         <v>330113</v>
       </c>
@@ -10115,14 +10361,14 @@
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="6">
-        <v>1</v>
+      <c r="R75" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S75" s="6">
         <v>1</v>
       </c>
       <c r="T75" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="6">
         <v>0</v>
@@ -10133,7 +10379,9 @@
       <c r="W75" s="6">
         <v>0</v>
       </c>
-      <c r="X75" s="23"/>
+      <c r="X75" s="6">
+        <v>0</v>
+      </c>
       <c r="Y75" s="23"/>
       <c r="Z75" s="23"/>
       <c r="AA75" s="23"/>
@@ -10146,9 +10394,10 @@
       <c r="AH75" s="23"/>
       <c r="AI75" s="23"/>
       <c r="AJ75" s="23"/>
-      <c r="AK75" s="11"/>
-    </row>
-    <row r="76" spans="1:37" s="6" customFormat="1">
+      <c r="AK75" s="23"/>
+      <c r="AL75" s="11"/>
+    </row>
+    <row r="76" spans="1:38" s="6" customFormat="1">
       <c r="A76" s="10">
         <v>330114</v>
       </c>
@@ -10198,8 +10447,8 @@
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R76" s="6">
-        <v>0</v>
+      <c r="R76" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S76" s="6">
         <v>0</v>
@@ -10216,7 +10465,9 @@
       <c r="W76" s="6">
         <v>0</v>
       </c>
-      <c r="X76" s="23"/>
+      <c r="X76" s="6">
+        <v>0</v>
+      </c>
       <c r="Y76" s="23"/>
       <c r="Z76" s="23"/>
       <c r="AA76" s="23"/>
@@ -10229,9 +10480,10 @@
       <c r="AH76" s="23"/>
       <c r="AI76" s="23"/>
       <c r="AJ76" s="23"/>
-      <c r="AK76" s="11"/>
-    </row>
-    <row r="77" spans="1:37" s="6" customFormat="1">
+      <c r="AK76" s="23"/>
+      <c r="AL76" s="11"/>
+    </row>
+    <row r="77" spans="1:38" s="6" customFormat="1">
       <c r="A77" s="10">
         <v>330115</v>
       </c>
@@ -10281,8 +10533,8 @@
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R77" s="6">
-        <v>0</v>
+      <c r="R77" s="56" t="s">
+        <v>1345</v>
       </c>
       <c r="S77" s="6">
         <v>0</v>
@@ -10299,7 +10551,9 @@
       <c r="W77" s="6">
         <v>0</v>
       </c>
-      <c r="X77" s="23"/>
+      <c r="X77" s="6">
+        <v>0</v>
+      </c>
       <c r="Y77" s="23"/>
       <c r="Z77" s="23"/>
       <c r="AA77" s="23"/>
@@ -10312,9 +10566,10 @@
       <c r="AH77" s="23"/>
       <c r="AI77" s="23"/>
       <c r="AJ77" s="23"/>
-      <c r="AK77" s="11"/>
-    </row>
-    <row r="78" spans="1:37" s="6" customFormat="1">
+      <c r="AK77" s="23"/>
+      <c r="AL77" s="11"/>
+    </row>
+    <row r="78" spans="1:38" s="6" customFormat="1">
       <c r="A78" s="10">
         <v>330201</v>
       </c>
@@ -10363,8 +10618,8 @@
       <c r="Q78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R78" s="6">
-        <v>0</v>
+      <c r="R78" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S78" s="6">
         <v>0</v>
@@ -10381,9 +10636,12 @@
       <c r="W78" s="6">
         <v>0</v>
       </c>
-      <c r="AK78" s="11"/>
-    </row>
-    <row r="79" spans="1:37" s="6" customFormat="1">
+      <c r="X78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="11"/>
+    </row>
+    <row r="79" spans="1:38" s="6" customFormat="1">
       <c r="A79" s="10">
         <v>330202</v>
       </c>
@@ -10432,8 +10690,8 @@
       <c r="Q79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R79" s="6">
-        <v>0</v>
+      <c r="R79" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S79" s="6">
         <v>0</v>
@@ -10450,9 +10708,12 @@
       <c r="W79" s="6">
         <v>0</v>
       </c>
-      <c r="AK79" s="11"/>
-    </row>
-    <row r="80" spans="1:37" s="6" customFormat="1">
+      <c r="X79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="11"/>
+    </row>
+    <row r="80" spans="1:38" s="6" customFormat="1">
       <c r="A80" s="10">
         <v>330203</v>
       </c>
@@ -10501,8 +10762,8 @@
       <c r="Q80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R80" s="6">
-        <v>0</v>
+      <c r="R80" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S80" s="6">
         <v>0</v>
@@ -10519,9 +10780,12 @@
       <c r="W80" s="6">
         <v>0</v>
       </c>
-      <c r="AK80" s="7"/>
-    </row>
-    <row r="81" spans="1:37" s="6" customFormat="1">
+      <c r="X80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="7"/>
+    </row>
+    <row r="81" spans="1:38" s="6" customFormat="1">
       <c r="A81" s="10">
         <v>330204</v>
       </c>
@@ -10570,8 +10834,8 @@
       <c r="Q81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R81" s="6">
-        <v>0</v>
+      <c r="R81" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
@@ -10588,9 +10852,12 @@
       <c r="W81" s="6">
         <v>0</v>
       </c>
-      <c r="AK81" s="7"/>
-    </row>
-    <row r="82" spans="1:37" s="6" customFormat="1">
+      <c r="X81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="7"/>
+    </row>
+    <row r="82" spans="1:38" s="6" customFormat="1">
       <c r="A82" s="10">
         <v>330205</v>
       </c>
@@ -10639,12 +10906,12 @@
       <c r="Q82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R82" s="6">
+      <c r="R82" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S82" s="6">
         <v>1</v>
       </c>
-      <c r="S82" s="6">
-        <v>0</v>
-      </c>
       <c r="T82" s="6">
         <v>0</v>
       </c>
@@ -10657,9 +10924,12 @@
       <c r="W82" s="6">
         <v>0</v>
       </c>
-      <c r="AK82" s="7"/>
-    </row>
-    <row r="83" spans="1:37" s="6" customFormat="1">
+      <c r="X82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="7"/>
+    </row>
+    <row r="83" spans="1:38" s="6" customFormat="1">
       <c r="A83" s="10">
         <v>330206</v>
       </c>
@@ -10708,8 +10978,8 @@
       <c r="Q83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R83" s="6">
-        <v>0</v>
+      <c r="R83" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -10726,9 +10996,12 @@
       <c r="W83" s="6">
         <v>0</v>
       </c>
-      <c r="AK83" s="7"/>
-    </row>
-    <row r="84" spans="1:37" s="7" customFormat="1">
+      <c r="X83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="7"/>
+    </row>
+    <row r="84" spans="1:38" s="7" customFormat="1">
       <c r="A84" s="10">
         <v>330207</v>
       </c>
@@ -10778,8 +11051,8 @@
       <c r="Q84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R84" s="6">
-        <v>0</v>
+      <c r="R84" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S84" s="6">
         <v>0</v>
@@ -10796,7 +11069,9 @@
       <c r="W84" s="6">
         <v>0</v>
       </c>
-      <c r="X84" s="6"/>
+      <c r="X84" s="6">
+        <v>0</v>
+      </c>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
@@ -10809,8 +11084,9 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
-    </row>
-    <row r="85" spans="1:37" s="7" customFormat="1">
+      <c r="AK84" s="6"/>
+    </row>
+    <row r="85" spans="1:38" s="7" customFormat="1">
       <c r="A85" s="10">
         <v>330208</v>
       </c>
@@ -10860,8 +11136,8 @@
       <c r="Q85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R85" s="6">
-        <v>0</v>
+      <c r="R85" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S85" s="6">
         <v>0</v>
@@ -10878,7 +11154,9 @@
       <c r="W85" s="6">
         <v>0</v>
       </c>
-      <c r="X85" s="6"/>
+      <c r="X85" s="6">
+        <v>0</v>
+      </c>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
@@ -10891,8 +11169,9 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
-    </row>
-    <row r="86" spans="1:37" s="6" customFormat="1">
+      <c r="AK85" s="6"/>
+    </row>
+    <row r="86" spans="1:38" s="6" customFormat="1">
       <c r="A86" s="10">
         <v>330209</v>
       </c>
@@ -10941,8 +11220,8 @@
       <c r="Q86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R86" s="6">
-        <v>0</v>
+      <c r="R86" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S86" s="6">
         <v>0</v>
@@ -10959,9 +11238,12 @@
       <c r="W86" s="6">
         <v>0</v>
       </c>
-      <c r="AK86" s="23"/>
-    </row>
-    <row r="87" spans="1:37" s="7" customFormat="1">
+      <c r="X86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="23"/>
+    </row>
+    <row r="87" spans="1:38" s="7" customFormat="1">
       <c r="A87" s="10">
         <v>330210</v>
       </c>
@@ -11011,8 +11293,8 @@
       <c r="Q87" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R87" s="6">
-        <v>0</v>
+      <c r="R87" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S87" s="6">
         <v>0</v>
@@ -11029,7 +11311,9 @@
       <c r="W87" s="6">
         <v>0</v>
       </c>
-      <c r="X87" s="6"/>
+      <c r="X87" s="6">
+        <v>0</v>
+      </c>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
@@ -11042,8 +11326,9 @@
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
       <c r="AJ87" s="6"/>
-    </row>
-    <row r="88" spans="1:37" s="6" customFormat="1">
+      <c r="AK87" s="6"/>
+    </row>
+    <row r="88" spans="1:38" s="6" customFormat="1">
       <c r="A88" s="10">
         <v>330211</v>
       </c>
@@ -11092,8 +11377,8 @@
       <c r="Q88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="6">
-        <v>0</v>
+      <c r="R88" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -11110,9 +11395,12 @@
       <c r="W88" s="6">
         <v>0</v>
       </c>
-      <c r="AK88" s="23"/>
-    </row>
-    <row r="89" spans="1:37" s="6" customFormat="1">
+      <c r="X88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="23"/>
+    </row>
+    <row r="89" spans="1:38" s="6" customFormat="1">
       <c r="A89" s="10">
         <v>330212</v>
       </c>
@@ -11161,8 +11449,8 @@
       <c r="Q89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R89" s="6">
-        <v>0</v>
+      <c r="R89" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S89" s="6">
         <v>0</v>
@@ -11179,9 +11467,12 @@
       <c r="W89" s="6">
         <v>0</v>
       </c>
-      <c r="AK89" s="7"/>
-    </row>
-    <row r="90" spans="1:37" s="11" customFormat="1">
+      <c r="X89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="7"/>
+    </row>
+    <row r="90" spans="1:38" s="11" customFormat="1">
       <c r="A90" s="10">
         <v>330213</v>
       </c>
@@ -11231,8 +11522,8 @@
       <c r="Q90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R90" s="6">
-        <v>0</v>
+      <c r="R90" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -11249,7 +11540,9 @@
       <c r="W90" s="6">
         <v>0</v>
       </c>
-      <c r="X90" s="6"/>
+      <c r="X90" s="6">
+        <v>0</v>
+      </c>
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
@@ -11262,9 +11555,10 @@
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
-      <c r="AK90" s="7"/>
-    </row>
-    <row r="91" spans="1:37" s="11" customFormat="1">
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="7"/>
+    </row>
+    <row r="91" spans="1:38" s="11" customFormat="1">
       <c r="A91" s="6">
         <v>420101</v>
       </c>
@@ -11312,12 +11606,12 @@
       <c r="Q91" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R91" s="6">
+      <c r="R91" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S91" s="6">
         <v>1</v>
       </c>
-      <c r="S91" s="6">
-        <v>0</v>
-      </c>
       <c r="T91" s="6">
         <v>0</v>
       </c>
@@ -11330,7 +11624,9 @@
       <c r="W91" s="6">
         <v>0</v>
       </c>
-      <c r="X91" s="6"/>
+      <c r="X91" s="6">
+        <v>0</v>
+      </c>
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
@@ -11343,9 +11639,10 @@
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
-      <c r="AK91" s="7"/>
-    </row>
-    <row r="92" spans="1:37" s="7" customFormat="1">
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="7"/>
+    </row>
+    <row r="92" spans="1:38" s="7" customFormat="1">
       <c r="A92" s="6">
         <v>420102</v>
       </c>
@@ -11393,12 +11690,12 @@
       <c r="Q92" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R92" s="6">
+      <c r="R92" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S92" s="6">
         <v>1</v>
       </c>
-      <c r="S92" s="6">
-        <v>0</v>
-      </c>
       <c r="T92" s="6">
         <v>0</v>
       </c>
@@ -11411,7 +11708,9 @@
       <c r="W92" s="6">
         <v>0</v>
       </c>
-      <c r="X92" s="6"/>
+      <c r="X92" s="6">
+        <v>0</v>
+      </c>
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
@@ -11424,8 +11723,9 @@
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
-    </row>
-    <row r="93" spans="1:37" s="11" customFormat="1">
+      <c r="AK92" s="6"/>
+    </row>
+    <row r="93" spans="1:38" s="11" customFormat="1">
       <c r="A93" s="6">
         <v>420103</v>
       </c>
@@ -11473,12 +11773,12 @@
       <c r="Q93" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R93" s="6">
+      <c r="R93" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S93" s="6">
         <v>1</v>
       </c>
-      <c r="S93" s="6">
-        <v>0</v>
-      </c>
       <c r="T93" s="6">
         <v>0</v>
       </c>
@@ -11491,7 +11791,9 @@
       <c r="W93" s="6">
         <v>0</v>
       </c>
-      <c r="X93" s="6"/>
+      <c r="X93" s="6">
+        <v>0</v>
+      </c>
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
@@ -11504,9 +11806,10 @@
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
-      <c r="AK93" s="23"/>
-    </row>
-    <row r="94" spans="1:37" s="6" customFormat="1">
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="23"/>
+    </row>
+    <row r="94" spans="1:38" s="6" customFormat="1">
       <c r="A94" s="6">
         <v>420104</v>
       </c>
@@ -11553,12 +11856,12 @@
       <c r="Q94" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R94" s="6">
+      <c r="R94" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S94" s="6">
         <v>1</v>
       </c>
-      <c r="S94" s="6">
-        <v>0</v>
-      </c>
       <c r="T94" s="6">
         <v>0</v>
       </c>
@@ -11571,9 +11874,12 @@
       <c r="W94" s="6">
         <v>0</v>
       </c>
-      <c r="AK94" s="25"/>
-    </row>
-    <row r="95" spans="1:37" s="11" customFormat="1">
+      <c r="X94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="25"/>
+    </row>
+    <row r="95" spans="1:38" s="11" customFormat="1">
       <c r="A95" s="6">
         <v>420105</v>
       </c>
@@ -11621,8 +11927,8 @@
       <c r="Q95" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R95" s="6">
-        <v>0</v>
+      <c r="R95" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S95" s="6">
         <v>0</v>
@@ -11639,7 +11945,9 @@
       <c r="W95" s="6">
         <v>0</v>
       </c>
-      <c r="X95" s="6"/>
+      <c r="X95" s="6">
+        <v>0</v>
+      </c>
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
@@ -11652,8 +11960,9 @@
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
-    </row>
-    <row r="96" spans="1:37" s="11" customFormat="1">
+      <c r="AK95" s="6"/>
+    </row>
+    <row r="96" spans="1:38" s="11" customFormat="1">
       <c r="A96" s="6">
         <v>420106</v>
       </c>
@@ -11701,8 +12010,8 @@
       <c r="Q96" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R96" s="6">
-        <v>0</v>
+      <c r="R96" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S96" s="6">
         <v>0</v>
@@ -11719,7 +12028,9 @@
       <c r="W96" s="6">
         <v>0</v>
       </c>
-      <c r="X96" s="6"/>
+      <c r="X96" s="6">
+        <v>0</v>
+      </c>
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
@@ -11732,8 +12043,9 @@
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
-    </row>
-    <row r="97" spans="1:37" s="11" customFormat="1">
+      <c r="AK96" s="6"/>
+    </row>
+    <row r="97" spans="1:38" s="11" customFormat="1">
       <c r="A97" s="6">
         <v>420107</v>
       </c>
@@ -11781,8 +12093,8 @@
       <c r="Q97" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R97" s="6">
-        <v>0</v>
+      <c r="R97" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S97" s="6">
         <v>0</v>
@@ -11799,7 +12111,9 @@
       <c r="W97" s="6">
         <v>0</v>
       </c>
-      <c r="X97" s="7"/>
+      <c r="X97" s="6">
+        <v>0</v>
+      </c>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
       <c r="AA97" s="7"/>
@@ -11812,8 +12126,9 @@
       <c r="AH97" s="7"/>
       <c r="AI97" s="7"/>
       <c r="AJ97" s="7"/>
-    </row>
-    <row r="98" spans="1:37" s="11" customFormat="1">
+      <c r="AK97" s="7"/>
+    </row>
+    <row r="98" spans="1:38" s="11" customFormat="1">
       <c r="A98" s="6">
         <v>420108</v>
       </c>
@@ -11861,8 +12176,8 @@
       <c r="Q98" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R98" s="6">
-        <v>0</v>
+      <c r="R98" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S98" s="6">
         <v>0</v>
@@ -11879,7 +12194,9 @@
       <c r="W98" s="6">
         <v>0</v>
       </c>
-      <c r="X98" s="7"/>
+      <c r="X98" s="6">
+        <v>0</v>
+      </c>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
       <c r="AA98" s="7"/>
@@ -11892,9 +12209,10 @@
       <c r="AH98" s="7"/>
       <c r="AI98" s="7"/>
       <c r="AJ98" s="7"/>
-      <c r="AK98" s="23"/>
-    </row>
-    <row r="99" spans="1:37" s="11" customFormat="1">
+      <c r="AK98" s="7"/>
+      <c r="AL98" s="23"/>
+    </row>
+    <row r="99" spans="1:38" s="11" customFormat="1">
       <c r="A99" s="6">
         <v>420109</v>
       </c>
@@ -11942,8 +12260,8 @@
       <c r="Q99" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="R99" s="6">
-        <v>0</v>
+      <c r="R99" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S99" s="6">
         <v>0</v>
@@ -11960,7 +12278,9 @@
       <c r="W99" s="6">
         <v>0</v>
       </c>
-      <c r="X99" s="7"/>
+      <c r="X99" s="6">
+        <v>0</v>
+      </c>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
       <c r="AA99" s="7"/>
@@ -11973,9 +12293,10 @@
       <c r="AH99" s="7"/>
       <c r="AI99" s="7"/>
       <c r="AJ99" s="7"/>
-      <c r="AK99" s="23"/>
-    </row>
-    <row r="100" spans="1:37" s="11" customFormat="1">
+      <c r="AK99" s="7"/>
+      <c r="AL99" s="23"/>
+    </row>
+    <row r="100" spans="1:38" s="11" customFormat="1">
       <c r="A100" s="6">
         <v>430101</v>
       </c>
@@ -12023,8 +12344,8 @@
       <c r="Q100" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R100" s="6">
-        <v>1</v>
+      <c r="R100" s="56" t="s">
+        <v>1346</v>
       </c>
       <c r="S100" s="6">
         <v>1</v>
@@ -12039,9 +12360,11 @@
         <v>1</v>
       </c>
       <c r="W100" s="6">
-        <v>0</v>
-      </c>
-      <c r="X100" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="X100" s="6">
+        <v>0</v>
+      </c>
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
@@ -12054,9 +12377,10 @@
       <c r="AH100" s="6"/>
       <c r="AI100" s="6"/>
       <c r="AJ100" s="6"/>
-      <c r="AK100" s="23"/>
-    </row>
-    <row r="101" spans="1:37" s="11" customFormat="1">
+      <c r="AK100" s="6"/>
+      <c r="AL100" s="23"/>
+    </row>
+    <row r="101" spans="1:38" s="11" customFormat="1">
       <c r="A101" s="6">
         <v>430102</v>
       </c>
@@ -12104,12 +12428,12 @@
       <c r="Q101" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="R101" s="6">
+      <c r="R101" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S101" s="6">
         <v>1</v>
       </c>
-      <c r="S101" s="6">
-        <v>0</v>
-      </c>
       <c r="T101" s="6">
         <v>0</v>
       </c>
@@ -12122,7 +12446,9 @@
       <c r="W101" s="6">
         <v>0</v>
       </c>
-      <c r="X101" s="6"/>
+      <c r="X101" s="6">
+        <v>0</v>
+      </c>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
@@ -12135,9 +12461,10 @@
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
       <c r="AJ101" s="6"/>
-      <c r="AK101" s="23"/>
-    </row>
-    <row r="102" spans="1:37" s="11" customFormat="1">
+      <c r="AK101" s="6"/>
+      <c r="AL101" s="23"/>
+    </row>
+    <row r="102" spans="1:38" s="11" customFormat="1">
       <c r="A102" s="6">
         <v>430103</v>
       </c>
@@ -12184,8 +12511,8 @@
       <c r="Q102" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R102" s="6">
-        <v>0</v>
+      <c r="R102" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S102" s="6">
         <v>0</v>
@@ -12202,8 +12529,11 @@
       <c r="W102" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:37" s="7" customFormat="1">
+      <c r="X102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" s="7" customFormat="1">
       <c r="A103" s="6">
         <v>430104</v>
       </c>
@@ -12250,14 +12580,14 @@
       <c r="Q103" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R103" s="6">
-        <v>1</v>
+      <c r="R103" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S103" s="6">
         <v>1</v>
       </c>
       <c r="T103" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U103" s="6">
         <v>0</v>
@@ -12268,7 +12598,9 @@
       <c r="W103" s="6">
         <v>0</v>
       </c>
-      <c r="X103" s="11"/>
+      <c r="X103" s="6">
+        <v>0</v>
+      </c>
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
@@ -12282,8 +12614,9 @@
       <c r="AI103" s="11"/>
       <c r="AJ103" s="11"/>
       <c r="AK103" s="11"/>
-    </row>
-    <row r="104" spans="1:37" s="7" customFormat="1">
+      <c r="AL103" s="11"/>
+    </row>
+    <row r="104" spans="1:38" s="7" customFormat="1">
       <c r="A104" s="6">
         <v>430105</v>
       </c>
@@ -12330,8 +12663,8 @@
       <c r="Q104" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R104" s="6">
-        <v>0</v>
+      <c r="R104" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S104" s="6">
         <v>0</v>
@@ -12348,7 +12681,9 @@
       <c r="W104" s="6">
         <v>0</v>
       </c>
-      <c r="X104" s="11"/>
+      <c r="X104" s="6">
+        <v>0</v>
+      </c>
       <c r="Y104" s="11"/>
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
@@ -12361,8 +12696,9 @@
       <c r="AH104" s="11"/>
       <c r="AI104" s="11"/>
       <c r="AJ104" s="11"/>
-    </row>
-    <row r="105" spans="1:37" s="7" customFormat="1">
+      <c r="AK104" s="11"/>
+    </row>
+    <row r="105" spans="1:38" s="7" customFormat="1">
       <c r="A105" s="6">
         <v>430106</v>
       </c>
@@ -12409,8 +12745,8 @@
       <c r="Q105" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R105" s="6">
-        <v>0</v>
+      <c r="R105" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S105" s="6">
         <v>0</v>
@@ -12427,7 +12763,9 @@
       <c r="W105" s="6">
         <v>0</v>
       </c>
-      <c r="X105" s="11"/>
+      <c r="X105" s="6">
+        <v>0</v>
+      </c>
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
@@ -12440,9 +12778,10 @@
       <c r="AH105" s="11"/>
       <c r="AI105" s="11"/>
       <c r="AJ105" s="11"/>
-      <c r="AK105" s="13"/>
-    </row>
-    <row r="106" spans="1:37" s="7" customFormat="1">
+      <c r="AK105" s="11"/>
+      <c r="AL105" s="13"/>
+    </row>
+    <row r="106" spans="1:38" s="7" customFormat="1">
       <c r="A106" s="6">
         <v>430107</v>
       </c>
@@ -12489,8 +12828,8 @@
       <c r="Q106" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R106" s="6">
-        <v>0</v>
+      <c r="R106" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S106" s="6">
         <v>0</v>
@@ -12507,7 +12846,9 @@
       <c r="W106" s="6">
         <v>0</v>
       </c>
-      <c r="X106" s="11"/>
+      <c r="X106" s="6">
+        <v>0</v>
+      </c>
       <c r="Y106" s="11"/>
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
@@ -12520,9 +12861,10 @@
       <c r="AH106" s="11"/>
       <c r="AI106" s="11"/>
       <c r="AJ106" s="11"/>
-      <c r="AK106" s="13"/>
-    </row>
-    <row r="107" spans="1:37" s="7" customFormat="1">
+      <c r="AK106" s="11"/>
+      <c r="AL106" s="13"/>
+    </row>
+    <row r="107" spans="1:38" s="7" customFormat="1">
       <c r="A107" s="6">
         <v>430108</v>
       </c>
@@ -12569,15 +12911,15 @@
       <c r="Q107" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R107" s="6">
-        <v>0</v>
+      <c r="R107" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S107" s="6">
+        <v>0</v>
+      </c>
+      <c r="T107" s="6">
         <v>1</v>
       </c>
-      <c r="T107" s="6">
-        <v>0</v>
-      </c>
       <c r="U107" s="6">
         <v>0</v>
       </c>
@@ -12587,7 +12929,9 @@
       <c r="W107" s="6">
         <v>0</v>
       </c>
-      <c r="X107" s="11"/>
+      <c r="X107" s="6">
+        <v>0</v>
+      </c>
       <c r="Y107" s="11"/>
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
@@ -12600,9 +12944,10 @@
       <c r="AH107" s="11"/>
       <c r="AI107" s="11"/>
       <c r="AJ107" s="11"/>
-      <c r="AK107" s="13"/>
-    </row>
-    <row r="108" spans="1:37" s="7" customFormat="1">
+      <c r="AK107" s="11"/>
+      <c r="AL107" s="13"/>
+    </row>
+    <row r="108" spans="1:38" s="7" customFormat="1">
       <c r="A108" s="6">
         <v>430109</v>
       </c>
@@ -12649,8 +12994,8 @@
       <c r="Q108" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R108" s="6">
-        <v>0</v>
+      <c r="R108" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S108" s="6">
         <v>0</v>
@@ -12667,7 +13012,9 @@
       <c r="W108" s="6">
         <v>0</v>
       </c>
-      <c r="X108" s="11"/>
+      <c r="X108" s="6">
+        <v>0</v>
+      </c>
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
@@ -12680,9 +13027,10 @@
       <c r="AH108" s="11"/>
       <c r="AI108" s="11"/>
       <c r="AJ108" s="11"/>
-      <c r="AK108" s="13"/>
-    </row>
-    <row r="109" spans="1:37" s="23" customFormat="1">
+      <c r="AK108" s="11"/>
+      <c r="AL108" s="13"/>
+    </row>
+    <row r="109" spans="1:38" s="23" customFormat="1">
       <c r="A109" s="6">
         <v>430110</v>
       </c>
@@ -12730,8 +13078,8 @@
       <c r="Q109" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R109" s="6">
-        <v>0</v>
+      <c r="R109" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S109" s="6">
         <v>0</v>
@@ -12748,7 +13096,9 @@
       <c r="W109" s="6">
         <v>0</v>
       </c>
-      <c r="X109" s="11"/>
+      <c r="X109" s="6">
+        <v>0</v>
+      </c>
       <c r="Y109" s="11"/>
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
@@ -12761,9 +13111,10 @@
       <c r="AH109" s="11"/>
       <c r="AI109" s="11"/>
       <c r="AJ109" s="11"/>
-      <c r="AK109" s="13"/>
-    </row>
-    <row r="110" spans="1:37" s="7" customFormat="1">
+      <c r="AK109" s="11"/>
+      <c r="AL109" s="13"/>
+    </row>
+    <row r="110" spans="1:38" s="7" customFormat="1">
       <c r="A110" s="6">
         <v>430111</v>
       </c>
@@ -12810,8 +13161,8 @@
       <c r="Q110" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R110" s="6">
-        <v>0</v>
+      <c r="R110" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S110" s="6">
         <v>0</v>
@@ -12828,7 +13179,9 @@
       <c r="W110" s="6">
         <v>0</v>
       </c>
-      <c r="X110" s="11"/>
+      <c r="X110" s="6">
+        <v>0</v>
+      </c>
       <c r="Y110" s="11"/>
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
@@ -12841,9 +13194,10 @@
       <c r="AH110" s="11"/>
       <c r="AI110" s="11"/>
       <c r="AJ110" s="11"/>
-      <c r="AK110" s="13"/>
-    </row>
-    <row r="111" spans="1:37" s="23" customFormat="1">
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="13"/>
+    </row>
+    <row r="111" spans="1:38" s="23" customFormat="1">
       <c r="A111" s="6">
         <v>430112</v>
       </c>
@@ -12891,8 +13245,8 @@
       <c r="Q111" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R111" s="6">
-        <v>0</v>
+      <c r="R111" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S111" s="6">
         <v>0</v>
@@ -12909,7 +13263,9 @@
       <c r="W111" s="6">
         <v>0</v>
       </c>
-      <c r="X111" s="11"/>
+      <c r="X111" s="6">
+        <v>0</v>
+      </c>
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
@@ -12922,9 +13278,10 @@
       <c r="AH111" s="11"/>
       <c r="AI111" s="11"/>
       <c r="AJ111" s="11"/>
-      <c r="AK111" s="13"/>
-    </row>
-    <row r="112" spans="1:37" s="7" customFormat="1">
+      <c r="AK111" s="11"/>
+      <c r="AL111" s="13"/>
+    </row>
+    <row r="112" spans="1:38" s="7" customFormat="1">
       <c r="A112" s="6">
         <v>430113</v>
       </c>
@@ -12971,8 +13328,8 @@
       <c r="Q112" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R112" s="6">
-        <v>0</v>
+      <c r="R112" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S112" s="6">
         <v>0</v>
@@ -12989,7 +13346,9 @@
       <c r="W112" s="6">
         <v>0</v>
       </c>
-      <c r="X112" s="11"/>
+      <c r="X112" s="6">
+        <v>0</v>
+      </c>
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
@@ -13002,9 +13361,10 @@
       <c r="AH112" s="11"/>
       <c r="AI112" s="11"/>
       <c r="AJ112" s="11"/>
-      <c r="AK112" s="13"/>
-    </row>
-    <row r="113" spans="1:37" s="7" customFormat="1">
+      <c r="AK112" s="11"/>
+      <c r="AL112" s="13"/>
+    </row>
+    <row r="113" spans="1:38" s="7" customFormat="1">
       <c r="A113" s="6">
         <v>430114</v>
       </c>
@@ -13051,8 +13411,8 @@
       <c r="Q113" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R113" s="6">
-        <v>0</v>
+      <c r="R113" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S113" s="6">
         <v>0</v>
@@ -13069,7 +13429,9 @@
       <c r="W113" s="6">
         <v>0</v>
       </c>
-      <c r="X113" s="11"/>
+      <c r="X113" s="6">
+        <v>0</v>
+      </c>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
@@ -13082,9 +13444,10 @@
       <c r="AH113" s="11"/>
       <c r="AI113" s="11"/>
       <c r="AJ113" s="11"/>
-      <c r="AK113" s="13"/>
-    </row>
-    <row r="114" spans="1:37" s="7" customFormat="1">
+      <c r="AK113" s="11"/>
+      <c r="AL113" s="13"/>
+    </row>
+    <row r="114" spans="1:38" s="7" customFormat="1">
       <c r="A114" s="6">
         <v>430201</v>
       </c>
@@ -13131,8 +13494,8 @@
       <c r="Q114" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R114" s="6">
-        <v>0</v>
+      <c r="R114" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S114" s="6">
         <v>0</v>
@@ -13149,8 +13512,11 @@
       <c r="W114" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:37" s="7" customFormat="1">
+      <c r="X114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" s="7" customFormat="1">
       <c r="A115" s="6">
         <v>430202</v>
       </c>
@@ -13197,8 +13563,8 @@
       <c r="Q115" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R115" s="6">
-        <v>0</v>
+      <c r="R115" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S115" s="6">
         <v>0</v>
@@ -13215,8 +13581,11 @@
       <c r="W115" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:37" s="23" customFormat="1">
+      <c r="X115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" s="23" customFormat="1">
       <c r="A116" s="6">
         <v>430203</v>
       </c>
@@ -13264,8 +13633,8 @@
       <c r="Q116" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R116" s="6">
-        <v>0</v>
+      <c r="R116" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S116" s="6">
         <v>0</v>
@@ -13282,7 +13651,9 @@
       <c r="W116" s="6">
         <v>0</v>
       </c>
-      <c r="X116" s="7"/>
+      <c r="X116" s="6">
+        <v>0</v>
+      </c>
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
       <c r="AA116" s="7"/>
@@ -13296,8 +13667,9 @@
       <c r="AI116" s="7"/>
       <c r="AJ116" s="7"/>
       <c r="AK116" s="7"/>
-    </row>
-    <row r="117" spans="1:37" s="25" customFormat="1">
+      <c r="AL116" s="7"/>
+    </row>
+    <row r="117" spans="1:38" s="25" customFormat="1">
       <c r="A117" s="6">
         <v>430204</v>
       </c>
@@ -13345,8 +13717,8 @@
       <c r="Q117" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R117" s="6">
-        <v>0</v>
+      <c r="R117" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S117" s="6">
         <v>0</v>
@@ -13363,7 +13735,9 @@
       <c r="W117" s="6">
         <v>0</v>
       </c>
-      <c r="X117" s="7"/>
+      <c r="X117" s="6">
+        <v>0</v>
+      </c>
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
       <c r="AA117" s="7"/>
@@ -13377,8 +13751,9 @@
       <c r="AI117" s="7"/>
       <c r="AJ117" s="7"/>
       <c r="AK117" s="7"/>
-    </row>
-    <row r="118" spans="1:37" s="11" customFormat="1">
+      <c r="AL117" s="7"/>
+    </row>
+    <row r="118" spans="1:38" s="11" customFormat="1">
       <c r="A118" s="6">
         <v>430205</v>
       </c>
@@ -13426,8 +13801,8 @@
       <c r="Q118" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R118" s="6">
-        <v>0</v>
+      <c r="R118" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S118" s="6">
         <v>0</v>
@@ -13444,7 +13819,9 @@
       <c r="W118" s="6">
         <v>0</v>
       </c>
-      <c r="X118" s="7"/>
+      <c r="X118" s="6">
+        <v>0</v>
+      </c>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
       <c r="AA118" s="7"/>
@@ -13458,8 +13835,9 @@
       <c r="AI118" s="7"/>
       <c r="AJ118" s="7"/>
       <c r="AK118" s="7"/>
-    </row>
-    <row r="119" spans="1:37" s="11" customFormat="1">
+      <c r="AL118" s="7"/>
+    </row>
+    <row r="119" spans="1:38" s="11" customFormat="1">
       <c r="A119" s="6">
         <v>430206</v>
       </c>
@@ -13507,8 +13885,8 @@
       <c r="Q119" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R119" s="6">
-        <v>0</v>
+      <c r="R119" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S119" s="6">
         <v>0</v>
@@ -13525,7 +13903,9 @@
       <c r="W119" s="6">
         <v>0</v>
       </c>
-      <c r="X119" s="7"/>
+      <c r="X119" s="6">
+        <v>0</v>
+      </c>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
       <c r="AA119" s="7"/>
@@ -13539,8 +13919,9 @@
       <c r="AI119" s="7"/>
       <c r="AJ119" s="7"/>
       <c r="AK119" s="7"/>
-    </row>
-    <row r="120" spans="1:37" s="11" customFormat="1">
+      <c r="AL119" s="7"/>
+    </row>
+    <row r="120" spans="1:38" s="11" customFormat="1">
       <c r="A120" s="6">
         <v>430207</v>
       </c>
@@ -13588,8 +13969,8 @@
       <c r="Q120" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R120" s="6">
-        <v>0</v>
+      <c r="R120" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S120" s="6">
         <v>0</v>
@@ -13606,7 +13987,9 @@
       <c r="W120" s="6">
         <v>0</v>
       </c>
-      <c r="X120" s="7"/>
+      <c r="X120" s="6">
+        <v>0</v>
+      </c>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
       <c r="AA120" s="7"/>
@@ -13620,8 +14003,9 @@
       <c r="AI120" s="7"/>
       <c r="AJ120" s="7"/>
       <c r="AK120" s="7"/>
-    </row>
-    <row r="121" spans="1:37" s="23" customFormat="1">
+      <c r="AL120" s="7"/>
+    </row>
+    <row r="121" spans="1:38" s="23" customFormat="1">
       <c r="A121" s="6">
         <v>430208</v>
       </c>
@@ -13669,8 +14053,8 @@
       <c r="Q121" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R121" s="6">
-        <v>0</v>
+      <c r="R121" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S121" s="6">
         <v>0</v>
@@ -13687,7 +14071,9 @@
       <c r="W121" s="6">
         <v>0</v>
       </c>
-      <c r="X121" s="7"/>
+      <c r="X121" s="6">
+        <v>0</v>
+      </c>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
       <c r="AA121" s="7"/>
@@ -13701,8 +14087,9 @@
       <c r="AI121" s="7"/>
       <c r="AJ121" s="7"/>
       <c r="AK121" s="7"/>
-    </row>
-    <row r="122" spans="1:37" s="23" customFormat="1">
+      <c r="AL121" s="7"/>
+    </row>
+    <row r="122" spans="1:38" s="23" customFormat="1">
       <c r="A122" s="6">
         <v>430209</v>
       </c>
@@ -13750,8 +14137,8 @@
       <c r="Q122" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R122" s="6">
-        <v>0</v>
+      <c r="R122" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S122" s="6">
         <v>0</v>
@@ -13768,7 +14155,9 @@
       <c r="W122" s="6">
         <v>0</v>
       </c>
-      <c r="X122" s="7"/>
+      <c r="X122" s="6">
+        <v>0</v>
+      </c>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
       <c r="AA122" s="7"/>
@@ -13782,8 +14171,9 @@
       <c r="AI122" s="7"/>
       <c r="AJ122" s="7"/>
       <c r="AK122" s="7"/>
-    </row>
-    <row r="123" spans="1:37" s="23" customFormat="1">
+      <c r="AL122" s="7"/>
+    </row>
+    <row r="123" spans="1:38" s="23" customFormat="1">
       <c r="A123" s="29">
         <v>430301</v>
       </c>
@@ -13831,12 +14221,12 @@
       <c r="Q123" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R123" s="6">
+      <c r="R123" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S123" s="6">
         <v>1</v>
       </c>
-      <c r="S123" s="6">
-        <v>0</v>
-      </c>
       <c r="T123" s="6">
         <v>0</v>
       </c>
@@ -13849,7 +14239,9 @@
       <c r="W123" s="6">
         <v>0</v>
       </c>
-      <c r="X123" s="7"/>
+      <c r="X123" s="6">
+        <v>0</v>
+      </c>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
       <c r="AA123" s="7"/>
@@ -13863,8 +14255,9 @@
       <c r="AI123" s="7"/>
       <c r="AJ123" s="7"/>
       <c r="AK123" s="7"/>
-    </row>
-    <row r="124" spans="1:37" s="23" customFormat="1">
+      <c r="AL123" s="7"/>
+    </row>
+    <row r="124" spans="1:38" s="23" customFormat="1">
       <c r="A124" s="29">
         <v>430302</v>
       </c>
@@ -13912,8 +14305,8 @@
       <c r="Q124" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R124" s="6">
-        <v>0</v>
+      <c r="R124" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S124" s="6">
         <v>0</v>
@@ -13930,7 +14323,9 @@
       <c r="W124" s="6">
         <v>0</v>
       </c>
-      <c r="X124" s="7"/>
+      <c r="X124" s="6">
+        <v>0</v>
+      </c>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
       <c r="AA124" s="7"/>
@@ -13944,8 +14339,9 @@
       <c r="AI124" s="7"/>
       <c r="AJ124" s="7"/>
       <c r="AK124" s="7"/>
-    </row>
-    <row r="125" spans="1:37" s="11" customFormat="1">
+      <c r="AL124" s="7"/>
+    </row>
+    <row r="125" spans="1:38" s="11" customFormat="1">
       <c r="A125" s="29">
         <v>430303</v>
       </c>
@@ -13992,8 +14388,8 @@
       <c r="Q125" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R125" s="6">
-        <v>0</v>
+      <c r="R125" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S125" s="6">
         <v>0</v>
@@ -14010,9 +14406,12 @@
       <c r="W125" s="6">
         <v>0</v>
       </c>
-      <c r="AK125" s="7"/>
-    </row>
-    <row r="126" spans="1:37" s="11" customFormat="1">
+      <c r="X125" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="7"/>
+    </row>
+    <row r="126" spans="1:38" s="11" customFormat="1">
       <c r="A126" s="29">
         <v>430304</v>
       </c>
@@ -14059,8 +14458,8 @@
       <c r="Q126" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R126" s="6">
-        <v>0</v>
+      <c r="R126" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S126" s="6">
         <v>0</v>
@@ -14077,9 +14476,12 @@
       <c r="W126" s="6">
         <v>0</v>
       </c>
-      <c r="AK126" s="7"/>
-    </row>
-    <row r="127" spans="1:37" s="7" customFormat="1">
+      <c r="X126" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="7"/>
+    </row>
+    <row r="127" spans="1:38" s="7" customFormat="1">
       <c r="A127" s="29">
         <v>430305</v>
       </c>
@@ -14126,8 +14528,8 @@
       <c r="Q127" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R127" s="6">
-        <v>0</v>
+      <c r="R127" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S127" s="6">
         <v>0</v>
@@ -14144,7 +14546,9 @@
       <c r="W127" s="6">
         <v>0</v>
       </c>
-      <c r="X127" s="11"/>
+      <c r="X127" s="6">
+        <v>0</v>
+      </c>
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
@@ -14157,8 +14561,9 @@
       <c r="AH127" s="11"/>
       <c r="AI127" s="11"/>
       <c r="AJ127" s="11"/>
-    </row>
-    <row r="128" spans="1:37">
+      <c r="AK127" s="11"/>
+    </row>
+    <row r="128" spans="1:38">
       <c r="A128" s="29">
         <v>430306</v>
       </c>
@@ -14206,8 +14611,8 @@
       <c r="Q128" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R128" s="6">
-        <v>0</v>
+      <c r="R128" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S128" s="6">
         <v>0</v>
@@ -14224,7 +14629,9 @@
       <c r="W128" s="6">
         <v>0</v>
       </c>
-      <c r="X128" s="11"/>
+      <c r="X128" s="6">
+        <v>0</v>
+      </c>
       <c r="Y128" s="11"/>
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
@@ -14237,9 +14644,10 @@
       <c r="AH128" s="11"/>
       <c r="AI128" s="11"/>
       <c r="AJ128" s="11"/>
-      <c r="AK128" s="7"/>
-    </row>
-    <row r="129" spans="1:37">
+      <c r="AK128" s="11"/>
+      <c r="AL128" s="7"/>
+    </row>
+    <row r="129" spans="1:38">
       <c r="A129" s="29">
         <v>430307</v>
       </c>
@@ -14287,8 +14695,8 @@
       <c r="Q129" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R129" s="6">
-        <v>0</v>
+      <c r="R129" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S129" s="6">
         <v>0</v>
@@ -14305,7 +14713,9 @@
       <c r="W129" s="6">
         <v>0</v>
       </c>
-      <c r="X129" s="7"/>
+      <c r="X129" s="6">
+        <v>0</v>
+      </c>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
       <c r="AA129" s="7"/>
@@ -14319,8 +14729,9 @@
       <c r="AI129" s="7"/>
       <c r="AJ129" s="7"/>
       <c r="AK129" s="7"/>
-    </row>
-    <row r="130" spans="1:37">
+      <c r="AL129" s="7"/>
+    </row>
+    <row r="130" spans="1:38">
       <c r="A130" s="7">
         <v>430401</v>
       </c>
@@ -14366,8 +14777,8 @@
       <c r="Q130" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R130" s="6">
-        <v>0</v>
+      <c r="R130" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S130" s="6">
         <v>0</v>
@@ -14384,7 +14795,9 @@
       <c r="W130" s="6">
         <v>0</v>
       </c>
-      <c r="X130" s="23"/>
+      <c r="X130" s="6">
+        <v>0</v>
+      </c>
       <c r="Y130" s="23"/>
       <c r="Z130" s="23"/>
       <c r="AA130" s="23"/>
@@ -14397,9 +14810,10 @@
       <c r="AH130" s="23"/>
       <c r="AI130" s="23"/>
       <c r="AJ130" s="23"/>
-      <c r="AK130" s="7"/>
-    </row>
-    <row r="131" spans="1:37">
+      <c r="AK130" s="23"/>
+      <c r="AL130" s="7"/>
+    </row>
+    <row r="131" spans="1:38">
       <c r="A131" s="7">
         <v>430402</v>
       </c>
@@ -14445,8 +14859,8 @@
       <c r="Q131" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R131" s="6">
-        <v>0</v>
+      <c r="R131" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S131" s="6">
         <v>0</v>
@@ -14463,7 +14877,9 @@
       <c r="W131" s="6">
         <v>0</v>
       </c>
-      <c r="X131" s="23"/>
+      <c r="X131" s="6">
+        <v>0</v>
+      </c>
       <c r="Y131" s="23"/>
       <c r="Z131" s="23"/>
       <c r="AA131" s="23"/>
@@ -14476,9 +14892,10 @@
       <c r="AH131" s="23"/>
       <c r="AI131" s="23"/>
       <c r="AJ131" s="23"/>
-      <c r="AK131" s="7"/>
-    </row>
-    <row r="132" spans="1:37">
+      <c r="AK131" s="23"/>
+      <c r="AL131" s="7"/>
+    </row>
+    <row r="132" spans="1:38">
       <c r="A132" s="7">
         <v>430403</v>
       </c>
@@ -14524,8 +14941,8 @@
       <c r="Q132" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R132" s="6">
-        <v>0</v>
+      <c r="R132" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S132" s="6">
         <v>0</v>
@@ -14542,7 +14959,9 @@
       <c r="W132" s="6">
         <v>0</v>
       </c>
-      <c r="X132" s="23"/>
+      <c r="X132" s="6">
+        <v>0</v>
+      </c>
       <c r="Y132" s="23"/>
       <c r="Z132" s="23"/>
       <c r="AA132" s="23"/>
@@ -14555,9 +14974,10 @@
       <c r="AH132" s="23"/>
       <c r="AI132" s="23"/>
       <c r="AJ132" s="23"/>
-      <c r="AK132" s="7"/>
-    </row>
-    <row r="133" spans="1:37">
+      <c r="AK132" s="23"/>
+      <c r="AL132" s="7"/>
+    </row>
+    <row r="133" spans="1:38">
       <c r="A133" s="7">
         <v>430404</v>
       </c>
@@ -14603,8 +15023,8 @@
       <c r="Q133" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R133" s="6">
-        <v>0</v>
+      <c r="R133" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S133" s="6">
         <v>0</v>
@@ -14621,7 +15041,9 @@
       <c r="W133" s="6">
         <v>0</v>
       </c>
-      <c r="X133" s="23"/>
+      <c r="X133" s="6">
+        <v>0</v>
+      </c>
       <c r="Y133" s="23"/>
       <c r="Z133" s="23"/>
       <c r="AA133" s="23"/>
@@ -14634,9 +15056,10 @@
       <c r="AH133" s="23"/>
       <c r="AI133" s="23"/>
       <c r="AJ133" s="23"/>
-      <c r="AK133" s="7"/>
-    </row>
-    <row r="134" spans="1:37">
+      <c r="AK133" s="23"/>
+      <c r="AL133" s="7"/>
+    </row>
+    <row r="134" spans="1:38">
       <c r="A134" s="7">
         <v>430405</v>
       </c>
@@ -14682,8 +15105,8 @@
       <c r="Q134" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R134" s="6">
-        <v>0</v>
+      <c r="R134" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S134" s="6">
         <v>0</v>
@@ -14700,7 +15123,9 @@
       <c r="W134" s="6">
         <v>0</v>
       </c>
-      <c r="X134" s="23"/>
+      <c r="X134" s="6">
+        <v>0</v>
+      </c>
       <c r="Y134" s="23"/>
       <c r="Z134" s="23"/>
       <c r="AA134" s="23"/>
@@ -14713,9 +15138,10 @@
       <c r="AH134" s="23"/>
       <c r="AI134" s="23"/>
       <c r="AJ134" s="23"/>
-      <c r="AK134" s="7"/>
-    </row>
-    <row r="135" spans="1:37">
+      <c r="AK134" s="23"/>
+      <c r="AL134" s="7"/>
+    </row>
+    <row r="135" spans="1:38">
       <c r="A135" s="7">
         <v>430406</v>
       </c>
@@ -14761,8 +15187,8 @@
       <c r="Q135" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R135" s="6">
-        <v>0</v>
+      <c r="R135" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S135" s="6">
         <v>0</v>
@@ -14779,7 +15205,9 @@
       <c r="W135" s="6">
         <v>0</v>
       </c>
-      <c r="X135" s="23"/>
+      <c r="X135" s="6">
+        <v>0</v>
+      </c>
       <c r="Y135" s="23"/>
       <c r="Z135" s="23"/>
       <c r="AA135" s="23"/>
@@ -14792,9 +15220,10 @@
       <c r="AH135" s="23"/>
       <c r="AI135" s="23"/>
       <c r="AJ135" s="23"/>
-      <c r="AK135" s="7"/>
-    </row>
-    <row r="136" spans="1:37">
+      <c r="AK135" s="23"/>
+      <c r="AL135" s="7"/>
+    </row>
+    <row r="136" spans="1:38">
       <c r="A136" s="7">
         <v>430407</v>
       </c>
@@ -14842,8 +15271,8 @@
       <c r="Q136" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="R136" s="6">
-        <v>0</v>
+      <c r="R136" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S136" s="6">
         <v>0</v>
@@ -14860,7 +15289,9 @@
       <c r="W136" s="6">
         <v>0</v>
       </c>
-      <c r="X136" s="23"/>
+      <c r="X136" s="6">
+        <v>0</v>
+      </c>
       <c r="Y136" s="23"/>
       <c r="Z136" s="23"/>
       <c r="AA136" s="23"/>
@@ -14873,9 +15304,10 @@
       <c r="AH136" s="23"/>
       <c r="AI136" s="23"/>
       <c r="AJ136" s="23"/>
-      <c r="AK136" s="7"/>
-    </row>
-    <row r="137" spans="1:37" s="7" customFormat="1">
+      <c r="AK136" s="23"/>
+      <c r="AL136" s="7"/>
+    </row>
+    <row r="137" spans="1:38" s="7" customFormat="1">
       <c r="A137" s="6">
         <v>520105</v>
       </c>
@@ -14922,8 +15354,8 @@
       <c r="Q137" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R137" s="44">
-        <v>0</v>
+      <c r="R137" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S137" s="44">
         <v>0</v>
@@ -14937,17 +15369,20 @@
       <c r="V137" s="44">
         <v>0</v>
       </c>
-      <c r="W137" s="6">
-        <v>0</v>
-      </c>
-      <c r="X137" s="44"/>
+      <c r="W137" s="44">
+        <v>0</v>
+      </c>
+      <c r="X137" s="6">
+        <v>0</v>
+      </c>
       <c r="Y137" s="44"/>
       <c r="Z137" s="44"/>
       <c r="AA137" s="44"/>
       <c r="AB137" s="44"/>
       <c r="AC137" s="44"/>
-    </row>
-    <row r="138" spans="1:37" s="7" customFormat="1">
+      <c r="AD137" s="44"/>
+    </row>
+    <row r="138" spans="1:38" s="7" customFormat="1">
       <c r="A138" s="6">
         <v>520106</v>
       </c>
@@ -14994,8 +15429,8 @@
       <c r="Q138" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="R138" s="44">
-        <v>0</v>
+      <c r="R138" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S138" s="44">
         <v>0</v>
@@ -15009,17 +15444,20 @@
       <c r="V138" s="44">
         <v>0</v>
       </c>
-      <c r="W138" s="6">
-        <v>0</v>
-      </c>
-      <c r="X138" s="44"/>
+      <c r="W138" s="44">
+        <v>0</v>
+      </c>
+      <c r="X138" s="6">
+        <v>0</v>
+      </c>
       <c r="Y138" s="44"/>
       <c r="Z138" s="44"/>
       <c r="AA138" s="44"/>
       <c r="AB138" s="44"/>
       <c r="AC138" s="44"/>
-    </row>
-    <row r="139" spans="1:37" s="7" customFormat="1">
+      <c r="AD138" s="44"/>
+    </row>
+    <row r="139" spans="1:38" s="7" customFormat="1">
       <c r="A139" s="6">
         <v>520107</v>
       </c>
@@ -15066,8 +15504,8 @@
       <c r="Q139" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R139" s="44">
-        <v>0</v>
+      <c r="R139" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S139" s="44">
         <v>0</v>
@@ -15081,17 +15519,20 @@
       <c r="V139" s="44">
         <v>0</v>
       </c>
-      <c r="W139" s="6">
-        <v>0</v>
-      </c>
-      <c r="X139" s="44"/>
+      <c r="W139" s="44">
+        <v>0</v>
+      </c>
+      <c r="X139" s="6">
+        <v>0</v>
+      </c>
       <c r="Y139" s="44"/>
       <c r="Z139" s="44"/>
       <c r="AA139" s="44"/>
       <c r="AB139" s="44"/>
       <c r="AC139" s="44"/>
-    </row>
-    <row r="140" spans="1:37" s="7" customFormat="1">
+      <c r="AD139" s="44"/>
+    </row>
+    <row r="140" spans="1:38" s="7" customFormat="1">
       <c r="A140" s="6">
         <v>520108</v>
       </c>
@@ -15138,8 +15579,8 @@
       <c r="Q140" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R140" s="44">
-        <v>0</v>
+      <c r="R140" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S140" s="44">
         <v>0</v>
@@ -15153,11 +15594,14 @@
       <c r="V140" s="44">
         <v>0</v>
       </c>
-      <c r="W140" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37" s="7" customFormat="1">
+      <c r="W140" s="44">
+        <v>0</v>
+      </c>
+      <c r="X140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" s="7" customFormat="1">
       <c r="A141" s="6">
         <v>520109</v>
       </c>
@@ -15204,8 +15648,8 @@
       <c r="Q141" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R141" s="44">
-        <v>0</v>
+      <c r="R141" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S141" s="44">
         <v>0</v>
@@ -15219,17 +15663,20 @@
       <c r="V141" s="44">
         <v>0</v>
       </c>
-      <c r="W141" s="6">
-        <v>0</v>
-      </c>
-      <c r="X141" s="44"/>
+      <c r="W141" s="44">
+        <v>0</v>
+      </c>
+      <c r="X141" s="6">
+        <v>0</v>
+      </c>
       <c r="Y141" s="44"/>
       <c r="Z141" s="44"/>
       <c r="AA141" s="44"/>
       <c r="AB141" s="44"/>
       <c r="AC141" s="44"/>
-    </row>
-    <row r="142" spans="1:37" s="7" customFormat="1">
+      <c r="AD141" s="44"/>
+    </row>
+    <row r="142" spans="1:38" s="7" customFormat="1">
       <c r="A142" s="6">
         <v>520110</v>
       </c>
@@ -15276,8 +15723,8 @@
       <c r="Q142" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="R142" s="44">
-        <v>0</v>
+      <c r="R142" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S142" s="44">
         <v>0</v>
@@ -15291,11 +15738,14 @@
       <c r="V142" s="44">
         <v>0</v>
       </c>
-      <c r="W142" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:37" s="7" customFormat="1">
+      <c r="W142" s="44">
+        <v>0</v>
+      </c>
+      <c r="X142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" s="7" customFormat="1">
       <c r="A143" s="10">
         <v>530101</v>
       </c>
@@ -15342,8 +15792,8 @@
       <c r="Q143" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R143" s="44">
-        <v>0</v>
+      <c r="R143" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S143" s="44">
         <v>0</v>
@@ -15357,11 +15807,14 @@
       <c r="V143" s="44">
         <v>0</v>
       </c>
-      <c r="W143" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:37" s="7" customFormat="1">
+      <c r="W143" s="44">
+        <v>0</v>
+      </c>
+      <c r="X143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" s="7" customFormat="1">
       <c r="A144" s="10">
         <v>530102</v>
       </c>
@@ -15408,8 +15861,8 @@
       <c r="Q144" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R144" s="44">
-        <v>0</v>
+      <c r="R144" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S144" s="44">
         <v>0</v>
@@ -15423,11 +15876,14 @@
       <c r="V144" s="44">
         <v>0</v>
       </c>
-      <c r="W144" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" s="7" customFormat="1">
+      <c r="W144" s="44">
+        <v>0</v>
+      </c>
+      <c r="X144" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" s="7" customFormat="1">
       <c r="A145" s="10">
         <v>530103</v>
       </c>
@@ -15474,8 +15930,8 @@
       <c r="Q145" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R145" s="44">
-        <v>0</v>
+      <c r="R145" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S145" s="44">
         <v>0</v>
@@ -15489,11 +15945,14 @@
       <c r="V145" s="44">
         <v>0</v>
       </c>
-      <c r="W145" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" s="7" customFormat="1">
+      <c r="W145" s="44">
+        <v>0</v>
+      </c>
+      <c r="X145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" s="7" customFormat="1">
       <c r="A146" s="10">
         <v>530104</v>
       </c>
@@ -15540,8 +15999,8 @@
       <c r="Q146" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R146" s="44">
-        <v>0</v>
+      <c r="R146" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S146" s="44">
         <v>0</v>
@@ -15555,11 +16014,14 @@
       <c r="V146" s="44">
         <v>0</v>
       </c>
-      <c r="W146" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" s="7" customFormat="1">
+      <c r="W146" s="44">
+        <v>0</v>
+      </c>
+      <c r="X146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" s="7" customFormat="1">
       <c r="A147" s="10">
         <v>530201</v>
       </c>
@@ -15605,8 +16067,8 @@
       <c r="Q147" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R147" s="44">
-        <v>0</v>
+      <c r="R147" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S147" s="44">
         <v>0</v>
@@ -15620,11 +16082,14 @@
       <c r="V147" s="44">
         <v>0</v>
       </c>
-      <c r="W147" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" s="7" customFormat="1">
+      <c r="W147" s="44">
+        <v>0</v>
+      </c>
+      <c r="X147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" s="7" customFormat="1">
       <c r="A148" s="10">
         <v>530202</v>
       </c>
@@ -15673,8 +16138,8 @@
       <c r="Q148" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R148" s="44">
-        <v>0</v>
+      <c r="R148" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S148" s="44">
         <v>0</v>
@@ -15688,11 +16153,14 @@
       <c r="V148" s="44">
         <v>0</v>
       </c>
-      <c r="W148" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" s="7" customFormat="1">
+      <c r="W148" s="44">
+        <v>0</v>
+      </c>
+      <c r="X148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" s="7" customFormat="1">
       <c r="A149" s="10">
         <v>530203</v>
       </c>
@@ -15738,8 +16206,8 @@
       <c r="Q149" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R149" s="44">
-        <v>0</v>
+      <c r="R149" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S149" s="44">
         <v>0</v>
@@ -15753,11 +16221,14 @@
       <c r="V149" s="44">
         <v>0</v>
       </c>
-      <c r="W149" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" s="7" customFormat="1">
+      <c r="W149" s="44">
+        <v>0</v>
+      </c>
+      <c r="X149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" s="7" customFormat="1">
       <c r="A150" s="10">
         <v>530204</v>
       </c>
@@ -15803,8 +16274,8 @@
       <c r="Q150" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R150" s="44">
-        <v>0</v>
+      <c r="R150" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S150" s="44">
         <v>0</v>
@@ -15818,11 +16289,14 @@
       <c r="V150" s="44">
         <v>0</v>
       </c>
-      <c r="W150" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" s="7" customFormat="1">
+      <c r="W150" s="44">
+        <v>0</v>
+      </c>
+      <c r="X150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" s="7" customFormat="1">
       <c r="A151" s="10">
         <v>530205</v>
       </c>
@@ -15868,8 +16342,8 @@
       <c r="Q151" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R151" s="44">
-        <v>0</v>
+      <c r="R151" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S151" s="44">
         <v>0</v>
@@ -15883,11 +16357,14 @@
       <c r="V151" s="44">
         <v>0</v>
       </c>
-      <c r="W151" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="W151" s="44">
+        <v>0</v>
+      </c>
+      <c r="X151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A152" s="10">
         <v>530206</v>
       </c>
@@ -15936,8 +16413,8 @@
       <c r="Q152" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R152" s="44">
-        <v>0</v>
+      <c r="R152" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S152" s="44">
         <v>0</v>
@@ -15951,11 +16428,14 @@
       <c r="V152" s="44">
         <v>0</v>
       </c>
-      <c r="W152" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" s="7" customFormat="1">
+      <c r="W152" s="44">
+        <v>0</v>
+      </c>
+      <c r="X152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" s="7" customFormat="1">
       <c r="A153" s="10">
         <v>530207</v>
       </c>
@@ -16004,8 +16484,8 @@
       <c r="Q153" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R153" s="44">
-        <v>0</v>
+      <c r="R153" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S153" s="44">
         <v>0</v>
@@ -16019,11 +16499,14 @@
       <c r="V153" s="44">
         <v>0</v>
       </c>
-      <c r="W153" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" s="7" customFormat="1">
+      <c r="W153" s="44">
+        <v>0</v>
+      </c>
+      <c r="X153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" s="7" customFormat="1">
       <c r="A154" s="10">
         <v>530208</v>
       </c>
@@ -16069,8 +16552,8 @@
       <c r="Q154" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R154" s="44">
-        <v>0</v>
+      <c r="R154" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S154" s="44">
         <v>0</v>
@@ -16084,11 +16567,14 @@
       <c r="V154" s="44">
         <v>0</v>
       </c>
-      <c r="W154" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" s="54" customFormat="1">
+      <c r="W154" s="44">
+        <v>0</v>
+      </c>
+      <c r="X154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" s="54" customFormat="1">
       <c r="A155" s="54">
         <v>530209</v>
       </c>
@@ -16137,8 +16623,8 @@
       <c r="Q155" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R155" s="54">
-        <v>0</v>
+      <c r="R155" s="6" t="s">
+        <v>1348</v>
       </c>
       <c r="S155" s="54">
         <v>0</v>
@@ -16155,8 +16641,11 @@
       <c r="W155" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" s="7" customFormat="1">
+      <c r="X155" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" s="7" customFormat="1">
       <c r="A156" s="10">
         <v>530210</v>
       </c>
@@ -16202,8 +16691,8 @@
       <c r="Q156" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R156" s="44">
-        <v>0</v>
+      <c r="R156" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S156" s="44">
         <v>0</v>
@@ -16217,11 +16706,14 @@
       <c r="V156" s="44">
         <v>0</v>
       </c>
-      <c r="W156" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" s="7" customFormat="1">
+      <c r="W156" s="44">
+        <v>0</v>
+      </c>
+      <c r="X156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" s="7" customFormat="1">
       <c r="A157" s="10">
         <v>530211</v>
       </c>
@@ -16267,8 +16759,8 @@
       <c r="Q157" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R157" s="44">
-        <v>0</v>
+      <c r="R157" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S157" s="44">
         <v>0</v>
@@ -16282,11 +16774,14 @@
       <c r="V157" s="44">
         <v>0</v>
       </c>
-      <c r="W157" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" s="7" customFormat="1">
+      <c r="W157" s="44">
+        <v>0</v>
+      </c>
+      <c r="X157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" s="7" customFormat="1">
       <c r="A158" s="10">
         <v>530212</v>
       </c>
@@ -16332,8 +16827,8 @@
       <c r="Q158" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R158" s="44">
-        <v>0</v>
+      <c r="R158" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S158" s="44">
         <v>0</v>
@@ -16347,11 +16842,14 @@
       <c r="V158" s="44">
         <v>0</v>
       </c>
-      <c r="W158" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" s="7" customFormat="1">
+      <c r="W158" s="44">
+        <v>0</v>
+      </c>
+      <c r="X158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" s="7" customFormat="1">
       <c r="A159" s="10">
         <v>530213</v>
       </c>
@@ -16399,8 +16897,8 @@
       <c r="Q159" s="40" t="s">
         <v>1141</v>
       </c>
-      <c r="R159" s="44">
-        <v>0</v>
+      <c r="R159" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S159" s="44">
         <v>0</v>
@@ -16414,11 +16912,14 @@
       <c r="V159" s="44">
         <v>0</v>
       </c>
-      <c r="W159" s="6">
+      <c r="W159" s="44">
+        <v>0</v>
+      </c>
+      <c r="X159" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="7" customFormat="1">
+    <row r="160" spans="1:24" s="7" customFormat="1">
       <c r="A160" s="6">
         <v>620101</v>
       </c>
@@ -16465,8 +16966,8 @@
       <c r="Q160" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R160" s="44">
-        <v>0</v>
+      <c r="R160" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S160" s="44">
         <v>0</v>
@@ -16480,11 +16981,14 @@
       <c r="V160" s="44">
         <v>0</v>
       </c>
-      <c r="W160" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" s="7" customFormat="1">
+      <c r="W160" s="44">
+        <v>0</v>
+      </c>
+      <c r="X160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" s="7" customFormat="1">
       <c r="A161" s="6">
         <v>620102</v>
       </c>
@@ -16531,8 +17035,8 @@
       <c r="Q161" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R161" s="44">
-        <v>0</v>
+      <c r="R161" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S161" s="44">
         <v>0</v>
@@ -16546,11 +17050,14 @@
       <c r="V161" s="44">
         <v>0</v>
       </c>
-      <c r="W161" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" s="7" customFormat="1">
+      <c r="W161" s="44">
+        <v>0</v>
+      </c>
+      <c r="X161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" s="7" customFormat="1">
       <c r="A162" s="6">
         <v>620103</v>
       </c>
@@ -16597,8 +17104,8 @@
       <c r="Q162" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R162" s="44">
-        <v>0</v>
+      <c r="R162" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S162" s="44">
         <v>0</v>
@@ -16612,11 +17119,14 @@
       <c r="V162" s="44">
         <v>0</v>
       </c>
-      <c r="W162" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" s="7" customFormat="1">
+      <c r="W162" s="44">
+        <v>0</v>
+      </c>
+      <c r="X162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" s="7" customFormat="1">
       <c r="A163" s="6">
         <v>620104</v>
       </c>
@@ -16662,8 +17172,8 @@
       <c r="Q163" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R163" s="44">
-        <v>0</v>
+      <c r="R163" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S163" s="44">
         <v>0</v>
@@ -16677,11 +17187,14 @@
       <c r="V163" s="44">
         <v>0</v>
       </c>
-      <c r="W163" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" s="7" customFormat="1">
+      <c r="W163" s="44">
+        <v>0</v>
+      </c>
+      <c r="X163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" s="7" customFormat="1">
       <c r="A164" s="6">
         <v>620105</v>
       </c>
@@ -16727,8 +17240,8 @@
       <c r="Q164" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="R164" s="44">
-        <v>0</v>
+      <c r="R164" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S164" s="44">
         <v>0</v>
@@ -16742,11 +17255,14 @@
       <c r="V164" s="44">
         <v>0</v>
       </c>
-      <c r="W164" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" s="7" customFormat="1">
+      <c r="W164" s="44">
+        <v>0</v>
+      </c>
+      <c r="X164" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" s="7" customFormat="1">
       <c r="A165" s="6">
         <v>620106</v>
       </c>
@@ -16792,8 +17308,8 @@
       <c r="Q165" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="R165" s="44">
-        <v>0</v>
+      <c r="R165" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S165" s="44">
         <v>0</v>
@@ -16807,11 +17323,14 @@
       <c r="V165" s="44">
         <v>0</v>
       </c>
-      <c r="W165" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" s="7" customFormat="1">
+      <c r="W165" s="44">
+        <v>0</v>
+      </c>
+      <c r="X165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" s="7" customFormat="1">
       <c r="A166" s="6">
         <v>620107</v>
       </c>
@@ -16857,8 +17376,8 @@
       <c r="Q166" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R166" s="44">
-        <v>0</v>
+      <c r="R166" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S166" s="44">
         <v>0</v>
@@ -16872,11 +17391,14 @@
       <c r="V166" s="44">
         <v>0</v>
       </c>
-      <c r="W166" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" s="7" customFormat="1">
+      <c r="W166" s="44">
+        <v>0</v>
+      </c>
+      <c r="X166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" s="7" customFormat="1">
       <c r="A167" s="6">
         <v>620108</v>
       </c>
@@ -16922,8 +17444,8 @@
       <c r="Q167" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R167" s="44">
-        <v>0</v>
+      <c r="R167" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S167" s="44">
         <v>0</v>
@@ -16937,11 +17459,14 @@
       <c r="V167" s="44">
         <v>0</v>
       </c>
-      <c r="W167" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" s="7" customFormat="1">
+      <c r="W167" s="44">
+        <v>0</v>
+      </c>
+      <c r="X167" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" s="7" customFormat="1">
       <c r="A168" s="6">
         <v>620109</v>
       </c>
@@ -16987,8 +17512,8 @@
       <c r="Q168" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R168" s="44">
-        <v>0</v>
+      <c r="R168" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S168" s="44">
         <v>0</v>
@@ -17002,11 +17527,14 @@
       <c r="V168" s="44">
         <v>0</v>
       </c>
-      <c r="W168" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" s="7" customFormat="1">
+      <c r="W168" s="44">
+        <v>0</v>
+      </c>
+      <c r="X168" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" s="7" customFormat="1">
       <c r="A169" s="6">
         <v>620110</v>
       </c>
@@ -17053,8 +17581,8 @@
       <c r="Q169" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R169" s="44">
-        <v>0</v>
+      <c r="R169" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S169" s="44">
         <v>0</v>
@@ -17068,11 +17596,14 @@
       <c r="V169" s="44">
         <v>0</v>
       </c>
-      <c r="W169" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" s="7" customFormat="1">
+      <c r="W169" s="44">
+        <v>0</v>
+      </c>
+      <c r="X169" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" s="7" customFormat="1">
       <c r="A170" s="6">
         <v>620111</v>
       </c>
@@ -17118,8 +17649,8 @@
       <c r="Q170" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R170" s="44">
-        <v>0</v>
+      <c r="R170" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S170" s="44">
         <v>0</v>
@@ -17133,11 +17664,14 @@
       <c r="V170" s="44">
         <v>0</v>
       </c>
-      <c r="W170" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" s="7" customFormat="1">
+      <c r="W170" s="44">
+        <v>0</v>
+      </c>
+      <c r="X170" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" s="7" customFormat="1">
       <c r="A171" s="6">
         <v>620112</v>
       </c>
@@ -17183,8 +17717,8 @@
       <c r="Q171" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R171" s="44">
-        <v>0</v>
+      <c r="R171" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S171" s="44">
         <v>0</v>
@@ -17198,11 +17732,14 @@
       <c r="V171" s="44">
         <v>0</v>
       </c>
-      <c r="W171" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" s="7" customFormat="1">
+      <c r="W171" s="44">
+        <v>0</v>
+      </c>
+      <c r="X171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" s="7" customFormat="1">
       <c r="A172" s="6">
         <v>620113</v>
       </c>
@@ -17248,8 +17785,8 @@
       <c r="Q172" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R172" s="44">
-        <v>0</v>
+      <c r="R172" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S172" s="44">
         <v>0</v>
@@ -17263,11 +17800,14 @@
       <c r="V172" s="44">
         <v>0</v>
       </c>
-      <c r="W172" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" s="7" customFormat="1">
+      <c r="W172" s="44">
+        <v>0</v>
+      </c>
+      <c r="X172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" s="7" customFormat="1">
       <c r="A173" s="7">
         <v>630101</v>
       </c>
@@ -17316,8 +17856,8 @@
       <c r="Q173" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="R173" s="44">
-        <v>0</v>
+      <c r="R173" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S173" s="44">
         <v>0</v>
@@ -17331,11 +17871,14 @@
       <c r="V173" s="44">
         <v>0</v>
       </c>
-      <c r="W173" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" s="7" customFormat="1">
+      <c r="W173" s="44">
+        <v>0</v>
+      </c>
+      <c r="X173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" s="7" customFormat="1">
       <c r="A174" s="7">
         <v>630102</v>
       </c>
@@ -17384,8 +17927,8 @@
       <c r="Q174" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="R174" s="44">
-        <v>0</v>
+      <c r="R174" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S174" s="44">
         <v>0</v>
@@ -17399,11 +17942,14 @@
       <c r="V174" s="44">
         <v>0</v>
       </c>
-      <c r="W174" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" s="7" customFormat="1">
+      <c r="W174" s="44">
+        <v>0</v>
+      </c>
+      <c r="X174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" s="7" customFormat="1">
       <c r="A175" s="7">
         <v>630103</v>
       </c>
@@ -17452,8 +17998,8 @@
       <c r="Q175" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="R175" s="44">
-        <v>0</v>
+      <c r="R175" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S175" s="44">
         <v>0</v>
@@ -17467,11 +18013,14 @@
       <c r="V175" s="44">
         <v>0</v>
       </c>
-      <c r="W175" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" s="7" customFormat="1">
+      <c r="W175" s="44">
+        <v>0</v>
+      </c>
+      <c r="X175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" s="7" customFormat="1">
       <c r="A176" s="7">
         <v>630201</v>
       </c>
@@ -17520,8 +18069,8 @@
       <c r="Q176" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="R176" s="44">
-        <v>0</v>
+      <c r="R176" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S176" s="44">
         <v>0</v>
@@ -17535,11 +18084,14 @@
       <c r="V176" s="44">
         <v>0</v>
       </c>
-      <c r="W176" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:37" s="7" customFormat="1">
+      <c r="W176" s="44">
+        <v>0</v>
+      </c>
+      <c r="X176" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" s="7" customFormat="1">
       <c r="A177" s="7">
         <v>630202</v>
       </c>
@@ -17588,8 +18140,8 @@
       <c r="Q177" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="R177" s="44">
-        <v>0</v>
+      <c r="R177" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S177" s="44">
         <v>0</v>
@@ -17603,11 +18155,14 @@
       <c r="V177" s="44">
         <v>0</v>
       </c>
-      <c r="W177" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:37" s="7" customFormat="1">
+      <c r="W177" s="44">
+        <v>0</v>
+      </c>
+      <c r="X177" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" s="7" customFormat="1">
       <c r="A178" s="7">
         <v>630203</v>
       </c>
@@ -17656,8 +18211,8 @@
       <c r="Q178" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="R178" s="44">
-        <v>0</v>
+      <c r="R178" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S178" s="44">
         <v>0</v>
@@ -17671,11 +18226,14 @@
       <c r="V178" s="44">
         <v>0</v>
       </c>
-      <c r="W178" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:37" s="7" customFormat="1">
+      <c r="W178" s="44">
+        <v>0</v>
+      </c>
+      <c r="X178" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" s="7" customFormat="1">
       <c r="A179" s="7">
         <v>630204</v>
       </c>
@@ -17724,8 +18282,8 @@
       <c r="Q179" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="R179" s="44">
-        <v>0</v>
+      <c r="R179" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S179" s="44">
         <v>0</v>
@@ -17739,11 +18297,14 @@
       <c r="V179" s="44">
         <v>0</v>
       </c>
-      <c r="W179" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:37" s="7" customFormat="1">
+      <c r="W179" s="44">
+        <v>0</v>
+      </c>
+      <c r="X179" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" s="7" customFormat="1">
       <c r="A180" s="7">
         <v>630205</v>
       </c>
@@ -17792,8 +18353,8 @@
       <c r="Q180" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="R180" s="44">
-        <v>0</v>
+      <c r="R180" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S180" s="44">
         <v>0</v>
@@ -17807,11 +18368,14 @@
       <c r="V180" s="44">
         <v>0</v>
       </c>
-      <c r="W180" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:37" s="7" customFormat="1">
+      <c r="W180" s="44">
+        <v>0</v>
+      </c>
+      <c r="X180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" s="7" customFormat="1">
       <c r="A181" s="7">
         <v>630206</v>
       </c>
@@ -17860,8 +18424,8 @@
       <c r="Q181" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R181" s="44">
-        <v>0</v>
+      <c r="R181" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S181" s="44">
         <v>0</v>
@@ -17875,11 +18439,14 @@
       <c r="V181" s="44">
         <v>0</v>
       </c>
-      <c r="W181" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:37" s="7" customFormat="1">
+      <c r="W181" s="44">
+        <v>0</v>
+      </c>
+      <c r="X181" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" s="7" customFormat="1">
       <c r="A182" s="7">
         <v>630207</v>
       </c>
@@ -17928,8 +18495,8 @@
       <c r="Q182" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="R182" s="44">
-        <v>0</v>
+      <c r="R182" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S182" s="44">
         <v>0</v>
@@ -17943,11 +18510,14 @@
       <c r="V182" s="44">
         <v>0</v>
       </c>
-      <c r="W182" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:37" s="7" customFormat="1">
+      <c r="W182" s="44">
+        <v>0</v>
+      </c>
+      <c r="X182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" s="7" customFormat="1">
       <c r="A183" s="7">
         <v>630208</v>
       </c>
@@ -17996,8 +18566,8 @@
       <c r="Q183" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="R183" s="44">
-        <v>0</v>
+      <c r="R183" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S183" s="44">
         <v>0</v>
@@ -18011,11 +18581,14 @@
       <c r="V183" s="44">
         <v>0</v>
       </c>
-      <c r="W183" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:37" s="7" customFormat="1">
+      <c r="W183" s="44">
+        <v>0</v>
+      </c>
+      <c r="X183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" s="7" customFormat="1">
       <c r="A184" s="7">
         <v>630209</v>
       </c>
@@ -18064,8 +18637,8 @@
       <c r="Q184" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="R184" s="44">
-        <v>0</v>
+      <c r="R184" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S184" s="44">
         <v>0</v>
@@ -18079,11 +18652,14 @@
       <c r="V184" s="44">
         <v>0</v>
       </c>
-      <c r="W184" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:37" s="7" customFormat="1">
+      <c r="W184" s="44">
+        <v>0</v>
+      </c>
+      <c r="X184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" s="7" customFormat="1">
       <c r="A185" s="7">
         <v>630210</v>
       </c>
@@ -18132,8 +18708,8 @@
       <c r="Q185" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="R185" s="44">
-        <v>0</v>
+      <c r="R185" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S185" s="44">
         <v>0</v>
@@ -18147,11 +18723,14 @@
       <c r="V185" s="44">
         <v>0</v>
       </c>
-      <c r="W185" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:37" s="7" customFormat="1">
+      <c r="W185" s="44">
+        <v>0</v>
+      </c>
+      <c r="X185" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" s="7" customFormat="1">
       <c r="A186" s="7">
         <v>630211</v>
       </c>
@@ -18200,8 +18779,8 @@
       <c r="Q186" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="R186" s="44">
-        <v>0</v>
+      <c r="R186" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S186" s="44">
         <v>0</v>
@@ -18215,11 +18794,14 @@
       <c r="V186" s="44">
         <v>0</v>
       </c>
-      <c r="W186" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:37" s="7" customFormat="1">
+      <c r="W186" s="44">
+        <v>0</v>
+      </c>
+      <c r="X186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" s="7" customFormat="1">
       <c r="A187" s="7">
         <v>630212</v>
       </c>
@@ -18268,8 +18850,8 @@
       <c r="Q187" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="R187" s="44">
-        <v>0</v>
+      <c r="R187" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S187" s="44">
         <v>0</v>
@@ -18283,11 +18865,14 @@
       <c r="V187" s="44">
         <v>0</v>
       </c>
-      <c r="W187" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:37" s="7" customFormat="1">
+      <c r="W187" s="44">
+        <v>0</v>
+      </c>
+      <c r="X187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" s="7" customFormat="1">
       <c r="A188" s="7">
         <v>630213</v>
       </c>
@@ -18336,8 +18921,8 @@
       <c r="Q188" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="R188" s="44">
-        <v>0</v>
+      <c r="R188" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S188" s="44">
         <v>0</v>
@@ -18351,11 +18936,14 @@
       <c r="V188" s="44">
         <v>0</v>
       </c>
-      <c r="W188" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:37" s="7" customFormat="1">
+      <c r="W188" s="44">
+        <v>0</v>
+      </c>
+      <c r="X188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:38" s="7" customFormat="1">
       <c r="A189" s="48">
         <v>91130110</v>
       </c>
@@ -18404,8 +18992,8 @@
       <c r="Q189" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="R189" s="44">
-        <v>0</v>
+      <c r="R189" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S189" s="44">
         <v>0</v>
@@ -18419,12 +19007,15 @@
       <c r="V189" s="44">
         <v>0</v>
       </c>
-      <c r="W189" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK189" s="44"/>
-    </row>
-    <row r="190" spans="1:37" s="7" customFormat="1">
+      <c r="W189" s="44">
+        <v>0</v>
+      </c>
+      <c r="X189" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL189" s="44"/>
+    </row>
+    <row r="190" spans="1:38" s="7" customFormat="1">
       <c r="A190" s="49">
         <v>91130206</v>
       </c>
@@ -18474,8 +19065,8 @@
       <c r="Q190" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R190" s="44">
-        <v>0</v>
+      <c r="R190" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S190" s="44">
         <v>0</v>
@@ -18489,12 +19080,15 @@
       <c r="V190" s="44">
         <v>0</v>
       </c>
-      <c r="W190" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK190" s="44"/>
-    </row>
-    <row r="191" spans="1:37" s="7" customFormat="1">
+      <c r="W190" s="44">
+        <v>0</v>
+      </c>
+      <c r="X190" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL190" s="44"/>
+    </row>
+    <row r="191" spans="1:38" s="7" customFormat="1">
       <c r="A191" s="49">
         <v>91130207</v>
       </c>
@@ -18544,8 +19138,8 @@
       <c r="Q191" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R191" s="44">
-        <v>0</v>
+      <c r="R191" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S191" s="44">
         <v>0</v>
@@ -18559,12 +19153,15 @@
       <c r="V191" s="44">
         <v>0</v>
       </c>
-      <c r="W191" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK191" s="44"/>
-    </row>
-    <row r="192" spans="1:37" s="7" customFormat="1">
+      <c r="W191" s="44">
+        <v>0</v>
+      </c>
+      <c r="X191" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL191" s="44"/>
+    </row>
+    <row r="192" spans="1:38" s="7" customFormat="1">
       <c r="A192" s="49">
         <v>91130208</v>
       </c>
@@ -18614,8 +19211,8 @@
       <c r="Q192" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R192" s="44">
-        <v>0</v>
+      <c r="R192" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S192" s="44">
         <v>0</v>
@@ -18629,12 +19226,15 @@
       <c r="V192" s="44">
         <v>0</v>
       </c>
-      <c r="W192" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK192" s="44"/>
-    </row>
-    <row r="193" spans="1:37" s="7" customFormat="1">
+      <c r="W192" s="44">
+        <v>0</v>
+      </c>
+      <c r="X192" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL192" s="44"/>
+    </row>
+    <row r="193" spans="1:38" s="7" customFormat="1">
       <c r="A193" s="49">
         <v>91130209</v>
       </c>
@@ -18683,8 +19283,8 @@
       <c r="Q193" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R193" s="44">
-        <v>0</v>
+      <c r="R193" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S193" s="44">
         <v>0</v>
@@ -18698,12 +19298,15 @@
       <c r="V193" s="44">
         <v>0</v>
       </c>
-      <c r="W193" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK193" s="44"/>
-    </row>
-    <row r="194" spans="1:37" s="7" customFormat="1">
+      <c r="W193" s="44">
+        <v>0</v>
+      </c>
+      <c r="X193" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL193" s="44"/>
+    </row>
+    <row r="194" spans="1:38" s="7" customFormat="1">
       <c r="A194" s="50">
         <v>91230601</v>
       </c>
@@ -18752,8 +19355,8 @@
       <c r="Q194" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R194" s="44">
-        <v>0</v>
+      <c r="R194" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S194" s="44">
         <v>0</v>
@@ -18767,11 +19370,14 @@
       <c r="V194" s="44">
         <v>0</v>
       </c>
-      <c r="W194" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:37" s="7" customFormat="1">
+      <c r="W194" s="44">
+        <v>0</v>
+      </c>
+      <c r="X194" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" s="7" customFormat="1">
       <c r="A195" s="50">
         <v>91230602</v>
       </c>
@@ -18820,8 +19426,8 @@
       <c r="Q195" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R195" s="44">
-        <v>0</v>
+      <c r="R195" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S195" s="44">
         <v>0</v>
@@ -18835,11 +19441,14 @@
       <c r="V195" s="44">
         <v>0</v>
       </c>
-      <c r="W195" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:37" s="7" customFormat="1">
+      <c r="W195" s="44">
+        <v>0</v>
+      </c>
+      <c r="X195" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:38" s="7" customFormat="1">
       <c r="A196" s="50">
         <v>91230603</v>
       </c>
@@ -18888,8 +19497,8 @@
       <c r="Q196" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="R196" s="44">
-        <v>0</v>
+      <c r="R196" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S196" s="44">
         <v>0</v>
@@ -18903,11 +19512,14 @@
       <c r="V196" s="44">
         <v>0</v>
       </c>
-      <c r="W196" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:37" s="7" customFormat="1">
+      <c r="W196" s="44">
+        <v>0</v>
+      </c>
+      <c r="X196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:38" s="7" customFormat="1">
       <c r="A197" s="50">
         <v>91330116</v>
       </c>
@@ -18956,8 +19568,8 @@
       <c r="Q197" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="R197" s="44">
-        <v>0</v>
+      <c r="R197" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S197" s="44">
         <v>0</v>
@@ -18971,17 +19583,20 @@
       <c r="V197" s="44">
         <v>0</v>
       </c>
-      <c r="W197" s="6">
-        <v>0</v>
-      </c>
-      <c r="X197" s="44"/>
+      <c r="W197" s="44">
+        <v>0</v>
+      </c>
+      <c r="X197" s="6">
+        <v>0</v>
+      </c>
       <c r="Y197" s="44"/>
       <c r="Z197" s="44"/>
       <c r="AA197" s="44"/>
       <c r="AB197" s="44"/>
       <c r="AC197" s="44"/>
-    </row>
-    <row r="198" spans="1:37" s="7" customFormat="1">
+      <c r="AD197" s="44"/>
+    </row>
+    <row r="198" spans="1:38" s="7" customFormat="1">
       <c r="A198" s="50">
         <v>91430115</v>
       </c>
@@ -19030,8 +19645,8 @@
       <c r="Q198" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R198" s="44">
-        <v>0</v>
+      <c r="R198" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S198" s="44">
         <v>0</v>
@@ -19045,17 +19660,20 @@
       <c r="V198" s="44">
         <v>0</v>
       </c>
-      <c r="W198" s="6">
-        <v>0</v>
-      </c>
-      <c r="X198" s="44"/>
+      <c r="W198" s="44">
+        <v>0</v>
+      </c>
+      <c r="X198" s="6">
+        <v>0</v>
+      </c>
       <c r="Y198" s="44"/>
       <c r="Z198" s="44"/>
       <c r="AA198" s="44"/>
       <c r="AB198" s="44"/>
       <c r="AC198" s="44"/>
-    </row>
-    <row r="199" spans="1:37" s="7" customFormat="1">
+      <c r="AD198" s="44"/>
+    </row>
+    <row r="199" spans="1:38" s="7" customFormat="1">
       <c r="A199" s="50">
         <v>91430308</v>
       </c>
@@ -19104,8 +19722,8 @@
       <c r="Q199" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R199" s="44">
-        <v>0</v>
+      <c r="R199" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S199" s="44">
         <v>0</v>
@@ -19119,11 +19737,14 @@
       <c r="V199" s="44">
         <v>0</v>
       </c>
-      <c r="W199" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:37" s="7" customFormat="1">
+      <c r="W199" s="44">
+        <v>0</v>
+      </c>
+      <c r="X199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:38" s="7" customFormat="1">
       <c r="A200" s="50">
         <v>91430309</v>
       </c>
@@ -19172,8 +19793,8 @@
       <c r="Q200" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="R200" s="44">
-        <v>0</v>
+      <c r="R200" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S200" s="44">
         <v>0</v>
@@ -19187,11 +19808,14 @@
       <c r="V200" s="44">
         <v>0</v>
       </c>
-      <c r="W200" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:37" s="7" customFormat="1">
+      <c r="W200" s="44">
+        <v>0</v>
+      </c>
+      <c r="X200" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:38" s="7" customFormat="1">
       <c r="A201" s="50">
         <v>91430310</v>
       </c>
@@ -19240,8 +19864,8 @@
       <c r="Q201" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="R201" s="44">
-        <v>0</v>
+      <c r="R201" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S201" s="44">
         <v>0</v>
@@ -19255,11 +19879,14 @@
       <c r="V201" s="44">
         <v>0</v>
       </c>
-      <c r="W201" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:37" s="7" customFormat="1">
+      <c r="W201" s="44">
+        <v>0</v>
+      </c>
+      <c r="X201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:38" s="7" customFormat="1">
       <c r="A202" s="50">
         <v>91530105</v>
       </c>
@@ -19308,8 +19935,8 @@
       <c r="Q202" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="R202" s="44">
-        <v>0</v>
+      <c r="R202" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S202" s="44">
         <v>0</v>
@@ -19323,11 +19950,14 @@
       <c r="V202" s="44">
         <v>0</v>
       </c>
-      <c r="W202" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:37" s="7" customFormat="1">
+      <c r="W202" s="44">
+        <v>0</v>
+      </c>
+      <c r="X202" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:38" s="7" customFormat="1">
       <c r="A203" s="50">
         <v>91530106</v>
       </c>
@@ -19376,8 +20006,8 @@
       <c r="Q203" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="R203" s="44">
-        <v>0</v>
+      <c r="R203" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S203" s="44">
         <v>0</v>
@@ -19391,11 +20021,14 @@
       <c r="V203" s="44">
         <v>0</v>
       </c>
-      <c r="W203" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:37" s="7" customFormat="1">
+      <c r="W203" s="44">
+        <v>0</v>
+      </c>
+      <c r="X203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:38" s="7" customFormat="1">
       <c r="A204" s="50">
         <v>92130111</v>
       </c>
@@ -19444,8 +20077,8 @@
       <c r="Q204" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R204" s="44">
-        <v>0</v>
+      <c r="R204" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S204" s="44">
         <v>0</v>
@@ -19459,12 +20092,15 @@
       <c r="V204" s="44">
         <v>0</v>
       </c>
-      <c r="W204" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK204" s="44"/>
-    </row>
-    <row r="205" spans="1:37" s="7" customFormat="1">
+      <c r="W204" s="44">
+        <v>0</v>
+      </c>
+      <c r="X204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="44"/>
+    </row>
+    <row r="205" spans="1:38" s="7" customFormat="1">
       <c r="A205" s="50">
         <v>92130112</v>
       </c>
@@ -19513,8 +20149,8 @@
       <c r="Q205" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R205" s="44">
-        <v>0</v>
+      <c r="R205" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S205" s="44">
         <v>0</v>
@@ -19528,12 +20164,15 @@
       <c r="V205" s="44">
         <v>0</v>
       </c>
-      <c r="W205" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK205" s="44"/>
-    </row>
-    <row r="206" spans="1:37" s="7" customFormat="1">
+      <c r="W205" s="44">
+        <v>0</v>
+      </c>
+      <c r="X205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="44"/>
+    </row>
+    <row r="206" spans="1:38" s="7" customFormat="1">
       <c r="A206" s="50">
         <v>92130113</v>
       </c>
@@ -19582,8 +20221,8 @@
       <c r="Q206" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R206" s="44">
-        <v>0</v>
+      <c r="R206" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S206" s="44">
         <v>0</v>
@@ -19597,12 +20236,15 @@
       <c r="V206" s="44">
         <v>0</v>
       </c>
-      <c r="W206" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK206" s="44"/>
-    </row>
-    <row r="207" spans="1:37" s="7" customFormat="1">
+      <c r="W206" s="44">
+        <v>0</v>
+      </c>
+      <c r="X206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="44"/>
+    </row>
+    <row r="207" spans="1:38" s="7" customFormat="1">
       <c r="A207" s="50">
         <v>92130114</v>
       </c>
@@ -19651,8 +20293,8 @@
       <c r="Q207" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R207" s="44">
-        <v>0</v>
+      <c r="R207" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S207" s="44">
         <v>0</v>
@@ -19666,12 +20308,15 @@
       <c r="V207" s="44">
         <v>0</v>
       </c>
-      <c r="W207" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK207" s="44"/>
-    </row>
-    <row r="208" spans="1:37" s="7" customFormat="1">
+      <c r="W207" s="44">
+        <v>0</v>
+      </c>
+      <c r="X207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="44"/>
+    </row>
+    <row r="208" spans="1:38" s="7" customFormat="1">
       <c r="A208" s="50">
         <v>92330117</v>
       </c>
@@ -19720,8 +20365,8 @@
       <c r="Q208" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R208" s="44">
-        <v>0</v>
+      <c r="R208" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S208" s="44">
         <v>0</v>
@@ -19735,17 +20380,20 @@
       <c r="V208" s="44">
         <v>0</v>
       </c>
-      <c r="W208" s="6">
+      <c r="W208" s="44">
+        <v>0</v>
+      </c>
+      <c r="X208" s="6">
         <v>1</v>
       </c>
-      <c r="X208" s="44"/>
       <c r="Y208" s="44"/>
       <c r="Z208" s="44"/>
       <c r="AA208" s="44"/>
       <c r="AB208" s="44"/>
       <c r="AC208" s="44"/>
-    </row>
-    <row r="209" spans="1:37" s="7" customFormat="1">
+      <c r="AD208" s="44"/>
+    </row>
+    <row r="209" spans="1:38" s="7" customFormat="1">
       <c r="A209" s="50">
         <v>92530107</v>
       </c>
@@ -19794,8 +20442,8 @@
       <c r="Q209" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R209" s="44">
-        <v>0</v>
+      <c r="R209" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S209" s="44">
         <v>0</v>
@@ -19809,11 +20457,14 @@
       <c r="V209" s="44">
         <v>0</v>
       </c>
-      <c r="W209" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:37" s="7" customFormat="1">
+      <c r="W209" s="44">
+        <v>0</v>
+      </c>
+      <c r="X209" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" s="7" customFormat="1">
       <c r="A210" s="50">
         <v>92530108</v>
       </c>
@@ -19862,8 +20513,8 @@
       <c r="Q210" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R210" s="44">
-        <v>0</v>
+      <c r="R210" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S210" s="44">
         <v>0</v>
@@ -19877,11 +20528,14 @@
       <c r="V210" s="44">
         <v>0</v>
       </c>
-      <c r="W210" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:37" s="7" customFormat="1">
+      <c r="W210" s="44">
+        <v>0</v>
+      </c>
+      <c r="X210" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" s="7" customFormat="1">
       <c r="A211" s="50">
         <v>92530109</v>
       </c>
@@ -19930,8 +20584,8 @@
       <c r="Q211" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R211" s="44">
-        <v>0</v>
+      <c r="R211" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S211" s="44">
         <v>0</v>
@@ -19945,11 +20599,14 @@
       <c r="V211" s="44">
         <v>0</v>
       </c>
-      <c r="W211" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:37" s="7" customFormat="1">
+      <c r="W211" s="44">
+        <v>0</v>
+      </c>
+      <c r="X211" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" s="7" customFormat="1">
       <c r="A212" s="50">
         <v>92530110</v>
       </c>
@@ -19998,8 +20655,8 @@
       <c r="Q212" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R212" s="44">
-        <v>0</v>
+      <c r="R212" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S212" s="44">
         <v>0</v>
@@ -20013,11 +20670,14 @@
       <c r="V212" s="44">
         <v>0</v>
       </c>
-      <c r="W212" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:37" s="7" customFormat="1">
+      <c r="W212" s="44">
+        <v>0</v>
+      </c>
+      <c r="X212" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" s="7" customFormat="1">
       <c r="A213" s="50">
         <v>92530111</v>
       </c>
@@ -20066,8 +20726,8 @@
       <c r="Q213" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R213" s="44">
-        <v>0</v>
+      <c r="R213" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S213" s="44">
         <v>0</v>
@@ -20081,11 +20741,14 @@
       <c r="V213" s="44">
         <v>0</v>
       </c>
-      <c r="W213" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:37" s="7" customFormat="1">
+      <c r="W213" s="44">
+        <v>0</v>
+      </c>
+      <c r="X213" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" s="7" customFormat="1">
       <c r="A214" s="50">
         <v>92530112</v>
       </c>
@@ -20134,8 +20797,8 @@
       <c r="Q214" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R214" s="44">
-        <v>0</v>
+      <c r="R214" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S214" s="44">
         <v>0</v>
@@ -20149,11 +20812,14 @@
       <c r="V214" s="44">
         <v>0</v>
       </c>
-      <c r="W214" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:37" s="7" customFormat="1">
+      <c r="W214" s="44">
+        <v>0</v>
+      </c>
+      <c r="X214" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" s="7" customFormat="1">
       <c r="A215" s="50">
         <v>92530113</v>
       </c>
@@ -20202,8 +20868,8 @@
       <c r="Q215" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R215" s="44">
-        <v>0</v>
+      <c r="R215" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S215" s="44">
         <v>0</v>
@@ -20217,11 +20883,14 @@
       <c r="V215" s="44">
         <v>0</v>
       </c>
-      <c r="W215" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:37" s="7" customFormat="1">
+      <c r="W215" s="44">
+        <v>0</v>
+      </c>
+      <c r="X215" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" s="7" customFormat="1">
       <c r="A216" s="50">
         <v>92530114</v>
       </c>
@@ -20270,8 +20939,8 @@
       <c r="Q216" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R216" s="44">
-        <v>0</v>
+      <c r="R216" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S216" s="44">
         <v>0</v>
@@ -20285,11 +20954,14 @@
       <c r="V216" s="44">
         <v>0</v>
       </c>
-      <c r="W216" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:37" s="7" customFormat="1">
+      <c r="W216" s="44">
+        <v>0</v>
+      </c>
+      <c r="X216" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" s="7" customFormat="1">
       <c r="A217" s="50">
         <v>92530115</v>
       </c>
@@ -20338,8 +21010,8 @@
       <c r="Q217" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R217" s="44">
-        <v>0</v>
+      <c r="R217" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S217" s="44">
         <v>0</v>
@@ -20353,11 +21025,14 @@
       <c r="V217" s="44">
         <v>0</v>
       </c>
-      <c r="W217" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:37" s="7" customFormat="1">
+      <c r="W217" s="44">
+        <v>0</v>
+      </c>
+      <c r="X217" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" s="7" customFormat="1">
       <c r="A218" s="50">
         <v>93130117</v>
       </c>
@@ -20409,8 +21084,8 @@
       <c r="Q218" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R218" s="44">
-        <v>0</v>
+      <c r="R218" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S218" s="44">
         <v>0</v>
@@ -20424,12 +21099,15 @@
       <c r="V218" s="44">
         <v>0</v>
       </c>
-      <c r="W218" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK218" s="44"/>
-    </row>
-    <row r="219" spans="1:37" s="7" customFormat="1">
+      <c r="W218" s="44">
+        <v>0</v>
+      </c>
+      <c r="X218" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="44"/>
+    </row>
+    <row r="219" spans="1:38" s="7" customFormat="1">
       <c r="A219" s="50">
         <v>93130118</v>
       </c>
@@ -20481,8 +21159,8 @@
       <c r="Q219" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R219" s="44">
-        <v>0</v>
+      <c r="R219" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S219" s="44">
         <v>0</v>
@@ -20496,12 +21174,15 @@
       <c r="V219" s="44">
         <v>0</v>
       </c>
-      <c r="W219" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK219" s="44"/>
-    </row>
-    <row r="220" spans="1:37" s="7" customFormat="1">
+      <c r="W219" s="44">
+        <v>0</v>
+      </c>
+      <c r="X219" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL219" s="44"/>
+    </row>
+    <row r="220" spans="1:38" s="7" customFormat="1">
       <c r="A220" s="50">
         <v>93230102</v>
       </c>
@@ -20553,8 +21234,8 @@
       <c r="Q220" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R220" s="44">
-        <v>0</v>
+      <c r="R220" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S220" s="44">
         <v>0</v>
@@ -20568,11 +21249,14 @@
       <c r="V220" s="44">
         <v>0</v>
       </c>
-      <c r="W220" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:37" s="7" customFormat="1">
+      <c r="W220" s="44">
+        <v>0</v>
+      </c>
+      <c r="X220" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" s="7" customFormat="1">
       <c r="A221" s="50">
         <v>93230205</v>
       </c>
@@ -20624,8 +21308,8 @@
       <c r="Q221" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R221" s="44">
-        <v>0</v>
+      <c r="R221" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S221" s="44">
         <v>0</v>
@@ -20639,11 +21323,14 @@
       <c r="V221" s="44">
         <v>0</v>
       </c>
-      <c r="W221" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:37" s="7" customFormat="1">
+      <c r="W221" s="44">
+        <v>0</v>
+      </c>
+      <c r="X221" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" s="7" customFormat="1">
       <c r="A222" s="50">
         <v>93230206</v>
       </c>
@@ -20695,8 +21382,8 @@
       <c r="Q222" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R222" s="44">
-        <v>0</v>
+      <c r="R222" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S222" s="44">
         <v>0</v>
@@ -20710,11 +21397,14 @@
       <c r="V222" s="44">
         <v>0</v>
       </c>
-      <c r="W222" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:37" s="7" customFormat="1">
+      <c r="W222" s="44">
+        <v>0</v>
+      </c>
+      <c r="X222" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" s="7" customFormat="1">
       <c r="A223" s="50">
         <v>93230207</v>
       </c>
@@ -20766,8 +21456,8 @@
       <c r="Q223" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R223" s="44">
-        <v>0</v>
+      <c r="R223" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S223" s="44">
         <v>0</v>
@@ -20781,11 +21471,14 @@
       <c r="V223" s="44">
         <v>0</v>
       </c>
-      <c r="W223" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:37" s="7" customFormat="1">
+      <c r="W223" s="44">
+        <v>0</v>
+      </c>
+      <c r="X223" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38" s="7" customFormat="1">
       <c r="A224" s="50">
         <v>93230208</v>
       </c>
@@ -20837,8 +21530,8 @@
       <c r="Q224" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R224" s="44">
-        <v>0</v>
+      <c r="R224" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S224" s="44">
         <v>0</v>
@@ -20852,17 +21545,20 @@
       <c r="V224" s="44">
         <v>0</v>
       </c>
-      <c r="W224" s="6">
-        <v>0</v>
-      </c>
-      <c r="X224" s="6"/>
+      <c r="W224" s="44">
+        <v>0</v>
+      </c>
+      <c r="X224" s="6">
+        <v>0</v>
+      </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
       <c r="AA224" s="6"/>
       <c r="AB224" s="6"/>
       <c r="AC224" s="6"/>
-    </row>
-    <row r="225" spans="1:37" s="7" customFormat="1">
+      <c r="AD224" s="6"/>
+    </row>
+    <row r="225" spans="1:38" s="7" customFormat="1">
       <c r="A225" s="50">
         <v>93230305</v>
       </c>
@@ -20914,8 +21610,8 @@
       <c r="Q225" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R225" s="44">
-        <v>0</v>
+      <c r="R225" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S225" s="44">
         <v>0</v>
@@ -20929,17 +21625,20 @@
       <c r="V225" s="44">
         <v>0</v>
       </c>
-      <c r="W225" s="6">
-        <v>0</v>
-      </c>
-      <c r="X225" s="6"/>
+      <c r="W225" s="44">
+        <v>0</v>
+      </c>
+      <c r="X225" s="6">
+        <v>0</v>
+      </c>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
       <c r="AA225" s="6"/>
       <c r="AB225" s="6"/>
       <c r="AC225" s="6"/>
-    </row>
-    <row r="226" spans="1:37" s="7" customFormat="1">
+      <c r="AD225" s="6"/>
+    </row>
+    <row r="226" spans="1:38" s="7" customFormat="1">
       <c r="A226" s="50">
         <v>93230404</v>
       </c>
@@ -20991,8 +21690,8 @@
       <c r="Q226" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R226" s="44">
-        <v>0</v>
+      <c r="R226" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S226" s="44">
         <v>0</v>
@@ -21006,17 +21705,20 @@
       <c r="V226" s="44">
         <v>0</v>
       </c>
-      <c r="W226" s="6">
-        <v>0</v>
-      </c>
-      <c r="X226" s="6"/>
+      <c r="W226" s="44">
+        <v>0</v>
+      </c>
+      <c r="X226" s="6">
+        <v>0</v>
+      </c>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
       <c r="AA226" s="6"/>
       <c r="AB226" s="6"/>
       <c r="AC226" s="6"/>
-    </row>
-    <row r="227" spans="1:37" s="7" customFormat="1">
+      <c r="AD226" s="6"/>
+    </row>
+    <row r="227" spans="1:38" s="7" customFormat="1">
       <c r="A227" s="50">
         <v>93230405</v>
       </c>
@@ -21068,8 +21770,8 @@
       <c r="Q227" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R227" s="44">
-        <v>0</v>
+      <c r="R227" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S227" s="44">
         <v>0</v>
@@ -21083,17 +21785,20 @@
       <c r="V227" s="44">
         <v>0</v>
       </c>
-      <c r="W227" s="6">
-        <v>0</v>
-      </c>
-      <c r="X227" s="6"/>
+      <c r="W227" s="44">
+        <v>0</v>
+      </c>
+      <c r="X227" s="6">
+        <v>0</v>
+      </c>
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="6"/>
       <c r="AC227" s="6"/>
-    </row>
-    <row r="228" spans="1:37" s="7" customFormat="1">
+      <c r="AD227" s="6"/>
+    </row>
+    <row r="228" spans="1:38" s="7" customFormat="1">
       <c r="A228" s="50">
         <v>93330118</v>
       </c>
@@ -21142,8 +21847,8 @@
       <c r="Q228" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R228" s="44">
-        <v>0</v>
+      <c r="R228" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S228" s="44">
         <v>0</v>
@@ -21157,17 +21862,20 @@
       <c r="V228" s="44">
         <v>0</v>
       </c>
-      <c r="W228" s="6">
-        <v>0</v>
-      </c>
-      <c r="X228" s="44"/>
+      <c r="W228" s="44">
+        <v>0</v>
+      </c>
+      <c r="X228" s="6">
+        <v>0</v>
+      </c>
       <c r="Y228" s="44"/>
       <c r="Z228" s="44"/>
       <c r="AA228" s="44"/>
       <c r="AB228" s="44"/>
       <c r="AC228" s="44"/>
-    </row>
-    <row r="229" spans="1:37" s="7" customFormat="1">
+      <c r="AD228" s="44"/>
+    </row>
+    <row r="229" spans="1:38" s="7" customFormat="1">
       <c r="A229" s="50">
         <v>93330119</v>
       </c>
@@ -21219,8 +21927,8 @@
       <c r="Q229" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R229" s="44">
-        <v>0</v>
+      <c r="R229" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S229" s="44">
         <v>0</v>
@@ -21234,17 +21942,20 @@
       <c r="V229" s="44">
         <v>0</v>
       </c>
-      <c r="W229" s="6">
-        <v>0</v>
-      </c>
-      <c r="X229" s="44"/>
+      <c r="W229" s="44">
+        <v>0</v>
+      </c>
+      <c r="X229" s="6">
+        <v>0</v>
+      </c>
       <c r="Y229" s="44"/>
       <c r="Z229" s="44"/>
       <c r="AA229" s="44"/>
       <c r="AB229" s="44"/>
       <c r="AC229" s="44"/>
-    </row>
-    <row r="230" spans="1:37" s="7" customFormat="1">
+      <c r="AD229" s="44"/>
+    </row>
+    <row r="230" spans="1:38" s="7" customFormat="1">
       <c r="A230" s="50">
         <v>93330120</v>
       </c>
@@ -21296,8 +22007,8 @@
       <c r="Q230" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R230" s="44">
-        <v>0</v>
+      <c r="R230" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S230" s="44">
         <v>0</v>
@@ -21311,17 +22022,20 @@
       <c r="V230" s="44">
         <v>0</v>
       </c>
-      <c r="W230" s="6">
-        <v>0</v>
-      </c>
-      <c r="X230" s="44"/>
+      <c r="W230" s="44">
+        <v>0</v>
+      </c>
+      <c r="X230" s="6">
+        <v>0</v>
+      </c>
       <c r="Y230" s="44"/>
       <c r="Z230" s="44"/>
       <c r="AA230" s="44"/>
       <c r="AB230" s="44"/>
       <c r="AC230" s="44"/>
-    </row>
-    <row r="231" spans="1:37" s="7" customFormat="1">
+      <c r="AD230" s="44"/>
+    </row>
+    <row r="231" spans="1:38" s="7" customFormat="1">
       <c r="A231" s="50">
         <v>93330121</v>
       </c>
@@ -21373,8 +22087,8 @@
       <c r="Q231" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R231" s="44">
-        <v>0</v>
+      <c r="R231" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S231" s="44">
         <v>0</v>
@@ -21388,17 +22102,20 @@
       <c r="V231" s="44">
         <v>0</v>
       </c>
-      <c r="W231" s="6">
-        <v>0</v>
-      </c>
-      <c r="X231" s="44"/>
+      <c r="W231" s="44">
+        <v>0</v>
+      </c>
+      <c r="X231" s="6">
+        <v>0</v>
+      </c>
       <c r="Y231" s="44"/>
       <c r="Z231" s="44"/>
       <c r="AA231" s="44"/>
       <c r="AB231" s="44"/>
       <c r="AC231" s="44"/>
-    </row>
-    <row r="232" spans="1:37" s="7" customFormat="1">
+      <c r="AD231" s="44"/>
+    </row>
+    <row r="232" spans="1:38" s="7" customFormat="1">
       <c r="A232" s="50">
         <v>93430118</v>
       </c>
@@ -21450,8 +22167,8 @@
       <c r="Q232" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R232" s="44">
-        <v>0</v>
+      <c r="R232" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S232" s="44">
         <v>0</v>
@@ -21465,17 +22182,20 @@
       <c r="V232" s="44">
         <v>0</v>
       </c>
-      <c r="W232" s="6">
-        <v>0</v>
-      </c>
-      <c r="X232" s="44"/>
+      <c r="W232" s="44">
+        <v>0</v>
+      </c>
+      <c r="X232" s="6">
+        <v>0</v>
+      </c>
       <c r="Y232" s="44"/>
       <c r="Z232" s="44"/>
       <c r="AA232" s="44"/>
       <c r="AB232" s="44"/>
       <c r="AC232" s="44"/>
-    </row>
-    <row r="233" spans="1:37" s="7" customFormat="1">
+      <c r="AD232" s="44"/>
+    </row>
+    <row r="233" spans="1:38" s="7" customFormat="1">
       <c r="A233" s="50">
         <v>93530118</v>
       </c>
@@ -21524,8 +22244,8 @@
       <c r="Q233" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R233" s="44">
-        <v>0</v>
+      <c r="R233" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S233" s="44">
         <v>0</v>
@@ -21539,11 +22259,14 @@
       <c r="V233" s="44">
         <v>0</v>
       </c>
-      <c r="W233" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:37" s="7" customFormat="1">
+      <c r="W233" s="44">
+        <v>0</v>
+      </c>
+      <c r="X233" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:38" s="7" customFormat="1">
       <c r="A234" s="50">
         <v>93530119</v>
       </c>
@@ -21592,8 +22315,8 @@
       <c r="Q234" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R234" s="44">
-        <v>0</v>
+      <c r="R234" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S234" s="44">
         <v>0</v>
@@ -21607,11 +22330,14 @@
       <c r="V234" s="44">
         <v>0</v>
       </c>
-      <c r="W234" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:37" s="7" customFormat="1">
+      <c r="W234" s="44">
+        <v>0</v>
+      </c>
+      <c r="X234" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:38" s="7" customFormat="1">
       <c r="A235" s="50">
         <v>93530120</v>
       </c>
@@ -21660,8 +22386,8 @@
       <c r="Q235" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R235" s="44">
-        <v>0</v>
+      <c r="R235" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S235" s="44">
         <v>0</v>
@@ -21675,11 +22401,14 @@
       <c r="V235" s="44">
         <v>0</v>
       </c>
-      <c r="W235" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:37" s="7" customFormat="1">
+      <c r="W235" s="44">
+        <v>0</v>
+      </c>
+      <c r="X235" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:38" s="7" customFormat="1">
       <c r="A236" s="50">
         <v>93530121</v>
       </c>
@@ -21728,8 +22457,8 @@
       <c r="Q236" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R236" s="44">
-        <v>0</v>
+      <c r="R236" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S236" s="44">
         <v>0</v>
@@ -21743,11 +22472,14 @@
       <c r="V236" s="44">
         <v>0</v>
       </c>
-      <c r="W236" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:37" s="7" customFormat="1">
+      <c r="W236" s="44">
+        <v>0</v>
+      </c>
+      <c r="X236" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:38" s="7" customFormat="1">
       <c r="A237" s="50">
         <v>93530122</v>
       </c>
@@ -21796,8 +22528,8 @@
       <c r="Q237" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R237" s="44">
-        <v>0</v>
+      <c r="R237" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S237" s="44">
         <v>0</v>
@@ -21811,11 +22543,14 @@
       <c r="V237" s="44">
         <v>0</v>
       </c>
-      <c r="W237" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:37" s="7" customFormat="1">
+      <c r="W237" s="44">
+        <v>0</v>
+      </c>
+      <c r="X237" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:38" s="7" customFormat="1">
       <c r="A238" s="50">
         <v>93530123</v>
       </c>
@@ -21865,8 +22600,8 @@
       <c r="Q238" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R238" s="44">
-        <v>0</v>
+      <c r="R238" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S238" s="44">
         <v>0</v>
@@ -21880,11 +22615,14 @@
       <c r="V238" s="44">
         <v>0</v>
       </c>
-      <c r="W238" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:37" s="7" customFormat="1">
+      <c r="W238" s="44">
+        <v>0</v>
+      </c>
+      <c r="X238" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:38" s="7" customFormat="1">
       <c r="A239" s="49">
         <v>94120117</v>
       </c>
@@ -21934,8 +22672,8 @@
       <c r="Q239" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R239" s="44">
-        <v>0</v>
+      <c r="R239" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S239" s="44">
         <v>0</v>
@@ -21949,11 +22687,14 @@
       <c r="V239" s="44">
         <v>0</v>
       </c>
-      <c r="W239" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:37" s="7" customFormat="1">
+      <c r="W239" s="44">
+        <v>0</v>
+      </c>
+      <c r="X239" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:38" s="7" customFormat="1">
       <c r="A240" s="50">
         <v>94130115</v>
       </c>
@@ -22003,8 +22744,8 @@
       <c r="Q240" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R240" s="44">
-        <v>0</v>
+      <c r="R240" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S240" s="44">
         <v>0</v>
@@ -22018,12 +22759,15 @@
       <c r="V240" s="44">
         <v>0</v>
       </c>
-      <c r="W240" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK240" s="44"/>
-    </row>
-    <row r="241" spans="1:37" s="7" customFormat="1">
+      <c r="W240" s="44">
+        <v>0</v>
+      </c>
+      <c r="X240" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL240" s="44"/>
+    </row>
+    <row r="241" spans="1:38" s="7" customFormat="1">
       <c r="A241" s="48">
         <v>94130116</v>
       </c>
@@ -22073,8 +22817,8 @@
       <c r="Q241" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R241" s="44">
-        <v>0</v>
+      <c r="R241" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S241" s="44">
         <v>0</v>
@@ -22088,12 +22832,15 @@
       <c r="V241" s="44">
         <v>0</v>
       </c>
-      <c r="W241" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK241" s="44"/>
-    </row>
-    <row r="242" spans="1:37" s="7" customFormat="1">
+      <c r="W241" s="44">
+        <v>0</v>
+      </c>
+      <c r="X241" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL241" s="44"/>
+    </row>
+    <row r="242" spans="1:38" s="7" customFormat="1">
       <c r="A242" s="50">
         <v>94230403</v>
       </c>
@@ -22143,8 +22890,8 @@
       <c r="Q242" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R242" s="44">
-        <v>0</v>
+      <c r="R242" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S242" s="44">
         <v>0</v>
@@ -22158,12 +22905,15 @@
       <c r="V242" s="44">
         <v>0</v>
       </c>
-      <c r="W242" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK242" s="6"/>
-    </row>
-    <row r="243" spans="1:37" s="7" customFormat="1">
+      <c r="W242" s="44">
+        <v>0</v>
+      </c>
+      <c r="X242" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL242" s="6"/>
+    </row>
+    <row r="243" spans="1:38" s="7" customFormat="1">
       <c r="A243" s="50">
         <v>94430116</v>
       </c>
@@ -22213,8 +22963,8 @@
       <c r="Q243" s="40" t="s">
         <v>969</v>
       </c>
-      <c r="R243" s="44">
-        <v>0</v>
+      <c r="R243" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S243" s="44">
         <v>0</v>
@@ -22228,17 +22978,20 @@
       <c r="V243" s="44">
         <v>0</v>
       </c>
-      <c r="W243" s="6">
-        <v>0</v>
-      </c>
-      <c r="X243" s="44"/>
+      <c r="W243" s="44">
+        <v>0</v>
+      </c>
+      <c r="X243" s="6">
+        <v>0</v>
+      </c>
       <c r="Y243" s="44"/>
       <c r="Z243" s="44"/>
       <c r="AA243" s="44"/>
       <c r="AB243" s="44"/>
       <c r="AC243" s="44"/>
-    </row>
-    <row r="244" spans="1:37" s="7" customFormat="1">
+      <c r="AD243" s="44"/>
+    </row>
+    <row r="244" spans="1:38" s="7" customFormat="1">
       <c r="A244" s="50">
         <v>94430117</v>
       </c>
@@ -22288,8 +23041,8 @@
       <c r="Q244" s="40" t="s">
         <v>969</v>
       </c>
-      <c r="R244" s="44">
-        <v>0</v>
+      <c r="R244" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S244" s="44">
         <v>0</v>
@@ -22303,17 +23056,20 @@
       <c r="V244" s="44">
         <v>0</v>
       </c>
-      <c r="W244" s="6">
-        <v>0</v>
-      </c>
-      <c r="X244" s="44"/>
+      <c r="W244" s="44">
+        <v>0</v>
+      </c>
+      <c r="X244" s="6">
+        <v>0</v>
+      </c>
       <c r="Y244" s="44"/>
       <c r="Z244" s="44"/>
       <c r="AA244" s="44"/>
       <c r="AB244" s="44"/>
       <c r="AC244" s="44"/>
-    </row>
-    <row r="245" spans="1:37" s="7" customFormat="1">
+      <c r="AD244" s="44"/>
+    </row>
+    <row r="245" spans="1:38" s="7" customFormat="1">
       <c r="A245" s="50">
         <v>94530116</v>
       </c>
@@ -22363,8 +23119,8 @@
       <c r="Q245" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R245" s="44">
-        <v>0</v>
+      <c r="R245" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S245" s="44">
         <v>0</v>
@@ -22378,12 +23134,15 @@
       <c r="V245" s="44">
         <v>0</v>
       </c>
-      <c r="W245" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK245" s="44"/>
-    </row>
-    <row r="246" spans="1:37" s="7" customFormat="1">
+      <c r="W245" s="44">
+        <v>0</v>
+      </c>
+      <c r="X245" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL245" s="44"/>
+    </row>
+    <row r="246" spans="1:38" s="7" customFormat="1">
       <c r="A246" s="50">
         <v>94530117</v>
       </c>
@@ -22433,8 +23192,8 @@
       <c r="Q246" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R246" s="44">
-        <v>0</v>
+      <c r="R246" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S246" s="44">
         <v>0</v>
@@ -22448,12 +23207,15 @@
       <c r="V246" s="44">
         <v>0</v>
       </c>
-      <c r="W246" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK246" s="44"/>
-    </row>
-    <row r="247" spans="1:37" s="7" customFormat="1">
+      <c r="W246" s="44">
+        <v>0</v>
+      </c>
+      <c r="X246" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL246" s="44"/>
+    </row>
+    <row r="247" spans="1:38" s="7" customFormat="1">
       <c r="A247" s="48">
         <v>910199999</v>
       </c>
@@ -22500,8 +23262,8 @@
       <c r="Q247" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="R247" s="7">
-        <v>0</v>
+      <c r="R247" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S247" s="7">
         <v>0</v>
@@ -22515,12 +23277,15 @@
       <c r="V247" s="7">
         <v>0</v>
       </c>
-      <c r="W247" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK247" s="6"/>
-    </row>
-    <row r="248" spans="1:37" s="7" customFormat="1">
+      <c r="W247" s="7">
+        <v>0</v>
+      </c>
+      <c r="X247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL247" s="6"/>
+    </row>
+    <row r="248" spans="1:38" s="7" customFormat="1">
       <c r="A248" s="50">
         <v>920199999</v>
       </c>
@@ -22566,8 +23331,8 @@
       <c r="Q248" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R248" s="7">
-        <v>0</v>
+      <c r="R248" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S248" s="7">
         <v>0</v>
@@ -22581,12 +23346,15 @@
       <c r="V248" s="7">
         <v>0</v>
       </c>
-      <c r="W248" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK248" s="6"/>
-    </row>
-    <row r="249" spans="1:37" s="7" customFormat="1">
+      <c r="W248" s="7">
+        <v>0</v>
+      </c>
+      <c r="X248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL248" s="6"/>
+    </row>
+    <row r="249" spans="1:38" s="7" customFormat="1">
       <c r="A249" s="50">
         <v>920299999</v>
       </c>
@@ -22632,8 +23400,8 @@
       <c r="Q249" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R249" s="7">
-        <v>0</v>
+      <c r="R249" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S249" s="7">
         <v>0</v>
@@ -22647,12 +23415,15 @@
       <c r="V249" s="7">
         <v>0</v>
       </c>
-      <c r="W249" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK249" s="6"/>
-    </row>
-    <row r="250" spans="1:37" s="7" customFormat="1">
+      <c r="W249" s="7">
+        <v>0</v>
+      </c>
+      <c r="X249" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL249" s="6"/>
+    </row>
+    <row r="250" spans="1:38" s="7" customFormat="1">
       <c r="A250" s="50">
         <v>920399999</v>
       </c>
@@ -22698,8 +23469,8 @@
       <c r="Q250" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R250" s="7">
-        <v>0</v>
+      <c r="R250" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S250" s="7">
         <v>0</v>
@@ -22713,12 +23484,15 @@
       <c r="V250" s="7">
         <v>0</v>
       </c>
-      <c r="W250" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK250" s="6"/>
-    </row>
-    <row r="251" spans="1:37" s="7" customFormat="1">
+      <c r="W250" s="7">
+        <v>0</v>
+      </c>
+      <c r="X250" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL250" s="6"/>
+    </row>
+    <row r="251" spans="1:38" s="7" customFormat="1">
       <c r="A251" s="50">
         <v>920499999</v>
       </c>
@@ -22764,8 +23538,8 @@
       <c r="Q251" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R251" s="7">
-        <v>0</v>
+      <c r="R251" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S251" s="7">
         <v>0</v>
@@ -22779,12 +23553,15 @@
       <c r="V251" s="7">
         <v>0</v>
       </c>
-      <c r="W251" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK251" s="6"/>
-    </row>
-    <row r="252" spans="1:37" s="6" customFormat="1">
+      <c r="W251" s="7">
+        <v>0</v>
+      </c>
+      <c r="X251" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL251" s="6"/>
+    </row>
+    <row r="252" spans="1:38" s="6" customFormat="1">
       <c r="A252" s="50">
         <v>920599999</v>
       </c>
@@ -22832,8 +23609,8 @@
       <c r="Q252" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R252" s="7">
-        <v>0</v>
+      <c r="R252" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S252" s="7">
         <v>0</v>
@@ -22847,17 +23624,20 @@
       <c r="V252" s="7">
         <v>0</v>
       </c>
-      <c r="W252" s="6">
-        <v>0</v>
-      </c>
-      <c r="X252" s="7"/>
+      <c r="W252" s="7">
+        <v>0</v>
+      </c>
+      <c r="X252" s="6">
+        <v>0</v>
+      </c>
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
       <c r="AA252" s="7"/>
       <c r="AB252" s="7"/>
       <c r="AC252" s="7"/>
-    </row>
-    <row r="253" spans="1:37" s="7" customFormat="1">
+      <c r="AD252" s="7"/>
+    </row>
+    <row r="253" spans="1:38" s="7" customFormat="1">
       <c r="A253" s="50">
         <v>920699999</v>
       </c>
@@ -22903,8 +23683,8 @@
       <c r="Q253" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R253" s="7">
-        <v>0</v>
+      <c r="R253" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S253" s="7">
         <v>0</v>
@@ -22918,10 +23698,12 @@
       <c r="V253" s="7">
         <v>0</v>
       </c>
-      <c r="W253" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD253" s="6"/>
+      <c r="W253" s="7">
+        <v>0</v>
+      </c>
+      <c r="X253" s="6">
+        <v>0</v>
+      </c>
       <c r="AE253" s="6"/>
       <c r="AF253" s="6"/>
       <c r="AG253" s="6"/>
@@ -22929,8 +23711,9 @@
       <c r="AI253" s="6"/>
       <c r="AJ253" s="6"/>
       <c r="AK253" s="6"/>
-    </row>
-    <row r="254" spans="1:37" s="7" customFormat="1">
+      <c r="AL253" s="6"/>
+    </row>
+    <row r="254" spans="1:38" s="7" customFormat="1">
       <c r="A254" s="50">
         <v>920799999</v>
       </c>
@@ -22976,8 +23759,8 @@
       <c r="Q254" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R254" s="7">
-        <v>0</v>
+      <c r="R254" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S254" s="7">
         <v>0</v>
@@ -22991,10 +23774,12 @@
       <c r="V254" s="7">
         <v>0</v>
       </c>
-      <c r="W254" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD254" s="6"/>
+      <c r="W254" s="7">
+        <v>0</v>
+      </c>
+      <c r="X254" s="6">
+        <v>0</v>
+      </c>
       <c r="AE254" s="6"/>
       <c r="AF254" s="6"/>
       <c r="AG254" s="6"/>
@@ -23002,8 +23787,9 @@
       <c r="AI254" s="6"/>
       <c r="AJ254" s="6"/>
       <c r="AK254" s="6"/>
-    </row>
-    <row r="255" spans="1:37" s="44" customFormat="1">
+      <c r="AL254" s="6"/>
+    </row>
+    <row r="255" spans="1:38" s="44" customFormat="1">
       <c r="A255" s="50">
         <v>920899999</v>
       </c>
@@ -23051,8 +23837,8 @@
       <c r="Q255" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R255" s="7">
-        <v>0</v>
+      <c r="R255" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S255" s="7">
         <v>0</v>
@@ -23066,18 +23852,21 @@
       <c r="V255" s="7">
         <v>0</v>
       </c>
-      <c r="W255" s="6">
-        <v>0</v>
-      </c>
-      <c r="X255" s="7"/>
+      <c r="W255" s="7">
+        <v>0</v>
+      </c>
+      <c r="X255" s="6">
+        <v>0</v>
+      </c>
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
       <c r="AA255" s="7"/>
       <c r="AB255" s="7"/>
       <c r="AC255" s="7"/>
-      <c r="AK255" s="6"/>
-    </row>
-    <row r="256" spans="1:37" s="44" customFormat="1">
+      <c r="AD255" s="7"/>
+      <c r="AL255" s="6"/>
+    </row>
+    <row r="256" spans="1:38" s="44" customFormat="1">
       <c r="A256" s="50">
         <v>920999999</v>
       </c>
@@ -23125,8 +23914,8 @@
       <c r="Q256" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R256" s="7">
-        <v>0</v>
+      <c r="R256" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S256" s="7">
         <v>0</v>
@@ -23140,18 +23929,21 @@
       <c r="V256" s="7">
         <v>0</v>
       </c>
-      <c r="W256" s="6">
-        <v>0</v>
-      </c>
-      <c r="X256" s="7"/>
+      <c r="W256" s="7">
+        <v>0</v>
+      </c>
+      <c r="X256" s="6">
+        <v>0</v>
+      </c>
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
       <c r="AA256" s="7"/>
       <c r="AB256" s="7"/>
       <c r="AC256" s="7"/>
-      <c r="AK256" s="6"/>
-    </row>
-    <row r="257" spans="1:37" s="44" customFormat="1">
+      <c r="AD256" s="7"/>
+      <c r="AL256" s="6"/>
+    </row>
+    <row r="257" spans="1:38" s="44" customFormat="1">
       <c r="A257" s="50">
         <v>921099999</v>
       </c>
@@ -23199,8 +23991,8 @@
       <c r="Q257" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R257" s="7">
-        <v>0</v>
+      <c r="R257" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S257" s="7">
         <v>0</v>
@@ -23214,18 +24006,21 @@
       <c r="V257" s="7">
         <v>0</v>
       </c>
-      <c r="W257" s="6">
-        <v>0</v>
-      </c>
-      <c r="X257" s="7"/>
+      <c r="W257" s="7">
+        <v>0</v>
+      </c>
+      <c r="X257" s="6">
+        <v>0</v>
+      </c>
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
       <c r="AA257" s="7"/>
       <c r="AB257" s="7"/>
       <c r="AC257" s="7"/>
-      <c r="AK257" s="6"/>
-    </row>
-    <row r="258" spans="1:37" s="44" customFormat="1">
+      <c r="AD257" s="7"/>
+      <c r="AL257" s="6"/>
+    </row>
+    <row r="258" spans="1:38" s="44" customFormat="1">
       <c r="A258" s="50">
         <v>921199999</v>
       </c>
@@ -23273,8 +24068,8 @@
       <c r="Q258" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R258" s="7">
-        <v>0</v>
+      <c r="R258" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S258" s="7">
         <v>0</v>
@@ -23288,18 +24083,21 @@
       <c r="V258" s="7">
         <v>0</v>
       </c>
-      <c r="W258" s="6">
-        <v>0</v>
-      </c>
-      <c r="X258" s="7"/>
+      <c r="W258" s="7">
+        <v>0</v>
+      </c>
+      <c r="X258" s="6">
+        <v>0</v>
+      </c>
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
       <c r="AA258" s="7"/>
       <c r="AB258" s="7"/>
       <c r="AC258" s="7"/>
-      <c r="AK258" s="6"/>
-    </row>
-    <row r="259" spans="1:37" s="44" customFormat="1">
+      <c r="AD258" s="7"/>
+      <c r="AL258" s="6"/>
+    </row>
+    <row r="259" spans="1:38" s="44" customFormat="1">
       <c r="A259" s="50">
         <v>921299999</v>
       </c>
@@ -23347,8 +24145,8 @@
       <c r="Q259" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R259" s="7">
-        <v>0</v>
+      <c r="R259" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S259" s="7">
         <v>0</v>
@@ -23362,18 +24160,21 @@
       <c r="V259" s="7">
         <v>0</v>
       </c>
-      <c r="W259" s="6">
-        <v>0</v>
-      </c>
-      <c r="X259" s="7"/>
+      <c r="W259" s="7">
+        <v>0</v>
+      </c>
+      <c r="X259" s="6">
+        <v>0</v>
+      </c>
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
       <c r="AA259" s="7"/>
       <c r="AB259" s="7"/>
       <c r="AC259" s="7"/>
-      <c r="AK259" s="6"/>
-    </row>
-    <row r="260" spans="1:37" s="44" customFormat="1">
+      <c r="AD259" s="7"/>
+      <c r="AL259" s="6"/>
+    </row>
+    <row r="260" spans="1:38" s="44" customFormat="1">
       <c r="A260" s="50">
         <v>921399999</v>
       </c>
@@ -23421,8 +24222,8 @@
       <c r="Q260" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R260" s="7">
-        <v>0</v>
+      <c r="R260" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S260" s="7">
         <v>0</v>
@@ -23436,18 +24237,21 @@
       <c r="V260" s="7">
         <v>0</v>
       </c>
-      <c r="W260" s="6">
-        <v>0</v>
-      </c>
-      <c r="X260" s="7"/>
+      <c r="W260" s="7">
+        <v>0</v>
+      </c>
+      <c r="X260" s="6">
+        <v>0</v>
+      </c>
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
       <c r="AA260" s="7"/>
       <c r="AB260" s="7"/>
       <c r="AC260" s="7"/>
-      <c r="AK260" s="7"/>
-    </row>
-    <row r="261" spans="1:37" s="44" customFormat="1">
+      <c r="AD260" s="7"/>
+      <c r="AL260" s="7"/>
+    </row>
+    <row r="261" spans="1:38" s="44" customFormat="1">
       <c r="A261" s="50">
         <v>921499999</v>
       </c>
@@ -23495,8 +24299,8 @@
       <c r="Q261" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R261" s="7">
-        <v>0</v>
+      <c r="R261" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S261" s="7">
         <v>0</v>
@@ -23510,18 +24314,21 @@
       <c r="V261" s="7">
         <v>0</v>
       </c>
-      <c r="W261" s="6">
-        <v>0</v>
-      </c>
-      <c r="X261" s="7"/>
+      <c r="W261" s="7">
+        <v>0</v>
+      </c>
+      <c r="X261" s="6">
+        <v>0</v>
+      </c>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
       <c r="AA261" s="7"/>
       <c r="AB261" s="7"/>
       <c r="AC261" s="7"/>
-      <c r="AK261" s="7"/>
-    </row>
-    <row r="262" spans="1:37" s="44" customFormat="1">
+      <c r="AD261" s="7"/>
+      <c r="AL261" s="7"/>
+    </row>
+    <row r="262" spans="1:38" s="44" customFormat="1">
       <c r="A262" s="50">
         <v>921599999</v>
       </c>
@@ -23569,8 +24376,8 @@
       <c r="Q262" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="R262" s="7">
-        <v>0</v>
+      <c r="R262" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S262" s="7">
         <v>0</v>
@@ -23584,18 +24391,21 @@
       <c r="V262" s="7">
         <v>0</v>
       </c>
-      <c r="W262" s="6">
-        <v>0</v>
-      </c>
-      <c r="X262" s="7"/>
+      <c r="W262" s="7">
+        <v>0</v>
+      </c>
+      <c r="X262" s="6">
+        <v>0</v>
+      </c>
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
       <c r="AA262" s="7"/>
       <c r="AB262" s="7"/>
       <c r="AC262" s="7"/>
-      <c r="AK262" s="7"/>
-    </row>
-    <row r="263" spans="1:37" s="44" customFormat="1">
+      <c r="AD262" s="7"/>
+      <c r="AL262" s="7"/>
+    </row>
+    <row r="263" spans="1:38" s="44" customFormat="1">
       <c r="A263" s="50">
         <v>930199999</v>
       </c>
@@ -23643,8 +24453,8 @@
       <c r="Q263" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="R263" s="7">
-        <v>0</v>
+      <c r="R263" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S263" s="7">
         <v>0</v>
@@ -23658,12 +24468,15 @@
       <c r="V263" s="7">
         <v>0</v>
       </c>
-      <c r="W263" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK263" s="13"/>
-    </row>
-    <row r="264" spans="1:37" s="44" customFormat="1">
+      <c r="W263" s="7">
+        <v>0</v>
+      </c>
+      <c r="X263" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL263" s="13"/>
+    </row>
+    <row r="264" spans="1:38" s="44" customFormat="1">
       <c r="A264" s="50">
         <v>940199999</v>
       </c>
@@ -23711,8 +24524,8 @@
       <c r="Q264" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R264" s="7">
-        <v>0</v>
+      <c r="R264" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S264" s="7">
         <v>0</v>
@@ -23726,18 +24539,21 @@
       <c r="V264" s="7">
         <v>0</v>
       </c>
-      <c r="W264" s="6">
-        <v>0</v>
-      </c>
-      <c r="X264" s="7"/>
+      <c r="W264" s="7">
+        <v>0</v>
+      </c>
+      <c r="X264" s="6">
+        <v>0</v>
+      </c>
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
       <c r="AA264" s="7"/>
       <c r="AB264" s="7"/>
       <c r="AC264" s="7"/>
-      <c r="AK264" s="13"/>
-    </row>
-    <row r="265" spans="1:37" s="44" customFormat="1">
+      <c r="AD264" s="7"/>
+      <c r="AL264" s="13"/>
+    </row>
+    <row r="265" spans="1:38" s="44" customFormat="1">
       <c r="A265" s="50">
         <v>940199999</v>
       </c>
@@ -23785,8 +24601,8 @@
       <c r="Q265" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R265" s="7">
-        <v>0</v>
+      <c r="R265" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S265" s="7">
         <v>0</v>
@@ -23800,18 +24616,21 @@
       <c r="V265" s="7">
         <v>0</v>
       </c>
-      <c r="W265" s="6">
-        <v>0</v>
-      </c>
-      <c r="X265" s="7"/>
+      <c r="W265" s="7">
+        <v>0</v>
+      </c>
+      <c r="X265" s="6">
+        <v>0</v>
+      </c>
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
       <c r="AA265" s="7"/>
       <c r="AB265" s="7"/>
       <c r="AC265" s="7"/>
-      <c r="AK265" s="13"/>
-    </row>
-    <row r="266" spans="1:37" s="44" customFormat="1">
+      <c r="AD265" s="7"/>
+      <c r="AL265" s="13"/>
+    </row>
+    <row r="266" spans="1:38" s="44" customFormat="1">
       <c r="A266" s="50">
         <v>940199999</v>
       </c>
@@ -23859,8 +24678,8 @@
       <c r="Q266" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="R266" s="7">
-        <v>0</v>
+      <c r="R266" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S266" s="7">
         <v>0</v>
@@ -23874,18 +24693,21 @@
       <c r="V266" s="7">
         <v>0</v>
       </c>
-      <c r="W266" s="6">
-        <v>0</v>
-      </c>
-      <c r="X266" s="7"/>
+      <c r="W266" s="7">
+        <v>0</v>
+      </c>
+      <c r="X266" s="6">
+        <v>0</v>
+      </c>
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
       <c r="AA266" s="7"/>
       <c r="AB266" s="7"/>
       <c r="AC266" s="7"/>
-      <c r="AK266" s="6"/>
-    </row>
-    <row r="267" spans="1:37" s="44" customFormat="1">
+      <c r="AD266" s="7"/>
+      <c r="AL266" s="6"/>
+    </row>
+    <row r="267" spans="1:38" s="44" customFormat="1">
       <c r="A267" s="50">
         <v>940199999</v>
       </c>
@@ -23933,8 +24755,8 @@
       <c r="Q267" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="R267" s="7">
-        <v>0</v>
+      <c r="R267" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S267" s="7">
         <v>0</v>
@@ -23948,18 +24770,21 @@
       <c r="V267" s="7">
         <v>0</v>
       </c>
-      <c r="W267" s="6">
-        <v>0</v>
-      </c>
-      <c r="X267" s="7"/>
+      <c r="W267" s="7">
+        <v>0</v>
+      </c>
+      <c r="X267" s="6">
+        <v>0</v>
+      </c>
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
       <c r="AA267" s="7"/>
       <c r="AB267" s="7"/>
       <c r="AC267" s="7"/>
-      <c r="AK267" s="6"/>
-    </row>
-    <row r="268" spans="1:37" s="44" customFormat="1">
+      <c r="AD267" s="7"/>
+      <c r="AL267" s="6"/>
+    </row>
+    <row r="268" spans="1:38" s="44" customFormat="1">
       <c r="A268" s="50">
         <v>940199999</v>
       </c>
@@ -24007,8 +24832,8 @@
       <c r="Q268" s="40" t="s">
         <v>1270</v>
       </c>
-      <c r="R268" s="7">
-        <v>0</v>
+      <c r="R268" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S268" s="7">
         <v>0</v>
@@ -24022,18 +24847,21 @@
       <c r="V268" s="7">
         <v>0</v>
       </c>
-      <c r="W268" s="6">
-        <v>0</v>
-      </c>
-      <c r="X268" s="7"/>
+      <c r="W268" s="7">
+        <v>0</v>
+      </c>
+      <c r="X268" s="6">
+        <v>0</v>
+      </c>
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
       <c r="AA268" s="7"/>
       <c r="AB268" s="7"/>
       <c r="AC268" s="7"/>
-      <c r="AK268" s="13"/>
-    </row>
-    <row r="269" spans="1:37" s="44" customFormat="1">
+      <c r="AD268" s="7"/>
+      <c r="AL268" s="13"/>
+    </row>
+    <row r="269" spans="1:38" s="44" customFormat="1">
       <c r="A269" s="50">
         <v>940199999</v>
       </c>
@@ -24081,8 +24909,8 @@
       <c r="Q269" s="40" t="s">
         <v>1270</v>
       </c>
-      <c r="R269" s="7">
-        <v>0</v>
+      <c r="R269" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="S269" s="7">
         <v>0</v>
@@ -24096,16 +24924,19 @@
       <c r="V269" s="7">
         <v>0</v>
       </c>
-      <c r="W269" s="6">
-        <v>0</v>
-      </c>
-      <c r="X269" s="7"/>
+      <c r="W269" s="7">
+        <v>0</v>
+      </c>
+      <c r="X269" s="6">
+        <v>0</v>
+      </c>
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
       <c r="AA269" s="7"/>
       <c r="AB269" s="7"/>
       <c r="AC269" s="7"/>
-      <c r="AK269" s="13"/>
+      <c r="AD269" s="7"/>
+      <c r="AL269" s="13"/>
     </row>
     <row r="273" spans="6:7">
       <c r="F273" s="55"/>
@@ -24117,7 +24948,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AK1">
+  <autoFilter ref="A1:AL1">
     <sortState ref="A2:AK269">
       <sortCondition ref="A1"/>
     </sortState>
@@ -24131,10 +24962,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
@@ -24282,60 +25113,68 @@
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>644</v>
+        <v>1343</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>649</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>1307</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="26"/>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
       <c r="A25" s="26"/>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
       <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A27" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1348">
   <si>
     <t>id</t>
   </si>
@@ -4090,19 +4090,23 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Para 2021 este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario presencial de implantación del panel del segundo semestre de 2021.</t>
-  </si>
-  <si>
-    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario de implantación de modalidad panel del segundo semestre de 2021.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. A partir de 2020 cambia el modo de relevar cobertura de salud. Antes de esta fecha se les consultaba a los/as encuestados por cobertura en cada uno de los prestadores posibles. Durante el 2020 y el primer semestre de 2021, se relevó únicamente el principal prestador de salud. En el segundo semestre de 2021 se relevó el prestador principal y secundario, hecho que habilita reconstruir un indicador más próximo al calculado antes de 2019. Para 2021, este indicador se calcula únicamente a partir de la implantación de modalidad panel del segundo semestre de 2021. Dados los cambios metodológicos en la formulación de las preguntas,no se incopora a la serie el año 2020 y tampoco se considera la información del primer semestre de 2021. </t>
-  </si>
-  <si>
     <t>Observaciones del indicador</t>
   </si>
   <si>
-    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre, el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
+    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
+Para 2020, este indicador se construye con la encuesta presencial hasta marzo de 2020 y, posteriormente, con la encuesta telefónica panel. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021.</t>
+  </si>
+  <si>
+    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
+Para 2020, este indicador se construye con la encuesta presencial hasta marzo de 2020 y, posteriormente, con la encuesta telefónica panel. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre, el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
+A partir de 2020 cambia el modo de relevar cobertura de salud. Antes de esta fecha se les consultaba a los/as encuestados por cobertura en cada uno de los prestadores posibles. Durante el 2020 y el primer semestre de 2021, se relevó únicamente el principal prestador de salud. En el segundo semestre de 2021 se relevó el prestador principal y secundario, hecho que habilita reconstruir un indicador más próximo al calculado antes de 2019. 
+Para 2021, este indicador se calcula únicamente a partir de la implantación de modalidad panel del segundo semestre de 2021. Dados los cambios metodológicos en la formulación de las preguntas, no se incorpora a la serie el año 2020 y tampoco se considera la información del primer semestre de 2021. </t>
   </si>
 </sst>
 </file>
@@ -4366,9 +4370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
@@ -4689,10 +4691,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="R1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="R143" sqref="R143:R155"/>
+      <selection pane="bottomLeft" activeCell="R143" sqref="R143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4778,7 +4780,7 @@
       <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="56" t="s">
         <v>1343</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -7297,8 +7299,8 @@
       <c r="Q35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>1342</v>
+      <c r="R35" s="54" t="s">
+        <v>1345</v>
       </c>
       <c r="S35" s="6">
         <v>1</v>
@@ -9430,8 +9432,8 @@
       <c r="Q63" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R63" s="6" t="s">
-        <v>1342</v>
+      <c r="R63" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S63" s="6">
         <v>1</v>
@@ -9502,8 +9504,8 @@
       <c r="Q64" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R64" s="6" t="s">
-        <v>1342</v>
+      <c r="R64" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S64" s="6">
         <v>0</v>
@@ -9574,8 +9576,8 @@
       <c r="Q65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="6" t="s">
-        <v>1342</v>
+      <c r="R65" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S65" s="6">
         <v>0</v>
@@ -9645,8 +9647,8 @@
       <c r="Q66" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R66" s="6" t="s">
-        <v>1342</v>
+      <c r="R66" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S66" s="6">
         <v>0</v>
@@ -9716,8 +9718,8 @@
       <c r="Q67" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R67" s="6" t="s">
-        <v>1342</v>
+      <c r="R67" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S67" s="6">
         <v>1</v>
@@ -9787,8 +9789,8 @@
       <c r="Q68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="56" t="s">
-        <v>1344</v>
+      <c r="R68" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -9859,8 +9861,8 @@
       <c r="Q69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="6" t="s">
-        <v>1342</v>
+      <c r="R69" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S69" s="6">
         <v>1</v>
@@ -9932,8 +9934,8 @@
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="56" t="s">
-        <v>1345</v>
+      <c r="R70" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S70" s="6">
         <v>0</v>
@@ -10018,8 +10020,8 @@
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R71" s="56" t="s">
-        <v>1345</v>
+      <c r="R71" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S71" s="6">
         <v>0</v>
@@ -10104,8 +10106,8 @@
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R72" s="56" t="s">
-        <v>1345</v>
+      <c r="R72" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S72" s="6">
         <v>0</v>
@@ -10189,8 +10191,8 @@
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R73" s="56" t="s">
-        <v>1345</v>
+      <c r="R73" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S73" s="6">
         <v>0</v>
@@ -10275,8 +10277,8 @@
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R74" s="56" t="s">
-        <v>1345</v>
+      <c r="R74" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S74" s="6">
         <v>0</v>
@@ -10361,8 +10363,8 @@
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="56" t="s">
-        <v>1345</v>
+      <c r="R75" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S75" s="6">
         <v>1</v>
@@ -10447,8 +10449,8 @@
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R76" s="56" t="s">
-        <v>1345</v>
+      <c r="R76" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S76" s="6">
         <v>0</v>
@@ -10533,8 +10535,8 @@
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R77" s="56" t="s">
-        <v>1345</v>
+      <c r="R77" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S77" s="6">
         <v>0</v>
@@ -10618,8 +10620,8 @@
       <c r="Q78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R78" s="6" t="s">
-        <v>1342</v>
+      <c r="R78" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S78" s="6">
         <v>0</v>
@@ -10690,8 +10692,8 @@
       <c r="Q79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R79" s="6" t="s">
-        <v>1342</v>
+      <c r="R79" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S79" s="6">
         <v>0</v>
@@ -10762,8 +10764,8 @@
       <c r="Q80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R80" s="6" t="s">
-        <v>1342</v>
+      <c r="R80" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S80" s="6">
         <v>0</v>
@@ -10834,8 +10836,8 @@
       <c r="Q81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R81" s="6" t="s">
-        <v>1342</v>
+      <c r="R81" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
@@ -10906,8 +10908,8 @@
       <c r="Q82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R82" s="6" t="s">
-        <v>1342</v>
+      <c r="R82" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S82" s="6">
         <v>1</v>
@@ -10978,8 +10980,8 @@
       <c r="Q83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R83" s="6" t="s">
-        <v>1342</v>
+      <c r="R83" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -11051,8 +11053,8 @@
       <c r="Q84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R84" s="6" t="s">
-        <v>1342</v>
+      <c r="R84" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S84" s="6">
         <v>0</v>
@@ -11136,8 +11138,8 @@
       <c r="Q85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R85" s="6" t="s">
-        <v>1342</v>
+      <c r="R85" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S85" s="6">
         <v>0</v>
@@ -11220,8 +11222,8 @@
       <c r="Q86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R86" s="6" t="s">
-        <v>1342</v>
+      <c r="R86" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S86" s="6">
         <v>0</v>
@@ -11293,8 +11295,8 @@
       <c r="Q87" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R87" s="6" t="s">
-        <v>1342</v>
+      <c r="R87" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S87" s="6">
         <v>0</v>
@@ -11377,8 +11379,8 @@
       <c r="Q88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="6" t="s">
-        <v>1342</v>
+      <c r="R88" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -11449,8 +11451,8 @@
       <c r="Q89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R89" s="6" t="s">
-        <v>1342</v>
+      <c r="R89" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S89" s="6">
         <v>0</v>
@@ -11522,8 +11524,8 @@
       <c r="Q90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R90" s="6" t="s">
-        <v>1342</v>
+      <c r="R90" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -12344,8 +12346,8 @@
       <c r="Q100" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R100" s="56" t="s">
-        <v>1346</v>
+      <c r="R100" s="54" t="s">
+        <v>1347</v>
       </c>
       <c r="S100" s="6">
         <v>1</v>
@@ -15792,8 +15794,8 @@
       <c r="Q143" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R143" s="6" t="s">
-        <v>1348</v>
+      <c r="R143" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S143" s="44">
         <v>0</v>
@@ -15861,8 +15863,8 @@
       <c r="Q144" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R144" s="6" t="s">
-        <v>1348</v>
+      <c r="R144" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S144" s="44">
         <v>0</v>
@@ -15930,8 +15932,8 @@
       <c r="Q145" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R145" s="6" t="s">
-        <v>1348</v>
+      <c r="R145" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S145" s="44">
         <v>0</v>
@@ -15999,8 +16001,8 @@
       <c r="Q146" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R146" s="6" t="s">
-        <v>1348</v>
+      <c r="R146" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S146" s="44">
         <v>0</v>
@@ -16067,8 +16069,8 @@
       <c r="Q147" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R147" s="6" t="s">
-        <v>1348</v>
+      <c r="R147" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S147" s="44">
         <v>0</v>
@@ -16138,8 +16140,8 @@
       <c r="Q148" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R148" s="6" t="s">
-        <v>1348</v>
+      <c r="R148" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S148" s="44">
         <v>0</v>
@@ -16206,8 +16208,8 @@
       <c r="Q149" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R149" s="6" t="s">
-        <v>1348</v>
+      <c r="R149" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S149" s="44">
         <v>0</v>
@@ -16274,8 +16276,8 @@
       <c r="Q150" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R150" s="6" t="s">
-        <v>1348</v>
+      <c r="R150" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S150" s="44">
         <v>0</v>
@@ -16342,8 +16344,8 @@
       <c r="Q151" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R151" s="6" t="s">
-        <v>1348</v>
+      <c r="R151" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S151" s="44">
         <v>0</v>
@@ -16413,8 +16415,8 @@
       <c r="Q152" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R152" s="6" t="s">
-        <v>1348</v>
+      <c r="R152" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S152" s="44">
         <v>0</v>
@@ -16484,8 +16486,8 @@
       <c r="Q153" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R153" s="6" t="s">
-        <v>1348</v>
+      <c r="R153" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S153" s="44">
         <v>0</v>
@@ -16552,8 +16554,8 @@
       <c r="Q154" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R154" s="6" t="s">
-        <v>1348</v>
+      <c r="R154" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S154" s="44">
         <v>0</v>
@@ -16623,8 +16625,8 @@
       <c r="Q155" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R155" s="6" t="s">
-        <v>1348</v>
+      <c r="R155" s="54" t="s">
+        <v>1346</v>
       </c>
       <c r="S155" s="54">
         <v>0</v>
@@ -25116,7 +25118,7 @@
         <v>1343</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -16,14 +16,14 @@
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AL$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1357">
   <si>
     <t>id</t>
   </si>
@@ -4098,15 +4098,73 @@
 Para 2020, este indicador se construye con la encuesta presencial hasta marzo de 2020 y, posteriormente, con la encuesta telefónica panel. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021.</t>
   </si>
   <si>
-    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
-En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
-Para 2020, este indicador se construye con la encuesta presencial hasta marzo de 2020 y, posteriormente, con la encuesta telefónica panel. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre, el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
 En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
 A partir de 2020 cambia el modo de relevar cobertura de salud. Antes de esta fecha se les consultaba a los/as encuestados por cobertura en cada uno de los prestadores posibles. Durante el 2020 y el primer semestre de 2021, se relevó únicamente el principal prestador de salud. En el segundo semestre de 2021 se relevó el prestador principal y secundario, hecho que habilita reconstruir un indicador más próximo al calculado antes de 2019. 
 Para 2021, este indicador se calcula únicamente a partir de la implantación de modalidad panel del segundo semestre de 2021. Dados los cambios metodológicos en la formulación de las preguntas, no se incorpora a la serie el año 2020 y tampoco se considera la información del primer semestre de 2021. </t>
+  </si>
+  <si>
+    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
+Los indicadores de trabajo y seguridad social del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario). Para el 2021, se calculan a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre de 2021 el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
+  </si>
+  <si>
+    <t>Los datos de 2016 corresponden al mes de octubre.
+Los datos de 2017 corresponden al promedio del tercer trimestre.
+Los datos de 2018 corresponden al promedio de marzo a diciembre.
+Los datos de 2019 corresponden al promedio de marzo a noviembre.
+Los datos de 2020 corresponden al mes de diciembre.
+Los datos de 2021 corresponden al mes de noviembre.</t>
+  </si>
+  <si>
+    <t>Los datos de 2016 corresponden al mes de noviembre.
+Los datos de 2017 corresponden al promedio de los meses de enero, agosto y diciembre.
+Los datos de 2021 corresponden al promedio de los meses de enero a noviembre.</t>
+  </si>
+  <si>
+    <t>Los datos de 2015 corresponden al promedio mayo-diciembre.</t>
+  </si>
+  <si>
+    <t>Los datos de 2010 corresponden a diciembre.
+Los datos de 2011 corresponden a diciembre.
+Los datos de 2012 corresponden a diciembre.
+Los datos de 2013 corresponden a diciembre.
+Los datos de 2014 corresponden a diciembre.
+Los datos de 2015 corresponden a diciembre.</t>
+  </si>
+  <si>
+    <t>Los datos de 2016 corresponden al promedio anual.
+Los datos de 2017 corresponden al promedio anual.
+Los datos de 2018 corresponden al promedio anual.
+Los datos de 2019 corresponden al promedio anual.
+Los datos de 2020 corresponden al promedio anual.
+Los datos de 2021 corresponden al promedio anual.</t>
+  </si>
+  <si>
+    <t>Los datos de 2015 corresponden al promedio mayo - diciembre.
+Para los años 2018 y 2019 desde el CPP se corrigieron las cifras para mejorar la comparabilidad bajo el concepto de plaza habilitada. La corrección refiere a las nuevas plazas de la PPP. En los informes 2018 y 2019 se utilizó la cifra total de lugares nuevos (1960), pero lo cierto es que se fue poblando muy lentamente en la medida en que la unidad se fue dotando gradualmente de personal para hacerla operativa. Se estima un poblamiento de 2/3 de las plazas habilitadas en cada mes, hasta junio de 2019. A partir de Julio de 2019 se toma la capacidad máxima 1860, más las 100 del Centro de Ingreso. El informe 2020 del CPP se hizo en base a la cifra 10.241 que era la revisión de las nuevas autoridades del ministerio de ese entonces. En el 2021 se hizo una nueva revisión que la corrige. Teniendo en cuenta que no hubo cierres ni nuevas plazas que justifiquen un cambio tan abrupto, una posible alternativa es estimar una cifra intermedia entre 2019 y 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las personas pueden tener actividades en más de un cupo. No hay datos de cantidad de personas con educación no formal.
+Los datos de 2017 corresponden al promedio del tercer trimestre.
+Los datos de 2018 corresponden al promedio de marzo a diciembre.
+Los datos de 2019 corresponden al promedio de marzo a noviembre.
+Los datos de 2020 corresponden al mes de diciembre.
+Los datos de 2021 corresponden al mes de noviembre.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesados sin condena incluye procesados bajo CPP 1980 (procesados) y bajo CPP 2017 (preventivas).
+Los datos de 2015 corresponden al promedio mayo a diciembre.
+El 2019 presentó numerosas anomalías (variaciones de un mes a otro) en los reportes mensuales.
+En relación al informe del CPP de 2020 se corrigió error enero-marzo de procesamiento del Ministerio del Interior de procesados en Soriano y Río Negro en Ene-Feb-Mar.
+</t>
+  </si>
+  <si>
+    <t>Procesados sin condena incluye procesados bajo CPP 1980 (procesados) y bajo CPP 2017 (preventivas).
+Los datos de 2015 corresponden al promedio mayo a diciembre.
+El 2019 presentó numerosas anomalías (variaciones de un mes a otro) en los reportes mensuales.
+En relación al informe del CPP de 2020 se corrigió error enero-marzo de procesamiento del Ministerio del Interior de procesados en Soriano y Río Negro en Ene-Feb-Mar.</t>
   </si>
 </sst>
 </file>
@@ -4223,7 +4281,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4358,9 +4416,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4371,6 +4426,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
@@ -4691,10 +4750,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="R1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="R143" sqref="R143"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4705,17 +4764,18 @@
     <col min="4" max="4" width="36.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="94.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="157.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="181.140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="59.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="57.85546875" style="13" customWidth="1"/>
-    <col min="15" max="15" width="130.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="230.140625" style="13" customWidth="1"/>
-    <col min="17" max="18" width="98.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="157.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="181.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="57.85546875" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="130.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="230.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="98.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="98.7109375" style="13" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
@@ -4780,7 +4840,7 @@
       <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="55" t="s">
         <v>1343</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -7299,7 +7359,7 @@
       <c r="Q35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="54" t="s">
+      <c r="R35" s="53" t="s">
         <v>1345</v>
       </c>
       <c r="S35" s="6">
@@ -9396,7 +9456,7 @@
       <c r="E63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="56" t="s">
         <v>728</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -9432,8 +9492,8 @@
       <c r="Q63" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R63" s="54" t="s">
-        <v>1346</v>
+      <c r="R63" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S63" s="6">
         <v>1</v>
@@ -9504,8 +9564,8 @@
       <c r="Q64" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R64" s="54" t="s">
-        <v>1346</v>
+      <c r="R64" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S64" s="6">
         <v>0</v>
@@ -9576,8 +9636,8 @@
       <c r="Q65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="54" t="s">
-        <v>1346</v>
+      <c r="R65" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S65" s="6">
         <v>0</v>
@@ -9647,8 +9707,8 @@
       <c r="Q66" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R66" s="54" t="s">
-        <v>1346</v>
+      <c r="R66" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S66" s="6">
         <v>0</v>
@@ -9718,8 +9778,8 @@
       <c r="Q67" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R67" s="54" t="s">
-        <v>1346</v>
+      <c r="R67" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S67" s="6">
         <v>1</v>
@@ -9789,8 +9849,8 @@
       <c r="Q68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="54" t="s">
-        <v>1346</v>
+      <c r="R68" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -9861,8 +9921,8 @@
       <c r="Q69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="54" t="s">
-        <v>1346</v>
+      <c r="R69" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S69" s="6">
         <v>1</v>
@@ -9934,8 +9994,8 @@
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="54" t="s">
-        <v>1346</v>
+      <c r="R70" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S70" s="6">
         <v>0</v>
@@ -10020,8 +10080,8 @@
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R71" s="54" t="s">
-        <v>1346</v>
+      <c r="R71" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S71" s="6">
         <v>0</v>
@@ -10106,8 +10166,8 @@
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R72" s="54" t="s">
-        <v>1346</v>
+      <c r="R72" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S72" s="6">
         <v>0</v>
@@ -10191,8 +10251,8 @@
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R73" s="54" t="s">
-        <v>1346</v>
+      <c r="R73" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S73" s="6">
         <v>0</v>
@@ -10277,8 +10337,8 @@
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R74" s="54" t="s">
-        <v>1346</v>
+      <c r="R74" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S74" s="6">
         <v>0</v>
@@ -10363,8 +10423,8 @@
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="54" t="s">
-        <v>1346</v>
+      <c r="R75" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S75" s="6">
         <v>1</v>
@@ -10449,8 +10509,8 @@
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R76" s="54" t="s">
-        <v>1346</v>
+      <c r="R76" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S76" s="6">
         <v>0</v>
@@ -10535,8 +10595,8 @@
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R77" s="54" t="s">
-        <v>1346</v>
+      <c r="R77" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S77" s="6">
         <v>0</v>
@@ -10620,8 +10680,8 @@
       <c r="Q78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R78" s="54" t="s">
-        <v>1346</v>
+      <c r="R78" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S78" s="6">
         <v>0</v>
@@ -10692,8 +10752,8 @@
       <c r="Q79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R79" s="54" t="s">
-        <v>1346</v>
+      <c r="R79" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S79" s="6">
         <v>0</v>
@@ -10764,8 +10824,8 @@
       <c r="Q80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R80" s="54" t="s">
-        <v>1346</v>
+      <c r="R80" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S80" s="6">
         <v>0</v>
@@ -10836,8 +10896,8 @@
       <c r="Q81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R81" s="54" t="s">
-        <v>1346</v>
+      <c r="R81" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
@@ -10908,8 +10968,8 @@
       <c r="Q82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R82" s="54" t="s">
-        <v>1346</v>
+      <c r="R82" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S82" s="6">
         <v>1</v>
@@ -10980,8 +11040,8 @@
       <c r="Q83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R83" s="54" t="s">
-        <v>1346</v>
+      <c r="R83" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -11053,8 +11113,8 @@
       <c r="Q84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R84" s="54" t="s">
-        <v>1346</v>
+      <c r="R84" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S84" s="6">
         <v>0</v>
@@ -11138,8 +11198,8 @@
       <c r="Q85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R85" s="54" t="s">
-        <v>1346</v>
+      <c r="R85" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S85" s="6">
         <v>0</v>
@@ -11222,8 +11282,8 @@
       <c r="Q86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R86" s="54" t="s">
-        <v>1346</v>
+      <c r="R86" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S86" s="6">
         <v>0</v>
@@ -11295,8 +11355,8 @@
       <c r="Q87" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R87" s="54" t="s">
-        <v>1346</v>
+      <c r="R87" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S87" s="6">
         <v>0</v>
@@ -11379,8 +11439,8 @@
       <c r="Q88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="54" t="s">
-        <v>1346</v>
+      <c r="R88" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -11451,8 +11511,8 @@
       <c r="Q89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R89" s="54" t="s">
-        <v>1346</v>
+      <c r="R89" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S89" s="6">
         <v>0</v>
@@ -11524,8 +11584,8 @@
       <c r="Q90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R90" s="54" t="s">
-        <v>1346</v>
+      <c r="R90" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -12346,8 +12406,8 @@
       <c r="Q100" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R100" s="54" t="s">
-        <v>1347</v>
+      <c r="R100" s="53" t="s">
+        <v>1346</v>
       </c>
       <c r="S100" s="6">
         <v>1</v>
@@ -15767,7 +15827,7 @@
       <c r="G143" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="H143" s="52" t="s">
+      <c r="H143" s="7" t="s">
         <v>1290</v>
       </c>
       <c r="I143" s="6" t="s">
@@ -15794,8 +15854,8 @@
       <c r="Q143" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R143" s="54" t="s">
-        <v>1346</v>
+      <c r="R143" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S143" s="44">
         <v>0</v>
@@ -15863,8 +15923,8 @@
       <c r="Q144" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R144" s="54" t="s">
-        <v>1346</v>
+      <c r="R144" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S144" s="44">
         <v>0</v>
@@ -15932,8 +15992,8 @@
       <c r="Q145" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R145" s="54" t="s">
-        <v>1346</v>
+      <c r="R145" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S145" s="44">
         <v>0</v>
@@ -16001,8 +16061,8 @@
       <c r="Q146" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R146" s="54" t="s">
-        <v>1346</v>
+      <c r="R146" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S146" s="44">
         <v>0</v>
@@ -16069,8 +16129,8 @@
       <c r="Q147" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R147" s="54" t="s">
-        <v>1346</v>
+      <c r="R147" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S147" s="44">
         <v>0</v>
@@ -16140,8 +16200,8 @@
       <c r="Q148" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R148" s="54" t="s">
-        <v>1346</v>
+      <c r="R148" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S148" s="44">
         <v>0</v>
@@ -16208,8 +16268,8 @@
       <c r="Q149" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R149" s="54" t="s">
-        <v>1346</v>
+      <c r="R149" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S149" s="44">
         <v>0</v>
@@ -16276,8 +16336,8 @@
       <c r="Q150" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R150" s="54" t="s">
-        <v>1346</v>
+      <c r="R150" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S150" s="44">
         <v>0</v>
@@ -16344,8 +16404,8 @@
       <c r="Q151" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R151" s="54" t="s">
-        <v>1346</v>
+      <c r="R151" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S151" s="44">
         <v>0</v>
@@ -16415,8 +16475,8 @@
       <c r="Q152" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R152" s="54" t="s">
-        <v>1346</v>
+      <c r="R152" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S152" s="44">
         <v>0</v>
@@ -16486,8 +16546,8 @@
       <c r="Q153" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R153" s="54" t="s">
-        <v>1346</v>
+      <c r="R153" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S153" s="44">
         <v>0</v>
@@ -16554,8 +16614,8 @@
       <c r="Q154" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R154" s="54" t="s">
-        <v>1346</v>
+      <c r="R154" s="57" t="s">
+        <v>1347</v>
       </c>
       <c r="S154" s="44">
         <v>0</v>
@@ -16576,8 +16636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" s="54" customFormat="1">
-      <c r="A155" s="54">
+    <row r="155" spans="1:24" s="53" customFormat="1">
+      <c r="A155" s="53">
         <v>530209</v>
       </c>
       <c r="B155" s="44" t="s">
@@ -16586,10 +16646,10 @@
       <c r="D155" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E155" s="54" t="s">
+      <c r="E155" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F155" s="54" t="s">
+      <c r="F155" s="53" t="s">
         <v>1114</v>
       </c>
       <c r="G155" s="44" t="s">
@@ -16625,25 +16685,25 @@
       <c r="Q155" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="R155" s="54" t="s">
-        <v>1346</v>
-      </c>
-      <c r="S155" s="54">
-        <v>0</v>
-      </c>
-      <c r="T155" s="54">
-        <v>0</v>
-      </c>
-      <c r="U155" s="54">
-        <v>0</v>
-      </c>
-      <c r="V155" s="54">
-        <v>0</v>
-      </c>
-      <c r="W155" s="54">
-        <v>0</v>
-      </c>
-      <c r="X155" s="54">
+      <c r="R155" s="57" t="s">
+        <v>1347</v>
+      </c>
+      <c r="S155" s="53">
+        <v>0</v>
+      </c>
+      <c r="T155" s="53">
+        <v>0</v>
+      </c>
+      <c r="U155" s="53">
+        <v>0</v>
+      </c>
+      <c r="V155" s="53">
+        <v>0</v>
+      </c>
+      <c r="W155" s="53">
+        <v>0</v>
+      </c>
+      <c r="X155" s="53">
         <v>0</v>
       </c>
     </row>
@@ -22675,7 +22735,7 @@
         <v>17</v>
       </c>
       <c r="R239" s="6" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="S239" s="44">
         <v>0</v>
@@ -22747,7 +22807,7 @@
         <v>17</v>
       </c>
       <c r="R240" s="6" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="S240" s="44">
         <v>0</v>
@@ -22820,7 +22880,7 @@
         <v>17</v>
       </c>
       <c r="R241" s="6" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="S241" s="44">
         <v>0</v>
@@ -22893,7 +22953,7 @@
         <v>17</v>
       </c>
       <c r="R242" s="6" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="S242" s="44">
         <v>0</v>
@@ -23122,7 +23182,7 @@
         <v>17</v>
       </c>
       <c r="R245" s="6" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="S245" s="44">
         <v>0</v>
@@ -23195,7 +23255,7 @@
         <v>17</v>
       </c>
       <c r="R246" s="6" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="S246" s="44">
         <v>0</v>
@@ -24527,7 +24587,7 @@
         <v>17</v>
       </c>
       <c r="R264" s="6" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="S264" s="7">
         <v>0</v>
@@ -24604,7 +24664,7 @@
         <v>17</v>
       </c>
       <c r="R265" s="6" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="S265" s="7">
         <v>0</v>
@@ -24681,7 +24741,7 @@
         <v>208</v>
       </c>
       <c r="R266" s="6" t="s">
-        <v>1342</v>
+        <v>1351</v>
       </c>
       <c r="S266" s="7">
         <v>0</v>
@@ -24758,7 +24818,7 @@
         <v>208</v>
       </c>
       <c r="R267" s="6" t="s">
-        <v>1342</v>
+        <v>1352</v>
       </c>
       <c r="S267" s="7">
         <v>0</v>
@@ -24835,7 +24895,7 @@
         <v>1270</v>
       </c>
       <c r="R268" s="6" t="s">
-        <v>1342</v>
+        <v>1355</v>
       </c>
       <c r="S268" s="7">
         <v>0</v>
@@ -24912,7 +24972,7 @@
         <v>1270</v>
       </c>
       <c r="R269" s="6" t="s">
-        <v>1342</v>
+        <v>1356</v>
       </c>
       <c r="S269" s="7">
         <v>0</v>
@@ -24941,8 +25001,8 @@
       <c r="AL269" s="13"/>
     </row>
     <row r="273" spans="6:7">
-      <c r="F273" s="55"/>
-      <c r="G273" s="55"/>
+      <c r="F273" s="54"/>
+      <c r="G273" s="54"/>
     </row>
     <row r="274" spans="6:7">
       <c r="F274" s="7"/>
@@ -24950,11 +25010,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AL1">
-    <sortState ref="A2:AK269">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AL269"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24989,7 +25045,7 @@
       <c r="A2" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>1331</v>
       </c>
     </row>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -2816,9 +2816,6 @@
     <t>(Personas con discapacidad) Personas con discapacidad severa sin educación formal</t>
   </si>
   <si>
-    <t>El indicador muestra el porcentaje de personas con al menos una limitación severa (para oír, ver, caminar-subir escaleras, entender-comprender).</t>
-  </si>
-  <si>
     <t>Calcular: (Cantidad de personas  según prevalencia de al menos una limitación severa (para oír, ver, caminar-subir escaleras, entender-comprender) sin instrucción / Cantidad de personas según prevalencia de al menos una limitación severa (para oír, ver, caminar-subir escaleras, entender-comprender))*100</t>
   </si>
   <si>
@@ -4165,6 +4162,9 @@
 Los datos de 2015 corresponden al promedio mayo a diciembre.
 El 2019 presentó numerosas anomalías (variaciones de un mes a otro) en los reportes mensuales.
 En relación al informe del CPP de 2020 se corrigió error enero-marzo de procesamiento del Ministerio del Interior de procesados en Soriano y Río Negro en Ene-Feb-Mar.</t>
+  </si>
+  <si>
+    <t>El indicador muestra el porcentaje de personas con al menos una limitación severa (para oír, ver, caminar-subir escaleras, entender-comprender) sin educación formal.</t>
   </si>
 </sst>
 </file>
@@ -4750,10 +4750,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4764,18 +4764,17 @@
     <col min="4" max="4" width="36.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="94.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="157.28515625" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="13" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="181.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="57.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="130.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="230.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="98.7109375" style="13" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="98.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="157.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="181.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="57.85546875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="130.42578125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="230.140625" style="13" customWidth="1"/>
+    <col min="17" max="18" width="98.7109375" style="13" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
@@ -4841,7 +4840,7 @@
         <v>347</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="S1" s="26" t="s">
         <v>644</v>
@@ -4859,7 +4858,7 @@
         <v>675</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1">
@@ -4909,7 +4908,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S2" s="6">
         <v>1</v>
@@ -4978,7 +4977,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S3" s="6">
         <v>1</v>
@@ -5046,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S4" s="6">
         <v>1</v>
@@ -5115,7 +5114,7 @@
         <v>17</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
@@ -5184,7 +5183,7 @@
         <v>25</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -5253,7 +5252,7 @@
         <v>25</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
@@ -5322,7 +5321,7 @@
         <v>25</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -5391,7 +5390,7 @@
         <v>85</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
@@ -5459,7 +5458,7 @@
         <v>85</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -5528,7 +5527,7 @@
         <v>85</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
@@ -5597,7 +5596,7 @@
         <v>480</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
@@ -5665,7 +5664,7 @@
         <v>25</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
@@ -5734,7 +5733,7 @@
         <v>96</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -5802,7 +5801,7 @@
         <v>72</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S15" s="6">
         <v>0</v>
@@ -5871,7 +5870,7 @@
         <v>72</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S16" s="6">
         <v>0</v>
@@ -5940,7 +5939,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S17" s="6">
         <v>0</v>
@@ -6012,7 +6011,7 @@
         <v>475</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S18" s="6">
         <v>1</v>
@@ -6083,7 +6082,7 @@
         <v>470</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S19" s="6">
         <v>1</v>
@@ -6154,7 +6153,7 @@
         <v>470</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S20" s="6">
         <v>0</v>
@@ -6226,7 +6225,7 @@
         <v>470</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S21" s="6">
         <v>0</v>
@@ -6311,7 +6310,7 @@
         <v>470</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S22" s="6">
         <v>0</v>
@@ -6395,7 +6394,7 @@
         <v>470</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S23" s="6">
         <v>0</v>
@@ -6468,7 +6467,7 @@
         <v>470</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S24" s="6">
         <v>0</v>
@@ -6554,7 +6553,7 @@
         <v>470</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S25" s="6">
         <v>1</v>
@@ -6639,7 +6638,7 @@
         <v>617</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S26" s="6">
         <v>0</v>
@@ -6711,7 +6710,7 @@
         <v>617</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S27" s="6">
         <v>0</v>
@@ -6796,7 +6795,7 @@
         <v>478</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
@@ -6880,7 +6879,7 @@
         <v>477</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S29" s="6">
         <v>0</v>
@@ -6952,7 +6951,7 @@
         <v>477</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S30" s="6">
         <v>0</v>
@@ -7036,7 +7035,7 @@
         <v>111</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S31" s="6">
         <v>0</v>
@@ -7120,7 +7119,7 @@
         <v>111</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S32" s="6">
         <v>0</v>
@@ -7202,7 +7201,7 @@
         <v>111</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S33" s="6">
         <v>0</v>
@@ -7275,7 +7274,7 @@
         <v>111</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S34" s="6">
         <v>0</v>
@@ -7342,16 +7341,16 @@
         <v>6</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O35" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>23</v>
@@ -7360,7 +7359,7 @@
         <v>17</v>
       </c>
       <c r="R35" s="53" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="S35" s="6">
         <v>1</v>
@@ -7431,7 +7430,7 @@
         <v>470</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S36" s="6">
         <v>0</v>
@@ -7501,7 +7500,7 @@
         <v>17</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S37" s="6">
         <v>1</v>
@@ -7540,7 +7539,7 @@
         <v>792</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>377</v>
@@ -7570,7 +7569,7 @@
         <v>17</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S38" s="6">
         <v>1</v>
@@ -7609,7 +7608,7 @@
         <v>795</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>722</v>
@@ -7639,7 +7638,7 @@
         <v>17</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S39" s="6">
         <v>1</v>
@@ -7708,7 +7707,7 @@
         <v>17</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S40" s="6">
         <v>1</v>
@@ -7777,7 +7776,7 @@
         <v>313</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S41" s="6">
         <v>0</v>
@@ -7860,7 +7859,7 @@
         <v>313</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S42" s="6">
         <v>0</v>
@@ -7943,7 +7942,7 @@
         <v>313</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S43" s="6">
         <v>0</v>
@@ -8029,7 +8028,7 @@
         <v>470</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S44" s="6">
         <v>1</v>
@@ -8114,7 +8113,7 @@
         <v>471</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S45" s="6">
         <v>0</v>
@@ -8199,7 +8198,7 @@
         <v>471</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S46" s="6">
         <v>0</v>
@@ -8283,7 +8282,7 @@
         <v>302</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S47" s="6">
         <v>1</v>
@@ -8354,7 +8353,7 @@
         <v>472</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S48" s="6">
         <v>0</v>
@@ -8425,7 +8424,7 @@
         <v>473</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S49" s="6">
         <v>1</v>
@@ -8497,7 +8496,7 @@
         <v>618</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S50" s="6">
         <v>0</v>
@@ -8583,7 +8582,7 @@
         <v>618</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S51" s="6">
         <v>0</v>
@@ -8669,7 +8668,7 @@
         <v>619</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S52" s="6">
         <v>0</v>
@@ -8755,7 +8754,7 @@
         <v>471</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S53" s="6">
         <v>1</v>
@@ -8841,7 +8840,7 @@
         <v>472</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S54" s="6">
         <v>0</v>
@@ -8924,7 +8923,7 @@
         <v>474</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S55" s="6">
         <v>1</v>
@@ -9006,7 +9005,7 @@
         <v>17</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S56" s="6">
         <v>1</v>
@@ -9075,7 +9074,7 @@
         <v>17</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S57" s="6">
         <v>1</v>
@@ -9144,7 +9143,7 @@
         <v>17</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S58" s="6">
         <v>1</v>
@@ -9213,7 +9212,7 @@
         <v>17</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S59" s="6">
         <v>1</v>
@@ -9282,7 +9281,7 @@
         <v>17</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S60" s="6">
         <v>0</v>
@@ -9351,7 +9350,7 @@
         <v>17</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S61" s="6">
         <v>0</v>
@@ -9421,7 +9420,7 @@
         <v>17</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S62" s="6">
         <v>0</v>
@@ -9466,7 +9465,7 @@
         <v>730</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>5</v>
@@ -9475,16 +9474,16 @@
         <v>6</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N63" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O63" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>54</v>
@@ -9493,7 +9492,7 @@
         <v>475</v>
       </c>
       <c r="R63" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S63" s="6">
         <v>1</v>
@@ -9538,7 +9537,7 @@
         <v>714</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>5</v>
@@ -9547,16 +9546,16 @@
         <v>6</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N64" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O64" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>54</v>
@@ -9565,7 +9564,7 @@
         <v>475</v>
       </c>
       <c r="R64" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S64" s="6">
         <v>0</v>
@@ -9619,16 +9618,16 @@
         <v>6</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N65" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O65" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>54</v>
@@ -9637,7 +9636,7 @@
         <v>17</v>
       </c>
       <c r="R65" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S65" s="6">
         <v>0</v>
@@ -9690,16 +9689,16 @@
         <v>6</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N66" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>54</v>
@@ -9708,7 +9707,7 @@
         <v>475</v>
       </c>
       <c r="R66" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S66" s="6">
         <v>0</v>
@@ -9761,16 +9760,16 @@
         <v>6</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N67" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O67" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>54</v>
@@ -9779,7 +9778,7 @@
         <v>475</v>
       </c>
       <c r="R67" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S67" s="6">
         <v>1</v>
@@ -9832,16 +9831,16 @@
         <v>6</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N68" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O68" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>54</v>
@@ -9850,7 +9849,7 @@
         <v>17</v>
       </c>
       <c r="R68" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -9904,16 +9903,16 @@
         <v>6</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O69" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>54</v>
@@ -9922,7 +9921,7 @@
         <v>17</v>
       </c>
       <c r="R69" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S69" s="6">
         <v>1</v>
@@ -9952,7 +9951,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>2</v>
@@ -9979,23 +9978,23 @@
         <v>6</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N70" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O70" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O70" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R70" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S70" s="6">
         <v>0</v>
@@ -10038,7 +10037,7 @@
         <v>52</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>2</v>
@@ -10065,23 +10064,23 @@
         <v>6</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N71" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O71" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R71" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S71" s="6">
         <v>0</v>
@@ -10124,7 +10123,7 @@
         <v>52</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>2</v>
@@ -10157,17 +10156,17 @@
         <v>8</v>
       </c>
       <c r="N72" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O72" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R72" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S72" s="6">
         <v>0</v>
@@ -10209,7 +10208,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>2</v>
@@ -10242,17 +10241,17 @@
         <v>8</v>
       </c>
       <c r="N73" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O73" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R73" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S73" s="6">
         <v>0</v>
@@ -10295,7 +10294,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>2</v>
@@ -10328,17 +10327,17 @@
         <v>8</v>
       </c>
       <c r="N74" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O74" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R74" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S74" s="6">
         <v>0</v>
@@ -10381,7 +10380,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>2</v>
@@ -10414,17 +10413,17 @@
         <v>8</v>
       </c>
       <c r="N75" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O75" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O75" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R75" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S75" s="6">
         <v>1</v>
@@ -10467,7 +10466,7 @@
         <v>52</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>2</v>
@@ -10494,23 +10493,23 @@
         <v>6</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N76" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O76" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O76" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R76" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S76" s="6">
         <v>0</v>
@@ -10553,7 +10552,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>2</v>
@@ -10580,23 +10579,23 @@
         <v>6</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N77" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O77" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O77" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R77" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S77" s="6">
         <v>0</v>
@@ -10663,16 +10662,16 @@
         <v>6</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N78" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O78" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>61</v>
@@ -10681,7 +10680,7 @@
         <v>17</v>
       </c>
       <c r="R78" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S78" s="6">
         <v>0</v>
@@ -10735,16 +10734,16 @@
         <v>6</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N79" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O79" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O79" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>61</v>
@@ -10753,7 +10752,7 @@
         <v>17</v>
       </c>
       <c r="R79" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S79" s="6">
         <v>0</v>
@@ -10807,16 +10806,16 @@
         <v>6</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N80" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O80" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>61</v>
@@ -10825,7 +10824,7 @@
         <v>17</v>
       </c>
       <c r="R80" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S80" s="6">
         <v>0</v>
@@ -10879,16 +10878,16 @@
         <v>6</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N81" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>61</v>
@@ -10897,7 +10896,7 @@
         <v>17</v>
       </c>
       <c r="R81" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
@@ -10951,16 +10950,16 @@
         <v>6</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N82" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O82" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O82" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>61</v>
@@ -10969,7 +10968,7 @@
         <v>17</v>
       </c>
       <c r="R82" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S82" s="6">
         <v>1</v>
@@ -11023,16 +11022,16 @@
         <v>6</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N83" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O83" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O83" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>61</v>
@@ -11041,7 +11040,7 @@
         <v>17</v>
       </c>
       <c r="R83" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -11096,16 +11095,16 @@
         <v>6</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N84" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O84" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>61</v>
@@ -11114,7 +11113,7 @@
         <v>17</v>
       </c>
       <c r="R84" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S84" s="6">
         <v>0</v>
@@ -11181,16 +11180,16 @@
         <v>6</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N85" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O85" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O85" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>61</v>
@@ -11199,7 +11198,7 @@
         <v>17</v>
       </c>
       <c r="R85" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S85" s="6">
         <v>0</v>
@@ -11265,16 +11264,16 @@
         <v>6</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M86" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N86" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O86" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>61</v>
@@ -11283,7 +11282,7 @@
         <v>17</v>
       </c>
       <c r="R86" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S86" s="6">
         <v>0</v>
@@ -11338,16 +11337,16 @@
         <v>6</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N87" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O87" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>61</v>
@@ -11356,7 +11355,7 @@
         <v>17</v>
       </c>
       <c r="R87" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S87" s="6">
         <v>0</v>
@@ -11422,16 +11421,16 @@
         <v>6</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M88" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N88" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O88" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O88" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>61</v>
@@ -11440,7 +11439,7 @@
         <v>17</v>
       </c>
       <c r="R88" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -11494,16 +11493,16 @@
         <v>6</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N89" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O89" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O89" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>61</v>
@@ -11512,7 +11511,7 @@
         <v>17</v>
       </c>
       <c r="R89" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S89" s="6">
         <v>0</v>
@@ -11567,16 +11566,16 @@
         <v>6</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N90" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O90" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>61</v>
@@ -11585,7 +11584,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -11669,7 +11668,7 @@
         <v>17</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S91" s="6">
         <v>1</v>
@@ -11753,7 +11752,7 @@
         <v>17</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S92" s="6">
         <v>1</v>
@@ -11836,7 +11835,7 @@
         <v>17</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S93" s="6">
         <v>1</v>
@@ -11919,7 +11918,7 @@
         <v>17</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S94" s="6">
         <v>1</v>
@@ -11990,7 +11989,7 @@
         <v>17</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S95" s="6">
         <v>0</v>
@@ -12073,7 +12072,7 @@
         <v>17</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S96" s="6">
         <v>0</v>
@@ -12156,7 +12155,7 @@
         <v>237</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S97" s="6">
         <v>0</v>
@@ -12239,7 +12238,7 @@
         <v>237</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S98" s="6">
         <v>0</v>
@@ -12323,7 +12322,7 @@
         <v>298</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S99" s="6">
         <v>0</v>
@@ -12391,23 +12390,23 @@
         <v>6</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N100" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O100" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O100" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R100" s="53" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="S100" s="6">
         <v>1</v>
@@ -12491,7 +12490,7 @@
         <v>476</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S101" s="6">
         <v>1</v>
@@ -12574,7 +12573,7 @@
         <v>72</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S102" s="6">
         <v>0</v>
@@ -12643,7 +12642,7 @@
         <v>17</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S103" s="6">
         <v>1</v>
@@ -12726,7 +12725,7 @@
         <v>17</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S104" s="6">
         <v>0</v>
@@ -12808,7 +12807,7 @@
         <v>17</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S105" s="6">
         <v>0</v>
@@ -12891,7 +12890,7 @@
         <v>17</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S106" s="6">
         <v>0</v>
@@ -12974,7 +12973,7 @@
         <v>17</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S107" s="6">
         <v>0</v>
@@ -13057,7 +13056,7 @@
         <v>208</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S108" s="6">
         <v>0</v>
@@ -13141,7 +13140,7 @@
         <v>208</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S109" s="6">
         <v>0</v>
@@ -13224,7 +13223,7 @@
         <v>208</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S110" s="6">
         <v>0</v>
@@ -13308,7 +13307,7 @@
         <v>208</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S111" s="6">
         <v>0</v>
@@ -13391,7 +13390,7 @@
         <v>17</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S112" s="6">
         <v>0</v>
@@ -13474,7 +13473,7 @@
         <v>208</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S113" s="6">
         <v>0</v>
@@ -13557,7 +13556,7 @@
         <v>237</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S114" s="6">
         <v>0</v>
@@ -13626,7 +13625,7 @@
         <v>237</v>
       </c>
       <c r="R115" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S115" s="6">
         <v>0</v>
@@ -13696,7 +13695,7 @@
         <v>237</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S116" s="6">
         <v>0</v>
@@ -13780,7 +13779,7 @@
         <v>237</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S117" s="6">
         <v>0</v>
@@ -13864,7 +13863,7 @@
         <v>237</v>
       </c>
       <c r="R118" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S118" s="6">
         <v>0</v>
@@ -13948,7 +13947,7 @@
         <v>237</v>
       </c>
       <c r="R119" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S119" s="6">
         <v>0</v>
@@ -14032,7 +14031,7 @@
         <v>237</v>
       </c>
       <c r="R120" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S120" s="6">
         <v>0</v>
@@ -14116,7 +14115,7 @@
         <v>237</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S121" s="6">
         <v>0</v>
@@ -14200,7 +14199,7 @@
         <v>237</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S122" s="6">
         <v>0</v>
@@ -14284,7 +14283,7 @@
         <v>237</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S123" s="6">
         <v>1</v>
@@ -14368,7 +14367,7 @@
         <v>237</v>
       </c>
       <c r="R124" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S124" s="6">
         <v>0</v>
@@ -14451,7 +14450,7 @@
         <v>72</v>
       </c>
       <c r="R125" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S125" s="6">
         <v>0</v>
@@ -14521,7 +14520,7 @@
         <v>17</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S126" s="6">
         <v>0</v>
@@ -14591,7 +14590,7 @@
         <v>17</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S127" s="6">
         <v>0</v>
@@ -14674,7 +14673,7 @@
         <v>17</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S128" s="6">
         <v>0</v>
@@ -14758,7 +14757,7 @@
         <v>237</v>
       </c>
       <c r="R129" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S129" s="6">
         <v>0</v>
@@ -14840,7 +14839,7 @@
         <v>237</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S130" s="6">
         <v>0</v>
@@ -14922,7 +14921,7 @@
         <v>237</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S131" s="6">
         <v>0</v>
@@ -15004,7 +15003,7 @@
         <v>237</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S132" s="6">
         <v>0</v>
@@ -15086,7 +15085,7 @@
         <v>237</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S133" s="6">
         <v>0</v>
@@ -15168,7 +15167,7 @@
         <v>237</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S134" s="6">
         <v>0</v>
@@ -15250,7 +15249,7 @@
         <v>237</v>
       </c>
       <c r="R135" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S135" s="6">
         <v>0</v>
@@ -15334,7 +15333,7 @@
         <v>237</v>
       </c>
       <c r="R136" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S136" s="6">
         <v>0</v>
@@ -15374,7 +15373,7 @@
         <v>520105</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
@@ -15384,19 +15383,19 @@
         <v>104</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H137" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H137" s="7" t="s">
+      <c r="I137" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="I137" s="7" t="s">
+      <c r="J137" s="7" t="s">
         <v>1003</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>1004</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>231</v>
@@ -15408,16 +15407,16 @@
         <v>8</v>
       </c>
       <c r="N137" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O137" s="7" t="s">
         <v>1005</v>
-      </c>
-      <c r="O137" s="7" t="s">
-        <v>1006</v>
       </c>
       <c r="Q137" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R137" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S137" s="44">
         <v>0</v>
@@ -15449,7 +15448,7 @@
         <v>520106</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="s">
@@ -15459,16 +15458,16 @@
         <v>104</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="H138" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="I138" s="7" t="s">
         <v>1009</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>1010</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>764</v>
@@ -15483,16 +15482,16 @@
         <v>8</v>
       </c>
       <c r="N138" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O138" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="O138" s="7" t="s">
+      <c r="Q138" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="Q138" s="7" t="s">
-        <v>1013</v>
-      </c>
       <c r="R138" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S138" s="44">
         <v>0</v>
@@ -15524,7 +15523,7 @@
         <v>520107</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="7" t="s">
@@ -15534,16 +15533,16 @@
         <v>104</v>
       </c>
       <c r="F139" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="H139" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="I139" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>1017</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>764</v>
@@ -15552,22 +15551,22 @@
         <v>231</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M139" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N139" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O139" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="O139" s="7" t="s">
-        <v>1020</v>
       </c>
       <c r="Q139" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R139" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S139" s="44">
         <v>0</v>
@@ -15599,7 +15598,7 @@
         <v>520108</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
@@ -15609,40 +15608,40 @@
         <v>104</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="I140" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="I140" s="7" t="s">
+      <c r="J140" s="7" t="s">
         <v>1024</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>1025</v>
       </c>
       <c r="K140" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N140" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O140" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="O140" s="7" t="s">
-        <v>1020</v>
       </c>
       <c r="Q140" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R140" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S140" s="44">
         <v>0</v>
@@ -15668,7 +15667,7 @@
         <v>520109</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="s">
@@ -15678,40 +15677,40 @@
         <v>104</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="H141" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="I141" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="I141" s="7" t="s">
+      <c r="J141" s="7" t="s">
         <v>1029</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>1030</v>
       </c>
       <c r="K141" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M141" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N141" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O141" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="O141" s="7" t="s">
-        <v>1020</v>
       </c>
       <c r="Q141" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S141" s="44">
         <v>0</v>
@@ -15743,7 +15742,7 @@
         <v>520110</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="7" t="s">
@@ -15753,19 +15752,19 @@
         <v>104</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="I142" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="I142" s="7" t="s">
+      <c r="J142" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>1035</v>
       </c>
       <c r="K142" s="7" t="s">
         <v>231</v>
@@ -15777,16 +15776,16 @@
         <v>8</v>
       </c>
       <c r="N142" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O142" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="O142" s="7" t="s">
+      <c r="Q142" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="Q142" s="7" t="s">
-        <v>1038</v>
-      </c>
       <c r="R142" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S142" s="44">
         <v>0</v>
@@ -15812,7 +15811,7 @@
         <v>530101</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="7" t="s">
@@ -15822,40 +15821,40 @@
         <v>3</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I143" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>1099</v>
-      </c>
       <c r="J143" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N143" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O143" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O143" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R143" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S143" s="44">
         <v>0</v>
@@ -15881,7 +15880,7 @@
         <v>530102</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="7" t="s">
@@ -15891,40 +15890,40 @@
         <v>3</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I144" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>1101</v>
-      </c>
       <c r="J144" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N144" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O144" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O144" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R144" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S144" s="44">
         <v>0</v>
@@ -15950,7 +15949,7 @@
         <v>530103</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="7" t="s">
@@ -15960,40 +15959,40 @@
         <v>3</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I145" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>1103</v>
-      </c>
       <c r="J145" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N145" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O145" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O145" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R145" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S145" s="44">
         <v>0</v>
@@ -16019,7 +16018,7 @@
         <v>530104</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="7" t="s">
@@ -16029,40 +16028,40 @@
         <v>3</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I146" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I146" s="6" t="s">
-        <v>1105</v>
-      </c>
       <c r="J146" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M146" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N146" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O146" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O146" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R146" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S146" s="44">
         <v>0</v>
@@ -16088,7 +16087,7 @@
         <v>530201</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>2</v>
@@ -16097,16 +16096,16 @@
         <v>15</v>
       </c>
       <c r="F147" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="G147" s="7" t="s">
+      <c r="H147" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I147" s="6" t="s">
         <v>1088</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>1089</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>806</v>
@@ -16115,22 +16114,22 @@
         <v>6</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N147" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O147" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O147" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q147" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R147" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S147" s="44">
         <v>0</v>
@@ -16156,7 +16155,7 @@
         <v>530202</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>2</v>
@@ -16168,13 +16167,13 @@
         <v>56</v>
       </c>
       <c r="G148" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I148" s="6" t="s">
         <v>1090</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>1091</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>5</v>
@@ -16183,16 +16182,16 @@
         <v>6</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M148" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N148" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O148" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O148" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="P148" s="6" t="s">
         <v>54</v>
@@ -16201,7 +16200,7 @@
         <v>475</v>
       </c>
       <c r="R148" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S148" s="44">
         <v>0</v>
@@ -16227,7 +16226,7 @@
         <v>530203</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
@@ -16236,16 +16235,16 @@
         <v>15</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I149" s="6" t="s">
         <v>1092</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>1093</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>5</v>
@@ -16254,22 +16253,22 @@
         <v>6</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N149" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O149" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O149" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q149" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R149" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S149" s="44">
         <v>0</v>
@@ -16295,7 +16294,7 @@
         <v>530204</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>2</v>
@@ -16304,16 +16303,16 @@
         <v>15</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I150" s="6" t="s">
         <v>1094</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>1095</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>5</v>
@@ -16322,22 +16321,22 @@
         <v>6</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N150" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O150" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O150" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q150" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R150" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S150" s="44">
         <v>0</v>
@@ -16363,7 +16362,7 @@
         <v>530205</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>2</v>
@@ -16372,16 +16371,16 @@
         <v>15</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I151" s="6" t="s">
         <v>1096</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>1097</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>806</v>
@@ -16390,22 +16389,22 @@
         <v>6</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M151" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N151" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O151" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O151" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R151" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S151" s="44">
         <v>0</v>
@@ -16431,7 +16430,7 @@
         <v>530206</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>2</v>
@@ -16440,16 +16439,16 @@
         <v>15</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I152" s="6" t="s">
         <v>1106</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>1107</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>5</v>
@@ -16458,25 +16457,25 @@
         <v>6</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N152" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O152" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="O152" s="6" t="s">
-        <v>1336</v>
-      </c>
       <c r="P152" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q152" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R152" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S152" s="44">
         <v>0</v>
@@ -16502,7 +16501,7 @@
         <v>530207</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>2</v>
@@ -16511,16 +16510,16 @@
         <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I153" s="6" t="s">
         <v>1109</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>1110</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>5</v>
@@ -16529,25 +16528,25 @@
         <v>6</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M153" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N153" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O153" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="O153" s="6" t="s">
-        <v>1336</v>
-      </c>
       <c r="P153" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q153" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R153" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S153" s="44">
         <v>0</v>
@@ -16573,7 +16572,7 @@
         <v>530208</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>2</v>
@@ -16582,16 +16581,16 @@
         <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I154" s="6" t="s">
         <v>1112</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>1113</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>5</v>
@@ -16600,22 +16599,22 @@
         <v>6</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N154" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O154" s="6" t="s">
         <v>1335</v>
-      </c>
-      <c r="O154" s="6" t="s">
-        <v>1336</v>
       </c>
       <c r="Q154" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R154" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S154" s="44">
         <v>0</v>
@@ -16641,7 +16640,7 @@
         <v>530209</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D155" s="44" t="s">
         <v>2</v>
@@ -16650,16 +16649,16 @@
         <v>15</v>
       </c>
       <c r="F155" s="53" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G155" s="44" t="s">
         <v>1114</v>
       </c>
-      <c r="G155" s="44" t="s">
-        <v>1115</v>
-      </c>
       <c r="H155" s="44" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J155" s="14" t="s">
         <v>5</v>
@@ -16668,25 +16667,25 @@
         <v>6</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M155" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N155" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O155" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="O155" s="6" t="s">
-        <v>1336</v>
-      </c>
       <c r="P155" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="Q155" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R155" s="57" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S155" s="53">
         <v>0</v>
@@ -16712,7 +16711,7 @@
         <v>530210</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>2</v>
@@ -16721,16 +16720,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H156" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H156" s="7" t="s">
+      <c r="I156" s="7" t="s">
         <v>1118</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>1119</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>5</v>
@@ -16739,22 +16738,22 @@
         <v>231</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N156" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="O156" s="7" t="s">
         <v>1121</v>
-      </c>
-      <c r="O156" s="7" t="s">
-        <v>1122</v>
       </c>
       <c r="Q156" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R156" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S156" s="44">
         <v>0</v>
@@ -16780,7 +16779,7 @@
         <v>530211</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>2</v>
@@ -16789,16 +16788,16 @@
         <v>15</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H157" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H157" s="7" t="s">
+      <c r="I157" s="7" t="s">
         <v>1124</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>1125</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>5</v>
@@ -16807,22 +16806,22 @@
         <v>231</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N157" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O157" s="7" t="s">
         <v>1127</v>
-      </c>
-      <c r="O157" s="7" t="s">
-        <v>1128</v>
       </c>
       <c r="Q157" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R157" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S157" s="44">
         <v>0</v>
@@ -16848,7 +16847,7 @@
         <v>530212</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>2</v>
@@ -16857,19 +16856,19 @@
         <v>15</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="I158" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="I158" s="7" t="s">
+      <c r="J158" s="7" t="s">
         <v>1132</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>1133</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>231</v>
@@ -16881,16 +16880,16 @@
         <v>8</v>
       </c>
       <c r="N158" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O158" s="7" t="s">
         <v>1036</v>
-      </c>
-      <c r="O158" s="7" t="s">
-        <v>1037</v>
       </c>
       <c r="Q158" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R158" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S158" s="44">
         <v>0</v>
@@ -16916,7 +16915,7 @@
         <v>530213</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C159" s="44"/>
       <c r="D159" s="44" t="s">
@@ -16926,16 +16925,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H159" s="40" t="s">
         <v>1134</v>
       </c>
-      <c r="G159" s="40" t="s">
-        <v>1337</v>
-      </c>
-      <c r="H159" s="40" t="s">
+      <c r="I159" s="40" t="s">
         <v>1135</v>
-      </c>
-      <c r="I159" s="40" t="s">
-        <v>1136</v>
       </c>
       <c r="J159" s="40" t="s">
         <v>5</v>
@@ -16944,23 +16943,23 @@
         <v>6</v>
       </c>
       <c r="L159" s="40" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M159" s="44" t="s">
         <v>1137</v>
       </c>
-      <c r="M159" s="44" t="s">
+      <c r="N159" s="40" t="s">
         <v>1138</v>
       </c>
-      <c r="N159" s="40" t="s">
+      <c r="O159" s="40" t="s">
         <v>1139</v>
-      </c>
-      <c r="O159" s="40" t="s">
-        <v>1140</v>
       </c>
       <c r="P159" s="40"/>
       <c r="Q159" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R159" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S159" s="44">
         <v>0</v>
@@ -16995,10 +16994,10 @@
         <v>104</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>790</v>
@@ -17029,7 +17028,7 @@
         <v>17</v>
       </c>
       <c r="R160" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S160" s="44">
         <v>0</v>
@@ -17064,10 +17063,10 @@
         <v>104</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>793</v>
@@ -17098,7 +17097,7 @@
         <v>17</v>
       </c>
       <c r="R161" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S161" s="44">
         <v>0</v>
@@ -17133,10 +17132,10 @@
         <v>104</v>
       </c>
       <c r="F162" s="37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>1286</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>1287</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>796</v>
@@ -17167,7 +17166,7 @@
         <v>17</v>
       </c>
       <c r="R162" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S162" s="44">
         <v>0</v>
@@ -17235,7 +17234,7 @@
         <v>17</v>
       </c>
       <c r="R163" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S163" s="44">
         <v>0</v>
@@ -17303,7 +17302,7 @@
         <v>740</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S164" s="44">
         <v>0</v>
@@ -17371,7 +17370,7 @@
         <v>740</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S165" s="44">
         <v>0</v>
@@ -17439,7 +17438,7 @@
         <v>17</v>
       </c>
       <c r="R166" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S166" s="44">
         <v>0</v>
@@ -17507,7 +17506,7 @@
         <v>17</v>
       </c>
       <c r="R167" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S167" s="44">
         <v>0</v>
@@ -17575,7 +17574,7 @@
         <v>17</v>
       </c>
       <c r="R168" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S168" s="44">
         <v>0</v>
@@ -17644,7 +17643,7 @@
         <v>17</v>
       </c>
       <c r="R169" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S169" s="44">
         <v>0</v>
@@ -17712,7 +17711,7 @@
         <v>17</v>
       </c>
       <c r="R170" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S170" s="44">
         <v>0</v>
@@ -17780,7 +17779,7 @@
         <v>17</v>
       </c>
       <c r="R171" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S171" s="44">
         <v>0</v>
@@ -17848,7 +17847,7 @@
         <v>17</v>
       </c>
       <c r="R172" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S172" s="44">
         <v>0</v>
@@ -17883,10 +17882,10 @@
         <v>3</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>798</v>
@@ -17919,7 +17918,7 @@
         <v>470</v>
       </c>
       <c r="R173" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S173" s="44">
         <v>0</v>
@@ -17954,10 +17953,10 @@
         <v>3</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>378</v>
@@ -17990,7 +17989,7 @@
         <v>470</v>
       </c>
       <c r="R174" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S174" s="44">
         <v>0</v>
@@ -18025,10 +18024,10 @@
         <v>3</v>
       </c>
       <c r="F175" s="36" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>419</v>
@@ -18061,7 +18060,7 @@
         <v>471</v>
       </c>
       <c r="R175" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S175" s="44">
         <v>0</v>
@@ -18132,7 +18131,7 @@
         <v>809</v>
       </c>
       <c r="R176" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S176" s="44">
         <v>0</v>
@@ -18203,7 +18202,7 @@
         <v>809</v>
       </c>
       <c r="R177" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S177" s="44">
         <v>0</v>
@@ -18274,7 +18273,7 @@
         <v>809</v>
       </c>
       <c r="R178" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S178" s="44">
         <v>0</v>
@@ -18345,7 +18344,7 @@
         <v>809</v>
       </c>
       <c r="R179" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S179" s="44">
         <v>0</v>
@@ -18416,7 +18415,7 @@
         <v>809</v>
       </c>
       <c r="R180" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S180" s="44">
         <v>0</v>
@@ -18487,7 +18486,7 @@
         <v>17</v>
       </c>
       <c r="R181" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S181" s="44">
         <v>0</v>
@@ -18558,7 +18557,7 @@
         <v>844</v>
       </c>
       <c r="R182" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S182" s="44">
         <v>0</v>
@@ -18629,7 +18628,7 @@
         <v>844</v>
       </c>
       <c r="R183" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S183" s="44">
         <v>0</v>
@@ -18700,7 +18699,7 @@
         <v>853</v>
       </c>
       <c r="R184" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S184" s="44">
         <v>0</v>
@@ -18771,7 +18770,7 @@
         <v>853</v>
       </c>
       <c r="R185" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S185" s="44">
         <v>0</v>
@@ -18842,7 +18841,7 @@
         <v>853</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S186" s="44">
         <v>0</v>
@@ -18913,7 +18912,7 @@
         <v>853</v>
       </c>
       <c r="R187" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S187" s="44">
         <v>0</v>
@@ -18984,7 +18983,7 @@
         <v>853</v>
       </c>
       <c r="R188" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S188" s="44">
         <v>0</v>
@@ -19055,7 +19054,7 @@
         <v>910</v>
       </c>
       <c r="R189" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S189" s="44">
         <v>0</v>
@@ -19128,7 +19127,7 @@
         <v>17</v>
       </c>
       <c r="R190" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S190" s="44">
         <v>0</v>
@@ -19201,7 +19200,7 @@
         <v>17</v>
       </c>
       <c r="R191" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S191" s="44">
         <v>0</v>
@@ -19274,7 +19273,7 @@
         <v>17</v>
       </c>
       <c r="R192" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S192" s="44">
         <v>0</v>
@@ -19346,7 +19345,7 @@
         <v>17</v>
       </c>
       <c r="R193" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S193" s="44">
         <v>0</v>
@@ -19382,19 +19381,19 @@
         <v>2</v>
       </c>
       <c r="E194" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="G194" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="G194" s="6" t="s">
+      <c r="H194" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="I194" s="7" t="s">
         <v>1145</v>
-      </c>
-      <c r="I194" s="7" t="s">
-        <v>1146</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>5</v>
@@ -19418,7 +19417,7 @@
         <v>17</v>
       </c>
       <c r="R194" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S194" s="44">
         <v>0</v>
@@ -19453,22 +19452,22 @@
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F195" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G195" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="G195" s="6" t="s">
+      <c r="H195" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="I195" s="46" t="s">
         <v>1149</v>
       </c>
-      <c r="I195" s="46" t="s">
-        <v>1150</v>
-      </c>
       <c r="J195" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K195" s="6" t="s">
         <v>6</v>
@@ -19489,7 +19488,7 @@
         <v>17</v>
       </c>
       <c r="R195" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S195" s="44">
         <v>0</v>
@@ -19524,19 +19523,19 @@
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F196" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H196" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H196" s="7" t="s">
+      <c r="I196" s="7" t="s">
         <v>1152</v>
-      </c>
-      <c r="I196" s="7" t="s">
-        <v>1153</v>
       </c>
       <c r="J196" s="7" t="s">
         <v>806</v>
@@ -19557,10 +19556,10 @@
         <v>909</v>
       </c>
       <c r="Q196" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R196" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S196" s="44">
         <v>0</v>
@@ -19598,16 +19597,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="G197" s="6" t="s">
+      <c r="H197" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="H197" s="7" t="s">
+      <c r="I197" s="7" t="s">
         <v>983</v>
-      </c>
-      <c r="I197" s="7" t="s">
-        <v>984</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>5</v>
@@ -19628,10 +19627,10 @@
         <v>909</v>
       </c>
       <c r="Q197" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R197" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S197" s="44">
         <v>0</v>
@@ -19675,16 +19674,16 @@
         <v>605</v>
       </c>
       <c r="F198" s="28" t="s">
+        <v>956</v>
+      </c>
+      <c r="G198" s="28" t="s">
         <v>957</v>
       </c>
-      <c r="G198" s="28" t="s">
+      <c r="H198" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="I198" s="7" t="s">
         <v>959</v>
-      </c>
-      <c r="I198" s="7" t="s">
-        <v>960</v>
       </c>
       <c r="J198" s="6" t="s">
         <v>5</v>
@@ -19708,7 +19707,7 @@
         <v>72</v>
       </c>
       <c r="R198" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S198" s="44">
         <v>0</v>
@@ -19752,16 +19751,16 @@
         <v>15</v>
       </c>
       <c r="F199" s="28" t="s">
+        <v>944</v>
+      </c>
+      <c r="G199" s="43" t="s">
         <v>945</v>
       </c>
-      <c r="G199" s="43" t="s">
+      <c r="H199" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="I199" s="7" t="s">
         <v>947</v>
-      </c>
-      <c r="I199" s="7" t="s">
-        <v>948</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>5</v>
@@ -19785,7 +19784,7 @@
         <v>17</v>
       </c>
       <c r="R199" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S199" s="44">
         <v>0</v>
@@ -19823,16 +19822,16 @@
         <v>15</v>
       </c>
       <c r="F200" s="28" t="s">
+        <v>948</v>
+      </c>
+      <c r="G200" s="28" t="s">
         <v>949</v>
       </c>
-      <c r="G200" s="28" t="s">
+      <c r="H200" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="I200" s="7" t="s">
         <v>951</v>
-      </c>
-      <c r="I200" s="7" t="s">
-        <v>952</v>
       </c>
       <c r="J200" s="6" t="s">
         <v>5</v>
@@ -19856,7 +19855,7 @@
         <v>910</v>
       </c>
       <c r="R200" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S200" s="44">
         <v>0</v>
@@ -19894,16 +19893,16 @@
         <v>15</v>
       </c>
       <c r="F201" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="G201" s="28" t="s">
         <v>953</v>
       </c>
-      <c r="G201" s="28" t="s">
+      <c r="H201" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="I201" s="7" t="s">
         <v>955</v>
-      </c>
-      <c r="I201" s="7" t="s">
-        <v>956</v>
       </c>
       <c r="J201" s="6" t="s">
         <v>5</v>
@@ -19927,7 +19926,7 @@
         <v>910</v>
       </c>
       <c r="R201" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S201" s="44">
         <v>0</v>
@@ -19953,7 +19952,7 @@
         <v>91530105</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>884</v>
@@ -19965,16 +19964,16 @@
         <v>3</v>
       </c>
       <c r="F202" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="G202" s="6" t="s">
+      <c r="H202" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="I202" s="7" t="s">
         <v>1041</v>
-      </c>
-      <c r="I202" s="7" t="s">
-        <v>1042</v>
       </c>
       <c r="J202" s="6" t="s">
         <v>5</v>
@@ -19995,10 +19994,10 @@
         <v>909</v>
       </c>
       <c r="Q202" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R202" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S202" s="44">
         <v>0</v>
@@ -20024,7 +20023,7 @@
         <v>91530106</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>884</v>
@@ -20036,16 +20035,16 @@
         <v>3</v>
       </c>
       <c r="F203" s="28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G203" s="28" t="s">
         <v>1044</v>
       </c>
-      <c r="G203" s="28" t="s">
+      <c r="H203" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="I203" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="I203" s="7" t="s">
-        <v>1047</v>
       </c>
       <c r="J203" s="6" t="s">
         <v>5</v>
@@ -20066,10 +20065,10 @@
         <v>909</v>
       </c>
       <c r="Q203" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R203" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S203" s="44">
         <v>0</v>
@@ -20110,7 +20109,7 @@
         <v>912</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H204" s="7" t="s">
         <v>913</v>
@@ -20140,7 +20139,7 @@
         <v>918</v>
       </c>
       <c r="R204" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S204" s="44">
         <v>0</v>
@@ -20182,7 +20181,7 @@
         <v>919</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H205" s="7" t="s">
         <v>920</v>
@@ -20212,7 +20211,7 @@
         <v>918</v>
       </c>
       <c r="R205" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S205" s="44">
         <v>0</v>
@@ -20254,13 +20253,13 @@
         <v>922</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H206" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I206" s="7" t="s">
         <v>923</v>
-      </c>
-      <c r="I206" s="7" t="s">
-        <v>924</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>5</v>
@@ -20284,7 +20283,7 @@
         <v>918</v>
       </c>
       <c r="R206" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S206" s="44">
         <v>0</v>
@@ -20323,16 +20322,16 @@
         <v>3</v>
       </c>
       <c r="F207" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H207" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="G207" s="7" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H207" s="7" t="s">
+      <c r="I207" s="7" t="s">
         <v>926</v>
-      </c>
-      <c r="I207" s="7" t="s">
-        <v>927</v>
       </c>
       <c r="J207" s="7" t="s">
         <v>5</v>
@@ -20356,7 +20355,7 @@
         <v>918</v>
       </c>
       <c r="R207" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S207" s="44">
         <v>0</v>
@@ -20395,16 +20394,16 @@
         <v>3</v>
       </c>
       <c r="F208" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="G208" s="7" t="s">
+      <c r="H208" s="45" t="s">
         <v>987</v>
       </c>
-      <c r="H208" s="45" t="s">
+      <c r="I208" s="7" t="s">
         <v>988</v>
-      </c>
-      <c r="I208" s="7" t="s">
-        <v>989</v>
       </c>
       <c r="J208" s="7" t="s">
         <v>5</v>
@@ -20413,22 +20412,22 @@
         <v>231</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M208" s="7" t="s">
         <v>289</v>
       </c>
       <c r="N208" s="44" t="s">
+        <v>990</v>
+      </c>
+      <c r="O208" s="7" t="s">
         <v>991</v>
-      </c>
-      <c r="O208" s="7" t="s">
-        <v>992</v>
       </c>
       <c r="Q208" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R208" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S208" s="44">
         <v>0</v>
@@ -20460,7 +20459,7 @@
         <v>92530107</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>911</v>
@@ -20472,19 +20471,19 @@
         <v>3</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H209" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I209" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="I209" s="6" t="s">
+      <c r="J209" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="J209" s="7" t="s">
-        <v>1050</v>
       </c>
       <c r="K209" s="7" t="s">
         <v>231</v>
@@ -20505,7 +20504,7 @@
         <v>918</v>
       </c>
       <c r="R209" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S209" s="44">
         <v>0</v>
@@ -20531,7 +20530,7 @@
         <v>92530108</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>911</v>
@@ -20543,19 +20542,19 @@
         <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H210" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I210" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="I210" s="6" t="s">
-        <v>1052</v>
-      </c>
       <c r="J210" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K210" s="7" t="s">
         <v>231</v>
@@ -20576,7 +20575,7 @@
         <v>918</v>
       </c>
       <c r="R210" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S210" s="44">
         <v>0</v>
@@ -20602,7 +20601,7 @@
         <v>92530109</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>911</v>
@@ -20614,19 +20613,19 @@
         <v>3</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H211" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I211" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="I211" s="6" t="s">
-        <v>1054</v>
-      </c>
       <c r="J211" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K211" s="7" t="s">
         <v>231</v>
@@ -20647,7 +20646,7 @@
         <v>918</v>
       </c>
       <c r="R211" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S211" s="44">
         <v>0</v>
@@ -20673,7 +20672,7 @@
         <v>92530110</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>911</v>
@@ -20685,19 +20684,19 @@
         <v>3</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H212" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I212" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="I212" s="6" t="s">
-        <v>1056</v>
-      </c>
       <c r="J212" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K212" s="7" t="s">
         <v>231</v>
@@ -20718,7 +20717,7 @@
         <v>918</v>
       </c>
       <c r="R212" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S212" s="44">
         <v>0</v>
@@ -20744,7 +20743,7 @@
         <v>92530111</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>911</v>
@@ -20756,19 +20755,19 @@
         <v>3</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H213" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I213" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="I213" s="6" t="s">
-        <v>1058</v>
-      </c>
       <c r="J213" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K213" s="7" t="s">
         <v>231</v>
@@ -20789,7 +20788,7 @@
         <v>918</v>
       </c>
       <c r="R213" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S213" s="44">
         <v>0</v>
@@ -20815,7 +20814,7 @@
         <v>92530112</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>911</v>
@@ -20827,19 +20826,19 @@
         <v>3</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H214" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I214" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="I214" s="6" t="s">
-        <v>1060</v>
-      </c>
       <c r="J214" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K214" s="7" t="s">
         <v>231</v>
@@ -20860,7 +20859,7 @@
         <v>918</v>
       </c>
       <c r="R214" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S214" s="44">
         <v>0</v>
@@ -20886,7 +20885,7 @@
         <v>92530113</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>911</v>
@@ -20898,19 +20897,19 @@
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H215" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I215" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="I215" s="6" t="s">
-        <v>1062</v>
-      </c>
       <c r="J215" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K215" s="7" t="s">
         <v>231</v>
@@ -20931,7 +20930,7 @@
         <v>918</v>
       </c>
       <c r="R215" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S215" s="44">
         <v>0</v>
@@ -20957,7 +20956,7 @@
         <v>92530114</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>911</v>
@@ -20969,19 +20968,19 @@
         <v>3</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H216" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I216" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="I216" s="6" t="s">
-        <v>1064</v>
-      </c>
       <c r="J216" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K216" s="7" t="s">
         <v>231</v>
@@ -21002,7 +21001,7 @@
         <v>918</v>
       </c>
       <c r="R216" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S216" s="44">
         <v>0</v>
@@ -21028,7 +21027,7 @@
         <v>92530115</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>911</v>
@@ -21040,19 +21039,19 @@
         <v>3</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H217" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I217" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="I217" s="6" t="s">
-        <v>1066</v>
-      </c>
       <c r="J217" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K217" s="7" t="s">
         <v>231</v>
@@ -21073,7 +21072,7 @@
         <v>918</v>
       </c>
       <c r="R217" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S217" s="44">
         <v>0</v>
@@ -21102,7 +21101,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>2</v>
@@ -21111,16 +21110,16 @@
         <v>3</v>
       </c>
       <c r="F218" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="G218" s="7" t="s">
         <v>937</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>938</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>361</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J218" s="6" t="s">
         <v>5</v>
@@ -21129,10 +21128,10 @@
         <v>6</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M218" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N218" s="6" t="s">
         <v>9</v>
@@ -21144,10 +21143,10 @@
         <v>10</v>
       </c>
       <c r="Q218" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R218" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S218" s="44">
         <v>0</v>
@@ -21177,7 +21176,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>2</v>
@@ -21186,16 +21185,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="G219" s="7" t="s">
         <v>942</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>943</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>375</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J219" s="6" t="s">
         <v>5</v>
@@ -21204,10 +21203,10 @@
         <v>6</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N219" s="6" t="s">
         <v>9</v>
@@ -21219,10 +21218,10 @@
         <v>226</v>
       </c>
       <c r="Q219" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R219" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S219" s="44">
         <v>0</v>
@@ -21252,7 +21251,7 @@
         <v>35</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>2</v>
@@ -21261,16 +21260,16 @@
         <v>36</v>
       </c>
       <c r="F220" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G220" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="H220" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="H220" s="6" t="s">
+      <c r="I220" s="6" t="s">
         <v>1163</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>1164</v>
       </c>
       <c r="J220" s="6" t="s">
         <v>5</v>
@@ -21279,10 +21278,10 @@
         <v>6</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M220" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N220" s="6" t="s">
         <v>9</v>
@@ -21294,10 +21293,10 @@
         <v>40</v>
       </c>
       <c r="Q220" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R220" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S220" s="44">
         <v>0</v>
@@ -21326,7 +21325,7 @@
         <v>35</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>2</v>
@@ -21335,16 +21334,16 @@
         <v>41</v>
       </c>
       <c r="F221" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G221" s="7" t="s">
         <v>1165</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>1166</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>419</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>5</v>
@@ -21353,10 +21352,10 @@
         <v>6</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M221" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N221" s="6" t="s">
         <v>9</v>
@@ -21368,10 +21367,10 @@
         <v>43</v>
       </c>
       <c r="Q221" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R221" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S221" s="44">
         <v>0</v>
@@ -21400,7 +21399,7 @@
         <v>35</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>2</v>
@@ -21409,16 +21408,16 @@
         <v>41</v>
       </c>
       <c r="F222" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G222" s="7" t="s">
         <v>1168</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>1169</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>378</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J222" s="6" t="s">
         <v>5</v>
@@ -21427,10 +21426,10 @@
         <v>6</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N222" s="6" t="s">
         <v>9</v>
@@ -21442,10 +21441,10 @@
         <v>45</v>
       </c>
       <c r="Q222" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R222" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S222" s="44">
         <v>0</v>
@@ -21474,7 +21473,7 @@
         <v>35</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>2</v>
@@ -21483,16 +21482,16 @@
         <v>41</v>
       </c>
       <c r="F223" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G223" s="7" t="s">
         <v>1171</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>1172</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J223" s="6" t="s">
         <v>5</v>
@@ -21501,10 +21500,10 @@
         <v>6</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N223" s="6" t="s">
         <v>9</v>
@@ -21516,10 +21515,10 @@
         <v>303</v>
       </c>
       <c r="Q223" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R223" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S223" s="44">
         <v>0</v>
@@ -21548,7 +21547,7 @@
         <v>35</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>2</v>
@@ -21557,16 +21556,16 @@
         <v>41</v>
       </c>
       <c r="F224" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>1174</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>1175</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>420</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J224" s="6" t="s">
         <v>5</v>
@@ -21575,10 +21574,10 @@
         <v>6</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N224" s="6" t="s">
         <v>9</v>
@@ -21590,10 +21589,10 @@
         <v>159</v>
       </c>
       <c r="Q224" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R224" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S224" s="44">
         <v>0</v>
@@ -21628,7 +21627,7 @@
         <v>35</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>2</v>
@@ -21637,16 +21636,16 @@
         <v>46</v>
       </c>
       <c r="F225" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>1177</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>1178</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>421</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J225" s="6" t="s">
         <v>5</v>
@@ -21655,10 +21654,10 @@
         <v>6</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M225" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N225" s="6" t="s">
         <v>9</v>
@@ -21670,10 +21669,10 @@
         <v>301</v>
       </c>
       <c r="Q225" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R225" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S225" s="44">
         <v>0</v>
@@ -21708,7 +21707,7 @@
         <v>35</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>2</v>
@@ -21717,16 +21716,16 @@
         <v>47</v>
       </c>
       <c r="F226" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>1180</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>1181</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>641</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J226" s="6" t="s">
         <v>5</v>
@@ -21735,10 +21734,10 @@
         <v>6</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N226" s="6" t="s">
         <v>9</v>
@@ -21750,10 +21749,10 @@
         <v>642</v>
       </c>
       <c r="Q226" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R226" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S226" s="44">
         <v>0</v>
@@ -21788,7 +21787,7 @@
         <v>35</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>2</v>
@@ -21797,16 +21796,16 @@
         <v>47</v>
       </c>
       <c r="F227" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>1183</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>1184</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>379</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J227" s="6" t="s">
         <v>5</v>
@@ -21815,10 +21814,10 @@
         <v>6</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N227" s="6" t="s">
         <v>9</v>
@@ -21830,10 +21829,10 @@
         <v>49</v>
       </c>
       <c r="Q227" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R227" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S227" s="44">
         <v>0</v>
@@ -21868,7 +21867,7 @@
         <v>52</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>2</v>
@@ -21877,16 +21876,16 @@
         <v>3</v>
       </c>
       <c r="F228" s="25" t="s">
+        <v>992</v>
+      </c>
+      <c r="G228" s="7" t="s">
         <v>993</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>994</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>385</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J228" s="6" t="s">
         <v>5</v>
@@ -21895,10 +21894,10 @@
         <v>6</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M228" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N228" s="6" t="s">
         <v>9</v>
@@ -21907,10 +21906,10 @@
         <v>187</v>
       </c>
       <c r="Q228" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R228" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S228" s="44">
         <v>0</v>
@@ -21945,7 +21944,7 @@
         <v>52</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>2</v>
@@ -21954,16 +21953,16 @@
         <v>3</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="J229" s="6" t="s">
         <v>5</v>
@@ -21972,10 +21971,10 @@
         <v>6</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M229" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N229" s="6" t="s">
         <v>9</v>
@@ -21987,10 +21986,10 @@
         <v>54</v>
       </c>
       <c r="Q229" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R229" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S229" s="44">
         <v>0</v>
@@ -22025,7 +22024,7 @@
         <v>52</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>2</v>
@@ -22034,16 +22033,16 @@
         <v>3</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>384</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J230" s="6" t="s">
         <v>5</v>
@@ -22052,10 +22051,10 @@
         <v>6</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M230" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N230" s="6" t="s">
         <v>9</v>
@@ -22067,10 +22066,10 @@
         <v>54</v>
       </c>
       <c r="Q230" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R230" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S230" s="44">
         <v>0</v>
@@ -22105,7 +22104,7 @@
         <v>52</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>2</v>
@@ -22114,16 +22113,16 @@
         <v>3</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>714</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J231" s="6" t="s">
         <v>5</v>
@@ -22132,10 +22131,10 @@
         <v>6</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M231" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N231" s="6" t="s">
         <v>9</v>
@@ -22147,10 +22146,10 @@
         <v>54</v>
       </c>
       <c r="Q231" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R231" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S231" s="44">
         <v>0</v>
@@ -22185,7 +22184,7 @@
         <v>70</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>2</v>
@@ -22194,28 +22193,28 @@
         <v>605</v>
       </c>
       <c r="F232" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="G232" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="G232" s="7" t="s">
+      <c r="H232" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="H232" s="6" t="s">
+      <c r="I232" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="I232" s="6" t="s">
+      <c r="J232" s="7" t="s">
         <v>978</v>
-      </c>
-      <c r="J232" s="7" t="s">
-        <v>979</v>
       </c>
       <c r="K232" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M232" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N232" s="6" t="s">
         <v>9</v>
@@ -22224,13 +22223,13 @@
         <v>187</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q232" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R232" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S232" s="44">
         <v>0</v>
@@ -22262,10 +22261,10 @@
         <v>93530118</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>2</v>
@@ -22274,28 +22273,28 @@
         <v>3</v>
       </c>
       <c r="F233" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I233" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="G233" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>1075</v>
-      </c>
       <c r="J233" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K233" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M233" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N233" s="6" t="s">
         <v>9</v>
@@ -22304,10 +22303,10 @@
         <v>187</v>
       </c>
       <c r="Q233" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R233" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S233" s="44">
         <v>0</v>
@@ -22333,10 +22332,10 @@
         <v>93530119</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>2</v>
@@ -22345,28 +22344,28 @@
         <v>3</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K234" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M234" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N234" s="6" t="s">
         <v>9</v>
@@ -22375,10 +22374,10 @@
         <v>187</v>
       </c>
       <c r="Q234" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R234" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S234" s="44">
         <v>0</v>
@@ -22404,10 +22403,10 @@
         <v>93530120</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>2</v>
@@ -22416,28 +22415,28 @@
         <v>3</v>
       </c>
       <c r="F235" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I235" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="G235" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H235" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I235" s="6" t="s">
-        <v>1080</v>
-      </c>
       <c r="J235" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K235" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N235" s="6" t="s">
         <v>9</v>
@@ -22446,10 +22445,10 @@
         <v>187</v>
       </c>
       <c r="Q235" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R235" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S235" s="44">
         <v>0</v>
@@ -22475,10 +22474,10 @@
         <v>93530121</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
@@ -22487,28 +22486,28 @@
         <v>3</v>
       </c>
       <c r="F236" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I236" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="G236" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I236" s="6" t="s">
-        <v>1082</v>
-      </c>
       <c r="J236" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K236" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M236" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N236" s="6" t="s">
         <v>9</v>
@@ -22517,10 +22516,10 @@
         <v>187</v>
       </c>
       <c r="Q236" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R236" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S236" s="44">
         <v>0</v>
@@ -22546,10 +22545,10 @@
         <v>93530122</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>2</v>
@@ -22558,16 +22557,16 @@
         <v>3</v>
       </c>
       <c r="F237" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I237" s="6" t="s">
         <v>1083</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I237" s="6" t="s">
-        <v>1084</v>
       </c>
       <c r="J237" s="6" t="s">
         <v>5</v>
@@ -22576,10 +22575,10 @@
         <v>6</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M237" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N237" s="6" t="s">
         <v>9</v>
@@ -22588,10 +22587,10 @@
         <v>187</v>
       </c>
       <c r="Q237" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R237" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S237" s="44">
         <v>0</v>
@@ -22617,10 +22616,10 @@
         <v>93530123</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>2</v>
@@ -22629,28 +22628,28 @@
         <v>3</v>
       </c>
       <c r="F238" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I238" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="G238" s="7" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H238" s="6" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I238" s="6" t="s">
-        <v>1086</v>
-      </c>
       <c r="J238" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K238" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M238" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N238" s="6" t="s">
         <v>9</v>
@@ -22660,10 +22659,10 @@
       </c>
       <c r="P238" s="6"/>
       <c r="Q238" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R238" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S238" s="44">
         <v>0</v>
@@ -22735,7 +22734,7 @@
         <v>17</v>
       </c>
       <c r="R239" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="S239" s="44">
         <v>0</v>
@@ -22773,16 +22772,16 @@
         <v>3</v>
       </c>
       <c r="F240" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="G240" s="42" t="s">
         <v>928</v>
       </c>
-      <c r="G240" s="42" t="s">
+      <c r="H240" s="42" t="s">
         <v>929</v>
       </c>
-      <c r="H240" s="42" t="s">
+      <c r="I240" s="42" t="s">
         <v>930</v>
-      </c>
-      <c r="I240" s="42" t="s">
-        <v>931</v>
       </c>
       <c r="J240" s="40" t="s">
         <v>806</v>
@@ -22791,7 +22790,7 @@
         <v>231</v>
       </c>
       <c r="L240" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M240" s="40" t="s">
         <v>8</v>
@@ -22807,7 +22806,7 @@
         <v>17</v>
       </c>
       <c r="R240" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="S240" s="44">
         <v>0</v>
@@ -22846,16 +22845,16 @@
         <v>3</v>
       </c>
       <c r="F241" s="41" t="s">
+        <v>932</v>
+      </c>
+      <c r="G241" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="G241" s="42" t="s">
+      <c r="H241" s="42" t="s">
         <v>934</v>
       </c>
-      <c r="H241" s="42" t="s">
+      <c r="I241" s="42" t="s">
         <v>935</v>
-      </c>
-      <c r="I241" s="42" t="s">
-        <v>936</v>
       </c>
       <c r="J241" s="40" t="s">
         <v>5</v>
@@ -22864,7 +22863,7 @@
         <v>231</v>
       </c>
       <c r="L241" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M241" s="40" t="s">
         <v>8</v>
@@ -22880,7 +22879,7 @@
         <v>17</v>
       </c>
       <c r="R241" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="S241" s="44">
         <v>0</v>
@@ -22919,16 +22918,16 @@
         <v>47</v>
       </c>
       <c r="F242" s="41" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G242" s="41" t="s">
         <v>1155</v>
       </c>
-      <c r="G242" s="41" t="s">
+      <c r="H242" s="40" t="s">
         <v>1156</v>
       </c>
-      <c r="H242" s="40" t="s">
+      <c r="I242" s="41" t="s">
         <v>1157</v>
-      </c>
-      <c r="I242" s="41" t="s">
-        <v>1158</v>
       </c>
       <c r="J242" s="40" t="s">
         <v>5</v>
@@ -22943,17 +22942,17 @@
         <v>8</v>
       </c>
       <c r="N242" s="41" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O242" s="40" t="s">
         <v>1159</v>
-      </c>
-      <c r="O242" s="40" t="s">
-        <v>1160</v>
       </c>
       <c r="P242" s="40"/>
       <c r="Q242" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R242" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="S242" s="44">
         <v>0</v>
@@ -22992,41 +22991,41 @@
         <v>605</v>
       </c>
       <c r="F243" s="41" t="s">
+        <v>960</v>
+      </c>
+      <c r="G243" s="41" t="s">
         <v>961</v>
       </c>
-      <c r="G243" s="41" t="s">
+      <c r="H243" s="40" t="s">
         <v>962</v>
       </c>
-      <c r="H243" s="40" t="s">
+      <c r="I243" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="I243" s="41" t="s">
+      <c r="J243" s="40" t="s">
         <v>964</v>
-      </c>
-      <c r="J243" s="40" t="s">
-        <v>965</v>
       </c>
       <c r="K243" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L243" s="40" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M243" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N243" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="O243" s="40" t="s">
         <v>967</v>
-      </c>
-      <c r="O243" s="40" t="s">
-        <v>968</v>
       </c>
       <c r="P243" s="40"/>
       <c r="Q243" s="40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="R243" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S243" s="44">
         <v>0</v>
@@ -23070,41 +23069,41 @@
         <v>605</v>
       </c>
       <c r="F244" s="41" t="s">
+        <v>969</v>
+      </c>
+      <c r="G244" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="G244" s="41" t="s">
+      <c r="H244" s="40" t="s">
         <v>971</v>
       </c>
-      <c r="H244" s="40" t="s">
+      <c r="I244" s="41" t="s">
         <v>972</v>
       </c>
-      <c r="I244" s="41" t="s">
+      <c r="J244" s="40" t="s">
         <v>973</v>
-      </c>
-      <c r="J244" s="40" t="s">
-        <v>974</v>
       </c>
       <c r="K244" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L244" s="40" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M244" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N244" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="O244" s="40" t="s">
         <v>967</v>
-      </c>
-      <c r="O244" s="40" t="s">
-        <v>968</v>
       </c>
       <c r="P244" s="40"/>
       <c r="Q244" s="40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="R244" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S244" s="44">
         <v>0</v>
@@ -23136,7 +23135,7 @@
         <v>94530116</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C245" s="40" t="s">
         <v>875</v>
@@ -23148,16 +23147,16 @@
         <v>3</v>
       </c>
       <c r="F245" s="41" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G245" s="42" t="s">
         <v>1067</v>
       </c>
-      <c r="G245" s="42" t="s">
+      <c r="H245" s="42" t="s">
         <v>1068</v>
       </c>
-      <c r="H245" s="42" t="s">
+      <c r="I245" s="42" t="s">
         <v>1069</v>
-      </c>
-      <c r="I245" s="42" t="s">
-        <v>1070</v>
       </c>
       <c r="J245" s="40" t="s">
         <v>806</v>
@@ -23166,7 +23165,7 @@
         <v>231</v>
       </c>
       <c r="L245" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M245" s="40" t="s">
         <v>8</v>
@@ -23182,7 +23181,7 @@
         <v>17</v>
       </c>
       <c r="R245" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="S245" s="44">
         <v>0</v>
@@ -23209,7 +23208,7 @@
         <v>94530117</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C246" s="40" t="s">
         <v>875</v>
@@ -23221,16 +23220,16 @@
         <v>3</v>
       </c>
       <c r="F246" s="41" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G246" s="42" t="s">
         <v>1071</v>
       </c>
-      <c r="G246" s="42" t="s">
+      <c r="H246" s="42" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I246" s="42" t="s">
         <v>1072</v>
-      </c>
-      <c r="H246" s="42" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I246" s="42" t="s">
-        <v>1073</v>
       </c>
       <c r="J246" s="40" t="s">
         <v>5</v>
@@ -23239,7 +23238,7 @@
         <v>231</v>
       </c>
       <c r="L246" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M246" s="40" t="s">
         <v>8</v>
@@ -23255,7 +23254,7 @@
         <v>17</v>
       </c>
       <c r="R246" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="S246" s="44">
         <v>0</v>
@@ -23285,25 +23284,25 @@
         <v>884</v>
       </c>
       <c r="D247" s="40" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F247" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="E247" s="40" t="s">
+      <c r="G247" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="H247" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="G247" s="6" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H247" s="6" t="s">
+      <c r="I247" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="I247" s="6" t="s">
+      <c r="J247" s="6" t="s">
         <v>1189</v>
-      </c>
-      <c r="J247" s="6" t="s">
-        <v>1190</v>
       </c>
       <c r="K247" s="6" t="s">
         <v>6</v>
@@ -23325,7 +23324,7 @@
         <v>910</v>
       </c>
       <c r="R247" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S247" s="7">
         <v>0</v>
@@ -23355,22 +23354,22 @@
         <v>911</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F248" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="G248" s="7" t="s">
+      <c r="H248" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="I248" s="7" t="s">
         <v>1193</v>
-      </c>
-      <c r="I248" s="7" t="s">
-        <v>1194</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>5</v>
@@ -23391,10 +23390,10 @@
         <v>917</v>
       </c>
       <c r="Q248" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R248" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S248" s="7">
         <v>0</v>
@@ -23424,22 +23423,22 @@
         <v>911</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F249" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="H249" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="I249" s="7" t="s">
         <v>1198</v>
-      </c>
-      <c r="I249" s="7" t="s">
-        <v>1199</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>5</v>
@@ -23460,10 +23459,10 @@
         <v>917</v>
       </c>
       <c r="Q249" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R249" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S249" s="7">
         <v>0</v>
@@ -23493,22 +23492,22 @@
         <v>911</v>
       </c>
       <c r="D250" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F250" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="G250" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="H250" s="7" t="s">
+      <c r="I250" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="I250" s="7" t="s">
-        <v>1203</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>5</v>
@@ -23529,10 +23528,10 @@
         <v>917</v>
       </c>
       <c r="Q250" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R250" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S250" s="7">
         <v>0</v>
@@ -23562,22 +23561,22 @@
         <v>911</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F251" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="G251" s="7" t="s">
+      <c r="H251" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="H251" s="7" t="s">
+      <c r="I251" s="7" t="s">
         <v>1206</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>1207</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>5</v>
@@ -23598,10 +23597,10 @@
         <v>917</v>
       </c>
       <c r="Q251" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R251" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S251" s="7">
         <v>0</v>
@@ -23632,22 +23631,22 @@
         <v>911</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F252" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="G252" s="7" t="s">
+      <c r="H252" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="H252" s="7" t="s">
+      <c r="I252" s="7" t="s">
         <v>1210</v>
-      </c>
-      <c r="I252" s="7" t="s">
-        <v>1211</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>5</v>
@@ -23669,10 +23668,10 @@
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R252" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S252" s="7">
         <v>0</v>
@@ -23707,22 +23706,22 @@
         <v>911</v>
       </c>
       <c r="D253" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F253" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="G253" s="7" t="s">
+      <c r="H253" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="H253" s="7" t="s">
+      <c r="I253" s="7" t="s">
         <v>1214</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>1215</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>5</v>
@@ -23743,10 +23742,10 @@
         <v>917</v>
       </c>
       <c r="Q253" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R253" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S253" s="7">
         <v>0</v>
@@ -23783,22 +23782,22 @@
         <v>911</v>
       </c>
       <c r="D254" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F254" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="G254" s="7" t="s">
+      <c r="H254" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="H254" s="7" t="s">
+      <c r="I254" s="7" t="s">
         <v>1218</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>1219</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>5</v>
@@ -23819,10 +23818,10 @@
         <v>917</v>
       </c>
       <c r="Q254" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R254" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S254" s="7">
         <v>0</v>
@@ -23860,22 +23859,22 @@
         <v>911</v>
       </c>
       <c r="D255" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="G255" s="7" t="s">
+      <c r="H255" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="H255" s="7" t="s">
+      <c r="I255" s="7" t="s">
         <v>1222</v>
-      </c>
-      <c r="I255" s="7" t="s">
-        <v>1223</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>5</v>
@@ -23897,10 +23896,10 @@
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R255" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S255" s="7">
         <v>0</v>
@@ -23937,22 +23936,22 @@
         <v>911</v>
       </c>
       <c r="D256" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F256" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="G256" s="7" t="s">
+      <c r="H256" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="I256" s="7" t="s">
         <v>1226</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>1227</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>5</v>
@@ -23974,10 +23973,10 @@
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R256" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S256" s="7">
         <v>0</v>
@@ -24014,22 +24013,22 @@
         <v>911</v>
       </c>
       <c r="D257" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F257" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="G257" s="7" t="s">
+      <c r="H257" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="H257" s="7" t="s">
+      <c r="I257" s="7" t="s">
         <v>1230</v>
-      </c>
-      <c r="I257" s="7" t="s">
-        <v>1231</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>5</v>
@@ -24051,10 +24050,10 @@
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R257" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S257" s="7">
         <v>0</v>
@@ -24091,25 +24090,25 @@
         <v>911</v>
       </c>
       <c r="D258" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F258" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H258" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="G258" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H258" s="7" t="s">
+      <c r="I258" s="45" t="s">
         <v>1233</v>
       </c>
-      <c r="I258" s="45" t="s">
-        <v>1234</v>
-      </c>
       <c r="J258" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K258" s="7" t="s">
         <v>231</v>
@@ -24131,7 +24130,7 @@
         <v>918</v>
       </c>
       <c r="R258" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S258" s="7">
         <v>0</v>
@@ -24168,25 +24167,25 @@
         <v>911</v>
       </c>
       <c r="D259" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F259" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H259" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="G259" s="7" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H259" s="7" t="s">
-        <v>1236</v>
-      </c>
       <c r="I259" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J259" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K259" s="7" t="s">
         <v>231</v>
@@ -24208,7 +24207,7 @@
         <v>918</v>
       </c>
       <c r="R259" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S259" s="7">
         <v>0</v>
@@ -24245,25 +24244,25 @@
         <v>911</v>
       </c>
       <c r="D260" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F260" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H260" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="G260" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H260" s="7" t="s">
-        <v>1238</v>
-      </c>
       <c r="I260" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J260" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K260" s="7" t="s">
         <v>231</v>
@@ -24285,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="R260" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S260" s="7">
         <v>0</v>
@@ -24322,25 +24321,25 @@
         <v>911</v>
       </c>
       <c r="D261" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F261" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H261" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="G261" s="7" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H261" s="7" t="s">
-        <v>1240</v>
-      </c>
       <c r="I261" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J261" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K261" s="7" t="s">
         <v>231</v>
@@ -24362,7 +24361,7 @@
         <v>918</v>
       </c>
       <c r="R261" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S261" s="7">
         <v>0</v>
@@ -24399,25 +24398,25 @@
         <v>911</v>
       </c>
       <c r="D262" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F262" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H262" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="G262" s="7" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H262" s="7" t="s">
-        <v>1242</v>
-      </c>
       <c r="I262" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J262" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K262" s="7" t="s">
         <v>231</v>
@@ -24439,7 +24438,7 @@
         <v>918</v>
       </c>
       <c r="R262" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S262" s="7">
         <v>0</v>
@@ -24473,34 +24472,34 @@
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D263" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H263" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I263" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="I263" s="6" t="s">
-        <v>1274</v>
-      </c>
       <c r="J263" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K263" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="M263" s="6" t="s">
         <v>8</v>
@@ -24513,10 +24512,10 @@
       </c>
       <c r="P263" s="7"/>
       <c r="Q263" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R263" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S263" s="7">
         <v>0</v>
@@ -24547,22 +24546,22 @@
         <v>875</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F264" s="40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G264" s="41" t="s">
         <v>1243</v>
       </c>
-      <c r="G264" s="41" t="s">
+      <c r="H264" s="40" t="s">
         <v>1244</v>
       </c>
-      <c r="H264" s="40" t="s">
+      <c r="I264" s="41" t="s">
         <v>1245</v>
-      </c>
-      <c r="I264" s="41" t="s">
-        <v>1246</v>
       </c>
       <c r="J264" s="40" t="s">
         <v>806</v>
@@ -24571,23 +24570,23 @@
         <v>231</v>
       </c>
       <c r="L264" s="40" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M264" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N264" s="41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O264" s="40" t="s">
         <v>1248</v>
-      </c>
-      <c r="O264" s="40" t="s">
-        <v>1249</v>
       </c>
       <c r="P264" s="40"/>
       <c r="Q264" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R264" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="S264" s="7">
         <v>0</v>
@@ -24624,47 +24623,47 @@
         <v>875</v>
       </c>
       <c r="D265" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F265" s="41" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G265" s="41" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H265" s="47" t="s">
         <v>1250</v>
       </c>
-      <c r="G265" s="41" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H265" s="47" t="s">
+      <c r="I265" s="41" t="s">
         <v>1251</v>
       </c>
-      <c r="I265" s="41" t="s">
-        <v>1252</v>
-      </c>
       <c r="J265" s="41" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K265" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L265" s="40" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M265" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N265" s="41" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O265" s="40" t="s">
         <v>1253</v>
-      </c>
-      <c r="O265" s="40" t="s">
-        <v>1254</v>
       </c>
       <c r="P265" s="40"/>
       <c r="Q265" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R265" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="S265" s="7">
         <v>0</v>
@@ -24701,22 +24700,22 @@
         <v>875</v>
       </c>
       <c r="D266" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F266" s="40" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G266" s="41" t="s">
         <v>1255</v>
       </c>
-      <c r="G266" s="41" t="s">
+      <c r="H266" s="47" t="s">
         <v>1256</v>
       </c>
-      <c r="H266" s="47" t="s">
+      <c r="I266" s="41" t="s">
         <v>1257</v>
-      </c>
-      <c r="I266" s="41" t="s">
-        <v>1258</v>
       </c>
       <c r="J266" s="40" t="s">
         <v>806</v>
@@ -24725,23 +24724,23 @@
         <v>231</v>
       </c>
       <c r="L266" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M266" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N266" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="O266" s="40" t="s">
         <v>1259</v>
-      </c>
-      <c r="O266" s="40" t="s">
-        <v>1260</v>
       </c>
       <c r="P266" s="40"/>
       <c r="Q266" s="40" t="s">
         <v>208</v>
       </c>
       <c r="R266" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="S266" s="7">
         <v>0</v>
@@ -24778,47 +24777,47 @@
         <v>875</v>
       </c>
       <c r="D267" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E267" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F267" s="41" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G267" s="41" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H267" s="47" t="s">
         <v>1261</v>
       </c>
-      <c r="G267" s="41" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H267" s="47" t="s">
+      <c r="I267" s="41" t="s">
         <v>1262</v>
       </c>
-      <c r="I267" s="41" t="s">
-        <v>1263</v>
-      </c>
       <c r="J267" s="40" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K267" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L267" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M267" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N267" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O267" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="P267" s="40"/>
       <c r="Q267" s="40" t="s">
         <v>208</v>
       </c>
       <c r="R267" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="S267" s="7">
         <v>0</v>
@@ -24855,22 +24854,22 @@
         <v>875</v>
       </c>
       <c r="D268" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E268" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F268" s="40" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G268" s="41" t="s">
         <v>1264</v>
       </c>
-      <c r="G268" s="41" t="s">
+      <c r="H268" s="47" t="s">
         <v>1265</v>
       </c>
-      <c r="H268" s="47" t="s">
+      <c r="I268" s="41" t="s">
         <v>1266</v>
-      </c>
-      <c r="I268" s="41" t="s">
-        <v>1267</v>
       </c>
       <c r="J268" s="40" t="s">
         <v>806</v>
@@ -24885,17 +24884,17 @@
         <v>8</v>
       </c>
       <c r="N268" s="41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O268" s="40" t="s">
         <v>1268</v>
-      </c>
-      <c r="O268" s="40" t="s">
-        <v>1269</v>
       </c>
       <c r="P268" s="40"/>
       <c r="Q268" s="40" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R268" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="S268" s="7">
         <v>0</v>
@@ -24932,25 +24931,25 @@
         <v>875</v>
       </c>
       <c r="D269" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F269" s="41" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G269" s="41" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H269" s="47" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I269" s="41" t="s">
         <v>1271</v>
       </c>
-      <c r="G269" s="41" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H269" s="47" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I269" s="41" t="s">
-        <v>1272</v>
-      </c>
       <c r="J269" s="40" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K269" s="40" t="s">
         <v>231</v>
@@ -24962,17 +24961,17 @@
         <v>8</v>
       </c>
       <c r="N269" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O269" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="P269" s="40"/>
       <c r="Q269" s="40" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R269" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="S269" s="7">
         <v>0</v>
@@ -25046,7 +25045,7 @@
         <v>333</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -25062,7 +25061,7 @@
         <v>732</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -25078,7 +25077,7 @@
         <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -25086,7 +25085,7 @@
         <v>337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -25158,7 +25157,7 @@
         <v>346</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -25171,10 +25170,10 @@
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -25219,10 +25218,10 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -4750,10 +4750,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24616,7 +24616,7 @@
     </row>
     <row r="265" spans="1:38" s="44" customFormat="1">
       <c r="A265" s="50">
-        <v>940199999</v>
+        <v>940499999</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="40" t="s">
@@ -24693,7 +24693,7 @@
     </row>
     <row r="266" spans="1:38" s="44" customFormat="1">
       <c r="A266" s="50">
-        <v>940199999</v>
+        <v>940299999</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="40" t="s">
@@ -24770,7 +24770,7 @@
     </row>
     <row r="267" spans="1:38" s="44" customFormat="1">
       <c r="A267" s="50">
-        <v>940199999</v>
+        <v>940599999</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="40" t="s">
@@ -24847,7 +24847,7 @@
     </row>
     <row r="268" spans="1:38" s="44" customFormat="1">
       <c r="A268" s="50">
-        <v>940199999</v>
+        <v>940399999</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="40" t="s">
@@ -24924,7 +24924,7 @@
     </row>
     <row r="269" spans="1:38" s="44" customFormat="1">
       <c r="A269" s="50">
-        <v>940199999</v>
+        <v>940699999</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="40" t="s">
@@ -25009,7 +25009,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AL269"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -4738,10 +4738,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41:N43"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -4093,11 +4093,6 @@
 Los datos de 2021 corresponden al mes de noviembre.</t>
   </si>
   <si>
-    <t>Los datos de 2016 corresponden al mes de noviembre.
-Los datos de 2017 corresponden al promedio de los meses de enero, agosto y diciembre.
-Los datos de 2021 corresponden al promedio de los meses de enero a noviembre.</t>
-  </si>
-  <si>
     <t>Los datos de 2015 corresponden al promedio mayo-diciembre.</t>
   </si>
   <si>
@@ -4153,6 +4148,12 @@
   </si>
   <si>
     <t>UMAD con base en Memoria Anual Ministerio de Vivienda 2019</t>
+  </si>
+  <si>
+    <t>Los datos de 2016 corresponden al mes de noviembre.
+Los datos de 2017 corresponden al promedio de los meses de enero, agosto y diciembre.
+Los datos de 2019 corresponden al promedio de los meses de enero a noviembre.
+Los datos de 2021 corresponden al promedio de los meses de enero a noviembre.</t>
   </si>
 </sst>
 </file>
@@ -4269,7 +4270,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4417,6 +4418,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4738,10 +4743,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="R1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
+      <selection pane="bottomLeft" activeCell="R159" sqref="A159:XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4751,7 +4756,7 @@
     <col min="3" max="3" width="41.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="94.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="126.5703125" style="13" customWidth="1"/>
     <col min="7" max="7" width="157.28515625" style="13" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="181.140625" style="13" customWidth="1"/>
@@ -7757,7 +7762,7 @@
         <v>311</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6" t="s">
@@ -7840,7 +7845,7 @@
         <v>311</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="6" t="s">
@@ -7923,7 +7928,7 @@
         <v>311</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P43" s="25"/>
       <c r="Q43" s="6" t="s">
@@ -10211,7 +10216,7 @@
         <v>658</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>690</v>
@@ -10383,7 +10388,7 @@
         <v>662</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>692</v>
@@ -20244,7 +20249,7 @@
         <v>1300</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>916</v>
@@ -22722,7 +22727,7 @@
         <v>17</v>
       </c>
       <c r="R239" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="S239" s="44">
         <v>0</v>
@@ -22940,7 +22945,7 @@
         <v>17</v>
       </c>
       <c r="R242" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="S242" s="44">
         <v>0</v>
@@ -23122,54 +23127,54 @@
       <c r="A245" s="50">
         <v>94530116</v>
       </c>
-      <c r="B245" s="40" t="s">
+      <c r="B245" s="58" t="s">
         <v>992</v>
       </c>
-      <c r="C245" s="40" t="s">
+      <c r="C245" s="58" t="s">
         <v>868</v>
       </c>
-      <c r="D245" s="40" t="s">
+      <c r="D245" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F245" s="41" t="s">
+      <c r="F245" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="G245" s="42" t="s">
+      <c r="G245" s="59" t="s">
         <v>1060</v>
       </c>
-      <c r="H245" s="42" t="s">
+      <c r="H245" s="59" t="s">
         <v>1061</v>
       </c>
-      <c r="I245" s="42" t="s">
+      <c r="I245" s="59" t="s">
         <v>1062</v>
       </c>
-      <c r="J245" s="40" t="s">
+      <c r="J245" s="58" t="s">
         <v>799</v>
       </c>
-      <c r="K245" s="40" t="s">
+      <c r="K245" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="L245" s="40" t="s">
+      <c r="L245" s="58" t="s">
         <v>924</v>
       </c>
-      <c r="M245" s="40" t="s">
+      <c r="M245" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N245" s="40" t="s">
+      <c r="N245" s="58" t="s">
         <v>875</v>
       </c>
-      <c r="O245" s="40" t="s">
+      <c r="O245" s="58" t="s">
         <v>876</v>
       </c>
-      <c r="P245" s="40"/>
-      <c r="Q245" s="40" t="s">
+      <c r="P245" s="58"/>
+      <c r="Q245" s="58" t="s">
         <v>17</v>
       </c>
       <c r="R245" s="6" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="S245" s="44">
         <v>0</v>
@@ -23195,54 +23200,54 @@
       <c r="A246" s="50">
         <v>94530117</v>
       </c>
-      <c r="B246" s="40" t="s">
+      <c r="B246" s="58" t="s">
         <v>992</v>
       </c>
-      <c r="C246" s="40" t="s">
+      <c r="C246" s="58" t="s">
         <v>868</v>
       </c>
-      <c r="D246" s="40" t="s">
+      <c r="D246" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F246" s="41" t="s">
+      <c r="F246" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="G246" s="42" t="s">
+      <c r="G246" s="59" t="s">
         <v>1064</v>
       </c>
-      <c r="H246" s="42" t="s">
+      <c r="H246" s="59" t="s">
         <v>1325</v>
       </c>
-      <c r="I246" s="42" t="s">
+      <c r="I246" s="59" t="s">
         <v>1065</v>
       </c>
-      <c r="J246" s="40" t="s">
+      <c r="J246" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="K246" s="40" t="s">
+      <c r="K246" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="L246" s="40" t="s">
+      <c r="L246" s="58" t="s">
         <v>924</v>
       </c>
-      <c r="M246" s="40" t="s">
+      <c r="M246" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N246" s="40" t="s">
+      <c r="N246" s="58" t="s">
         <v>875</v>
       </c>
-      <c r="O246" s="40" t="s">
+      <c r="O246" s="58" t="s">
         <v>876</v>
       </c>
-      <c r="P246" s="40"/>
-      <c r="Q246" s="40" t="s">
+      <c r="P246" s="58"/>
+      <c r="Q246" s="58" t="s">
         <v>17</v>
       </c>
       <c r="R246" s="6" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="S246" s="44">
         <v>0</v>
@@ -24574,7 +24579,7 @@
         <v>17</v>
       </c>
       <c r="R264" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S264" s="7">
         <v>0</v>
@@ -24651,7 +24656,7 @@
         <v>17</v>
       </c>
       <c r="R265" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S265" s="7">
         <v>0</v>
@@ -24728,7 +24733,7 @@
         <v>208</v>
       </c>
       <c r="R266" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="S266" s="7">
         <v>0</v>
@@ -24805,7 +24810,7 @@
         <v>208</v>
       </c>
       <c r="R267" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S267" s="7">
         <v>0</v>
@@ -24882,7 +24887,7 @@
         <v>1262</v>
       </c>
       <c r="R268" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S268" s="7">
         <v>0</v>
@@ -24959,7 +24964,7 @@
         <v>1262</v>
       </c>
       <c r="R269" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="S269" s="7">
         <v>0</v>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -16,14 +16,14 @@
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AL$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$270</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1364">
   <si>
     <t>id</t>
   </si>
@@ -2667,15 +2667,6 @@
     <t>UMAD con base en Comisionado Parlamentario Penitenciario en base a infomación del INR.</t>
   </si>
   <si>
-    <t>LGTBIQ+</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Estudiantes de educación media que consideran que fueron agredidos por ser gay, lesbiana o bisexual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Personas LGTBIQ+) Porcentaje de estudiantes de educación media que consideran que fueron agredidos por ser gay, lesbiana o bisexual. País urbano </t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de estudiantes encuestados en la Encuesta Convivencia y Discriminación en Educación Media que entienden que fueron agredidos por ser gay, lesbiana o bisexual.</t>
   </si>
   <si>
@@ -2691,46 +2682,22 @@
     <t>UMAD con base en Observatorio Social MIDES en base a Encuesta Convivencia y Discriminación Educación Media (MIDES-BID)</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Estudiantes de educación media que consideran que fueron agredidos por ser trans.</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de estudiantes de educación media que consideran que fueron agredidos por ser trans. País urbano</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de estudiantes encuestados en la Encuesta Convivencia y Discriminación en Educación Media que entienden que fueron agredidos por ser trans.</t>
   </si>
   <si>
     <t>Calcular: (Cantidad de estudiantes que fueron agredidos por ser trans / Cantidad de estudiantes encuestados)*100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Estudiantes de educación media que escucharon comentarios negativos hacia otro estudiante por ser gay, lesbiana o bisexual.</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de estudiantes de educación media que escucharon comentarios negativos hacia otro estudiante por ser gay, lesbiana o bisexual. País urbano</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de estudiantes encuestados en la Encuesta Convivencia y Discriminación en Educación Media que escucharon comentarios negativos hacia otro estudiante por ser gay, lesbiana o bisexual.</t>
   </si>
   <si>
     <t>Calcular: (Cantidad de estudiantes que escucharon comentarios negativos hacia otros estudiantes por ser gay,lesbiana o bisexual / Cantidad de estudiantes encuestados)*100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Estudiantes de educación media que manifiestan que en su centro se realizan actividades o se tratan temas para trabajar diversidad sexual.</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de estudiantes de educación media que manifiestan que en su centro se realizan actividades o se tratan temas para trabajar diversidad sexual. País urbano</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de estudiantes  encuestados en la Encuesta Convivencia y Discriminación en Educación Media que manifiestan que en su centro se realizan actividades o se tratan temas para trabajar diversidad sexual.</t>
   </si>
   <si>
     <t>Calcular: (Cantidad de estudiantes que manifiestan que en su centro se realizan actividades o se tratan temas para trabajar diversidad sexual / Cantidad de estudiantes encuestados)*100</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Desvinculación educativa (personas trans)</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Promedio de edad en que las personas trans interrumpieron sus estudios formales</t>
   </si>
   <si>
     <t>El indicador muestra la edad promedio en que las mujeres y varones trans se desvincularon del sistema
@@ -2849,12 +2816,6 @@
     <t>Para cada quinquenio y condición migratoria calcular:(Cantidad de personas de 20 años o más que no culminaron la educación media superior / Cantidad de población de 20 años o más)*100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Personas trans con discapacidad</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans que declaran estar en situación de discapacidad</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de personas trans que declaran estar en situación de discapacidad.</t>
   </si>
   <si>
@@ -2862,12 +2823,6 @@
 personas trans) *100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Personas trans que han sufrido discriminación al menos una vez debido a su identidad de género</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans que han sufrido discriminación al menos una vez debido a su identidad de género</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de personas trans que han sufrido discriminación al menos una vez debido a su identidad de género.</t>
   </si>
   <si>
@@ -2875,24 +2830,12 @@
 género/Cantidad total de personas trans)*100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Personas trans que han sufrido violencia física debido a su identidad de género</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans que han sufrido violencia física debido a su identidad de género</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de personas trans que han sufrido violencia física debido a su identidad de género.</t>
   </si>
   <si>
     <t>Para cada identidad de género calcular:  (Cantidad de personas trans que han sufrido violencia física debido a su identidad de género/Cantidad total de personas trans)*100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Cobertura de salud integral por departamento (personas trans)</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans que se atienden en un centro de salud según departamento</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de personas trans que se atienden en un centro de salud según departamento.</t>
   </si>
   <si>
@@ -2957,12 +2900,6 @@
   </si>
   <si>
     <t>Poseer cobertura de salud</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Personas trans que reciben transferencias monetarias</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans con cobertura de TUS-Trans</t>
   </si>
   <si>
     <t>El indicador muestra el porcentaje de personas trans con cobertura de TUS-Trans.</t>
@@ -3134,12 +3071,6 @@
     <t>Amparo Ley 16074 BSE</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Formación o capacitación laboral</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans según área en la que le gustaría recibir formación o capacitación laboral</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de personas trans según área en la que le gustaría recibir formación o capacitación laboral.</t>
   </si>
   <si>
@@ -3147,12 +3078,6 @@
   </si>
   <si>
     <t>Área de capacitación</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Desempleo (personas trans)</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans que buscan empleo</t>
   </si>
   <si>
     <t>El indicador muestra el porcentaje de personas trans que buscaron empleo en el último año previo al censo y no lo consiguieron.</t>
@@ -3447,12 +3372,6 @@
     <t>Asequibilidad</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Personas trans que viven con su familia de origen</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Porcentaje de personas trans que viven con su familia de origen</t>
-  </si>
-  <si>
     <t>El indicador muestra el porcentaje de personas trans que viven con su familia de origen.</t>
   </si>
   <si>
@@ -3460,20 +3379,11 @@
 personas trans)*100</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Distribución porcentual de personas trans según tipo de vivienda.</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Distribución porcentual de personas trans según tipo de vivienda</t>
-  </si>
-  <si>
     <t xml:space="preserve">El indicador muestra la distribución porcentual de personas trans según tipo de vivienda. 
 </t>
   </si>
   <si>
     <t>Calcular: (Cantidad de personas trans en cada tipo de vivienda/Cantidad total de personas trans)*100</t>
-  </si>
-  <si>
-    <t>(Personas LGTBIQ+) Promedio de edad en que las personas trans se fueron de la casa de su familia de origen según motivo</t>
   </si>
   <si>
     <t>El indicador muestra el promedio de edad en que las personas trans se fueron de la casa de su familia de origen según el motivo por el cual se fueron.</t>
@@ -3584,9 +3494,6 @@
     <t>Características Población</t>
   </si>
   <si>
-    <t>(Personas LGTBIQ+) Cantidad de personas trans</t>
-  </si>
-  <si>
     <t>El indicador mide el tamaño de la población de personas trans.</t>
   </si>
   <si>
@@ -4014,11 +3921,6 @@
   </si>
   <si>
     <t>Migrantes</t>
-  </si>
-  <si>
-    <t>Código identificador del indicador: primer dígito (derecho: 1-educación, 2-vivienda, 3-seguridad social, 4-salud); segundo dígito (tipo de indicador: 2-políticas públicas y esfuerzo económico, 3-resultados), tercer y cuarto dígito (dimensión); quinto y sexto dígito (número de indicador cuando hay más de uno en derecho, tipo, dimensión)
-Nota: para las poblaciones se agregan dos digitos al inicio (poblaciones: 91-LGTBIQ+; 92- Personas con discapacidad; 93- Migrantes; 94-Personas privadas de libertad)
-Nota2: para los indicadores de características de poblaciones (aún no figuran en la base) se puso el siguiente código: primeros dos dígitos (poblaciones: 91-LGTBIQ+; 92- Personas con discapacidad; 93- Migrantes; 94-Personas privadas de libertad); segundos dos digitos (numerados en orden 01, 02, 03...); luego 9999 (cinco 9, para que queden al final de las bases)</t>
   </si>
   <si>
     <t>Umbral mínimo de satisfacción (La información de esta columna tiene limitaciones y debe revisarse psoteriormente)</t>
@@ -4154,6 +4056,137 @@
   </si>
   <si>
     <t>Para cada año calcular: (Cantidad de personas que perciben pensiones por debajo del salario mínimo nacional / Cantidad de personas que perciben pensiones)*100. El valor del Salario Mínimo Nacional (SMN) adoptado corresponde al valor legal más alto del período de tiempo considerado. Esta operación elimina el impacto de la decisión del Poder Ejecutivo de fijación del valor anual del SMN en el comportamiento del indicador, por lo cual refleja únicamente el movimiento de pensiones y jubilaciones en valores constantes con base en el IPC del mes correspondiente a la aprobación del SMN considerado (para eliminar el efecto de la inflación).</t>
+  </si>
+  <si>
+    <t>Código identificador del indicador: primer dígito (derecho: 1-educación, 2-vivienda, 3-seguridad social, 4-salud); segundo dígito (tipo de indicador: 2-políticas públicas y esfuerzo económico, 3-resultados), tercer y cuarto dígito (dimensión); quinto y sexto dígito (número de indicador cuando hay más de uno en derecho, tipo, dimensión)
+Nota: para las poblaciones se agregan dos digitos al inicio (poblaciones: 91-LGBTI; 92- Personas con discapacidad; 93- Migrantes; 94-Personas privadas de libertad; 95- Afrodescendientes)
+Nota2: para los indicadores de características de poblaciones (aún no figuran en la base) se puso el siguiente código: primeros dos dígitos (poblaciones: 91-LGTBIQ+; 92- Personas con discapacidad; 93- Migrantes; 94-Personas privadas de libertad); segundos dos digitos (numerados en orden 01, 02, 03...); luego 9999 (cinco 9, para que queden al final de las bases)</t>
+  </si>
+  <si>
+    <t>LGBTI</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Desvinculación educativa (personas trans)</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Promedio de edad en que las personas trans interrumpieron sus estudios formales</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Estudiantes de educación media que consideran que fueron agredidos por ser gay, lesbiana o bisexual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Personas LGBTI) Porcentaje de estudiantes de educación media que consideran que fueron agredidos por ser gay, lesbiana o bisexual. País urbano </t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Estudiantes de educación media que consideran que fueron agredidos por ser trans.</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de estudiantes de educación media que consideran que fueron agredidos por ser trans. País urbano</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Estudiantes de educación media que escucharon comentarios negativos hacia otro estudiante por ser gay, lesbiana o bisexual.</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de estudiantes de educación media que escucharon comentarios negativos hacia otro estudiante por ser gay, lesbiana o bisexual. País urbano</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Estudiantes de educación media que manifiestan que en su centro se realizan actividades o se tratan temas para trabajar diversidad sexual.</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de estudiantes de educación media que manifiestan que en su centro se realizan actividades o se tratan temas para trabajar diversidad sexual. País urbano</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Personas trans que viven con su familia de origen</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans que viven con su familia de origen</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Distribución porcentual de personas trans según tipo de vivienda.</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Distribución porcentual de personas trans según tipo de vivienda</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Promedio de edad en que las personas trans se fueron de la casa de su familia de origen según motivo</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Personas trans que reciben transferencias monetarias</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans con cobertura de TUS-Trans</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Cobertura de salud integral por departamento (personas trans)</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans que se atienden en un centro de salud según departamento</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Personas trans con discapacidad</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans que declaran estar en situación de discapacidad</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Personas trans que han sufrido discriminación al menos una vez debido a su identidad de género</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans que han sufrido discriminación al menos una vez debido a su identidad de género</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Personas trans que han sufrido violencia física debido a su identidad de género</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans que han sufrido violencia física debido a su identidad de género</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Formación o capacitación laboral</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans según área en la que le gustaría recibir formación o capacitación laboral</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Desempleo (personas trans)</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Porcentaje de personas trans que buscan empleo</t>
+  </si>
+  <si>
+    <t>(Personas LGBTI) Cantidad de personas trans</t>
+  </si>
+  <si>
+    <t>Afrodescendientes</t>
+  </si>
+  <si>
+    <t>Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos - Ley 19.122</t>
+  </si>
+  <si>
+    <t>Cantidad de ingresos de personas a cargos públicos</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de personas que ingresaron al estado por la Ley 19.122</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de ingresos de personas a cargos públicos en el marco de la Ley 19.122</t>
+  </si>
+  <si>
+    <t>Cantidad de ingresos al estado</t>
+  </si>
+  <si>
+    <t>Oficina Nacional de Servicio Civil</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH) con base en Oficina Nacional de Servcio Civil.</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH) con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+  </si>
+  <si>
+    <t>(Población afrodescendiente) Tenencia insegura de la vivienda</t>
+  </si>
+  <si>
+    <t>(Población afrodescendiente) Porcentaje de personas en hogares con tenencia insegura</t>
   </si>
 </sst>
 </file>
@@ -4270,7 +4303,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4422,6 +4455,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4743,10 +4787,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL274"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="S1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="AF160" sqref="AF160"/>
+      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4754,7 +4798,7 @@
     <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="126.5703125" style="13" customWidth="1"/>
     <col min="7" max="7" width="157.28515625" style="13" customWidth="1"/>
@@ -4833,7 +4877,7 @@
         <v>342</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>1331</v>
+        <v>1299</v>
       </c>
       <c r="S1" s="26" t="s">
         <v>636</v>
@@ -4851,7 +4895,7 @@
         <v>667</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1">
@@ -4901,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S2" s="6">
         <v>1</v>
@@ -4970,7 +5014,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S3" s="6">
         <v>1</v>
@@ -5038,7 +5082,7 @@
         <v>17</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S4" s="6">
         <v>1</v>
@@ -5107,7 +5151,7 @@
         <v>17</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
@@ -5176,7 +5220,7 @@
         <v>25</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -5245,7 +5289,7 @@
         <v>25</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
@@ -5314,7 +5358,7 @@
         <v>25</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -5383,7 +5427,7 @@
         <v>85</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
@@ -5451,7 +5495,7 @@
         <v>85</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -5520,7 +5564,7 @@
         <v>85</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
@@ -5589,7 +5633,7 @@
         <v>472</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
@@ -5657,7 +5701,7 @@
         <v>25</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
@@ -5726,7 +5770,7 @@
         <v>96</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -5794,7 +5838,7 @@
         <v>72</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S15" s="6">
         <v>0</v>
@@ -5863,7 +5907,7 @@
         <v>72</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S16" s="6">
         <v>0</v>
@@ -5932,7 +5976,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S17" s="6">
         <v>0</v>
@@ -6004,7 +6048,7 @@
         <v>467</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S18" s="6">
         <v>1</v>
@@ -6075,7 +6119,7 @@
         <v>462</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S19" s="6">
         <v>1</v>
@@ -6146,7 +6190,7 @@
         <v>462</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S20" s="6">
         <v>0</v>
@@ -6218,7 +6262,7 @@
         <v>462</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S21" s="6">
         <v>0</v>
@@ -6303,7 +6347,7 @@
         <v>462</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S22" s="6">
         <v>0</v>
@@ -6387,7 +6431,7 @@
         <v>462</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S23" s="6">
         <v>0</v>
@@ -6460,7 +6504,7 @@
         <v>462</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S24" s="6">
         <v>0</v>
@@ -6546,7 +6590,7 @@
         <v>462</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S25" s="6">
         <v>1</v>
@@ -6631,7 +6675,7 @@
         <v>609</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S26" s="6">
         <v>0</v>
@@ -6703,7 +6747,7 @@
         <v>609</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S27" s="6">
         <v>0</v>
@@ -6788,7 +6832,7 @@
         <v>470</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
@@ -6872,7 +6916,7 @@
         <v>469</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S29" s="6">
         <v>0</v>
@@ -6944,7 +6988,7 @@
         <v>469</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S30" s="6">
         <v>0</v>
@@ -7028,7 +7072,7 @@
         <v>111</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S31" s="6">
         <v>0</v>
@@ -7112,7 +7156,7 @@
         <v>111</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S32" s="6">
         <v>0</v>
@@ -7194,7 +7238,7 @@
         <v>111</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S33" s="6">
         <v>0</v>
@@ -7267,7 +7311,7 @@
         <v>111</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S34" s="6">
         <v>0</v>
@@ -7334,16 +7378,16 @@
         <v>6</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>23</v>
@@ -7352,7 +7396,7 @@
         <v>17</v>
       </c>
       <c r="R35" s="53" t="s">
-        <v>1333</v>
+        <v>1301</v>
       </c>
       <c r="S35" s="6">
         <v>1</v>
@@ -7423,7 +7467,7 @@
         <v>462</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S36" s="6">
         <v>0</v>
@@ -7493,7 +7537,7 @@
         <v>17</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S37" s="6">
         <v>1</v>
@@ -7532,7 +7576,7 @@
         <v>782</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1271</v>
+        <v>1240</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>372</v>
@@ -7562,7 +7606,7 @@
         <v>17</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S38" s="6">
         <v>1</v>
@@ -7601,7 +7645,7 @@
         <v>785</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>1272</v>
+        <v>1241</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>712</v>
@@ -7631,7 +7675,7 @@
         <v>17</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S39" s="6">
         <v>1</v>
@@ -7700,7 +7744,7 @@
         <v>17</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S40" s="6">
         <v>1</v>
@@ -7762,14 +7806,14 @@
         <v>311</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>1347</v>
+        <v>1315</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6" t="s">
         <v>312</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S41" s="6">
         <v>0</v>
@@ -7845,14 +7889,14 @@
         <v>311</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>1347</v>
+        <v>1315</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="6" t="s">
         <v>312</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S42" s="6">
         <v>0</v>
@@ -7928,14 +7972,14 @@
         <v>311</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>1347</v>
+        <v>1315</v>
       </c>
       <c r="P43" s="25"/>
       <c r="Q43" s="6" t="s">
         <v>312</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S43" s="6">
         <v>0</v>
@@ -8021,7 +8065,7 @@
         <v>462</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S44" s="6">
         <v>1</v>
@@ -8106,7 +8150,7 @@
         <v>463</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S45" s="6">
         <v>0</v>
@@ -8191,7 +8235,7 @@
         <v>463</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S46" s="6">
         <v>0</v>
@@ -8275,7 +8319,7 @@
         <v>302</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S47" s="6">
         <v>1</v>
@@ -8346,7 +8390,7 @@
         <v>464</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S48" s="6">
         <v>0</v>
@@ -8417,7 +8461,7 @@
         <v>465</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S49" s="6">
         <v>1</v>
@@ -8489,7 +8533,7 @@
         <v>610</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S50" s="6">
         <v>0</v>
@@ -8575,7 +8619,7 @@
         <v>610</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S51" s="6">
         <v>0</v>
@@ -8661,7 +8705,7 @@
         <v>611</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S52" s="6">
         <v>0</v>
@@ -8747,7 +8791,7 @@
         <v>463</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S53" s="6">
         <v>1</v>
@@ -8833,7 +8877,7 @@
         <v>464</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S54" s="6">
         <v>0</v>
@@ -8916,7 +8960,7 @@
         <v>466</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S55" s="6">
         <v>1</v>
@@ -8998,7 +9042,7 @@
         <v>17</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S56" s="6">
         <v>1</v>
@@ -9067,7 +9111,7 @@
         <v>17</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S57" s="6">
         <v>1</v>
@@ -9136,7 +9180,7 @@
         <v>17</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S58" s="6">
         <v>1</v>
@@ -9205,7 +9249,7 @@
         <v>17</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S59" s="6">
         <v>1</v>
@@ -9274,7 +9318,7 @@
         <v>17</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S60" s="6">
         <v>0</v>
@@ -9343,7 +9387,7 @@
         <v>17</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S61" s="6">
         <v>0</v>
@@ -9413,7 +9457,7 @@
         <v>17</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S62" s="6">
         <v>0</v>
@@ -9458,7 +9502,7 @@
         <v>720</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1293</v>
+        <v>1262</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>5</v>
@@ -9467,16 +9511,16 @@
         <v>6</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>54</v>
@@ -9485,7 +9529,7 @@
         <v>467</v>
       </c>
       <c r="R63" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S63" s="6">
         <v>1</v>
@@ -9530,7 +9574,7 @@
         <v>706</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1292</v>
+        <v>1261</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>5</v>
@@ -9539,16 +9583,16 @@
         <v>6</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>54</v>
@@ -9557,7 +9601,7 @@
         <v>467</v>
       </c>
       <c r="R64" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S64" s="6">
         <v>0</v>
@@ -9611,16 +9655,16 @@
         <v>6</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>54</v>
@@ -9629,7 +9673,7 @@
         <v>17</v>
       </c>
       <c r="R65" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S65" s="6">
         <v>0</v>
@@ -9682,16 +9726,16 @@
         <v>6</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>54</v>
@@ -9700,7 +9744,7 @@
         <v>467</v>
       </c>
       <c r="R66" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S66" s="6">
         <v>0</v>
@@ -9753,16 +9797,16 @@
         <v>6</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>54</v>
@@ -9771,7 +9815,7 @@
         <v>467</v>
       </c>
       <c r="R67" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S67" s="6">
         <v>1</v>
@@ -9824,16 +9868,16 @@
         <v>6</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>54</v>
@@ -9842,7 +9886,7 @@
         <v>17</v>
       </c>
       <c r="R68" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -9896,16 +9940,16 @@
         <v>6</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>54</v>
@@ -9914,7 +9958,7 @@
         <v>17</v>
       </c>
       <c r="R69" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S69" s="6">
         <v>1</v>
@@ -9944,7 +9988,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>2</v>
@@ -9971,23 +10015,23 @@
         <v>6</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>1264</v>
+        <v>1233</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R70" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S70" s="6">
         <v>0</v>
@@ -10030,7 +10074,7 @@
         <v>52</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>2</v>
@@ -10057,23 +10101,23 @@
         <v>6</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>1264</v>
+        <v>1233</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R71" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S71" s="6">
         <v>0</v>
@@ -10116,7 +10160,7 @@
         <v>52</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>2</v>
@@ -10149,17 +10193,17 @@
         <v>8</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R72" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S72" s="6">
         <v>0</v>
@@ -10201,7 +10245,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>2</v>
@@ -10216,7 +10260,7 @@
         <v>655</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>1345</v>
+        <v>1313</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>687</v>
@@ -10234,17 +10278,17 @@
         <v>8</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R73" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S73" s="6">
         <v>0</v>
@@ -10287,7 +10331,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>2</v>
@@ -10320,17 +10364,17 @@
         <v>8</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R74" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S74" s="6">
         <v>0</v>
@@ -10373,7 +10417,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>2</v>
@@ -10388,7 +10432,7 @@
         <v>659</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>1346</v>
+        <v>1314</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>689</v>
@@ -10406,17 +10450,17 @@
         <v>8</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R75" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S75" s="6">
         <v>1</v>
@@ -10459,7 +10503,7 @@
         <v>52</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>2</v>
@@ -10486,23 +10530,23 @@
         <v>6</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R76" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S76" s="6">
         <v>0</v>
@@ -10545,7 +10589,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>1329</v>
+        <v>1297</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>2</v>
@@ -10572,23 +10616,23 @@
         <v>6</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R77" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S77" s="6">
         <v>0</v>
@@ -10655,16 +10699,16 @@
         <v>6</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>61</v>
@@ -10673,7 +10717,7 @@
         <v>17</v>
       </c>
       <c r="R78" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S78" s="6">
         <v>0</v>
@@ -10727,16 +10771,16 @@
         <v>6</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>61</v>
@@ -10745,7 +10789,7 @@
         <v>17</v>
       </c>
       <c r="R79" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S79" s="6">
         <v>0</v>
@@ -10799,16 +10843,16 @@
         <v>6</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>61</v>
@@ -10817,7 +10861,7 @@
         <v>17</v>
       </c>
       <c r="R80" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S80" s="6">
         <v>0</v>
@@ -10862,7 +10906,7 @@
         <v>385</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>1350</v>
+        <v>1318</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>5</v>
@@ -10871,16 +10915,16 @@
         <v>6</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>61</v>
@@ -10889,7 +10933,7 @@
         <v>17</v>
       </c>
       <c r="R81" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
@@ -10943,16 +10987,16 @@
         <v>6</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>61</v>
@@ -10961,7 +11005,7 @@
         <v>17</v>
       </c>
       <c r="R82" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S82" s="6">
         <v>1</v>
@@ -11015,16 +11059,16 @@
         <v>6</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>61</v>
@@ -11033,7 +11077,7 @@
         <v>17</v>
       </c>
       <c r="R83" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -11088,16 +11132,16 @@
         <v>6</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>61</v>
@@ -11106,7 +11150,7 @@
         <v>17</v>
       </c>
       <c r="R84" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S84" s="6">
         <v>0</v>
@@ -11164,7 +11208,7 @@
         <v>389</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>1351</v>
+        <v>1319</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>5</v>
@@ -11173,16 +11217,16 @@
         <v>6</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>61</v>
@@ -11191,7 +11235,7 @@
         <v>17</v>
       </c>
       <c r="R85" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S85" s="6">
         <v>0</v>
@@ -11257,16 +11301,16 @@
         <v>6</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M86" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>61</v>
@@ -11275,7 +11319,7 @@
         <v>17</v>
       </c>
       <c r="R86" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S86" s="6">
         <v>0</v>
@@ -11330,16 +11374,16 @@
         <v>6</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>61</v>
@@ -11348,7 +11392,7 @@
         <v>17</v>
       </c>
       <c r="R87" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S87" s="6">
         <v>0</v>
@@ -11414,16 +11458,16 @@
         <v>6</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M88" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>61</v>
@@ -11432,7 +11476,7 @@
         <v>17</v>
       </c>
       <c r="R88" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -11477,7 +11521,7 @@
         <v>393</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>5</v>
@@ -11486,16 +11530,16 @@
         <v>6</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>61</v>
@@ -11504,7 +11548,7 @@
         <v>17</v>
       </c>
       <c r="R89" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S89" s="6">
         <v>0</v>
@@ -11559,16 +11603,16 @@
         <v>6</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>61</v>
@@ -11577,7 +11621,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -11661,7 +11705,7 @@
         <v>17</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S91" s="6">
         <v>1</v>
@@ -11745,7 +11789,7 @@
         <v>17</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S92" s="6">
         <v>1</v>
@@ -11828,7 +11872,7 @@
         <v>17</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S93" s="6">
         <v>1</v>
@@ -11911,7 +11955,7 @@
         <v>17</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S94" s="6">
         <v>1</v>
@@ -11982,7 +12026,7 @@
         <v>17</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S95" s="6">
         <v>0</v>
@@ -12065,7 +12109,7 @@
         <v>17</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S96" s="6">
         <v>0</v>
@@ -12148,7 +12192,7 @@
         <v>237</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S97" s="6">
         <v>0</v>
@@ -12231,7 +12275,7 @@
         <v>237</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S98" s="6">
         <v>0</v>
@@ -12315,7 +12359,7 @@
         <v>298</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S99" s="6">
         <v>0</v>
@@ -12383,23 +12427,23 @@
         <v>6</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R100" s="53" t="s">
-        <v>1334</v>
+        <v>1302</v>
       </c>
       <c r="S100" s="6">
         <v>1</v>
@@ -12483,7 +12527,7 @@
         <v>468</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S101" s="6">
         <v>1</v>
@@ -12566,7 +12610,7 @@
         <v>72</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S102" s="6">
         <v>0</v>
@@ -12635,7 +12679,7 @@
         <v>17</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S103" s="6">
         <v>1</v>
@@ -12718,7 +12762,7 @@
         <v>17</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S104" s="6">
         <v>0</v>
@@ -12800,7 +12844,7 @@
         <v>17</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S105" s="6">
         <v>0</v>
@@ -12883,7 +12927,7 @@
         <v>17</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S106" s="6">
         <v>0</v>
@@ -12966,7 +13010,7 @@
         <v>17</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S107" s="6">
         <v>0</v>
@@ -13049,7 +13093,7 @@
         <v>208</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S108" s="6">
         <v>0</v>
@@ -13133,7 +13177,7 @@
         <v>208</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S109" s="6">
         <v>0</v>
@@ -13216,7 +13260,7 @@
         <v>208</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S110" s="6">
         <v>0</v>
@@ -13300,7 +13344,7 @@
         <v>208</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S111" s="6">
         <v>0</v>
@@ -13383,7 +13427,7 @@
         <v>17</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S112" s="6">
         <v>0</v>
@@ -13466,7 +13510,7 @@
         <v>208</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S113" s="6">
         <v>0</v>
@@ -13549,7 +13593,7 @@
         <v>237</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S114" s="6">
         <v>0</v>
@@ -13618,7 +13662,7 @@
         <v>237</v>
       </c>
       <c r="R115" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S115" s="6">
         <v>0</v>
@@ -13688,7 +13732,7 @@
         <v>237</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S116" s="6">
         <v>0</v>
@@ -13772,7 +13816,7 @@
         <v>237</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S117" s="6">
         <v>0</v>
@@ -13856,7 +13900,7 @@
         <v>237</v>
       </c>
       <c r="R118" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S118" s="6">
         <v>0</v>
@@ -13940,7 +13984,7 @@
         <v>237</v>
       </c>
       <c r="R119" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S119" s="6">
         <v>0</v>
@@ -14024,7 +14068,7 @@
         <v>237</v>
       </c>
       <c r="R120" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S120" s="6">
         <v>0</v>
@@ -14108,7 +14152,7 @@
         <v>237</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S121" s="6">
         <v>0</v>
@@ -14192,7 +14236,7 @@
         <v>237</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S122" s="6">
         <v>0</v>
@@ -14276,7 +14320,7 @@
         <v>237</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S123" s="6">
         <v>1</v>
@@ -14360,7 +14404,7 @@
         <v>237</v>
       </c>
       <c r="R124" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S124" s="6">
         <v>0</v>
@@ -14443,7 +14487,7 @@
         <v>72</v>
       </c>
       <c r="R125" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S125" s="6">
         <v>0</v>
@@ -14513,7 +14557,7 @@
         <v>17</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S126" s="6">
         <v>0</v>
@@ -14583,7 +14627,7 @@
         <v>17</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S127" s="6">
         <v>0</v>
@@ -14666,7 +14710,7 @@
         <v>17</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S128" s="6">
         <v>0</v>
@@ -14750,7 +14794,7 @@
         <v>237</v>
       </c>
       <c r="R129" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S129" s="6">
         <v>0</v>
@@ -14832,7 +14876,7 @@
         <v>237</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S130" s="6">
         <v>0</v>
@@ -14914,7 +14958,7 @@
         <v>237</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S131" s="6">
         <v>0</v>
@@ -14996,7 +15040,7 @@
         <v>237</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S132" s="6">
         <v>0</v>
@@ -15078,7 +15122,7 @@
         <v>237</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S133" s="6">
         <v>0</v>
@@ -15160,7 +15204,7 @@
         <v>237</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S134" s="6">
         <v>0</v>
@@ -15242,7 +15286,7 @@
         <v>237</v>
       </c>
       <c r="R135" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S135" s="6">
         <v>0</v>
@@ -15326,7 +15370,7 @@
         <v>237</v>
       </c>
       <c r="R136" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S136" s="6">
         <v>0</v>
@@ -15366,7 +15410,7 @@
         <v>520105</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
@@ -15376,19 +15420,19 @@
         <v>104</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>231</v>
@@ -15400,16 +15444,16 @@
         <v>8</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="Q137" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R137" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S137" s="44">
         <v>0</v>
@@ -15441,7 +15485,7 @@
         <v>520106</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="s">
@@ -15451,16 +15495,16 @@
         <v>104</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>754</v>
@@ -15475,16 +15519,16 @@
         <v>8</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="Q138" s="7" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S138" s="44">
         <v>0</v>
@@ -15516,7 +15560,7 @@
         <v>520107</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="7" t="s">
@@ -15526,16 +15570,16 @@
         <v>104</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>754</v>
@@ -15544,22 +15588,22 @@
         <v>231</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="M139" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="Q139" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R139" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S139" s="44">
         <v>0</v>
@@ -15591,7 +15635,7 @@
         <v>520108</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
@@ -15601,40 +15645,40 @@
         <v>104</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="K140" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="Q140" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R140" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S140" s="44">
         <v>0</v>
@@ -15660,7 +15704,7 @@
         <v>520109</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="s">
@@ -15670,40 +15714,40 @@
         <v>104</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="K141" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="M141" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="Q141" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S141" s="44">
         <v>0</v>
@@ -15735,7 +15779,7 @@
         <v>520110</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="7" t="s">
@@ -15745,19 +15789,19 @@
         <v>104</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="K142" s="7" t="s">
         <v>231</v>
@@ -15769,16 +15813,16 @@
         <v>8</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="Q142" s="7" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="R142" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S142" s="44">
         <v>0</v>
@@ -15804,7 +15848,7 @@
         <v>530101</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="7" t="s">
@@ -15814,40 +15858,40 @@
         <v>3</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>1279</v>
+        <v>1248</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R143" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S143" s="44">
         <v>0</v>
@@ -15873,7 +15917,7 @@
         <v>530102</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="7" t="s">
@@ -15883,40 +15927,40 @@
         <v>3</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R144" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S144" s="44">
         <v>0</v>
@@ -15942,7 +15986,7 @@
         <v>530103</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="7" t="s">
@@ -15952,40 +15996,40 @@
         <v>3</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R145" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S145" s="44">
         <v>0</v>
@@ -16011,7 +16055,7 @@
         <v>530104</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="7" t="s">
@@ -16021,40 +16065,40 @@
         <v>3</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1280</v>
+        <v>1249</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M146" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R146" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S146" s="44">
         <v>0</v>
@@ -16080,7 +16124,7 @@
         <v>530201</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>2</v>
@@ -16089,16 +16133,16 @@
         <v>15</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1281</v>
+        <v>1250</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>796</v>
@@ -16107,22 +16151,22 @@
         <v>6</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q147" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R147" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S147" s="44">
         <v>0</v>
@@ -16148,7 +16192,7 @@
         <v>530202</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>2</v>
@@ -16160,13 +16204,13 @@
         <v>56</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1284</v>
+        <v>1253</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>5</v>
@@ -16175,16 +16219,16 @@
         <v>6</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M148" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O148" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P148" s="6" t="s">
         <v>54</v>
@@ -16193,7 +16237,7 @@
         <v>467</v>
       </c>
       <c r="R148" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S148" s="44">
         <v>0</v>
@@ -16219,7 +16263,7 @@
         <v>530203</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
@@ -16228,16 +16272,16 @@
         <v>15</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1285</v>
+        <v>1254</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>5</v>
@@ -16246,22 +16290,22 @@
         <v>6</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O149" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q149" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R149" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S149" s="44">
         <v>0</v>
@@ -16287,7 +16331,7 @@
         <v>530204</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>2</v>
@@ -16296,16 +16340,16 @@
         <v>15</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1282</v>
+        <v>1251</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>5</v>
@@ -16314,22 +16358,22 @@
         <v>6</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O150" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q150" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R150" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S150" s="44">
         <v>0</v>
@@ -16355,7 +16399,7 @@
         <v>530205</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>2</v>
@@ -16364,16 +16408,16 @@
         <v>15</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>1286</v>
+        <v>1255</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>796</v>
@@ -16382,22 +16426,22 @@
         <v>6</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M151" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R151" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S151" s="44">
         <v>0</v>
@@ -16423,7 +16467,7 @@
         <v>530206</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>2</v>
@@ -16432,16 +16476,16 @@
         <v>15</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>1287</v>
+        <v>1256</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>5</v>
@@ -16450,25 +16494,25 @@
         <v>6</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O152" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P152" s="7" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="Q152" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R152" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S152" s="44">
         <v>0</v>
@@ -16494,7 +16538,7 @@
         <v>530207</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>2</v>
@@ -16503,16 +16547,16 @@
         <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>1326</v>
+        <v>1294</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>1288</v>
+        <v>1257</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>5</v>
@@ -16521,25 +16565,25 @@
         <v>6</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M153" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O153" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P153" s="7" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="Q153" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R153" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S153" s="44">
         <v>0</v>
@@ -16565,7 +16609,7 @@
         <v>530208</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>2</v>
@@ -16574,16 +16618,16 @@
         <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>1290</v>
+        <v>1259</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>1289</v>
+        <v>1258</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>5</v>
@@ -16592,22 +16636,22 @@
         <v>6</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O154" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="Q154" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R154" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S154" s="44">
         <v>0</v>
@@ -16633,7 +16677,7 @@
         <v>530209</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D155" s="44" t="s">
         <v>2</v>
@@ -16642,16 +16686,16 @@
         <v>15</v>
       </c>
       <c r="F155" s="53" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
       <c r="G155" s="44" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
       <c r="H155" s="44" t="s">
-        <v>1328</v>
+        <v>1296</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>1327</v>
+        <v>1295</v>
       </c>
       <c r="J155" s="14" t="s">
         <v>5</v>
@@ -16660,25 +16704,25 @@
         <v>6</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M155" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="O155" s="6" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="Q155" s="6" t="s">
         <v>467</v>
       </c>
       <c r="R155" s="57" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="S155" s="53">
         <v>0</v>
@@ -16704,7 +16748,7 @@
         <v>530210</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>2</v>
@@ -16713,16 +16757,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>5</v>
@@ -16731,22 +16775,22 @@
         <v>231</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="Q156" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R156" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S156" s="44">
         <v>0</v>
@@ -16772,7 +16816,7 @@
         <v>530211</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>2</v>
@@ -16781,16 +16825,16 @@
         <v>15</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>5</v>
@@ -16799,22 +16843,22 @@
         <v>231</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>1117</v>
+        <v>1092</v>
       </c>
       <c r="Q157" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R157" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S157" s="44">
         <v>0</v>
@@ -16840,7 +16884,7 @@
         <v>530212</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>2</v>
@@ -16849,19 +16893,19 @@
         <v>15</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>1118</v>
+        <v>1093</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>1121</v>
+        <v>1096</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>231</v>
@@ -16873,16 +16917,16 @@
         <v>8</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="Q158" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R158" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S158" s="44">
         <v>0</v>
@@ -16908,7 +16952,7 @@
         <v>530213</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C159" s="44"/>
       <c r="D159" s="44" t="s">
@@ -16918,16 +16962,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="40" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="G159" s="40" t="s">
-        <v>1349</v>
+        <v>1317</v>
       </c>
       <c r="H159" s="40" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="J159" s="40" t="s">
         <v>5</v>
@@ -16936,23 +16980,23 @@
         <v>6</v>
       </c>
       <c r="L159" s="40" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="M159" s="44" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="N159" s="40" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="O159" s="40" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="P159" s="40"/>
       <c r="Q159" s="40" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="R159" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S159" s="44">
         <v>0</v>
@@ -16987,10 +17031,10 @@
         <v>104</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1278</v>
+        <v>1247</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>780</v>
@@ -17021,7 +17065,7 @@
         <v>17</v>
       </c>
       <c r="R160" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S160" s="44">
         <v>0</v>
@@ -17056,10 +17100,10 @@
         <v>104</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>1274</v>
+        <v>1243</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1277</v>
+        <v>1246</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>783</v>
@@ -17090,7 +17134,7 @@
         <v>17</v>
       </c>
       <c r="R161" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S161" s="44">
         <v>0</v>
@@ -17125,10 +17169,10 @@
         <v>104</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>1275</v>
+        <v>1244</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1276</v>
+        <v>1245</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>786</v>
@@ -17159,7 +17203,7 @@
         <v>17</v>
       </c>
       <c r="R162" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S162" s="44">
         <v>0</v>
@@ -17227,7 +17271,7 @@
         <v>17</v>
       </c>
       <c r="R163" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S163" s="44">
         <v>0</v>
@@ -17295,7 +17339,7 @@
         <v>730</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S164" s="44">
         <v>0</v>
@@ -17363,7 +17407,7 @@
         <v>730</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S165" s="44">
         <v>0</v>
@@ -17431,7 +17475,7 @@
         <v>17</v>
       </c>
       <c r="R166" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S166" s="44">
         <v>0</v>
@@ -17499,7 +17543,7 @@
         <v>17</v>
       </c>
       <c r="R167" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S167" s="44">
         <v>0</v>
@@ -17567,7 +17611,7 @@
         <v>17</v>
       </c>
       <c r="R168" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S168" s="44">
         <v>0</v>
@@ -17636,7 +17680,7 @@
         <v>17</v>
       </c>
       <c r="R169" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S169" s="44">
         <v>0</v>
@@ -17704,7 +17748,7 @@
         <v>17</v>
       </c>
       <c r="R170" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S170" s="44">
         <v>0</v>
@@ -17772,7 +17816,7 @@
         <v>17</v>
       </c>
       <c r="R171" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S171" s="44">
         <v>0</v>
@@ -17840,7 +17884,7 @@
         <v>17</v>
       </c>
       <c r="R172" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S172" s="44">
         <v>0</v>
@@ -17875,10 +17919,10 @@
         <v>3</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>1265</v>
+        <v>1234</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>1267</v>
+        <v>1236</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>788</v>
@@ -17911,7 +17955,7 @@
         <v>462</v>
       </c>
       <c r="R173" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S173" s="44">
         <v>0</v>
@@ -17946,10 +17990,10 @@
         <v>3</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>1266</v>
+        <v>1235</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>1268</v>
+        <v>1237</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>373</v>
@@ -17982,7 +18026,7 @@
         <v>462</v>
       </c>
       <c r="R174" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S174" s="44">
         <v>0</v>
@@ -18017,10 +18061,10 @@
         <v>3</v>
       </c>
       <c r="F175" s="36" t="s">
-        <v>1270</v>
+        <v>1239</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>1269</v>
+        <v>1238</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>414</v>
@@ -18053,7 +18097,7 @@
         <v>463</v>
       </c>
       <c r="R175" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S175" s="44">
         <v>0</v>
@@ -18124,7 +18168,7 @@
         <v>799</v>
       </c>
       <c r="R176" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S176" s="44">
         <v>0</v>
@@ -18195,7 +18239,7 @@
         <v>799</v>
       </c>
       <c r="R177" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S177" s="44">
         <v>0</v>
@@ -18266,7 +18310,7 @@
         <v>799</v>
       </c>
       <c r="R178" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S178" s="44">
         <v>0</v>
@@ -18337,7 +18381,7 @@
         <v>799</v>
       </c>
       <c r="R179" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S179" s="44">
         <v>0</v>
@@ -18408,7 +18452,7 @@
         <v>799</v>
       </c>
       <c r="R180" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S180" s="44">
         <v>0</v>
@@ -18479,7 +18523,7 @@
         <v>17</v>
       </c>
       <c r="R181" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S181" s="44">
         <v>0</v>
@@ -18550,7 +18594,7 @@
         <v>834</v>
       </c>
       <c r="R182" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S182" s="44">
         <v>0</v>
@@ -18621,7 +18665,7 @@
         <v>834</v>
       </c>
       <c r="R183" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S183" s="44">
         <v>0</v>
@@ -18692,7 +18736,7 @@
         <v>843</v>
       </c>
       <c r="R184" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S184" s="44">
         <v>0</v>
@@ -18763,7 +18807,7 @@
         <v>843</v>
       </c>
       <c r="R185" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S185" s="44">
         <v>0</v>
@@ -18834,7 +18878,7 @@
         <v>843</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S186" s="44">
         <v>0</v>
@@ -18905,7 +18949,7 @@
         <v>843</v>
       </c>
       <c r="R187" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S187" s="44">
         <v>0</v>
@@ -18976,7 +19020,7 @@
         <v>843</v>
       </c>
       <c r="R188" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S188" s="44">
         <v>0</v>
@@ -19005,7 +19049,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>2</v>
@@ -19014,16 +19058,16 @@
         <v>3</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>894</v>
+        <v>1323</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>895</v>
+        <v>1324</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="J189" s="7" t="s">
         <v>796</v>
@@ -19038,16 +19082,16 @@
         <v>289</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q189" s="13" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="R189" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S189" s="44">
         <v>0</v>
@@ -19077,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>2</v>
@@ -19086,22 +19130,22 @@
         <v>12</v>
       </c>
       <c r="F190" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="I190" s="43" t="s">
         <v>875</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="I190" s="43" t="s">
-        <v>878</v>
       </c>
       <c r="J190" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L190" s="7">
         <v>2019</v>
@@ -19110,17 +19154,17 @@
         <v>289</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O190" s="6" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="P190" s="6"/>
       <c r="Q190" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R190" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S190" s="44">
         <v>0</v>
@@ -19150,7 +19194,7 @@
         <v>1</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>2</v>
@@ -19159,22 +19203,22 @@
         <v>12</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>882</v>
+        <v>1327</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>883</v>
+        <v>1328</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I191" s="43" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L191" s="7">
         <v>2019</v>
@@ -19183,17 +19227,17 @@
         <v>289</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O191" s="6" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="P191" s="6"/>
       <c r="Q191" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R191" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S191" s="44">
         <v>0</v>
@@ -19223,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>2</v>
@@ -19232,22 +19276,22 @@
         <v>12</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>886</v>
+        <v>1329</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>887</v>
+        <v>1330</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J192" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L192" s="7">
         <v>2019</v>
@@ -19256,17 +19300,17 @@
         <v>289</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O192" s="6" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="P192" s="6"/>
       <c r="Q192" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R192" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S192" s="44">
         <v>0</v>
@@ -19296,7 +19340,7 @@
         <v>1</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>2</v>
@@ -19305,22 +19349,22 @@
         <v>12</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>890</v>
+        <v>1331</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>891</v>
+        <v>1332</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L193" s="7">
         <v>2019</v>
@@ -19329,16 +19373,16 @@
         <v>289</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="Q193" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R193" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S193" s="44">
         <v>0</v>
@@ -19368,25 +19412,25 @@
         <v>35</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>1132</v>
+        <v>1333</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>1133</v>
+        <v>1334</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>1134</v>
+        <v>1107</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>1135</v>
+        <v>1108</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>5</v>
@@ -19401,16 +19445,16 @@
         <v>289</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O194" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q194" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R194" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S194" s="44">
         <v>0</v>
@@ -19439,28 +19483,28 @@
         <v>35</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>1136</v>
+        <v>1335</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>1137</v>
+        <v>1336</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>1138</v>
+        <v>1109</v>
       </c>
       <c r="I195" s="46" t="s">
-        <v>1139</v>
+        <v>1110</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K195" s="6" t="s">
         <v>6</v>
@@ -19472,16 +19516,16 @@
         <v>289</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O195" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q195" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R195" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S195" s="44">
         <v>0</v>
@@ -19510,25 +19554,25 @@
         <v>35</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>1140</v>
+        <v>1337</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>1140</v>
+        <v>1337</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>1141</v>
+        <v>1111</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>1142</v>
+        <v>1112</v>
       </c>
       <c r="J196" s="7" t="s">
         <v>796</v>
@@ -19543,16 +19587,16 @@
         <v>289</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O196" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q196" s="7" t="s">
-        <v>1143</v>
+        <v>1113</v>
       </c>
       <c r="R196" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S196" s="44">
         <v>0</v>
@@ -19581,7 +19625,7 @@
         <v>52</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>2</v>
@@ -19590,16 +19634,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>970</v>
+        <v>1338</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>971</v>
+        <v>1339</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="I197" s="7" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>5</v>
@@ -19614,16 +19658,16 @@
         <v>289</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O197" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q197" s="7" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="R197" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S197" s="44">
         <v>0</v>
@@ -19658,7 +19702,7 @@
         <v>70</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>2</v>
@@ -19667,16 +19711,16 @@
         <v>597</v>
       </c>
       <c r="F198" s="28" t="s">
-        <v>946</v>
+        <v>1340</v>
       </c>
       <c r="G198" s="28" t="s">
-        <v>947</v>
+        <v>1341</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="I198" s="7" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="J198" s="6" t="s">
         <v>5</v>
@@ -19691,16 +19735,16 @@
         <v>289</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q198" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R198" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S198" s="44">
         <v>0</v>
@@ -19735,7 +19779,7 @@
         <v>70</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>2</v>
@@ -19744,16 +19788,16 @@
         <v>15</v>
       </c>
       <c r="F199" s="28" t="s">
-        <v>934</v>
+        <v>1342</v>
       </c>
       <c r="G199" s="43" t="s">
-        <v>935</v>
+        <v>1343</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="I199" s="7" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>5</v>
@@ -19768,16 +19812,16 @@
         <v>289</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O199" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q199" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R199" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S199" s="44">
         <v>0</v>
@@ -19806,7 +19850,7 @@
         <v>70</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>2</v>
@@ -19815,16 +19859,16 @@
         <v>15</v>
       </c>
       <c r="F200" s="28" t="s">
-        <v>938</v>
+        <v>1344</v>
       </c>
       <c r="G200" s="28" t="s">
-        <v>939</v>
+        <v>1345</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="I200" s="7" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="J200" s="6" t="s">
         <v>5</v>
@@ -19839,16 +19883,16 @@
         <v>289</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O200" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q200" s="7" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="R200" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S200" s="44">
         <v>0</v>
@@ -19877,7 +19921,7 @@
         <v>70</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>2</v>
@@ -19886,16 +19930,16 @@
         <v>15</v>
       </c>
       <c r="F201" s="28" t="s">
-        <v>942</v>
+        <v>1346</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>943</v>
+        <v>1347</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="J201" s="6" t="s">
         <v>5</v>
@@ -19910,16 +19954,16 @@
         <v>289</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O201" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q201" s="7" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="R201" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S201" s="44">
         <v>0</v>
@@ -19945,10 +19989,10 @@
         <v>91530105</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>2</v>
@@ -19957,16 +20001,16 @@
         <v>3</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>1028</v>
+        <v>1348</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>1029</v>
+        <v>1349</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="J202" s="6" t="s">
         <v>5</v>
@@ -19981,16 +20025,16 @@
         <v>289</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O202" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q202" s="7" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="R202" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S202" s="44">
         <v>0</v>
@@ -20016,10 +20060,10 @@
         <v>91530106</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>2</v>
@@ -20028,16 +20072,16 @@
         <v>3</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>1033</v>
+        <v>1350</v>
       </c>
       <c r="G203" s="28" t="s">
-        <v>1034</v>
+        <v>1351</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="J203" s="6" t="s">
         <v>5</v>
@@ -20052,16 +20096,16 @@
         <v>289</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O203" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="Q203" s="7" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="R203" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S203" s="44">
         <v>0</v>
@@ -20090,7 +20134,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>2</v>
@@ -20099,16 +20143,16 @@
         <v>3</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>1299</v>
+        <v>1268</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="I204" s="7" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="J204" s="7" t="s">
         <v>5</v>
@@ -20120,19 +20164,19 @@
         <v>2011</v>
       </c>
       <c r="M204" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N204" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O204" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q204" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R204" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S204" s="44">
         <v>0</v>
@@ -20162,7 +20206,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>2</v>
@@ -20171,16 +20215,16 @@
         <v>3</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>1300</v>
+        <v>1269</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="J205" s="7" t="s">
         <v>5</v>
@@ -20192,19 +20236,19 @@
         <v>2011</v>
       </c>
       <c r="M205" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N205" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O205" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q205" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R205" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S205" s="44">
         <v>0</v>
@@ -20234,7 +20278,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>2</v>
@@ -20243,16 +20287,16 @@
         <v>3</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>1297</v>
+        <v>1266</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>5</v>
@@ -20264,19 +20308,19 @@
         <v>2011</v>
       </c>
       <c r="M206" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N206" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O206" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q206" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R206" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S206" s="44">
         <v>0</v>
@@ -20306,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>2</v>
@@ -20315,16 +20359,16 @@
         <v>3</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>1298</v>
+        <v>1267</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="I207" s="7" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="J207" s="7" t="s">
         <v>5</v>
@@ -20336,19 +20380,19 @@
         <v>2011</v>
       </c>
       <c r="M207" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N207" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q207" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R207" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S207" s="44">
         <v>0</v>
@@ -20378,7 +20422,7 @@
         <v>52</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>2</v>
@@ -20387,16 +20431,16 @@
         <v>3</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="H208" s="45" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="I208" s="7" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="J208" s="7" t="s">
         <v>5</v>
@@ -20405,22 +20449,22 @@
         <v>231</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="M208" s="7" t="s">
         <v>289</v>
       </c>
       <c r="N208" s="44" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="O208" s="7" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="Q208" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R208" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S208" s="44">
         <v>0</v>
@@ -20452,10 +20496,10 @@
         <v>92530107</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>2</v>
@@ -20464,19 +20508,19 @@
         <v>3</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>1301</v>
+        <v>1270</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>1301</v>
+        <v>1270</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="J209" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K209" s="7" t="s">
         <v>231</v>
@@ -20485,19 +20529,19 @@
         <v>2011</v>
       </c>
       <c r="M209" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N209" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q209" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R209" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S209" s="44">
         <v>0</v>
@@ -20523,10 +20567,10 @@
         <v>92530108</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>2</v>
@@ -20535,19 +20579,19 @@
         <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="J210" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K210" s="7" t="s">
         <v>231</v>
@@ -20556,19 +20600,19 @@
         <v>2011</v>
       </c>
       <c r="M210" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N210" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q210" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R210" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S210" s="44">
         <v>0</v>
@@ -20594,10 +20638,10 @@
         <v>92530109</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>2</v>
@@ -20606,19 +20650,19 @@
         <v>3</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="J211" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K211" s="7" t="s">
         <v>231</v>
@@ -20627,19 +20671,19 @@
         <v>2011</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q211" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R211" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S211" s="44">
         <v>0</v>
@@ -20665,10 +20709,10 @@
         <v>92530110</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>2</v>
@@ -20677,19 +20721,19 @@
         <v>3</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="J212" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K212" s="7" t="s">
         <v>231</v>
@@ -20698,19 +20742,19 @@
         <v>2011</v>
       </c>
       <c r="M212" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N212" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O212" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q212" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R212" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S212" s="44">
         <v>0</v>
@@ -20736,10 +20780,10 @@
         <v>92530111</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>2</v>
@@ -20748,19 +20792,19 @@
         <v>3</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K213" s="7" t="s">
         <v>231</v>
@@ -20769,19 +20813,19 @@
         <v>2011</v>
       </c>
       <c r="M213" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N213" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O213" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q213" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R213" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S213" s="44">
         <v>0</v>
@@ -20807,10 +20851,10 @@
         <v>92530112</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>2</v>
@@ -20819,19 +20863,19 @@
         <v>3</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1306</v>
+        <v>1275</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1306</v>
+        <v>1275</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K214" s="7" t="s">
         <v>231</v>
@@ -20840,19 +20884,19 @@
         <v>2011</v>
       </c>
       <c r="M214" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N214" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O214" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q214" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R214" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S214" s="44">
         <v>0</v>
@@ -20878,10 +20922,10 @@
         <v>92530113</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>2</v>
@@ -20890,19 +20934,19 @@
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>1307</v>
+        <v>1276</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>1307</v>
+        <v>1276</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="J215" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K215" s="7" t="s">
         <v>231</v>
@@ -20911,19 +20955,19 @@
         <v>2011</v>
       </c>
       <c r="M215" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N215" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q215" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R215" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S215" s="44">
         <v>0</v>
@@ -20949,10 +20993,10 @@
         <v>92530114</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>2</v>
@@ -20961,19 +21005,19 @@
         <v>3</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>1308</v>
+        <v>1277</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>1308</v>
+        <v>1277</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K216" s="7" t="s">
         <v>231</v>
@@ -20982,19 +21026,19 @@
         <v>2011</v>
       </c>
       <c r="M216" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N216" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O216" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q216" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R216" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S216" s="44">
         <v>0</v>
@@ -21020,10 +21064,10 @@
         <v>92530115</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>2</v>
@@ -21032,19 +21076,19 @@
         <v>3</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="J217" s="7" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K217" s="7" t="s">
         <v>231</v>
@@ -21053,19 +21097,19 @@
         <v>2011</v>
       </c>
       <c r="M217" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N217" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q217" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R217" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S217" s="44">
         <v>0</v>
@@ -21094,7 +21138,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>2</v>
@@ -21103,16 +21147,16 @@
         <v>3</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>356</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="J218" s="6" t="s">
         <v>5</v>
@@ -21121,10 +21165,10 @@
         <v>6</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M218" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N218" s="6" t="s">
         <v>9</v>
@@ -21136,10 +21180,10 @@
         <v>10</v>
       </c>
       <c r="Q218" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R218" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S218" s="44">
         <v>0</v>
@@ -21169,7 +21213,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>2</v>
@@ -21178,16 +21222,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>370</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="J219" s="6" t="s">
         <v>5</v>
@@ -21196,10 +21240,10 @@
         <v>6</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N219" s="6" t="s">
         <v>9</v>
@@ -21211,10 +21255,10 @@
         <v>226</v>
       </c>
       <c r="Q219" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R219" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S219" s="44">
         <v>0</v>
@@ -21244,7 +21288,7 @@
         <v>35</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>2</v>
@@ -21253,16 +21297,16 @@
         <v>36</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>1151</v>
+        <v>1121</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>1152</v>
+        <v>1122</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="J220" s="6" t="s">
         <v>5</v>
@@ -21271,10 +21315,10 @@
         <v>6</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M220" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N220" s="6" t="s">
         <v>9</v>
@@ -21286,10 +21330,10 @@
         <v>40</v>
       </c>
       <c r="Q220" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R220" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S220" s="44">
         <v>0</v>
@@ -21318,7 +21362,7 @@
         <v>35</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>2</v>
@@ -21327,16 +21371,16 @@
         <v>41</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>414</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>5</v>
@@ -21345,10 +21389,10 @@
         <v>6</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M221" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N221" s="6" t="s">
         <v>9</v>
@@ -21360,10 +21404,10 @@
         <v>43</v>
       </c>
       <c r="Q221" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R221" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S221" s="44">
         <v>0</v>
@@ -21392,7 +21436,7 @@
         <v>35</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>2</v>
@@ -21401,16 +21445,16 @@
         <v>41</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>373</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1159</v>
+        <v>1129</v>
       </c>
       <c r="J222" s="6" t="s">
         <v>5</v>
@@ -21419,10 +21463,10 @@
         <v>6</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N222" s="6" t="s">
         <v>9</v>
@@ -21434,10 +21478,10 @@
         <v>45</v>
       </c>
       <c r="Q222" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R222" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S222" s="44">
         <v>0</v>
@@ -21466,7 +21510,7 @@
         <v>35</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>2</v>
@@ -21475,16 +21519,16 @@
         <v>41</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>1160</v>
+        <v>1130</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>1161</v>
+        <v>1131</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
       <c r="J223" s="6" t="s">
         <v>5</v>
@@ -21493,10 +21537,10 @@
         <v>6</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N223" s="6" t="s">
         <v>9</v>
@@ -21508,10 +21552,10 @@
         <v>303</v>
       </c>
       <c r="Q223" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R223" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S223" s="44">
         <v>0</v>
@@ -21540,7 +21584,7 @@
         <v>35</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>2</v>
@@ -21549,16 +21593,16 @@
         <v>41</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>1163</v>
+        <v>1133</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>1164</v>
+        <v>1134</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>415</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1165</v>
+        <v>1135</v>
       </c>
       <c r="J224" s="6" t="s">
         <v>5</v>
@@ -21567,10 +21611,10 @@
         <v>6</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N224" s="6" t="s">
         <v>9</v>
@@ -21582,10 +21626,10 @@
         <v>159</v>
       </c>
       <c r="Q224" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R224" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S224" s="44">
         <v>0</v>
@@ -21620,7 +21664,7 @@
         <v>35</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>2</v>
@@ -21629,16 +21673,16 @@
         <v>46</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>1166</v>
+        <v>1136</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>1167</v>
+        <v>1137</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>416</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>1168</v>
+        <v>1138</v>
       </c>
       <c r="J225" s="6" t="s">
         <v>5</v>
@@ -21647,10 +21691,10 @@
         <v>6</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M225" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N225" s="6" t="s">
         <v>9</v>
@@ -21662,10 +21706,10 @@
         <v>301</v>
       </c>
       <c r="Q225" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R225" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S225" s="44">
         <v>0</v>
@@ -21700,7 +21744,7 @@
         <v>35</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>2</v>
@@ -21709,16 +21753,16 @@
         <v>47</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1169</v>
+        <v>1139</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>1170</v>
+        <v>1140</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>633</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>1171</v>
+        <v>1141</v>
       </c>
       <c r="J226" s="6" t="s">
         <v>5</v>
@@ -21727,10 +21771,10 @@
         <v>6</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N226" s="6" t="s">
         <v>9</v>
@@ -21742,10 +21786,10 @@
         <v>634</v>
       </c>
       <c r="Q226" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R226" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S226" s="44">
         <v>0</v>
@@ -21780,7 +21824,7 @@
         <v>35</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>2</v>
@@ -21789,16 +21833,16 @@
         <v>47</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>1172</v>
+        <v>1142</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>1173</v>
+        <v>1143</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>374</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1174</v>
+        <v>1144</v>
       </c>
       <c r="J227" s="6" t="s">
         <v>5</v>
@@ -21807,10 +21851,10 @@
         <v>6</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N227" s="6" t="s">
         <v>9</v>
@@ -21822,10 +21866,10 @@
         <v>49</v>
       </c>
       <c r="Q227" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R227" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S227" s="44">
         <v>0</v>
@@ -21860,7 +21904,7 @@
         <v>52</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>2</v>
@@ -21869,16 +21913,16 @@
         <v>3</v>
       </c>
       <c r="F228" s="25" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>380</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="J228" s="6" t="s">
         <v>5</v>
@@ -21887,10 +21931,10 @@
         <v>6</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M228" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N228" s="6" t="s">
         <v>9</v>
@@ -21899,10 +21943,10 @@
         <v>187</v>
       </c>
       <c r="Q228" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R228" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S228" s="44">
         <v>0</v>
@@ -21937,7 +21981,7 @@
         <v>52</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>2</v>
@@ -21946,16 +21990,16 @@
         <v>3</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>1312</v>
+        <v>1281</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>706</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1294</v>
+        <v>1263</v>
       </c>
       <c r="J229" s="6" t="s">
         <v>5</v>
@@ -21964,10 +22008,10 @@
         <v>6</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M229" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N229" s="6" t="s">
         <v>9</v>
@@ -21979,10 +22023,10 @@
         <v>54</v>
       </c>
       <c r="Q229" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R229" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S229" s="44">
         <v>0</v>
@@ -22017,7 +22061,7 @@
         <v>52</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>2</v>
@@ -22026,16 +22070,16 @@
         <v>3</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>1313</v>
+        <v>1282</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>379</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="J230" s="6" t="s">
         <v>5</v>
@@ -22044,10 +22088,10 @@
         <v>6</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M230" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N230" s="6" t="s">
         <v>9</v>
@@ -22059,10 +22103,10 @@
         <v>54</v>
       </c>
       <c r="Q230" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R230" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S230" s="44">
         <v>0</v>
@@ -22097,7 +22141,7 @@
         <v>52</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>2</v>
@@ -22106,16 +22150,16 @@
         <v>3</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1314</v>
+        <v>1283</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>706</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
       <c r="J231" s="6" t="s">
         <v>5</v>
@@ -22124,10 +22168,10 @@
         <v>6</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M231" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N231" s="6" t="s">
         <v>9</v>
@@ -22139,10 +22183,10 @@
         <v>54</v>
       </c>
       <c r="Q231" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R231" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S231" s="44">
         <v>0</v>
@@ -22177,7 +22221,7 @@
         <v>70</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>2</v>
@@ -22186,28 +22230,28 @@
         <v>597</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="J232" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K232" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M232" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N232" s="6" t="s">
         <v>9</v>
@@ -22216,13 +22260,13 @@
         <v>187</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="Q232" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R232" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S232" s="44">
         <v>0</v>
@@ -22254,10 +22298,10 @@
         <v>93530118</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>2</v>
@@ -22266,28 +22310,28 @@
         <v>3</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1279</v>
+        <v>1248</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K233" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M233" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N233" s="6" t="s">
         <v>9</v>
@@ -22296,10 +22340,10 @@
         <v>187</v>
       </c>
       <c r="Q233" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R233" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S233" s="44">
         <v>0</v>
@@ -22325,10 +22369,10 @@
         <v>93530119</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>2</v>
@@ -22337,28 +22381,28 @@
         <v>3</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1291</v>
+        <v>1260</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K234" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M234" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N234" s="6" t="s">
         <v>9</v>
@@ -22367,10 +22411,10 @@
         <v>187</v>
       </c>
       <c r="Q234" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R234" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S234" s="44">
         <v>0</v>
@@ -22396,10 +22440,10 @@
         <v>93530120</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>2</v>
@@ -22408,28 +22452,28 @@
         <v>3</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K235" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N235" s="6" t="s">
         <v>9</v>
@@ -22438,10 +22482,10 @@
         <v>187</v>
       </c>
       <c r="Q235" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R235" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S235" s="44">
         <v>0</v>
@@ -22467,10 +22511,10 @@
         <v>93530121</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
@@ -22479,28 +22523,28 @@
         <v>3</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1280</v>
+        <v>1249</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K236" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M236" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N236" s="6" t="s">
         <v>9</v>
@@ -22509,10 +22553,10 @@
         <v>187</v>
       </c>
       <c r="Q236" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R236" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S236" s="44">
         <v>0</v>
@@ -22538,10 +22582,10 @@
         <v>93530122</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>2</v>
@@ -22550,16 +22594,16 @@
         <v>3</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1282</v>
+        <v>1251</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="J237" s="6" t="s">
         <v>5</v>
@@ -22568,10 +22612,10 @@
         <v>6</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M237" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N237" s="6" t="s">
         <v>9</v>
@@ -22580,10 +22624,10 @@
         <v>187</v>
       </c>
       <c r="Q237" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R237" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S237" s="44">
         <v>0</v>
@@ -22609,10 +22653,10 @@
         <v>93530123</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>2</v>
@@ -22621,28 +22665,28 @@
         <v>3</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1310</v>
+        <v>1279</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1283</v>
+        <v>1252</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="J238" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K238" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M238" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N238" s="6" t="s">
         <v>9</v>
@@ -22652,10 +22696,10 @@
       </c>
       <c r="P238" s="6"/>
       <c r="Q238" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R238" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S238" s="44">
         <v>0</v>
@@ -22727,7 +22771,7 @@
         <v>17</v>
       </c>
       <c r="R239" s="6" t="s">
-        <v>1341</v>
+        <v>1309</v>
       </c>
       <c r="S239" s="44">
         <v>0</v>
@@ -22765,16 +22809,16 @@
         <v>3</v>
       </c>
       <c r="F240" s="41" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="J240" s="40" t="s">
         <v>796</v>
@@ -22783,7 +22827,7 @@
         <v>231</v>
       </c>
       <c r="L240" s="40" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="M240" s="40" t="s">
         <v>8</v>
@@ -22799,7 +22843,7 @@
         <v>17</v>
       </c>
       <c r="R240" s="6" t="s">
-        <v>1336</v>
+        <v>1304</v>
       </c>
       <c r="S240" s="44">
         <v>0</v>
@@ -22838,16 +22882,16 @@
         <v>3</v>
       </c>
       <c r="F241" s="41" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="J241" s="40" t="s">
         <v>5</v>
@@ -22856,7 +22900,7 @@
         <v>231</v>
       </c>
       <c r="L241" s="40" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="M241" s="40" t="s">
         <v>8</v>
@@ -22872,7 +22916,7 @@
         <v>17</v>
       </c>
       <c r="R241" s="6" t="s">
-        <v>1336</v>
+        <v>1304</v>
       </c>
       <c r="S241" s="44">
         <v>0</v>
@@ -22911,16 +22955,16 @@
         <v>47</v>
       </c>
       <c r="F242" s="41" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="G242" s="41" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
       <c r="H242" s="40" t="s">
-        <v>1146</v>
+        <v>1116</v>
       </c>
       <c r="I242" s="41" t="s">
-        <v>1147</v>
+        <v>1117</v>
       </c>
       <c r="J242" s="40" t="s">
         <v>5</v>
@@ -22935,17 +22979,17 @@
         <v>8</v>
       </c>
       <c r="N242" s="41" t="s">
-        <v>1148</v>
+        <v>1118</v>
       </c>
       <c r="O242" s="40" t="s">
-        <v>1149</v>
+        <v>1119</v>
       </c>
       <c r="P242" s="40"/>
       <c r="Q242" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R242" s="6" t="s">
-        <v>1340</v>
+        <v>1308</v>
       </c>
       <c r="S242" s="44">
         <v>0</v>
@@ -22984,41 +23028,41 @@
         <v>597</v>
       </c>
       <c r="F243" s="41" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="G243" s="41" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="H243" s="40" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="I243" s="41" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="J243" s="40" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="K243" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L243" s="40" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M243" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N243" s="40" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="O243" s="40" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="P243" s="40"/>
       <c r="Q243" s="40" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="R243" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S243" s="44">
         <v>0</v>
@@ -23062,41 +23106,41 @@
         <v>597</v>
       </c>
       <c r="F244" s="41" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="G244" s="41" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="H244" s="40" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="I244" s="41" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="J244" s="40" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="K244" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L244" s="40" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="M244" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N244" s="40" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="O244" s="40" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="P244" s="40"/>
       <c r="Q244" s="40" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="R244" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S244" s="44">
         <v>0</v>
@@ -23128,7 +23172,7 @@
         <v>94530116</v>
       </c>
       <c r="B245" s="58" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C245" s="58" t="s">
         <v>865</v>
@@ -23140,16 +23184,16 @@
         <v>3</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="G245" s="59" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="H245" s="59" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="I245" s="59" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="J245" s="58" t="s">
         <v>796</v>
@@ -23158,7 +23202,7 @@
         <v>231</v>
       </c>
       <c r="L245" s="58" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="M245" s="58" t="s">
         <v>8</v>
@@ -23174,7 +23218,7 @@
         <v>17</v>
       </c>
       <c r="R245" s="6" t="s">
-        <v>1348</v>
+        <v>1316</v>
       </c>
       <c r="S245" s="44">
         <v>0</v>
@@ -23201,7 +23245,7 @@
         <v>94530117</v>
       </c>
       <c r="B246" s="58" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C246" s="58" t="s">
         <v>865</v>
@@ -23213,16 +23257,16 @@
         <v>3</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="G246" s="59" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="H246" s="59" t="s">
-        <v>1322</v>
+        <v>1290</v>
       </c>
       <c r="I246" s="59" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="J246" s="58" t="s">
         <v>5</v>
@@ -23231,7 +23275,7 @@
         <v>231</v>
       </c>
       <c r="L246" s="58" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="M246" s="58" t="s">
         <v>8</v>
@@ -23247,7 +23291,7 @@
         <v>17</v>
       </c>
       <c r="R246" s="6" t="s">
-        <v>1348</v>
+        <v>1316</v>
       </c>
       <c r="S246" s="44">
         <v>0</v>
@@ -23274,28 +23318,28 @@
         <v>910199999</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>874</v>
+        <v>1322</v>
       </c>
       <c r="D247" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>1176</v>
+        <v>1352</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1176</v>
+        <v>1352</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>1177</v>
+        <v>1146</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>1178</v>
+        <v>1147</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>1179</v>
+        <v>1148</v>
       </c>
       <c r="K247" s="6" t="s">
         <v>6</v>
@@ -23307,17 +23351,17 @@
         <v>289</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="P247" s="6"/>
       <c r="Q247" s="13" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="R247" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S247" s="7">
         <v>0</v>
@@ -23344,25 +23388,25 @@
         <v>920199999</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>1180</v>
+        <v>1149</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>1181</v>
+        <v>1150</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1182</v>
+        <v>1151</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>1183</v>
+        <v>1152</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>5</v>
@@ -23374,19 +23418,19 @@
         <v>2011</v>
       </c>
       <c r="M248" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N248" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O248" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q248" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R248" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S248" s="7">
         <v>0</v>
@@ -23413,25 +23457,25 @@
         <v>920299999</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>1185</v>
+        <v>1154</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1186</v>
+        <v>1155</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="I249" s="7" t="s">
-        <v>1188</v>
+        <v>1157</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>5</v>
@@ -23443,19 +23487,19 @@
         <v>2011</v>
       </c>
       <c r="M249" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N249" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q249" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R249" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S249" s="7">
         <v>0</v>
@@ -23482,25 +23526,25 @@
         <v>920399999</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D250" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>1189</v>
+        <v>1158</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>1190</v>
+        <v>1159</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1191</v>
+        <v>1160</v>
       </c>
       <c r="I250" s="7" t="s">
-        <v>1192</v>
+        <v>1161</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>5</v>
@@ -23512,19 +23556,19 @@
         <v>2011</v>
       </c>
       <c r="M250" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N250" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O250" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q250" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R250" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S250" s="7">
         <v>0</v>
@@ -23551,25 +23595,25 @@
         <v>920499999</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>1193</v>
+        <v>1162</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1194</v>
+        <v>1163</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1195</v>
+        <v>1164</v>
       </c>
       <c r="I251" s="7" t="s">
-        <v>1196</v>
+        <v>1165</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>5</v>
@@ -23581,19 +23625,19 @@
         <v>2011</v>
       </c>
       <c r="M251" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N251" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O251" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q251" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R251" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S251" s="7">
         <v>0</v>
@@ -23621,25 +23665,25 @@
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>1197</v>
+        <v>1166</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1198</v>
+        <v>1167</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1199</v>
+        <v>1168</v>
       </c>
       <c r="I252" s="7" t="s">
-        <v>1200</v>
+        <v>1169</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>5</v>
@@ -23651,20 +23695,20 @@
         <v>2011</v>
       </c>
       <c r="M252" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N252" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O252" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R252" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S252" s="7">
         <v>0</v>
@@ -23696,25 +23740,25 @@
         <v>920699999</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D253" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>1201</v>
+        <v>1170</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>1202</v>
+        <v>1171</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>1203</v>
+        <v>1172</v>
       </c>
       <c r="I253" s="7" t="s">
-        <v>1204</v>
+        <v>1173</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>5</v>
@@ -23726,19 +23770,19 @@
         <v>2011</v>
       </c>
       <c r="M253" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N253" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O253" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q253" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R253" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S253" s="7">
         <v>0</v>
@@ -23772,25 +23816,25 @@
         <v>920799999</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D254" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E254" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="E254" s="40" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>1206</v>
-      </c>
       <c r="H254" s="7" t="s">
-        <v>1207</v>
+        <v>1176</v>
       </c>
       <c r="I254" s="7" t="s">
-        <v>1208</v>
+        <v>1177</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>5</v>
@@ -23802,19 +23846,19 @@
         <v>2011</v>
       </c>
       <c r="M254" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N254" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O254" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="Q254" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R254" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S254" s="7">
         <v>0</v>
@@ -23849,25 +23893,25 @@
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D255" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>1210</v>
+        <v>1179</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1211</v>
+        <v>1180</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>1212</v>
+        <v>1181</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>5</v>
@@ -23879,20 +23923,20 @@
         <v>2011</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N255" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O255" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R255" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S255" s="7">
         <v>0</v>
@@ -23926,25 +23970,25 @@
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D256" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>1213</v>
+        <v>1182</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>1214</v>
+        <v>1183</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>1215</v>
+        <v>1184</v>
       </c>
       <c r="I256" s="7" t="s">
-        <v>1216</v>
+        <v>1185</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>5</v>
@@ -23956,20 +24000,20 @@
         <v>2011</v>
       </c>
       <c r="M256" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N256" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O256" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R256" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S256" s="7">
         <v>0</v>
@@ -24003,25 +24047,25 @@
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D257" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>1217</v>
+        <v>1186</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>1218</v>
+        <v>1187</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="I257" s="7" t="s">
-        <v>1220</v>
+        <v>1189</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>5</v>
@@ -24033,20 +24077,20 @@
         <v>2011</v>
       </c>
       <c r="M257" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N257" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O257" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="7" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="R257" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S257" s="7">
         <v>0</v>
@@ -24080,28 +24124,28 @@
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D258" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>1222</v>
+        <v>1191</v>
       </c>
       <c r="I258" s="45" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K258" s="7" t="s">
         <v>231</v>
@@ -24110,20 +24154,20 @@
         <v>2011</v>
       </c>
       <c r="M258" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N258" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O258" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P258" s="7"/>
       <c r="Q258" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R258" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S258" s="7">
         <v>0</v>
@@ -24157,28 +24201,28 @@
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D259" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>1224</v>
+        <v>1193</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>1224</v>
+        <v>1193</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="I259" s="45" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="J259" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K259" s="7" t="s">
         <v>231</v>
@@ -24187,20 +24231,20 @@
         <v>2011</v>
       </c>
       <c r="M259" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N259" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O259" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P259" s="7"/>
       <c r="Q259" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R259" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S259" s="7">
         <v>0</v>
@@ -24234,28 +24278,28 @@
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D260" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>1226</v>
+        <v>1195</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>1226</v>
+        <v>1195</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1227</v>
+        <v>1196</v>
       </c>
       <c r="I260" s="45" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="J260" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K260" s="7" t="s">
         <v>231</v>
@@ -24264,20 +24308,20 @@
         <v>2011</v>
       </c>
       <c r="M260" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N260" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O260" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P260" s="7"/>
       <c r="Q260" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R260" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S260" s="7">
         <v>0</v>
@@ -24311,28 +24355,28 @@
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D261" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>1228</v>
+        <v>1197</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>1228</v>
+        <v>1197</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1229</v>
+        <v>1198</v>
       </c>
       <c r="I261" s="45" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="J261" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K261" s="7" t="s">
         <v>231</v>
@@ -24341,20 +24385,20 @@
         <v>2011</v>
       </c>
       <c r="M261" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N261" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P261" s="7"/>
       <c r="Q261" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R261" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S261" s="7">
         <v>0</v>
@@ -24388,28 +24432,28 @@
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D262" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>1231</v>
+        <v>1200</v>
       </c>
       <c r="I262" s="45" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="J262" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K262" s="7" t="s">
         <v>231</v>
@@ -24418,20 +24462,20 @@
         <v>2011</v>
       </c>
       <c r="M262" s="7" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N262" s="7" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="O262" s="7" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="P262" s="7"/>
       <c r="Q262" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="R262" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S262" s="7">
         <v>0</v>
@@ -24465,34 +24509,34 @@
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="D263" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>1311</v>
+        <v>1280</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1311</v>
+        <v>1280</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1262</v>
+        <v>1231</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>1263</v>
+        <v>1232</v>
       </c>
       <c r="J263" s="7" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K263" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="M263" s="6" t="s">
         <v>8</v>
@@ -24505,10 +24549,10 @@
       </c>
       <c r="P263" s="7"/>
       <c r="Q263" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R263" s="6" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="S263" s="7">
         <v>0</v>
@@ -24539,22 +24583,22 @@
         <v>865</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F264" s="40" t="s">
-        <v>1232</v>
+        <v>1201</v>
       </c>
       <c r="G264" s="41" t="s">
-        <v>1233</v>
+        <v>1202</v>
       </c>
       <c r="H264" s="40" t="s">
-        <v>1234</v>
+        <v>1203</v>
       </c>
       <c r="I264" s="41" t="s">
-        <v>1235</v>
+        <v>1204</v>
       </c>
       <c r="J264" s="40" t="s">
         <v>796</v>
@@ -24563,23 +24607,23 @@
         <v>231</v>
       </c>
       <c r="L264" s="40" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="M264" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N264" s="41" t="s">
-        <v>1237</v>
+        <v>1206</v>
       </c>
       <c r="O264" s="40" t="s">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="P264" s="40"/>
       <c r="Q264" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R264" s="6" t="s">
-        <v>1337</v>
+        <v>1305</v>
       </c>
       <c r="S264" s="7">
         <v>0</v>
@@ -24616,47 +24660,47 @@
         <v>865</v>
       </c>
       <c r="D265" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F265" s="41" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
       <c r="G265" s="41" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
       <c r="H265" s="47" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
       <c r="I265" s="41" t="s">
-        <v>1241</v>
+        <v>1210</v>
       </c>
       <c r="J265" s="41" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K265" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L265" s="40" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="M265" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N265" s="41" t="s">
-        <v>1242</v>
+        <v>1211</v>
       </c>
       <c r="O265" s="40" t="s">
-        <v>1243</v>
+        <v>1212</v>
       </c>
       <c r="P265" s="40"/>
       <c r="Q265" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R265" s="6" t="s">
-        <v>1337</v>
+        <v>1305</v>
       </c>
       <c r="S265" s="7">
         <v>0</v>
@@ -24693,22 +24737,22 @@
         <v>865</v>
       </c>
       <c r="D266" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F266" s="40" t="s">
-        <v>1244</v>
+        <v>1213</v>
       </c>
       <c r="G266" s="41" t="s">
-        <v>1245</v>
+        <v>1214</v>
       </c>
       <c r="H266" s="47" t="s">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="I266" s="41" t="s">
-        <v>1247</v>
+        <v>1216</v>
       </c>
       <c r="J266" s="40" t="s">
         <v>796</v>
@@ -24717,23 +24761,23 @@
         <v>231</v>
       </c>
       <c r="L266" s="40" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="M266" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N266" s="41" t="s">
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="O266" s="40" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="P266" s="40"/>
       <c r="Q266" s="40" t="s">
         <v>208</v>
       </c>
       <c r="R266" s="6" t="s">
-        <v>1338</v>
+        <v>1306</v>
       </c>
       <c r="S266" s="7">
         <v>0</v>
@@ -24770,47 +24814,47 @@
         <v>865</v>
       </c>
       <c r="D267" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E267" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F267" s="41" t="s">
-        <v>1250</v>
+        <v>1219</v>
       </c>
       <c r="G267" s="41" t="s">
-        <v>1250</v>
+        <v>1219</v>
       </c>
       <c r="H267" s="47" t="s">
-        <v>1251</v>
+        <v>1220</v>
       </c>
       <c r="I267" s="41" t="s">
-        <v>1252</v>
+        <v>1221</v>
       </c>
       <c r="J267" s="40" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K267" s="40" t="s">
         <v>231</v>
       </c>
       <c r="L267" s="40" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="M267" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N267" s="40" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="O267" s="40" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="P267" s="40"/>
       <c r="Q267" s="40" t="s">
         <v>208</v>
       </c>
       <c r="R267" s="6" t="s">
-        <v>1339</v>
+        <v>1307</v>
       </c>
       <c r="S267" s="7">
         <v>0</v>
@@ -24847,22 +24891,22 @@
         <v>865</v>
       </c>
       <c r="D268" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E268" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F268" s="40" t="s">
-        <v>1253</v>
+        <v>1222</v>
       </c>
       <c r="G268" s="41" t="s">
-        <v>1254</v>
+        <v>1223</v>
       </c>
       <c r="H268" s="47" t="s">
-        <v>1255</v>
+        <v>1224</v>
       </c>
       <c r="I268" s="41" t="s">
-        <v>1256</v>
+        <v>1225</v>
       </c>
       <c r="J268" s="40" t="s">
         <v>796</v>
@@ -24877,17 +24921,17 @@
         <v>8</v>
       </c>
       <c r="N268" s="41" t="s">
-        <v>1257</v>
+        <v>1226</v>
       </c>
       <c r="O268" s="40" t="s">
-        <v>1258</v>
+        <v>1227</v>
       </c>
       <c r="P268" s="40"/>
       <c r="Q268" s="40" t="s">
-        <v>1259</v>
+        <v>1228</v>
       </c>
       <c r="R268" s="6" t="s">
-        <v>1342</v>
+        <v>1310</v>
       </c>
       <c r="S268" s="7">
         <v>0</v>
@@ -24924,25 +24968,25 @@
         <v>865</v>
       </c>
       <c r="D269" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="F269" s="41" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="G269" s="41" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="H269" s="47" t="s">
-        <v>1251</v>
+        <v>1220</v>
       </c>
       <c r="I269" s="41" t="s">
-        <v>1261</v>
+        <v>1230</v>
       </c>
       <c r="J269" s="40" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="K269" s="40" t="s">
         <v>231</v>
@@ -24954,17 +24998,17 @@
         <v>8</v>
       </c>
       <c r="N269" s="40" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="O269" s="40" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="P269" s="40"/>
       <c r="Q269" s="40" t="s">
-        <v>1259</v>
+        <v>1228</v>
       </c>
       <c r="R269" s="6" t="s">
-        <v>1343</v>
+        <v>1311</v>
       </c>
       <c r="S269" s="7">
         <v>0</v>
@@ -24991,6 +25035,161 @@
       <c r="AC269" s="7"/>
       <c r="AD269" s="7"/>
       <c r="AL269" s="13"/>
+    </row>
+    <row r="270" spans="1:38" s="61" customFormat="1">
+      <c r="A270" s="63">
+        <v>95530124</v>
+      </c>
+      <c r="B270" s="61" t="s">
+        <v>968</v>
+      </c>
+      <c r="C270" s="61" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D270" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E270" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F270" s="61" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G270" s="61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H270" s="61" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I270" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J270" s="61" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K270" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="L270" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="M270" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="N270" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O270" s="24" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R270" s="64" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S270" s="62">
+        <v>0</v>
+      </c>
+      <c r="T270" s="62">
+        <v>0</v>
+      </c>
+      <c r="U270" s="62">
+        <v>0</v>
+      </c>
+      <c r="V270" s="62">
+        <v>0</v>
+      </c>
+      <c r="W270" s="62">
+        <v>1</v>
+      </c>
+      <c r="X270" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:38" s="6" customFormat="1">
+      <c r="A271" s="17">
+        <v>95230101</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C271" s="61" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F271" s="30" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G271" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="I271" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J271" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K271" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L271" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M271" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N271" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O271" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="P271" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q271" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="R271" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S271" s="6">
+        <v>1</v>
+      </c>
+      <c r="T271" s="6">
+        <v>0</v>
+      </c>
+      <c r="U271" s="6">
+        <v>0</v>
+      </c>
+      <c r="V271" s="6">
+        <v>0</v>
+      </c>
+      <c r="W271" s="6">
+        <v>0</v>
+      </c>
+      <c r="X271" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="13"/>
+      <c r="Z271" s="13"/>
+      <c r="AA271" s="13"/>
+      <c r="AB271" s="13"/>
+      <c r="AC271" s="13"/>
+      <c r="AD271" s="13"/>
+      <c r="AE271" s="13"/>
+      <c r="AF271" s="13"/>
+      <c r="AG271" s="13"/>
+      <c r="AH271" s="13"/>
+      <c r="AI271" s="13"/>
+      <c r="AJ271" s="13"/>
+      <c r="AK271" s="13"/>
     </row>
     <row r="273" spans="6:7">
       <c r="F273" s="54"/>
@@ -25014,7 +25213,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>
@@ -25037,7 +25236,7 @@
         <v>328</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -25053,7 +25252,7 @@
         <v>722</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -25069,7 +25268,7 @@
         <v>331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1318</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -25077,7 +25276,7 @@
         <v>332</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -25149,7 +25348,7 @@
         <v>341</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1321</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -25162,10 +25361,10 @@
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>1331</v>
+        <v>1299</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1332</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -25210,10 +25409,10 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -16,14 +16,14 @@
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1353">
   <si>
     <t>id</t>
   </si>
@@ -4154,39 +4154,6 @@
   </si>
   <si>
     <t>(Personas LGBTI) Cantidad de personas trans</t>
-  </si>
-  <si>
-    <t>Afrodescendientes</t>
-  </si>
-  <si>
-    <t>Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos - Ley 19.122</t>
-  </si>
-  <si>
-    <t>Cantidad de ingresos de personas a cargos públicos</t>
-  </si>
-  <si>
-    <t>El indicador mide la cantidad de personas que ingresaron al estado por la Ley 19.122</t>
-  </si>
-  <si>
-    <t>Para cada año calcular: Cantidad de ingresos de personas a cargos públicos en el marco de la Ley 19.122</t>
-  </si>
-  <si>
-    <t>Cantidad de ingresos al estado</t>
-  </si>
-  <si>
-    <t>Oficina Nacional de Servicio Civil</t>
-  </si>
-  <si>
-    <t>Consultoría Proyecto SURGE (ACNUDH) con base en Oficina Nacional de Servcio Civil.</t>
-  </si>
-  <si>
-    <t>Consultoría Proyecto SURGE (ACNUDH) con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
-  </si>
-  <si>
-    <t>(Población afrodescendiente) Tenencia insegura de la vivienda</t>
-  </si>
-  <si>
-    <t>(Población afrodescendiente) Porcentaje de personas en hogares con tenencia insegura</t>
   </si>
 </sst>
 </file>
@@ -4303,7 +4270,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4455,17 +4422,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4785,12 +4741,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AL274"/>
+  <dimension ref="A1:AL272"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
+      <selection pane="bottomLeft" activeCell="F285" sqref="F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25036,168 +24992,13 @@
       <c r="AD269" s="7"/>
       <c r="AL269" s="13"/>
     </row>
-    <row r="270" spans="1:38" s="61" customFormat="1">
-      <c r="A270" s="63">
-        <v>95530124</v>
-      </c>
-      <c r="B270" s="61" t="s">
-        <v>968</v>
-      </c>
-      <c r="C270" s="61" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D270" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E270" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F270" s="61" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G270" s="61" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H270" s="61" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I270" s="61" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J270" s="61" t="s">
-        <v>1358</v>
-      </c>
-      <c r="K270" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="L270" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="M270" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="N270" s="61" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O270" s="24" t="s">
-        <v>1360</v>
-      </c>
-      <c r="R270" s="64" t="s">
-        <v>1298</v>
-      </c>
-      <c r="S270" s="62">
-        <v>0</v>
-      </c>
-      <c r="T270" s="62">
-        <v>0</v>
-      </c>
-      <c r="U270" s="62">
-        <v>0</v>
-      </c>
-      <c r="V270" s="62">
-        <v>0</v>
-      </c>
-      <c r="W270" s="62">
-        <v>1</v>
-      </c>
-      <c r="X270" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:38" s="6" customFormat="1">
-      <c r="A271" s="17">
-        <v>95230101</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C271" s="61" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E271" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F271" s="30" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G271" s="13" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H271" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="I271" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J271" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K271" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L271" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M271" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N271" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O271" s="13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="P271" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q271" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="R271" s="6" t="s">
-        <v>1298</v>
-      </c>
-      <c r="S271" s="6">
-        <v>1</v>
-      </c>
-      <c r="T271" s="6">
-        <v>0</v>
-      </c>
-      <c r="U271" s="6">
-        <v>0</v>
-      </c>
-      <c r="V271" s="6">
-        <v>0</v>
-      </c>
-      <c r="W271" s="6">
-        <v>0</v>
-      </c>
-      <c r="X271" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y271" s="13"/>
-      <c r="Z271" s="13"/>
-      <c r="AA271" s="13"/>
-      <c r="AB271" s="13"/>
-      <c r="AC271" s="13"/>
-      <c r="AD271" s="13"/>
-      <c r="AE271" s="13"/>
-      <c r="AF271" s="13"/>
-      <c r="AG271" s="13"/>
-      <c r="AH271" s="13"/>
-      <c r="AI271" s="13"/>
-      <c r="AJ271" s="13"/>
-      <c r="AK271" s="13"/>
-    </row>
-    <row r="273" spans="6:7">
-      <c r="F273" s="54"/>
-      <c r="G273" s="54"/>
-    </row>
-    <row r="274" spans="6:7">
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
+    <row r="271" spans="1:38">
+      <c r="F271" s="54"/>
+      <c r="G271" s="54"/>
+    </row>
+    <row r="272" spans="1:38">
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -16,14 +16,14 @@
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$271</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1366">
   <si>
     <t>id</t>
   </si>
@@ -4154,6 +4154,45 @@
   </si>
   <si>
     <t>(Personas LGBTI) Cantidad de personas trans</t>
+  </si>
+  <si>
+    <t>Para una descripición metodológica completa y mayor información visitar el Observatorio Ambiental Nacional (MA) https://www.ambiente.gub.uy/oan/</t>
+  </si>
+  <si>
+    <t>Afrodescendientes</t>
+  </si>
+  <si>
+    <t>Cantidad anual de becas educativas otorgadas a personas afrodescendientes</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad de becas educativas otorgadas a personas afrodescendientes.</t>
+  </si>
+  <si>
+    <t>OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH - Uruguay) con base en OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
+  </si>
+  <si>
+    <t>Oficina Nacional de Servicio Civil</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de personas que ingresaron al estado en el marco de la Ley 19.122 en relación al total de ingresos.</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de ingresos de personas afrodescendientes a cargos públicos en el marco de la Ley 19.122 / Cantidad de ingresos de personas a cargos públicos en el marco de la Ley 19.122)*100</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH - Uruguay) con base en Oficina Nacional del Servcio Civil</t>
+  </si>
+  <si>
+    <t>Porcentaje de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
+  </si>
+  <si>
+    <t>Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad anual de becas educativas otorgadas a personas afrodescendientes.</t>
   </si>
 </sst>
 </file>
@@ -4270,7 +4309,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4411,9 +4450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4422,6 +4458,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4740,13 +4783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AL272"/>
+  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <dimension ref="A1:AL271"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="F285" sqref="F285"/>
+      <selection pane="bottomLeft" activeCell="E278" sqref="E278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4832,7 +4875,7 @@
       <c r="Q1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="54" t="s">
         <v>1299</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -5954,7 +5997,7 @@
       </c>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" hidden="1">
       <c r="A18" s="13">
         <v>130101</v>
       </c>
@@ -6025,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" hidden="1">
       <c r="A19" s="13">
         <v>130102</v>
       </c>
@@ -6096,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" hidden="1">
       <c r="A20" s="13">
         <v>130103</v>
       </c>
@@ -6167,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="6" customFormat="1">
+    <row r="21" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A21" s="14">
         <v>130104</v>
       </c>
@@ -6252,7 +6295,7 @@
       <c r="AJ21" s="13"/>
       <c r="AK21" s="13"/>
     </row>
-    <row r="22" spans="1:38" s="6" customFormat="1">
+    <row r="22" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A22" s="14">
         <v>130105</v>
       </c>
@@ -6337,7 +6380,7 @@
       <c r="AJ22" s="13"/>
       <c r="AK22" s="13"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" hidden="1">
       <c r="A23" s="14">
         <v>130106</v>
       </c>
@@ -6409,7 +6452,7 @@
       </c>
       <c r="AL23" s="6"/>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" hidden="1">
       <c r="A24" s="15">
         <v>130107</v>
       </c>
@@ -6495,7 +6538,7 @@
       <c r="AK24" s="15"/>
       <c r="AL24" s="6"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" hidden="1">
       <c r="A25" s="15">
         <v>130108</v>
       </c>
@@ -6581,7 +6624,7 @@
       <c r="AK25" s="15"/>
       <c r="AL25" s="6"/>
     </row>
-    <row r="26" spans="1:38" s="6" customFormat="1">
+    <row r="26" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A26" s="6">
         <v>130201</v>
       </c>
@@ -6652,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" hidden="1">
       <c r="A27" s="6">
         <v>130202</v>
       </c>
@@ -6737,7 +6780,7 @@
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" hidden="1">
       <c r="A28" s="6">
         <v>130203</v>
       </c>
@@ -6822,7 +6865,7 @@
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" hidden="1">
       <c r="A29" s="6">
         <v>130204</v>
       </c>
@@ -6893,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="15" customFormat="1">
+    <row r="30" spans="1:38" s="15" customFormat="1" hidden="1">
       <c r="A30" s="6">
         <v>130205</v>
       </c>
@@ -6979,7 +7022,7 @@
       <c r="AK30" s="13"/>
       <c r="AL30" s="13"/>
     </row>
-    <row r="31" spans="1:38" s="15" customFormat="1">
+    <row r="31" spans="1:38" s="15" customFormat="1" hidden="1">
       <c r="A31" s="6">
         <v>130301</v>
       </c>
@@ -7063,7 +7106,7 @@
       <c r="AK31" s="13"/>
       <c r="AL31" s="6"/>
     </row>
-    <row r="32" spans="1:38" s="6" customFormat="1">
+    <row r="32" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A32" s="6">
         <v>130302</v>
       </c>
@@ -7146,7 +7189,7 @@
       <c r="AJ32" s="13"/>
       <c r="AK32" s="13"/>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" hidden="1">
       <c r="A33" s="6">
         <v>130303</v>
       </c>
@@ -7216,7 +7259,7 @@
       </c>
       <c r="AL33" s="6"/>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" hidden="1">
       <c r="A34" s="6">
         <v>130304</v>
       </c>
@@ -7302,7 +7345,7 @@
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
     </row>
-    <row r="35" spans="1:38" s="6" customFormat="1">
+    <row r="35" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A35" s="6">
         <v>130305</v>
       </c>
@@ -7373,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" hidden="1">
       <c r="A36" s="6">
         <v>130306</v>
       </c>
@@ -7445,7 +7488,7 @@
       </c>
       <c r="AL36" s="6"/>
     </row>
-    <row r="37" spans="1:38" s="6" customFormat="1">
+    <row r="37" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A37" s="6">
         <v>220101</v>
       </c>
@@ -7514,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" s="6" customFormat="1">
+    <row r="38" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A38" s="6">
         <v>220102</v>
       </c>
@@ -7583,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" s="6" customFormat="1">
+    <row r="39" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A39" s="6">
         <v>220103</v>
       </c>
@@ -7652,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="6" customFormat="1">
+    <row r="40" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A40" s="6">
         <v>220104</v>
       </c>
@@ -7721,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" hidden="1">
       <c r="A41" s="6">
         <v>220105</v>
       </c>
@@ -7804,7 +7847,7 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" hidden="1">
       <c r="A42" s="6">
         <v>220106</v>
       </c>
@@ -7887,7 +7930,7 @@
       <c r="AK42" s="25"/>
       <c r="AL42" s="6"/>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" hidden="1">
       <c r="A43" s="6">
         <v>220107</v>
       </c>
@@ -7970,7 +8013,7 @@
       <c r="AK43" s="25"/>
       <c r="AL43" s="6"/>
     </row>
-    <row r="44" spans="1:38" s="6" customFormat="1">
+    <row r="44" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A44" s="17">
         <v>230101</v>
       </c>
@@ -8055,7 +8098,7 @@
       <c r="AJ44" s="13"/>
       <c r="AK44" s="13"/>
     </row>
-    <row r="45" spans="1:38" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="45" spans="1:38" s="6" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A45" s="17">
         <v>230201</v>
       </c>
@@ -8140,7 +8183,7 @@
       <c r="AJ45" s="13"/>
       <c r="AK45" s="13"/>
     </row>
-    <row r="46" spans="1:38" s="6" customFormat="1">
+    <row r="46" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A46" s="17">
         <v>230202</v>
       </c>
@@ -8225,7 +8268,7 @@
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
     </row>
-    <row r="47" spans="1:38" s="6" customFormat="1">
+    <row r="47" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A47" s="10">
         <v>230203</v>
       </c>
@@ -8296,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" s="6" customFormat="1">
+    <row r="48" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A48" s="10">
         <v>230204</v>
       </c>
@@ -8367,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="6" customFormat="1">
+    <row r="49" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A49" s="6">
         <v>230301</v>
       </c>
@@ -8438,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" hidden="1">
       <c r="A50" s="6">
         <v>230302</v>
       </c>
@@ -8524,7 +8567,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" hidden="1">
       <c r="A51" s="6">
         <v>230303</v>
       </c>
@@ -8610,7 +8653,7 @@
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" hidden="1">
       <c r="A52" s="6">
         <v>230304</v>
       </c>
@@ -8696,7 +8739,7 @@
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" hidden="1">
       <c r="A53" s="6">
         <v>230401</v>
       </c>
@@ -8782,7 +8825,7 @@
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
     </row>
-    <row r="54" spans="1:38" s="6" customFormat="1">
+    <row r="54" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A54" s="17">
         <v>230402</v>
       </c>
@@ -8867,7 +8910,7 @@
       <c r="AJ54" s="13"/>
       <c r="AK54" s="13"/>
     </row>
-    <row r="55" spans="1:38" s="6" customFormat="1">
+    <row r="55" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A55" s="17">
         <v>230501</v>
       </c>
@@ -8950,7 +8993,7 @@
       <c r="AJ55" s="13"/>
       <c r="AK55" s="13"/>
     </row>
-    <row r="56" spans="1:38" s="6" customFormat="1">
+    <row r="56" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A56" s="6">
         <v>320101</v>
       </c>
@@ -9019,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="6" customFormat="1">
+    <row r="57" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A57" s="6">
         <v>320102</v>
       </c>
@@ -9088,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="6" customFormat="1">
+    <row r="58" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A58" s="6">
         <v>320103</v>
       </c>
@@ -9157,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="6" customFormat="1">
+    <row r="59" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A59" s="6">
         <v>320104</v>
       </c>
@@ -9226,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" s="6" customFormat="1">
+    <row r="60" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A60" s="6">
         <v>320105</v>
       </c>
@@ -9295,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="6" customFormat="1">
+    <row r="61" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A61" s="6">
         <v>320106</v>
       </c>
@@ -9365,7 +9408,7 @@
       </c>
       <c r="AL61" s="7"/>
     </row>
-    <row r="62" spans="1:38" s="6" customFormat="1">
+    <row r="62" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A62" s="6">
         <v>320107</v>
       </c>
@@ -9435,7 +9478,7 @@
       </c>
       <c r="AL62" s="7"/>
     </row>
-    <row r="63" spans="1:38" s="6" customFormat="1">
+    <row r="63" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A63" s="10">
         <v>330101</v>
       </c>
@@ -9448,7 +9491,7 @@
       <c r="E63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F63" s="55" t="s">
         <v>718</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -9484,7 +9527,7 @@
       <c r="Q63" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R63" s="57" t="s">
+      <c r="R63" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S63" s="6">
@@ -9507,7 +9550,7 @@
       </c>
       <c r="AL63" s="11"/>
     </row>
-    <row r="64" spans="1:38" s="6" customFormat="1">
+    <row r="64" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A64" s="10">
         <v>330102</v>
       </c>
@@ -9556,7 +9599,7 @@
       <c r="Q64" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R64" s="57" t="s">
+      <c r="R64" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S64" s="6">
@@ -9579,7 +9622,7 @@
       </c>
       <c r="AL64" s="7"/>
     </row>
-    <row r="65" spans="1:38" s="6" customFormat="1">
+    <row r="65" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A65" s="10">
         <v>330103</v>
       </c>
@@ -9628,7 +9671,7 @@
       <c r="Q65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="57" t="s">
+      <c r="R65" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S65" s="6">
@@ -9650,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" s="6" customFormat="1">
+    <row r="66" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A66" s="10">
         <v>330104</v>
       </c>
@@ -9699,7 +9742,7 @@
       <c r="Q66" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R66" s="57" t="s">
+      <c r="R66" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S66" s="6">
@@ -9721,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" s="6" customFormat="1">
+    <row r="67" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A67" s="10">
         <v>330105</v>
       </c>
@@ -9770,7 +9813,7 @@
       <c r="Q67" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R67" s="57" t="s">
+      <c r="R67" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S67" s="6">
@@ -9792,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="6" customFormat="1">
+    <row r="68" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A68" s="10">
         <v>330106</v>
       </c>
@@ -9841,7 +9884,7 @@
       <c r="Q68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="57" t="s">
+      <c r="R68" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S68" s="6">
@@ -9864,7 +9907,7 @@
       </c>
       <c r="AL68" s="11"/>
     </row>
-    <row r="69" spans="1:38" s="6" customFormat="1">
+    <row r="69" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A69" s="10">
         <v>330107</v>
       </c>
@@ -9913,7 +9956,7 @@
       <c r="Q69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="57" t="s">
+      <c r="R69" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S69" s="6">
@@ -9936,7 +9979,7 @@
       </c>
       <c r="AL69" s="11"/>
     </row>
-    <row r="70" spans="1:38" s="6" customFormat="1">
+    <row r="70" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A70" s="10">
         <v>330108</v>
       </c>
@@ -9986,7 +10029,7 @@
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="57" t="s">
+      <c r="R70" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S70" s="6">
@@ -10022,7 +10065,7 @@
       <c r="AK70" s="23"/>
       <c r="AL70" s="7"/>
     </row>
-    <row r="71" spans="1:38" s="6" customFormat="1">
+    <row r="71" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A71" s="10">
         <v>330109</v>
       </c>
@@ -10072,7 +10115,7 @@
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R71" s="57" t="s">
+      <c r="R71" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S71" s="6">
@@ -10108,7 +10151,7 @@
       <c r="AK71" s="23"/>
       <c r="AL71" s="11"/>
     </row>
-    <row r="72" spans="1:38" s="6" customFormat="1">
+    <row r="72" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A72" s="10">
         <v>330110</v>
       </c>
@@ -10158,7 +10201,7 @@
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R72" s="57" t="s">
+      <c r="R72" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S72" s="6">
@@ -10193,7 +10236,7 @@
       <c r="AJ72" s="23"/>
       <c r="AK72" s="23"/>
     </row>
-    <row r="73" spans="1:38" s="6" customFormat="1">
+    <row r="73" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A73" s="10">
         <v>330111</v>
       </c>
@@ -10243,7 +10286,7 @@
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R73" s="57" t="s">
+      <c r="R73" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S73" s="6">
@@ -10279,7 +10322,7 @@
       <c r="AK73" s="23"/>
       <c r="AL73" s="11"/>
     </row>
-    <row r="74" spans="1:38" s="6" customFormat="1">
+    <row r="74" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A74" s="10">
         <v>330112</v>
       </c>
@@ -10329,7 +10372,7 @@
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R74" s="57" t="s">
+      <c r="R74" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S74" s="6">
@@ -10365,7 +10408,7 @@
       <c r="AK74" s="23"/>
       <c r="AL74" s="11"/>
     </row>
-    <row r="75" spans="1:38" s="6" customFormat="1">
+    <row r="75" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A75" s="10">
         <v>330113</v>
       </c>
@@ -10415,7 +10458,7 @@
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="57" t="s">
+      <c r="R75" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S75" s="6">
@@ -10451,7 +10494,7 @@
       <c r="AK75" s="23"/>
       <c r="AL75" s="11"/>
     </row>
-    <row r="76" spans="1:38" s="6" customFormat="1">
+    <row r="76" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A76" s="10">
         <v>330114</v>
       </c>
@@ -10501,7 +10544,7 @@
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R76" s="57" t="s">
+      <c r="R76" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S76" s="6">
@@ -10537,7 +10580,7 @@
       <c r="AK76" s="23"/>
       <c r="AL76" s="11"/>
     </row>
-    <row r="77" spans="1:38" s="6" customFormat="1">
+    <row r="77" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A77" s="10">
         <v>330115</v>
       </c>
@@ -10587,7 +10630,7 @@
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R77" s="57" t="s">
+      <c r="R77" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S77" s="6">
@@ -10623,7 +10666,7 @@
       <c r="AK77" s="23"/>
       <c r="AL77" s="11"/>
     </row>
-    <row r="78" spans="1:38" s="6" customFormat="1">
+    <row r="78" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A78" s="10">
         <v>330201</v>
       </c>
@@ -10672,7 +10715,7 @@
       <c r="Q78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R78" s="57" t="s">
+      <c r="R78" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S78" s="6">
@@ -10695,7 +10738,7 @@
       </c>
       <c r="AL78" s="11"/>
     </row>
-    <row r="79" spans="1:38" s="6" customFormat="1">
+    <row r="79" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A79" s="10">
         <v>330202</v>
       </c>
@@ -10744,7 +10787,7 @@
       <c r="Q79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R79" s="57" t="s">
+      <c r="R79" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S79" s="6">
@@ -10767,7 +10810,7 @@
       </c>
       <c r="AL79" s="11"/>
     </row>
-    <row r="80" spans="1:38" s="6" customFormat="1">
+    <row r="80" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A80" s="10">
         <v>330203</v>
       </c>
@@ -10816,7 +10859,7 @@
       <c r="Q80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R80" s="57" t="s">
+      <c r="R80" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S80" s="6">
@@ -10839,7 +10882,7 @@
       </c>
       <c r="AL80" s="7"/>
     </row>
-    <row r="81" spans="1:38" s="6" customFormat="1">
+    <row r="81" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A81" s="10">
         <v>330204</v>
       </c>
@@ -10888,7 +10931,7 @@
       <c r="Q81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R81" s="57" t="s">
+      <c r="R81" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S81" s="6">
@@ -10911,7 +10954,7 @@
       </c>
       <c r="AL81" s="7"/>
     </row>
-    <row r="82" spans="1:38" s="6" customFormat="1">
+    <row r="82" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A82" s="10">
         <v>330205</v>
       </c>
@@ -10960,7 +11003,7 @@
       <c r="Q82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R82" s="57" t="s">
+      <c r="R82" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S82" s="6">
@@ -10983,7 +11026,7 @@
       </c>
       <c r="AL82" s="7"/>
     </row>
-    <row r="83" spans="1:38" s="6" customFormat="1">
+    <row r="83" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A83" s="10">
         <v>330206</v>
       </c>
@@ -11032,7 +11075,7 @@
       <c r="Q83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R83" s="57" t="s">
+      <c r="R83" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S83" s="6">
@@ -11055,7 +11098,7 @@
       </c>
       <c r="AL83" s="7"/>
     </row>
-    <row r="84" spans="1:38" s="7" customFormat="1">
+    <row r="84" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A84" s="10">
         <v>330207</v>
       </c>
@@ -11105,7 +11148,7 @@
       <c r="Q84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R84" s="57" t="s">
+      <c r="R84" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S84" s="6">
@@ -11140,7 +11183,7 @@
       <c r="AJ84" s="6"/>
       <c r="AK84" s="6"/>
     </row>
-    <row r="85" spans="1:38" s="7" customFormat="1">
+    <row r="85" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A85" s="10">
         <v>330208</v>
       </c>
@@ -11190,7 +11233,7 @@
       <c r="Q85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R85" s="57" t="s">
+      <c r="R85" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S85" s="6">
@@ -11225,7 +11268,7 @@
       <c r="AJ85" s="6"/>
       <c r="AK85" s="6"/>
     </row>
-    <row r="86" spans="1:38" s="6" customFormat="1">
+    <row r="86" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A86" s="10">
         <v>330209</v>
       </c>
@@ -11274,7 +11317,7 @@
       <c r="Q86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R86" s="57" t="s">
+      <c r="R86" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S86" s="6">
@@ -11297,7 +11340,7 @@
       </c>
       <c r="AL86" s="23"/>
     </row>
-    <row r="87" spans="1:38" s="7" customFormat="1">
+    <row r="87" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A87" s="10">
         <v>330210</v>
       </c>
@@ -11347,7 +11390,7 @@
       <c r="Q87" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R87" s="57" t="s">
+      <c r="R87" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S87" s="6">
@@ -11382,7 +11425,7 @@
       <c r="AJ87" s="6"/>
       <c r="AK87" s="6"/>
     </row>
-    <row r="88" spans="1:38" s="6" customFormat="1">
+    <row r="88" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A88" s="10">
         <v>330211</v>
       </c>
@@ -11431,7 +11474,7 @@
       <c r="Q88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="57" t="s">
+      <c r="R88" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S88" s="6">
@@ -11454,7 +11497,7 @@
       </c>
       <c r="AL88" s="23"/>
     </row>
-    <row r="89" spans="1:38" s="6" customFormat="1">
+    <row r="89" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A89" s="10">
         <v>330212</v>
       </c>
@@ -11503,7 +11546,7 @@
       <c r="Q89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R89" s="57" t="s">
+      <c r="R89" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S89" s="6">
@@ -11526,7 +11569,7 @@
       </c>
       <c r="AL89" s="7"/>
     </row>
-    <row r="90" spans="1:38" s="11" customFormat="1">
+    <row r="90" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A90" s="10">
         <v>330213</v>
       </c>
@@ -11576,7 +11619,7 @@
       <c r="Q90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R90" s="57" t="s">
+      <c r="R90" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S90" s="6">
@@ -11612,7 +11655,7 @@
       <c r="AK90" s="6"/>
       <c r="AL90" s="7"/>
     </row>
-    <row r="91" spans="1:38" s="11" customFormat="1">
+    <row r="91" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A91" s="6">
         <v>420101</v>
       </c>
@@ -11696,7 +11739,7 @@
       <c r="AK91" s="6"/>
       <c r="AL91" s="7"/>
     </row>
-    <row r="92" spans="1:38" s="7" customFormat="1">
+    <row r="92" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A92" s="6">
         <v>420102</v>
       </c>
@@ -11779,7 +11822,7 @@
       <c r="AJ92" s="6"/>
       <c r="AK92" s="6"/>
     </row>
-    <row r="93" spans="1:38" s="11" customFormat="1">
+    <row r="93" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A93" s="6">
         <v>420103</v>
       </c>
@@ -11863,7 +11906,7 @@
       <c r="AK93" s="6"/>
       <c r="AL93" s="23"/>
     </row>
-    <row r="94" spans="1:38" s="6" customFormat="1">
+    <row r="94" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A94" s="6">
         <v>420104</v>
       </c>
@@ -11933,7 +11976,7 @@
       </c>
       <c r="AL94" s="25"/>
     </row>
-    <row r="95" spans="1:38" s="11" customFormat="1">
+    <row r="95" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A95" s="6">
         <v>420105</v>
       </c>
@@ -12016,7 +12059,7 @@
       <c r="AJ95" s="6"/>
       <c r="AK95" s="6"/>
     </row>
-    <row r="96" spans="1:38" s="11" customFormat="1">
+    <row r="96" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A96" s="6">
         <v>420106</v>
       </c>
@@ -12099,7 +12142,7 @@
       <c r="AJ96" s="6"/>
       <c r="AK96" s="6"/>
     </row>
-    <row r="97" spans="1:38" s="11" customFormat="1">
+    <row r="97" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A97" s="6">
         <v>420107</v>
       </c>
@@ -12182,7 +12225,7 @@
       <c r="AJ97" s="7"/>
       <c r="AK97" s="7"/>
     </row>
-    <row r="98" spans="1:38" s="11" customFormat="1">
+    <row r="98" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A98" s="6">
         <v>420108</v>
       </c>
@@ -12266,7 +12309,7 @@
       <c r="AK98" s="7"/>
       <c r="AL98" s="23"/>
     </row>
-    <row r="99" spans="1:38" s="11" customFormat="1">
+    <row r="99" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A99" s="6">
         <v>420109</v>
       </c>
@@ -12350,7 +12393,7 @@
       <c r="AK99" s="7"/>
       <c r="AL99" s="23"/>
     </row>
-    <row r="100" spans="1:38" s="11" customFormat="1">
+    <row r="100" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A100" s="6">
         <v>430101</v>
       </c>
@@ -12434,7 +12477,7 @@
       <c r="AK100" s="6"/>
       <c r="AL100" s="23"/>
     </row>
-    <row r="101" spans="1:38" s="11" customFormat="1">
+    <row r="101" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A101" s="6">
         <v>430102</v>
       </c>
@@ -12518,7 +12561,7 @@
       <c r="AK101" s="6"/>
       <c r="AL101" s="23"/>
     </row>
-    <row r="102" spans="1:38" s="11" customFormat="1">
+    <row r="102" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A102" s="6">
         <v>430103</v>
       </c>
@@ -12587,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="7" customFormat="1">
+    <row r="103" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A103" s="6">
         <v>430104</v>
       </c>
@@ -12670,7 +12713,7 @@
       <c r="AK103" s="11"/>
       <c r="AL103" s="11"/>
     </row>
-    <row r="104" spans="1:38" s="7" customFormat="1">
+    <row r="104" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A104" s="6">
         <v>430105</v>
       </c>
@@ -12752,7 +12795,7 @@
       <c r="AJ104" s="11"/>
       <c r="AK104" s="11"/>
     </row>
-    <row r="105" spans="1:38" s="7" customFormat="1">
+    <row r="105" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A105" s="6">
         <v>430106</v>
       </c>
@@ -12835,7 +12878,7 @@
       <c r="AK105" s="11"/>
       <c r="AL105" s="13"/>
     </row>
-    <row r="106" spans="1:38" s="7" customFormat="1">
+    <row r="106" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A106" s="6">
         <v>430107</v>
       </c>
@@ -12918,7 +12961,7 @@
       <c r="AK106" s="11"/>
       <c r="AL106" s="13"/>
     </row>
-    <row r="107" spans="1:38" s="7" customFormat="1">
+    <row r="107" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A107" s="6">
         <v>430108</v>
       </c>
@@ -13001,7 +13044,7 @@
       <c r="AK107" s="11"/>
       <c r="AL107" s="13"/>
     </row>
-    <row r="108" spans="1:38" s="7" customFormat="1">
+    <row r="108" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A108" s="6">
         <v>430109</v>
       </c>
@@ -13084,7 +13127,7 @@
       <c r="AK108" s="11"/>
       <c r="AL108" s="13"/>
     </row>
-    <row r="109" spans="1:38" s="23" customFormat="1">
+    <row r="109" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A109" s="6">
         <v>430110</v>
       </c>
@@ -13168,7 +13211,7 @@
       <c r="AK109" s="11"/>
       <c r="AL109" s="13"/>
     </row>
-    <row r="110" spans="1:38" s="7" customFormat="1">
+    <row r="110" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A110" s="6">
         <v>430111</v>
       </c>
@@ -13251,7 +13294,7 @@
       <c r="AK110" s="11"/>
       <c r="AL110" s="13"/>
     </row>
-    <row r="111" spans="1:38" s="23" customFormat="1">
+    <row r="111" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A111" s="6">
         <v>430112</v>
       </c>
@@ -13335,7 +13378,7 @@
       <c r="AK111" s="11"/>
       <c r="AL111" s="13"/>
     </row>
-    <row r="112" spans="1:38" s="7" customFormat="1">
+    <row r="112" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A112" s="6">
         <v>430113</v>
       </c>
@@ -13418,7 +13461,7 @@
       <c r="AK112" s="11"/>
       <c r="AL112" s="13"/>
     </row>
-    <row r="113" spans="1:38" s="7" customFormat="1">
+    <row r="113" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A113" s="6">
         <v>430114</v>
       </c>
@@ -13501,7 +13544,7 @@
       <c r="AK113" s="11"/>
       <c r="AL113" s="13"/>
     </row>
-    <row r="114" spans="1:38" s="7" customFormat="1">
+    <row r="114" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A114" s="6">
         <v>430201</v>
       </c>
@@ -13570,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:38" s="7" customFormat="1">
+    <row r="115" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A115" s="6">
         <v>430202</v>
       </c>
@@ -13639,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" s="23" customFormat="1">
+    <row r="116" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A116" s="6">
         <v>430203</v>
       </c>
@@ -13723,7 +13766,7 @@
       <c r="AK116" s="7"/>
       <c r="AL116" s="7"/>
     </row>
-    <row r="117" spans="1:38" s="25" customFormat="1">
+    <row r="117" spans="1:38" s="25" customFormat="1" hidden="1">
       <c r="A117" s="6">
         <v>430204</v>
       </c>
@@ -13807,7 +13850,7 @@
       <c r="AK117" s="7"/>
       <c r="AL117" s="7"/>
     </row>
-    <row r="118" spans="1:38" s="11" customFormat="1">
+    <row r="118" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A118" s="6">
         <v>430205</v>
       </c>
@@ -13891,7 +13934,7 @@
       <c r="AK118" s="7"/>
       <c r="AL118" s="7"/>
     </row>
-    <row r="119" spans="1:38" s="11" customFormat="1">
+    <row r="119" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A119" s="6">
         <v>430206</v>
       </c>
@@ -13975,7 +14018,7 @@
       <c r="AK119" s="7"/>
       <c r="AL119" s="7"/>
     </row>
-    <row r="120" spans="1:38" s="11" customFormat="1">
+    <row r="120" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A120" s="6">
         <v>430207</v>
       </c>
@@ -14059,7 +14102,7 @@
       <c r="AK120" s="7"/>
       <c r="AL120" s="7"/>
     </row>
-    <row r="121" spans="1:38" s="23" customFormat="1">
+    <row r="121" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A121" s="6">
         <v>430208</v>
       </c>
@@ -14143,7 +14186,7 @@
       <c r="AK121" s="7"/>
       <c r="AL121" s="7"/>
     </row>
-    <row r="122" spans="1:38" s="23" customFormat="1">
+    <row r="122" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A122" s="6">
         <v>430209</v>
       </c>
@@ -14227,7 +14270,7 @@
       <c r="AK122" s="7"/>
       <c r="AL122" s="7"/>
     </row>
-    <row r="123" spans="1:38" s="23" customFormat="1">
+    <row r="123" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A123" s="29">
         <v>430301</v>
       </c>
@@ -14311,7 +14354,7 @@
       <c r="AK123" s="7"/>
       <c r="AL123" s="7"/>
     </row>
-    <row r="124" spans="1:38" s="23" customFormat="1">
+    <row r="124" spans="1:38" s="23" customFormat="1" hidden="1">
       <c r="A124" s="29">
         <v>430302</v>
       </c>
@@ -14395,7 +14438,7 @@
       <c r="AK124" s="7"/>
       <c r="AL124" s="7"/>
     </row>
-    <row r="125" spans="1:38" s="11" customFormat="1">
+    <row r="125" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A125" s="29">
         <v>430303</v>
       </c>
@@ -14465,7 +14508,7 @@
       </c>
       <c r="AL125" s="7"/>
     </row>
-    <row r="126" spans="1:38" s="11" customFormat="1">
+    <row r="126" spans="1:38" s="11" customFormat="1" hidden="1">
       <c r="A126" s="29">
         <v>430304</v>
       </c>
@@ -14535,7 +14578,7 @@
       </c>
       <c r="AL126" s="7"/>
     </row>
-    <row r="127" spans="1:38" s="7" customFormat="1">
+    <row r="127" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A127" s="29">
         <v>430305</v>
       </c>
@@ -14617,7 +14660,7 @@
       <c r="AJ127" s="11"/>
       <c r="AK127" s="11"/>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" hidden="1">
       <c r="A128" s="29">
         <v>430306</v>
       </c>
@@ -14701,7 +14744,7 @@
       <c r="AK128" s="11"/>
       <c r="AL128" s="7"/>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" hidden="1">
       <c r="A129" s="29">
         <v>430307</v>
       </c>
@@ -14785,7 +14828,7 @@
       <c r="AK129" s="7"/>
       <c r="AL129" s="7"/>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" hidden="1">
       <c r="A130" s="7">
         <v>430401</v>
       </c>
@@ -14867,7 +14910,7 @@
       <c r="AK130" s="23"/>
       <c r="AL130" s="7"/>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" hidden="1">
       <c r="A131" s="7">
         <v>430402</v>
       </c>
@@ -14949,7 +14992,7 @@
       <c r="AK131" s="23"/>
       <c r="AL131" s="7"/>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" hidden="1">
       <c r="A132" s="7">
         <v>430403</v>
       </c>
@@ -15031,7 +15074,7 @@
       <c r="AK132" s="23"/>
       <c r="AL132" s="7"/>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" hidden="1">
       <c r="A133" s="7">
         <v>430404</v>
       </c>
@@ -15113,7 +15156,7 @@
       <c r="AK133" s="23"/>
       <c r="AL133" s="7"/>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" hidden="1">
       <c r="A134" s="7">
         <v>430405</v>
       </c>
@@ -15195,7 +15238,7 @@
       <c r="AK134" s="23"/>
       <c r="AL134" s="7"/>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" hidden="1">
       <c r="A135" s="7">
         <v>430406</v>
       </c>
@@ -15277,7 +15320,7 @@
       <c r="AK135" s="23"/>
       <c r="AL135" s="7"/>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" hidden="1">
       <c r="A136" s="7">
         <v>430407</v>
       </c>
@@ -15799,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:38" s="7" customFormat="1">
+    <row r="143" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A143" s="10">
         <v>530101</v>
       </c>
@@ -15846,7 +15889,7 @@
       <c r="Q143" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R143" s="57" t="s">
+      <c r="R143" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S143" s="44">
@@ -15868,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:38" s="7" customFormat="1">
+    <row r="144" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A144" s="10">
         <v>530102</v>
       </c>
@@ -15915,7 +15958,7 @@
       <c r="Q144" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R144" s="57" t="s">
+      <c r="R144" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S144" s="44">
@@ -15937,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" s="7" customFormat="1">
+    <row r="145" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A145" s="10">
         <v>530103</v>
       </c>
@@ -15984,7 +16027,7 @@
       <c r="Q145" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R145" s="57" t="s">
+      <c r="R145" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S145" s="44">
@@ -16006,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" s="7" customFormat="1">
+    <row r="146" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A146" s="10">
         <v>530104</v>
       </c>
@@ -16053,7 +16096,7 @@
       <c r="Q146" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R146" s="57" t="s">
+      <c r="R146" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S146" s="44">
@@ -16075,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" s="7" customFormat="1">
+    <row r="147" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A147" s="10">
         <v>530201</v>
       </c>
@@ -16121,7 +16164,7 @@
       <c r="Q147" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R147" s="57" t="s">
+      <c r="R147" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S147" s="44">
@@ -16143,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" s="7" customFormat="1">
+    <row r="148" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A148" s="10">
         <v>530202</v>
       </c>
@@ -16192,7 +16235,7 @@
       <c r="Q148" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R148" s="57" t="s">
+      <c r="R148" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S148" s="44">
@@ -16214,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" s="7" customFormat="1">
+    <row r="149" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A149" s="10">
         <v>530203</v>
       </c>
@@ -16260,7 +16303,7 @@
       <c r="Q149" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R149" s="57" t="s">
+      <c r="R149" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S149" s="44">
@@ -16282,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" s="7" customFormat="1">
+    <row r="150" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A150" s="10">
         <v>530204</v>
       </c>
@@ -16328,7 +16371,7 @@
       <c r="Q150" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R150" s="57" t="s">
+      <c r="R150" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S150" s="44">
@@ -16350,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" s="7" customFormat="1">
+    <row r="151" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A151" s="10">
         <v>530205</v>
       </c>
@@ -16396,7 +16439,7 @@
       <c r="Q151" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R151" s="57" t="s">
+      <c r="R151" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S151" s="44">
@@ -16418,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" s="7" customFormat="1" ht="16.5" customHeight="1">
+    <row r="152" spans="1:24" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A152" s="10">
         <v>530206</v>
       </c>
@@ -16467,7 +16510,7 @@
       <c r="Q152" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R152" s="57" t="s">
+      <c r="R152" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S152" s="44">
@@ -16489,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" s="7" customFormat="1">
+    <row r="153" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A153" s="10">
         <v>530207</v>
       </c>
@@ -16538,7 +16581,7 @@
       <c r="Q153" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R153" s="57" t="s">
+      <c r="R153" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S153" s="44">
@@ -16560,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" s="7" customFormat="1">
+    <row r="154" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A154" s="10">
         <v>530208</v>
       </c>
@@ -16606,7 +16649,7 @@
       <c r="Q154" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R154" s="57" t="s">
+      <c r="R154" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S154" s="44">
@@ -16628,7 +16671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" s="53" customFormat="1">
+    <row r="155" spans="1:24" s="53" customFormat="1" hidden="1">
       <c r="A155" s="53">
         <v>530209</v>
       </c>
@@ -16677,7 +16720,7 @@
       <c r="Q155" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R155" s="57" t="s">
+      <c r="R155" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="S155" s="53">
@@ -16699,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" s="7" customFormat="1">
+    <row r="156" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A156" s="10">
         <v>530210</v>
       </c>
@@ -16767,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" s="7" customFormat="1">
+    <row r="157" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A157" s="10">
         <v>530211</v>
       </c>
@@ -16835,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" s="7" customFormat="1">
+    <row r="158" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A158" s="10">
         <v>530212</v>
       </c>
@@ -16903,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" s="7" customFormat="1">
+    <row r="159" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A159" s="10">
         <v>530213</v>
       </c>
@@ -16973,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" s="7" customFormat="1">
+    <row r="160" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A160" s="6">
         <v>620101</v>
       </c>
@@ -17042,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="7" customFormat="1">
+    <row r="161" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A161" s="6">
         <v>620102</v>
       </c>
@@ -17111,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" s="7" customFormat="1">
+    <row r="162" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A162" s="6">
         <v>620103</v>
       </c>
@@ -17180,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" s="7" customFormat="1">
+    <row r="163" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A163" s="6">
         <v>620104</v>
       </c>
@@ -17248,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" s="7" customFormat="1">
+    <row r="164" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A164" s="6">
         <v>620105</v>
       </c>
@@ -17295,7 +17338,7 @@
         <v>730</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S164" s="44">
         <v>0</v>
@@ -17316,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" s="7" customFormat="1">
+    <row r="165" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A165" s="6">
         <v>620106</v>
       </c>
@@ -17363,7 +17406,7 @@
         <v>730</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S165" s="44">
         <v>0</v>
@@ -17384,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" s="7" customFormat="1">
+    <row r="166" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A166" s="6">
         <v>620107</v>
       </c>
@@ -17431,7 +17474,7 @@
         <v>17</v>
       </c>
       <c r="R166" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S166" s="44">
         <v>0</v>
@@ -17452,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" s="7" customFormat="1">
+    <row r="167" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A167" s="6">
         <v>620108</v>
       </c>
@@ -17499,7 +17542,7 @@
         <v>17</v>
       </c>
       <c r="R167" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S167" s="44">
         <v>0</v>
@@ -17520,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" s="7" customFormat="1">
+    <row r="168" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A168" s="6">
         <v>620109</v>
       </c>
@@ -17567,7 +17610,7 @@
         <v>17</v>
       </c>
       <c r="R168" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S168" s="44">
         <v>0</v>
@@ -17588,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" s="7" customFormat="1">
+    <row r="169" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A169" s="6">
         <v>620110</v>
       </c>
@@ -17636,7 +17679,7 @@
         <v>17</v>
       </c>
       <c r="R169" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S169" s="44">
         <v>0</v>
@@ -17657,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" s="7" customFormat="1">
+    <row r="170" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A170" s="6">
         <v>620111</v>
       </c>
@@ -17725,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" s="7" customFormat="1">
+    <row r="171" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A171" s="6">
         <v>620112</v>
       </c>
@@ -17793,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" s="7" customFormat="1">
+    <row r="172" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A172" s="6">
         <v>620113</v>
       </c>
@@ -17861,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" s="7" customFormat="1">
+    <row r="173" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A173" s="7">
         <v>630101</v>
       </c>
@@ -17932,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" s="7" customFormat="1">
+    <row r="174" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A174" s="7">
         <v>630102</v>
       </c>
@@ -18003,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" s="7" customFormat="1">
+    <row r="175" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A175" s="7">
         <v>630103</v>
       </c>
@@ -18074,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" s="7" customFormat="1">
+    <row r="176" spans="1:24" s="7" customFormat="1" hidden="1">
       <c r="A176" s="7">
         <v>630201</v>
       </c>
@@ -18124,7 +18167,7 @@
         <v>799</v>
       </c>
       <c r="R176" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S176" s="44">
         <v>0</v>
@@ -18145,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:38" s="7" customFormat="1">
+    <row r="177" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A177" s="7">
         <v>630202</v>
       </c>
@@ -18195,7 +18238,7 @@
         <v>799</v>
       </c>
       <c r="R177" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S177" s="44">
         <v>0</v>
@@ -18216,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:38" s="7" customFormat="1">
+    <row r="178" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A178" s="7">
         <v>630203</v>
       </c>
@@ -18266,7 +18309,7 @@
         <v>799</v>
       </c>
       <c r="R178" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S178" s="44">
         <v>0</v>
@@ -18287,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:38" s="7" customFormat="1">
+    <row r="179" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A179" s="7">
         <v>630204</v>
       </c>
@@ -18337,7 +18380,7 @@
         <v>799</v>
       </c>
       <c r="R179" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S179" s="44">
         <v>0</v>
@@ -18358,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:38" s="7" customFormat="1">
+    <row r="180" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A180" s="7">
         <v>630205</v>
       </c>
@@ -18408,7 +18451,7 @@
         <v>799</v>
       </c>
       <c r="R180" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S180" s="44">
         <v>0</v>
@@ -18429,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" s="7" customFormat="1">
+    <row r="181" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A181" s="7">
         <v>630206</v>
       </c>
@@ -18479,7 +18522,7 @@
         <v>17</v>
       </c>
       <c r="R181" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S181" s="44">
         <v>0</v>
@@ -18500,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:38" s="7" customFormat="1">
+    <row r="182" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A182" s="7">
         <v>630207</v>
       </c>
@@ -18550,7 +18593,7 @@
         <v>834</v>
       </c>
       <c r="R182" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S182" s="44">
         <v>0</v>
@@ -18571,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38" s="7" customFormat="1">
+    <row r="183" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A183" s="7">
         <v>630208</v>
       </c>
@@ -18621,7 +18664,7 @@
         <v>834</v>
       </c>
       <c r="R183" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S183" s="44">
         <v>0</v>
@@ -18642,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:38" s="7" customFormat="1">
+    <row r="184" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A184" s="7">
         <v>630209</v>
       </c>
@@ -18692,7 +18735,7 @@
         <v>843</v>
       </c>
       <c r="R184" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S184" s="44">
         <v>0</v>
@@ -18713,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:38" s="7" customFormat="1">
+    <row r="185" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A185" s="7">
         <v>630210</v>
       </c>
@@ -18763,7 +18806,7 @@
         <v>843</v>
       </c>
       <c r="R185" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S185" s="44">
         <v>0</v>
@@ -18784,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="7" customFormat="1">
+    <row r="186" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A186" s="7">
         <v>630211</v>
       </c>
@@ -18834,7 +18877,7 @@
         <v>843</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S186" s="44">
         <v>0</v>
@@ -18855,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="7" customFormat="1">
+    <row r="187" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A187" s="7">
         <v>630212</v>
       </c>
@@ -18905,7 +18948,7 @@
         <v>843</v>
       </c>
       <c r="R187" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S187" s="44">
         <v>0</v>
@@ -18926,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38" s="7" customFormat="1">
+    <row r="188" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A188" s="7">
         <v>630213</v>
       </c>
@@ -18976,7 +19019,7 @@
         <v>843</v>
       </c>
       <c r="R188" s="6" t="s">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="S188" s="44">
         <v>0</v>
@@ -18997,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38" s="7" customFormat="1">
+    <row r="189" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A189" s="48">
         <v>91130110</v>
       </c>
@@ -19069,7 +19112,7 @@
       </c>
       <c r="AL189" s="44"/>
     </row>
-    <row r="190" spans="1:38" s="7" customFormat="1">
+    <row r="190" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A190" s="49">
         <v>91130206</v>
       </c>
@@ -19142,7 +19185,7 @@
       </c>
       <c r="AL190" s="44"/>
     </row>
-    <row r="191" spans="1:38" s="7" customFormat="1">
+    <row r="191" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A191" s="49">
         <v>91130207</v>
       </c>
@@ -19215,7 +19258,7 @@
       </c>
       <c r="AL191" s="44"/>
     </row>
-    <row r="192" spans="1:38" s="7" customFormat="1">
+    <row r="192" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A192" s="49">
         <v>91130208</v>
       </c>
@@ -19288,7 +19331,7 @@
       </c>
       <c r="AL192" s="44"/>
     </row>
-    <row r="193" spans="1:38" s="7" customFormat="1">
+    <row r="193" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A193" s="49">
         <v>91130209</v>
       </c>
@@ -19360,7 +19403,7 @@
       </c>
       <c r="AL193" s="44"/>
     </row>
-    <row r="194" spans="1:38" s="7" customFormat="1">
+    <row r="194" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A194" s="50">
         <v>91230601</v>
       </c>
@@ -19431,7 +19474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:38" s="7" customFormat="1">
+    <row r="195" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A195" s="50">
         <v>91230602</v>
       </c>
@@ -19502,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:38" s="7" customFormat="1">
+    <row r="196" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A196" s="50">
         <v>91230603</v>
       </c>
@@ -19573,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:38" s="7" customFormat="1">
+    <row r="197" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A197" s="50">
         <v>91330116</v>
       </c>
@@ -19650,7 +19693,7 @@
       <c r="AC197" s="44"/>
       <c r="AD197" s="44"/>
     </row>
-    <row r="198" spans="1:38" s="7" customFormat="1">
+    <row r="198" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A198" s="50">
         <v>91430115</v>
       </c>
@@ -19727,7 +19770,7 @@
       <c r="AC198" s="44"/>
       <c r="AD198" s="44"/>
     </row>
-    <row r="199" spans="1:38" s="7" customFormat="1">
+    <row r="199" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A199" s="50">
         <v>91430308</v>
       </c>
@@ -19798,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:38" s="7" customFormat="1">
+    <row r="200" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A200" s="50">
         <v>91430309</v>
       </c>
@@ -19869,7 +19912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:38" s="7" customFormat="1">
+    <row r="201" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A201" s="50">
         <v>91430310</v>
       </c>
@@ -19940,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:38" s="7" customFormat="1">
+    <row r="202" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A202" s="50">
         <v>91530105</v>
       </c>
@@ -20011,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:38" s="7" customFormat="1">
+    <row r="203" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A203" s="50">
         <v>91530106</v>
       </c>
@@ -20082,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:38" s="7" customFormat="1">
+    <row r="204" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A204" s="50">
         <v>92130111</v>
       </c>
@@ -20154,7 +20197,7 @@
       </c>
       <c r="AL204" s="44"/>
     </row>
-    <row r="205" spans="1:38" s="7" customFormat="1">
+    <row r="205" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A205" s="50">
         <v>92130112</v>
       </c>
@@ -20226,7 +20269,7 @@
       </c>
       <c r="AL205" s="44"/>
     </row>
-    <row r="206" spans="1:38" s="7" customFormat="1">
+    <row r="206" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A206" s="50">
         <v>92130113</v>
       </c>
@@ -20298,7 +20341,7 @@
       </c>
       <c r="AL206" s="44"/>
     </row>
-    <row r="207" spans="1:38" s="7" customFormat="1">
+    <row r="207" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A207" s="50">
         <v>92130114</v>
       </c>
@@ -20370,7 +20413,7 @@
       </c>
       <c r="AL207" s="44"/>
     </row>
-    <row r="208" spans="1:38" s="7" customFormat="1">
+    <row r="208" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A208" s="50">
         <v>92330117</v>
       </c>
@@ -20447,7 +20490,7 @@
       <c r="AC208" s="44"/>
       <c r="AD208" s="44"/>
     </row>
-    <row r="209" spans="1:38" s="7" customFormat="1">
+    <row r="209" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A209" s="50">
         <v>92530107</v>
       </c>
@@ -20518,7 +20561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:38" s="7" customFormat="1">
+    <row r="210" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A210" s="50">
         <v>92530108</v>
       </c>
@@ -20589,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:38" s="7" customFormat="1">
+    <row r="211" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A211" s="50">
         <v>92530109</v>
       </c>
@@ -20660,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:38" s="7" customFormat="1">
+    <row r="212" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A212" s="50">
         <v>92530110</v>
       </c>
@@ -20731,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:38" s="7" customFormat="1">
+    <row r="213" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A213" s="50">
         <v>92530111</v>
       </c>
@@ -20802,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:38" s="7" customFormat="1">
+    <row r="214" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A214" s="50">
         <v>92530112</v>
       </c>
@@ -20873,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:38" s="7" customFormat="1">
+    <row r="215" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A215" s="50">
         <v>92530113</v>
       </c>
@@ -20944,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" s="7" customFormat="1">
+    <row r="216" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A216" s="50">
         <v>92530114</v>
       </c>
@@ -21015,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" s="7" customFormat="1">
+    <row r="217" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A217" s="50">
         <v>92530115</v>
       </c>
@@ -21086,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:38" s="7" customFormat="1">
+    <row r="218" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A218" s="50">
         <v>93130117</v>
       </c>
@@ -21161,7 +21204,7 @@
       </c>
       <c r="AL218" s="44"/>
     </row>
-    <row r="219" spans="1:38" s="7" customFormat="1">
+    <row r="219" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A219" s="50">
         <v>93130118</v>
       </c>
@@ -21236,7 +21279,7 @@
       </c>
       <c r="AL219" s="44"/>
     </row>
-    <row r="220" spans="1:38" s="7" customFormat="1">
+    <row r="220" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A220" s="50">
         <v>93230102</v>
       </c>
@@ -21310,7 +21353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:38" s="7" customFormat="1">
+    <row r="221" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A221" s="50">
         <v>93230205</v>
       </c>
@@ -21384,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38" s="7" customFormat="1">
+    <row r="222" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A222" s="50">
         <v>93230206</v>
       </c>
@@ -21458,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:38" s="7" customFormat="1">
+    <row r="223" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A223" s="50">
         <v>93230207</v>
       </c>
@@ -21532,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:38" s="7" customFormat="1">
+    <row r="224" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A224" s="50">
         <v>93230208</v>
       </c>
@@ -21612,7 +21655,7 @@
       <c r="AC224" s="6"/>
       <c r="AD224" s="6"/>
     </row>
-    <row r="225" spans="1:38" s="7" customFormat="1">
+    <row r="225" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A225" s="50">
         <v>93230305</v>
       </c>
@@ -21692,7 +21735,7 @@
       <c r="AC225" s="6"/>
       <c r="AD225" s="6"/>
     </row>
-    <row r="226" spans="1:38" s="7" customFormat="1">
+    <row r="226" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A226" s="50">
         <v>93230404</v>
       </c>
@@ -21772,7 +21815,7 @@
       <c r="AC226" s="6"/>
       <c r="AD226" s="6"/>
     </row>
-    <row r="227" spans="1:38" s="7" customFormat="1">
+    <row r="227" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A227" s="50">
         <v>93230405</v>
       </c>
@@ -21852,7 +21895,7 @@
       <c r="AC227" s="6"/>
       <c r="AD227" s="6"/>
     </row>
-    <row r="228" spans="1:38" s="7" customFormat="1">
+    <row r="228" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A228" s="50">
         <v>93330118</v>
       </c>
@@ -21929,7 +21972,7 @@
       <c r="AC228" s="44"/>
       <c r="AD228" s="44"/>
     </row>
-    <row r="229" spans="1:38" s="7" customFormat="1">
+    <row r="229" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A229" s="50">
         <v>93330119</v>
       </c>
@@ -22009,7 +22052,7 @@
       <c r="AC229" s="44"/>
       <c r="AD229" s="44"/>
     </row>
-    <row r="230" spans="1:38" s="7" customFormat="1">
+    <row r="230" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A230" s="50">
         <v>93330120</v>
       </c>
@@ -22089,7 +22132,7 @@
       <c r="AC230" s="44"/>
       <c r="AD230" s="44"/>
     </row>
-    <row r="231" spans="1:38" s="7" customFormat="1">
+    <row r="231" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A231" s="50">
         <v>93330121</v>
       </c>
@@ -22169,7 +22212,7 @@
       <c r="AC231" s="44"/>
       <c r="AD231" s="44"/>
     </row>
-    <row r="232" spans="1:38" s="7" customFormat="1">
+    <row r="232" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A232" s="50">
         <v>93430118</v>
       </c>
@@ -22249,7 +22292,7 @@
       <c r="AC232" s="44"/>
       <c r="AD232" s="44"/>
     </row>
-    <row r="233" spans="1:38" s="7" customFormat="1">
+    <row r="233" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A233" s="50">
         <v>93530118</v>
       </c>
@@ -22320,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:38" s="7" customFormat="1">
+    <row r="234" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A234" s="50">
         <v>93530119</v>
       </c>
@@ -22391,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:38" s="7" customFormat="1">
+    <row r="235" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A235" s="50">
         <v>93530120</v>
       </c>
@@ -22462,7 +22505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:38" s="7" customFormat="1">
+    <row r="236" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A236" s="50">
         <v>93530121</v>
       </c>
@@ -22533,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:38" s="7" customFormat="1">
+    <row r="237" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A237" s="50">
         <v>93530122</v>
       </c>
@@ -22604,7 +22647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:38" s="7" customFormat="1">
+    <row r="238" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A238" s="50">
         <v>93530123</v>
       </c>
@@ -22748,7 +22791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:38" s="7" customFormat="1">
+    <row r="240" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A240" s="50">
         <v>94130115</v>
       </c>
@@ -22821,7 +22864,7 @@
       </c>
       <c r="AL240" s="44"/>
     </row>
-    <row r="241" spans="1:38" s="7" customFormat="1">
+    <row r="241" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A241" s="48">
         <v>94130116</v>
       </c>
@@ -22894,7 +22937,7 @@
       </c>
       <c r="AL241" s="44"/>
     </row>
-    <row r="242" spans="1:38" s="7" customFormat="1">
+    <row r="242" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A242" s="50">
         <v>94230403</v>
       </c>
@@ -22967,7 +23010,7 @@
       </c>
       <c r="AL242" s="6"/>
     </row>
-    <row r="243" spans="1:38" s="7" customFormat="1">
+    <row r="243" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A243" s="50">
         <v>94430116</v>
       </c>
@@ -23045,7 +23088,7 @@
       <c r="AC243" s="44"/>
       <c r="AD243" s="44"/>
     </row>
-    <row r="244" spans="1:38" s="7" customFormat="1">
+    <row r="244" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A244" s="50">
         <v>94430117</v>
       </c>
@@ -23123,17 +23166,17 @@
       <c r="AC244" s="44"/>
       <c r="AD244" s="44"/>
     </row>
-    <row r="245" spans="1:38" s="7" customFormat="1">
+    <row r="245" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A245" s="50">
         <v>94530116</v>
       </c>
-      <c r="B245" s="58" t="s">
+      <c r="B245" s="57" t="s">
         <v>968</v>
       </c>
-      <c r="C245" s="58" t="s">
+      <c r="C245" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="D245" s="58" t="s">
+      <c r="D245" s="57" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="6" t="s">
@@ -23142,35 +23185,35 @@
       <c r="F245" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="G245" s="59" t="s">
+      <c r="G245" s="58" t="s">
         <v>1032</v>
       </c>
-      <c r="H245" s="59" t="s">
+      <c r="H245" s="58" t="s">
         <v>1033</v>
       </c>
-      <c r="I245" s="59" t="s">
+      <c r="I245" s="58" t="s">
         <v>1034</v>
       </c>
-      <c r="J245" s="58" t="s">
+      <c r="J245" s="57" t="s">
         <v>796</v>
       </c>
-      <c r="K245" s="58" t="s">
+      <c r="K245" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="L245" s="58" t="s">
+      <c r="L245" s="57" t="s">
         <v>910</v>
       </c>
-      <c r="M245" s="58" t="s">
+      <c r="M245" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N245" s="58" t="s">
+      <c r="N245" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="O245" s="58" t="s">
+      <c r="O245" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="P245" s="58"/>
-      <c r="Q245" s="58" t="s">
+      <c r="P245" s="57"/>
+      <c r="Q245" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R245" s="6" t="s">
@@ -23196,17 +23239,17 @@
       </c>
       <c r="AL245" s="44"/>
     </row>
-    <row r="246" spans="1:38" s="7" customFormat="1">
+    <row r="246" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A246" s="50">
         <v>94530117</v>
       </c>
-      <c r="B246" s="58" t="s">
+      <c r="B246" s="57" t="s">
         <v>968</v>
       </c>
-      <c r="C246" s="58" t="s">
+      <c r="C246" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="D246" s="58" t="s">
+      <c r="D246" s="57" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="6" t="s">
@@ -23215,35 +23258,35 @@
       <c r="F246" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="G246" s="59" t="s">
+      <c r="G246" s="58" t="s">
         <v>1036</v>
       </c>
-      <c r="H246" s="59" t="s">
+      <c r="H246" s="58" t="s">
         <v>1290</v>
       </c>
-      <c r="I246" s="59" t="s">
+      <c r="I246" s="58" t="s">
         <v>1037</v>
       </c>
-      <c r="J246" s="58" t="s">
+      <c r="J246" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="K246" s="58" t="s">
+      <c r="K246" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="L246" s="58" t="s">
+      <c r="L246" s="57" t="s">
         <v>910</v>
       </c>
-      <c r="M246" s="58" t="s">
+      <c r="M246" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N246" s="58" t="s">
+      <c r="N246" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="O246" s="58" t="s">
+      <c r="O246" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="P246" s="58"/>
-      <c r="Q246" s="58" t="s">
+      <c r="P246" s="57"/>
+      <c r="Q246" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R246" s="6" t="s">
@@ -23269,7 +23312,7 @@
       </c>
       <c r="AL246" s="44"/>
     </row>
-    <row r="247" spans="1:38" s="7" customFormat="1">
+    <row r="247" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A247" s="48">
         <v>910199999</v>
       </c>
@@ -23339,7 +23382,7 @@
       </c>
       <c r="AL247" s="6"/>
     </row>
-    <row r="248" spans="1:38" s="7" customFormat="1">
+    <row r="248" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A248" s="50">
         <v>920199999</v>
       </c>
@@ -23408,7 +23451,7 @@
       </c>
       <c r="AL248" s="6"/>
     </row>
-    <row r="249" spans="1:38" s="7" customFormat="1">
+    <row r="249" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A249" s="50">
         <v>920299999</v>
       </c>
@@ -23477,7 +23520,7 @@
       </c>
       <c r="AL249" s="6"/>
     </row>
-    <row r="250" spans="1:38" s="7" customFormat="1">
+    <row r="250" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A250" s="50">
         <v>920399999</v>
       </c>
@@ -23546,7 +23589,7 @@
       </c>
       <c r="AL250" s="6"/>
     </row>
-    <row r="251" spans="1:38" s="7" customFormat="1">
+    <row r="251" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A251" s="50">
         <v>920499999</v>
       </c>
@@ -23615,7 +23658,7 @@
       </c>
       <c r="AL251" s="6"/>
     </row>
-    <row r="252" spans="1:38" s="6" customFormat="1">
+    <row r="252" spans="1:38" s="6" customFormat="1" hidden="1">
       <c r="A252" s="50">
         <v>920599999</v>
       </c>
@@ -23691,7 +23734,7 @@
       <c r="AC252" s="7"/>
       <c r="AD252" s="7"/>
     </row>
-    <row r="253" spans="1:38" s="7" customFormat="1">
+    <row r="253" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A253" s="50">
         <v>920699999</v>
       </c>
@@ -23767,7 +23810,7 @@
       <c r="AK253" s="6"/>
       <c r="AL253" s="6"/>
     </row>
-    <row r="254" spans="1:38" s="7" customFormat="1">
+    <row r="254" spans="1:38" s="7" customFormat="1" hidden="1">
       <c r="A254" s="50">
         <v>920799999</v>
       </c>
@@ -23843,7 +23886,7 @@
       <c r="AK254" s="6"/>
       <c r="AL254" s="6"/>
     </row>
-    <row r="255" spans="1:38" s="44" customFormat="1">
+    <row r="255" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A255" s="50">
         <v>920899999</v>
       </c>
@@ -23920,7 +23963,7 @@
       <c r="AD255" s="7"/>
       <c r="AL255" s="6"/>
     </row>
-    <row r="256" spans="1:38" s="44" customFormat="1">
+    <row r="256" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A256" s="50">
         <v>920999999</v>
       </c>
@@ -23997,7 +24040,7 @@
       <c r="AD256" s="7"/>
       <c r="AL256" s="6"/>
     </row>
-    <row r="257" spans="1:38" s="44" customFormat="1">
+    <row r="257" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A257" s="50">
         <v>921099999</v>
       </c>
@@ -24074,7 +24117,7 @@
       <c r="AD257" s="7"/>
       <c r="AL257" s="6"/>
     </row>
-    <row r="258" spans="1:38" s="44" customFormat="1">
+    <row r="258" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A258" s="50">
         <v>921199999</v>
       </c>
@@ -24151,7 +24194,7 @@
       <c r="AD258" s="7"/>
       <c r="AL258" s="6"/>
     </row>
-    <row r="259" spans="1:38" s="44" customFormat="1">
+    <row r="259" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A259" s="50">
         <v>921299999</v>
       </c>
@@ -24228,7 +24271,7 @@
       <c r="AD259" s="7"/>
       <c r="AL259" s="6"/>
     </row>
-    <row r="260" spans="1:38" s="44" customFormat="1">
+    <row r="260" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A260" s="50">
         <v>921399999</v>
       </c>
@@ -24305,7 +24348,7 @@
       <c r="AD260" s="7"/>
       <c r="AL260" s="7"/>
     </row>
-    <row r="261" spans="1:38" s="44" customFormat="1">
+    <row r="261" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A261" s="50">
         <v>921499999</v>
       </c>
@@ -24382,7 +24425,7 @@
       <c r="AD261" s="7"/>
       <c r="AL261" s="7"/>
     </row>
-    <row r="262" spans="1:38" s="44" customFormat="1">
+    <row r="262" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A262" s="50">
         <v>921599999</v>
       </c>
@@ -24459,7 +24502,7 @@
       <c r="AD262" s="7"/>
       <c r="AL262" s="7"/>
     </row>
-    <row r="263" spans="1:38" s="44" customFormat="1">
+    <row r="263" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A263" s="50">
         <v>930199999</v>
       </c>
@@ -24530,7 +24573,7 @@
       </c>
       <c r="AL263" s="13"/>
     </row>
-    <row r="264" spans="1:38" s="44" customFormat="1">
+    <row r="264" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A264" s="50">
         <v>940199999</v>
       </c>
@@ -24607,7 +24650,7 @@
       <c r="AD264" s="7"/>
       <c r="AL264" s="13"/>
     </row>
-    <row r="265" spans="1:38" s="44" customFormat="1">
+    <row r="265" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A265" s="50">
         <v>940499999</v>
       </c>
@@ -24684,7 +24727,7 @@
       <c r="AD265" s="7"/>
       <c r="AL265" s="13"/>
     </row>
-    <row r="266" spans="1:38" s="44" customFormat="1">
+    <row r="266" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A266" s="50">
         <v>940299999</v>
       </c>
@@ -24761,7 +24804,7 @@
       <c r="AD266" s="7"/>
       <c r="AL266" s="6"/>
     </row>
-    <row r="267" spans="1:38" s="44" customFormat="1">
+    <row r="267" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A267" s="50">
         <v>940599999</v>
       </c>
@@ -24838,7 +24881,7 @@
       <c r="AD267" s="7"/>
       <c r="AL267" s="6"/>
     </row>
-    <row r="268" spans="1:38" s="44" customFormat="1">
+    <row r="268" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A268" s="50">
         <v>940399999</v>
       </c>
@@ -24915,7 +24958,7 @@
       <c r="AD268" s="7"/>
       <c r="AL268" s="13"/>
     </row>
-    <row r="269" spans="1:38" s="44" customFormat="1">
+    <row r="269" spans="1:38" s="44" customFormat="1" hidden="1">
       <c r="A269" s="50">
         <v>940699999</v>
       </c>
@@ -24992,16 +25035,160 @@
       <c r="AD269" s="7"/>
       <c r="AL269" s="13"/>
     </row>
-    <row r="271" spans="1:38">
-      <c r="F271" s="54"/>
-      <c r="G271" s="54"/>
-    </row>
-    <row r="272" spans="1:38">
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
+    <row r="270" spans="1:38">
+      <c r="A270" s="49">
+        <v>95120118</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D270" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E270" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F270" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="G270" s="59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H270" s="60" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I270" s="60" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J270" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K270" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L270" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="M270" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="N270" s="59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="O270" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q270" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="R270" s="60" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S270" s="44">
+        <v>0</v>
+      </c>
+      <c r="T270" s="44">
+        <v>0</v>
+      </c>
+      <c r="U270" s="44">
+        <v>0</v>
+      </c>
+      <c r="V270" s="44">
+        <v>0</v>
+      </c>
+      <c r="W270" s="44">
+        <v>0</v>
+      </c>
+      <c r="X270" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:38" s="60" customFormat="1">
+      <c r="A271" s="49">
+        <v>95520111</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D271" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E271" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F271" s="60" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G271" s="60" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H271" s="60" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I271" s="60" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J271" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="K271" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L271" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="M271" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N271" s="60" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O271" s="24" t="s">
+        <v>1362</v>
+      </c>
+      <c r="R271" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S271" s="44">
+        <v>0</v>
+      </c>
+      <c r="T271" s="44">
+        <v>0</v>
+      </c>
+      <c r="U271" s="44">
+        <v>0</v>
+      </c>
+      <c r="V271" s="44">
+        <v>0</v>
+      </c>
+      <c r="W271" s="44">
+        <v>0</v>
+      </c>
+      <c r="X271" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:AN271">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Educación"/>
+        <filter val="Trabajo"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Políticas Públicas y Esfuerzo Económico"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25014,7 +25201,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -16,14 +16,14 @@
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AN$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="1383">
   <si>
     <t>id</t>
   </si>
@@ -4162,37 +4162,89 @@
     <t>Afrodescendientes</t>
   </si>
   <si>
-    <t>Cantidad anual de becas educativas otorgadas a personas afrodescendientes</t>
-  </si>
-  <si>
     <t>Para cada año calcular: Cantidad de becas educativas otorgadas a personas afrodescendientes.</t>
   </si>
   <si>
     <t>OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
   </si>
   <si>
-    <t>Consultoría Proyecto SURGE (ACNUDH - Uruguay) con base en OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
-  </si>
-  <si>
-    <t>Oficina Nacional de Servicio Civil</t>
-  </si>
-  <si>
     <t>El indicador mide el porcentaje de personas que ingresaron al estado en el marco de la Ley 19.122 en relación al total de ingresos.</t>
   </si>
   <si>
     <t>Para cada año calcular: (Cantidad de ingresos de personas afrodescendientes a cargos públicos en el marco de la Ley 19.122 / Cantidad de ingresos de personas a cargos públicos en el marco de la Ley 19.122)*100</t>
   </si>
   <si>
-    <t>Consultoría Proyecto SURGE (ACNUDH - Uruguay) con base en Oficina Nacional del Servcio Civil</t>
-  </si>
-  <si>
-    <t>Porcentaje de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
-  </si>
-  <si>
-    <t>Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
-  </si>
-  <si>
     <t>El indicador mide la cantidad anual de becas educativas otorgadas a personas afrodescendientes.</t>
+  </si>
+  <si>
+    <t>Proyecto SURGE</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Becas educativas</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Cantidad anual de becas educativas otorgadas a personas afrodescendientes</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
+  </si>
+  <si>
+    <t>Datos elaborados en el marco de una consultoría del Proyecto SURGE de OACNUDH-Uruguay.</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Porcentaje de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
+  </si>
+  <si>
+    <t>Oficina Nacional del Servicio Civil</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en Oficina Nacional del Servcio Civil</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Tenencia insegura de la vivienda</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Porcentaje de personas en hogares con tenencia insegura</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aquella en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
+  </si>
+  <si>
+    <t>ECH-INE</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en ECH-INE</t>
+  </si>
+  <si>
+    <t>Ascendencia étnico-racial, región</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Asentamientos</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Porcentaje de personas que viven en asentamientos</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Tasa de actividad</t>
+  </si>
+  <si>
+    <t>Ascendencia étnico-racial, sexo</t>
+  </si>
+  <si>
+    <t>Datos elaborados en el marco de una consultoría del Proyecto SURGE de OACNUDH-Uruguay. Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+Los indicadores de trabajo del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario).</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Tasa de desempleo</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Tasa de empleo</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Tasa de subempleo</t>
   </si>
 </sst>
 </file>
@@ -4203,7 +4255,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4285,6 +4337,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4309,7 +4367,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4459,11 +4517,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4784,12 +4858,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" filterMode="1"/>
-  <dimension ref="A1:AL271"/>
+  <dimension ref="A1:AL277"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="E278" sqref="E278"/>
+      <selection pane="bottomLeft" activeCell="D270" sqref="A270:XFD271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25035,148 +25109,580 @@
       <c r="AD269" s="7"/>
       <c r="AL269" s="13"/>
     </row>
-    <row r="270" spans="1:38">
-      <c r="A270" s="49">
+    <row r="270" spans="1:38" s="16" customFormat="1">
+      <c r="A270" s="59">
         <v>95120118</v>
       </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D270" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E270" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F270" s="60" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G270" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H270" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I270" s="61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J270" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K270" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="L270" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="M270" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="N270" s="62" t="s">
+        <v>1356</v>
+      </c>
+      <c r="O270" s="62" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Q270" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="R270" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S270" s="63">
+        <v>0</v>
+      </c>
+      <c r="T270" s="63">
+        <v>0</v>
+      </c>
+      <c r="U270" s="63">
+        <v>0</v>
+      </c>
+      <c r="V270" s="63">
+        <v>0</v>
+      </c>
+      <c r="W270" s="63">
+        <v>0</v>
+      </c>
+      <c r="X270" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:38" s="61" customFormat="1">
+      <c r="A271" s="59">
+        <v>95520111</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D271" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E271" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F271" s="60" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G271" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H271" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I271" s="61" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J271" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="K271" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="L271" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="M271" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="N271" s="61" t="s">
+        <v>1367</v>
+      </c>
+      <c r="O271" s="64" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q271" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="R271" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S271" s="63">
+        <v>0</v>
+      </c>
+      <c r="T271" s="63">
+        <v>0</v>
+      </c>
+      <c r="U271" s="63">
+        <v>0</v>
+      </c>
+      <c r="V271" s="63">
+        <v>0</v>
+      </c>
+      <c r="W271" s="63">
+        <v>0</v>
+      </c>
+      <c r="X271" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:38" s="16" customFormat="1">
+      <c r="A272" s="65">
+        <v>95230101</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F272" s="60" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G272" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H272" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I272" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J272" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K272" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L272" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M272" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N272" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O272" s="66" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P272" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q272" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R272" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S272" s="16">
         <v>1</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="T272" s="16">
+        <v>0</v>
+      </c>
+      <c r="U272" s="16">
+        <v>0</v>
+      </c>
+      <c r="V272" s="16">
+        <v>0</v>
+      </c>
+      <c r="W272" s="16">
+        <v>0</v>
+      </c>
+      <c r="X272" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" s="16" customFormat="1">
+      <c r="A273" s="65">
+        <v>95230501</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C273" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D270" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E270" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F270" s="59" t="s">
-        <v>496</v>
-      </c>
-      <c r="G270" s="59" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H270" s="60" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I270" s="60" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J270" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K270" s="60" t="s">
+      <c r="D273" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F273" s="60" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G273" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H273" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="I273" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J273" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K273" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L270" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="M270" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="N270" s="59" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O270" s="59" t="s">
-        <v>1358</v>
-      </c>
-      <c r="Q270" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="R270" s="60" t="s">
-        <v>1298</v>
-      </c>
-      <c r="S270" s="44">
-        <v>0</v>
-      </c>
-      <c r="T270" s="44">
-        <v>0</v>
-      </c>
-      <c r="U270" s="44">
-        <v>0</v>
-      </c>
-      <c r="V270" s="44">
-        <v>0</v>
-      </c>
-      <c r="W270" s="44">
-        <v>0</v>
-      </c>
-      <c r="X270" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:38" s="60" customFormat="1">
-      <c r="A271" s="49">
-        <v>95520111</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>968</v>
-      </c>
-      <c r="C271" s="13" t="s">
+      <c r="L273" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M273" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N273" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O273" s="66" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q273" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R273" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S273" s="16">
+        <v>1</v>
+      </c>
+      <c r="T273" s="16">
+        <v>1</v>
+      </c>
+      <c r="U273" s="16">
+        <v>1</v>
+      </c>
+      <c r="V273" s="16">
+        <v>1</v>
+      </c>
+      <c r="W273" s="16">
+        <v>1</v>
+      </c>
+      <c r="X273" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" s="67" customFormat="1">
+      <c r="A274" s="65">
+        <v>95530101</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C274" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D271" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E271" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F271" s="60" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G271" s="60" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H271" s="60" t="s">
+      <c r="D274" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E274" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F274" s="60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G274" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H274" s="67" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I274" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J274" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K274" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L274" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="M274" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N274" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O274" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q274" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R274" s="63" t="s">
+        <v>1379</v>
+      </c>
+      <c r="S274" s="63">
+        <v>0</v>
+      </c>
+      <c r="T274" s="63">
+        <v>0</v>
+      </c>
+      <c r="U274" s="63">
+        <v>0</v>
+      </c>
+      <c r="V274" s="63">
+        <v>0</v>
+      </c>
+      <c r="W274" s="63">
+        <v>0</v>
+      </c>
+      <c r="X274" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" s="67" customFormat="1">
+      <c r="A275" s="65">
+        <v>95530102</v>
+      </c>
+      <c r="B275" s="16" t="s">
         <v>1360</v>
       </c>
-      <c r="I271" s="60" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J271" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="K271" s="60" t="s">
+      <c r="C275" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D275" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E275" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F275" s="60" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G275" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H275" s="67" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I275" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J275" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K275" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L271" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="M271" s="60" t="s">
+      <c r="L275" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="M275" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N271" s="60" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O271" s="24" t="s">
-        <v>1362</v>
-      </c>
-      <c r="R271" s="61" t="s">
-        <v>1298</v>
-      </c>
-      <c r="S271" s="44">
-        <v>0</v>
-      </c>
-      <c r="T271" s="44">
-        <v>0</v>
-      </c>
-      <c r="U271" s="44">
-        <v>0</v>
-      </c>
-      <c r="V271" s="44">
-        <v>0</v>
-      </c>
-      <c r="W271" s="44">
-        <v>0</v>
-      </c>
-      <c r="X271" s="6">
+      <c r="N275" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O275" s="66" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q275" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R275" s="63" t="s">
+        <v>1379</v>
+      </c>
+      <c r="S275" s="63">
+        <v>0</v>
+      </c>
+      <c r="T275" s="63">
+        <v>0</v>
+      </c>
+      <c r="U275" s="63">
+        <v>0</v>
+      </c>
+      <c r="V275" s="63">
+        <v>0</v>
+      </c>
+      <c r="W275" s="63">
+        <v>0</v>
+      </c>
+      <c r="X275" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" s="67" customFormat="1">
+      <c r="A276" s="65">
+        <v>95530103</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D276" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E276" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F276" s="60" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G276" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H276" s="67" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I276" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J276" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K276" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L276" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="M276" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N276" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O276" s="66" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q276" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R276" s="63" t="s">
+        <v>1379</v>
+      </c>
+      <c r="S276" s="63">
+        <v>0</v>
+      </c>
+      <c r="T276" s="63">
+        <v>0</v>
+      </c>
+      <c r="U276" s="63">
+        <v>0</v>
+      </c>
+      <c r="V276" s="63">
+        <v>0</v>
+      </c>
+      <c r="W276" s="63">
+        <v>0</v>
+      </c>
+      <c r="X276" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" s="67" customFormat="1">
+      <c r="A277" s="65">
+        <v>95530104</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D277" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E277" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F277" s="60" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G277" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H277" s="67" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I277" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J277" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K277" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L277" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="M277" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N277" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O277" s="66" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q277" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R277" s="63" t="s">
+        <v>1379</v>
+      </c>
+      <c r="S277" s="63">
+        <v>0</v>
+      </c>
+      <c r="T277" s="63">
+        <v>0</v>
+      </c>
+      <c r="U277" s="63">
+        <v>0</v>
+      </c>
+      <c r="V277" s="63">
+        <v>0</v>
+      </c>
+      <c r="W277" s="63">
+        <v>0</v>
+      </c>
+      <c r="X277" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AN271">
+  <autoFilter ref="A1:AN269">
     <filterColumn colId="1">
       <filters>
         <filter val="Educación"/>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="606"/>
+    <workbookView minimized="1" xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="1386">
   <si>
     <t>id</t>
   </si>
@@ -4213,12 +4213,6 @@
     <t>El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aquella en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
   </si>
   <si>
-    <t>ECH-INE</t>
-  </si>
-  <si>
-    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en ECH-INE</t>
-  </si>
-  <si>
     <t>Ascendencia étnico-racial, región</t>
   </si>
   <si>
@@ -4245,6 +4239,21 @@
   </si>
   <si>
     <t>(Proyecto SURGE) Tasa de subempleo</t>
+  </si>
+  <si>
+    <t>No poseer cobertura de la seguridad social</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Porcentaje de ocupados que no aporta a la seguridad social</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE) Porcentaje de ocupados sin aporte a la seguridad social</t>
+  </si>
+  <si>
+    <t>Encuesta Continua de Hogares INE</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en Encuesta Continua de Hogares (INE)</t>
   </si>
 </sst>
 </file>
@@ -4367,7 +4376,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4508,7 +4517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4520,8 +4528,6 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4538,6 +4544,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4858,12 +4870,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" filterMode="1"/>
-  <dimension ref="A1:AL277"/>
+  <dimension ref="A1:AL278"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="A270:XFD271"/>
+      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4913,43 +4925,43 @@
       <c r="E1" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="65" t="s">
         <v>483</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="66" t="s">
         <v>1299</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -4984,7 +4996,7 @@
       <c r="E2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="65" t="s">
         <v>484</v>
       </c>
       <c r="G2" s="31" t="s">
@@ -5053,7 +5065,7 @@
       <c r="E3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="65" t="s">
         <v>485</v>
       </c>
       <c r="G3" s="31" t="s">
@@ -5121,7 +5133,7 @@
       <c r="E4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="65" t="s">
         <v>486</v>
       </c>
       <c r="G4" s="31" t="s">
@@ -5190,7 +5202,7 @@
       <c r="E5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="65" t="s">
         <v>487</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -5259,7 +5271,7 @@
       <c r="E6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="65" t="s">
         <v>488</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -5328,7 +5340,7 @@
       <c r="E7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="65" t="s">
         <v>489</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -5397,7 +5409,7 @@
       <c r="E8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="65" t="s">
         <v>490</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -5466,7 +5478,7 @@
       <c r="E9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="65" t="s">
         <v>491</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -5534,7 +5546,7 @@
       <c r="E10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="65" t="s">
         <v>492</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -5603,7 +5615,7 @@
       <c r="E11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="65" t="s">
         <v>493</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -5672,7 +5684,7 @@
       <c r="E12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="65" t="s">
         <v>494</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -5740,7 +5752,7 @@
       <c r="E13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="65" t="s">
         <v>495</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -5809,7 +5821,7 @@
       <c r="E14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="65" t="s">
         <v>496</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -5877,7 +5889,7 @@
       <c r="E15" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="65" t="s">
         <v>497</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -5946,7 +5958,7 @@
       <c r="E16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="65" t="s">
         <v>498</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -6015,7 +6027,7 @@
       <c r="E17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="65" t="s">
         <v>499</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -9565,7 +9577,7 @@
       <c r="E63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="54" t="s">
         <v>718</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -9601,7 +9613,7 @@
       <c r="Q63" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R63" s="56" t="s">
+      <c r="R63" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S63" s="6">
@@ -9673,7 +9685,7 @@
       <c r="Q64" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R64" s="56" t="s">
+      <c r="R64" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S64" s="6">
@@ -9745,7 +9757,7 @@
       <c r="Q65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="56" t="s">
+      <c r="R65" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S65" s="6">
@@ -9816,7 +9828,7 @@
       <c r="Q66" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R66" s="56" t="s">
+      <c r="R66" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S66" s="6">
@@ -9887,7 +9899,7 @@
       <c r="Q67" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R67" s="56" t="s">
+      <c r="R67" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S67" s="6">
@@ -9958,7 +9970,7 @@
       <c r="Q68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="56" t="s">
+      <c r="R68" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S68" s="6">
@@ -10030,7 +10042,7 @@
       <c r="Q69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="56" t="s">
+      <c r="R69" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S69" s="6">
@@ -10103,7 +10115,7 @@
       <c r="Q70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="56" t="s">
+      <c r="R70" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S70" s="6">
@@ -10189,7 +10201,7 @@
       <c r="Q71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R71" s="56" t="s">
+      <c r="R71" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S71" s="6">
@@ -10275,7 +10287,7 @@
       <c r="Q72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R72" s="56" t="s">
+      <c r="R72" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S72" s="6">
@@ -10360,7 +10372,7 @@
       <c r="Q73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R73" s="56" t="s">
+      <c r="R73" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S73" s="6">
@@ -10446,7 +10458,7 @@
       <c r="Q74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R74" s="56" t="s">
+      <c r="R74" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S74" s="6">
@@ -10532,7 +10544,7 @@
       <c r="Q75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="56" t="s">
+      <c r="R75" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S75" s="6">
@@ -10618,7 +10630,7 @@
       <c r="Q76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R76" s="56" t="s">
+      <c r="R76" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S76" s="6">
@@ -10704,7 +10716,7 @@
       <c r="Q77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R77" s="56" t="s">
+      <c r="R77" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S77" s="6">
@@ -10789,7 +10801,7 @@
       <c r="Q78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R78" s="56" t="s">
+      <c r="R78" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S78" s="6">
@@ -10861,7 +10873,7 @@
       <c r="Q79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R79" s="56" t="s">
+      <c r="R79" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S79" s="6">
@@ -10933,7 +10945,7 @@
       <c r="Q80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R80" s="56" t="s">
+      <c r="R80" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S80" s="6">
@@ -11005,7 +11017,7 @@
       <c r="Q81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R81" s="56" t="s">
+      <c r="R81" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S81" s="6">
@@ -11077,7 +11089,7 @@
       <c r="Q82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R82" s="56" t="s">
+      <c r="R82" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S82" s="6">
@@ -11149,7 +11161,7 @@
       <c r="Q83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R83" s="56" t="s">
+      <c r="R83" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S83" s="6">
@@ -11222,7 +11234,7 @@
       <c r="Q84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R84" s="56" t="s">
+      <c r="R84" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S84" s="6">
@@ -11307,7 +11319,7 @@
       <c r="Q85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R85" s="56" t="s">
+      <c r="R85" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S85" s="6">
@@ -11391,7 +11403,7 @@
       <c r="Q86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R86" s="56" t="s">
+      <c r="R86" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S86" s="6">
@@ -11464,7 +11476,7 @@
       <c r="Q87" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R87" s="56" t="s">
+      <c r="R87" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S87" s="6">
@@ -11548,7 +11560,7 @@
       <c r="Q88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="56" t="s">
+      <c r="R88" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S88" s="6">
@@ -11620,7 +11632,7 @@
       <c r="Q89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R89" s="56" t="s">
+      <c r="R89" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S89" s="6">
@@ -11693,7 +11705,7 @@
       <c r="Q90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R90" s="56" t="s">
+      <c r="R90" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S90" s="6">
@@ -15963,7 +15975,7 @@
       <c r="Q143" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R143" s="56" t="s">
+      <c r="R143" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S143" s="44">
@@ -16032,7 +16044,7 @@
       <c r="Q144" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R144" s="56" t="s">
+      <c r="R144" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S144" s="44">
@@ -16101,7 +16113,7 @@
       <c r="Q145" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R145" s="56" t="s">
+      <c r="R145" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S145" s="44">
@@ -16170,7 +16182,7 @@
       <c r="Q146" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R146" s="56" t="s">
+      <c r="R146" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S146" s="44">
@@ -16238,7 +16250,7 @@
       <c r="Q147" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R147" s="56" t="s">
+      <c r="R147" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S147" s="44">
@@ -16309,7 +16321,7 @@
       <c r="Q148" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R148" s="56" t="s">
+      <c r="R148" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S148" s="44">
@@ -16377,7 +16389,7 @@
       <c r="Q149" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R149" s="56" t="s">
+      <c r="R149" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S149" s="44">
@@ -16445,7 +16457,7 @@
       <c r="Q150" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R150" s="56" t="s">
+      <c r="R150" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S150" s="44">
@@ -16513,7 +16525,7 @@
       <c r="Q151" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R151" s="56" t="s">
+      <c r="R151" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S151" s="44">
@@ -16584,7 +16596,7 @@
       <c r="Q152" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R152" s="56" t="s">
+      <c r="R152" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S152" s="44">
@@ -16655,7 +16667,7 @@
       <c r="Q153" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R153" s="56" t="s">
+      <c r="R153" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S153" s="44">
@@ -16723,7 +16735,7 @@
       <c r="Q154" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R154" s="56" t="s">
+      <c r="R154" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S154" s="44">
@@ -16794,7 +16806,7 @@
       <c r="Q155" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R155" s="56" t="s">
+      <c r="R155" s="55" t="s">
         <v>1303</v>
       </c>
       <c r="S155" s="53">
@@ -22797,16 +22809,16 @@
       <c r="A239" s="49">
         <v>94120117</v>
       </c>
-      <c r="B239" s="40" t="s">
+      <c r="B239" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C239" s="40" t="s">
+      <c r="C239" s="41" t="s">
         <v>865</v>
       </c>
-      <c r="D239" s="40" t="s">
+      <c r="D239" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E239" s="40" t="s">
+      <c r="E239" s="41" t="s">
         <v>104</v>
       </c>
       <c r="F239" s="41" t="s">
@@ -22821,26 +22833,26 @@
       <c r="I239" s="42" t="s">
         <v>869</v>
       </c>
-      <c r="J239" s="40" t="s">
+      <c r="J239" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="K239" s="40" t="s">
+      <c r="K239" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="L239" s="40" t="s">
+      <c r="L239" s="41" t="s">
         <v>871</v>
       </c>
-      <c r="M239" s="40" t="s">
+      <c r="M239" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N239" s="40" t="s">
+      <c r="N239" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="O239" s="40" t="s">
+      <c r="O239" s="41" t="s">
         <v>873</v>
       </c>
-      <c r="P239" s="40"/>
-      <c r="Q239" s="40" t="s">
+      <c r="P239" s="41"/>
+      <c r="Q239" s="41" t="s">
         <v>17</v>
       </c>
       <c r="R239" s="6" t="s">
@@ -23244,13 +23256,13 @@
       <c r="A245" s="50">
         <v>94530116</v>
       </c>
-      <c r="B245" s="57" t="s">
+      <c r="B245" s="56" t="s">
         <v>968</v>
       </c>
-      <c r="C245" s="57" t="s">
+      <c r="C245" s="56" t="s">
         <v>865</v>
       </c>
-      <c r="D245" s="57" t="s">
+      <c r="D245" s="56" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="6" t="s">
@@ -23259,35 +23271,35 @@
       <c r="F245" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="G245" s="58" t="s">
+      <c r="G245" s="57" t="s">
         <v>1032</v>
       </c>
-      <c r="H245" s="58" t="s">
+      <c r="H245" s="57" t="s">
         <v>1033</v>
       </c>
-      <c r="I245" s="58" t="s">
+      <c r="I245" s="57" t="s">
         <v>1034</v>
       </c>
-      <c r="J245" s="57" t="s">
+      <c r="J245" s="56" t="s">
         <v>796</v>
       </c>
-      <c r="K245" s="57" t="s">
+      <c r="K245" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="L245" s="57" t="s">
+      <c r="L245" s="56" t="s">
         <v>910</v>
       </c>
-      <c r="M245" s="57" t="s">
+      <c r="M245" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="N245" s="57" t="s">
+      <c r="N245" s="56" t="s">
         <v>872</v>
       </c>
-      <c r="O245" s="57" t="s">
+      <c r="O245" s="56" t="s">
         <v>873</v>
       </c>
-      <c r="P245" s="57"/>
-      <c r="Q245" s="57" t="s">
+      <c r="P245" s="56"/>
+      <c r="Q245" s="56" t="s">
         <v>17</v>
       </c>
       <c r="R245" s="6" t="s">
@@ -23317,13 +23329,13 @@
       <c r="A246" s="50">
         <v>94530117</v>
       </c>
-      <c r="B246" s="57" t="s">
+      <c r="B246" s="56" t="s">
         <v>968</v>
       </c>
-      <c r="C246" s="57" t="s">
+      <c r="C246" s="56" t="s">
         <v>865</v>
       </c>
-      <c r="D246" s="57" t="s">
+      <c r="D246" s="56" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="6" t="s">
@@ -23332,35 +23344,35 @@
       <c r="F246" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="G246" s="58" t="s">
+      <c r="G246" s="57" t="s">
         <v>1036</v>
       </c>
-      <c r="H246" s="58" t="s">
+      <c r="H246" s="57" t="s">
         <v>1290</v>
       </c>
-      <c r="I246" s="58" t="s">
+      <c r="I246" s="57" t="s">
         <v>1037</v>
       </c>
-      <c r="J246" s="57" t="s">
+      <c r="J246" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K246" s="57" t="s">
+      <c r="K246" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="L246" s="57" t="s">
+      <c r="L246" s="56" t="s">
         <v>910</v>
       </c>
-      <c r="M246" s="57" t="s">
+      <c r="M246" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="N246" s="57" t="s">
+      <c r="N246" s="56" t="s">
         <v>872</v>
       </c>
-      <c r="O246" s="57" t="s">
+      <c r="O246" s="56" t="s">
         <v>873</v>
       </c>
-      <c r="P246" s="57"/>
-      <c r="Q246" s="57" t="s">
+      <c r="P246" s="56"/>
+      <c r="Q246" s="56" t="s">
         <v>17</v>
       </c>
       <c r="R246" s="6" t="s">
@@ -25110,7 +25122,7 @@
       <c r="AL269" s="13"/>
     </row>
     <row r="270" spans="1:38" s="16" customFormat="1">
-      <c r="A270" s="59">
+      <c r="A270" s="58">
         <v>95120118</v>
       </c>
       <c r="B270" s="16" t="s">
@@ -25119,69 +25131,69 @@
       <c r="C270" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D270" s="60" t="s">
+      <c r="D270" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="E270" s="60" t="s">
+      <c r="E270" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F270" s="60" t="s">
+      <c r="F270" s="61" t="s">
         <v>1361</v>
       </c>
       <c r="G270" s="16" t="s">
         <v>1362</v>
       </c>
-      <c r="H270" s="61" t="s">
+      <c r="H270" s="59" t="s">
         <v>1359</v>
       </c>
-      <c r="I270" s="61" t="s">
+      <c r="I270" s="59" t="s">
         <v>1355</v>
       </c>
-      <c r="J270" s="61" t="s">
+      <c r="J270" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K270" s="61" t="s">
+      <c r="K270" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L270" s="61" t="s">
+      <c r="L270" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="M270" s="61" t="s">
+      <c r="M270" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="N270" s="62" t="s">
+      <c r="N270" s="59" t="s">
         <v>1356</v>
       </c>
-      <c r="O270" s="62" t="s">
+      <c r="O270" s="59" t="s">
         <v>1363</v>
       </c>
-      <c r="Q270" s="61" t="s">
+      <c r="Q270" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="R270" s="61" t="s">
+      <c r="R270" s="59" t="s">
         <v>1364</v>
       </c>
-      <c r="S270" s="63">
-        <v>0</v>
-      </c>
-      <c r="T270" s="63">
-        <v>0</v>
-      </c>
-      <c r="U270" s="63">
-        <v>0</v>
-      </c>
-      <c r="V270" s="63">
-        <v>0</v>
-      </c>
-      <c r="W270" s="63">
+      <c r="S270" s="60">
+        <v>0</v>
+      </c>
+      <c r="T270" s="60">
+        <v>0</v>
+      </c>
+      <c r="U270" s="60">
+        <v>0</v>
+      </c>
+      <c r="V270" s="60">
+        <v>0</v>
+      </c>
+      <c r="W270" s="60">
         <v>0</v>
       </c>
       <c r="X270" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:38" s="61" customFormat="1">
-      <c r="A271" s="59">
+    <row r="271" spans="1:38" s="59" customFormat="1">
+      <c r="A271" s="58">
         <v>95520111</v>
       </c>
       <c r="B271" s="16" t="s">
@@ -25190,61 +25202,61 @@
       <c r="C271" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D271" s="60" t="s">
+      <c r="D271" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="E271" s="60" t="s">
+      <c r="E271" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F271" s="60" t="s">
+      <c r="F271" s="61" t="s">
         <v>1365</v>
       </c>
       <c r="G271" s="16" t="s">
         <v>1366</v>
       </c>
-      <c r="H271" s="61" t="s">
+      <c r="H271" s="59" t="s">
         <v>1357</v>
       </c>
-      <c r="I271" s="61" t="s">
+      <c r="I271" s="59" t="s">
         <v>1358</v>
       </c>
-      <c r="J271" s="61" t="s">
+      <c r="J271" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="K271" s="61" t="s">
+      <c r="K271" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L271" s="61" t="s">
+      <c r="L271" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="M271" s="61" t="s">
+      <c r="M271" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N271" s="61" t="s">
+      <c r="N271" s="59" t="s">
         <v>1367</v>
       </c>
-      <c r="O271" s="64" t="s">
+      <c r="O271" s="61" t="s">
         <v>1368</v>
       </c>
-      <c r="Q271" s="60" t="s">
+      <c r="Q271" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R271" s="61" t="s">
+      <c r="R271" s="59" t="s">
         <v>1364</v>
       </c>
-      <c r="S271" s="63">
-        <v>0</v>
-      </c>
-      <c r="T271" s="63">
-        <v>0</v>
-      </c>
-      <c r="U271" s="63">
-        <v>0</v>
-      </c>
-      <c r="V271" s="63">
-        <v>0</v>
-      </c>
-      <c r="W271" s="63">
+      <c r="S271" s="60">
+        <v>0</v>
+      </c>
+      <c r="T271" s="60">
+        <v>0</v>
+      </c>
+      <c r="U271" s="60">
+        <v>0</v>
+      </c>
+      <c r="V271" s="60">
+        <v>0</v>
+      </c>
+      <c r="W271" s="60">
         <v>0</v>
       </c>
       <c r="X271" s="16">
@@ -25252,7 +25264,7 @@
       </c>
     </row>
     <row r="272" spans="1:38" s="16" customFormat="1">
-      <c r="A272" s="65">
+      <c r="A272" s="62">
         <v>95230101</v>
       </c>
       <c r="B272" s="16" t="s">
@@ -25267,7 +25279,7 @@
       <c r="E272" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F272" s="60" t="s">
+      <c r="F272" s="61" t="s">
         <v>1369</v>
       </c>
       <c r="G272" s="16" t="s">
@@ -25291,19 +25303,19 @@
       <c r="M272" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N272" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="O272" s="66" t="s">
-        <v>1373</v>
+      <c r="N272" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O272" s="63" t="s">
+        <v>1385</v>
       </c>
       <c r="P272" s="16" t="s">
         <v>40</v>
       </c>
       <c r="Q272" s="16" t="s">
-        <v>1374</v>
-      </c>
-      <c r="R272" s="61" t="s">
+        <v>1372</v>
+      </c>
+      <c r="R272" s="59" t="s">
         <v>1364</v>
       </c>
       <c r="S272" s="16">
@@ -25326,7 +25338,7 @@
       </c>
     </row>
     <row r="273" spans="1:24" s="16" customFormat="1">
-      <c r="A273" s="65">
+      <c r="A273" s="62">
         <v>95230501</v>
       </c>
       <c r="B273" s="16" t="s">
@@ -25341,11 +25353,11 @@
       <c r="E273" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F273" s="60" t="s">
-        <v>1375</v>
+      <c r="F273" s="61" t="s">
+        <v>1373</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H273" s="16" t="s">
         <v>375</v>
@@ -25365,16 +25377,16 @@
       <c r="M273" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N273" s="16" t="s">
+      <c r="N273" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O273" s="63" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Q273" s="16" t="s">
         <v>1372</v>
       </c>
-      <c r="O273" s="66" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Q273" s="16" t="s">
-        <v>1374</v>
-      </c>
-      <c r="R273" s="61" t="s">
+      <c r="R273" s="59" t="s">
         <v>1364</v>
       </c>
       <c r="S273" s="16">
@@ -25396,8 +25408,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" s="67" customFormat="1">
-      <c r="A274" s="65">
+    <row r="274" spans="1:24" s="64" customFormat="1">
+      <c r="A274" s="62">
         <v>95530101</v>
       </c>
       <c r="B274" s="16" t="s">
@@ -25406,19 +25418,19 @@
       <c r="C274" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D274" s="67" t="s">
+      <c r="D274" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E274" s="67" t="s">
+      <c r="E274" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F274" s="60" t="s">
-        <v>1377</v>
+      <c r="F274" s="61" t="s">
+        <v>1375</v>
       </c>
       <c r="G274" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H274" s="67" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H274" s="64" t="s">
         <v>1248</v>
       </c>
       <c r="I274" s="16" t="s">
@@ -25436,39 +25448,39 @@
       <c r="M274" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N274" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="O274" s="16" t="s">
-        <v>1373</v>
+      <c r="N274" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O274" s="63" t="s">
+        <v>1385</v>
       </c>
       <c r="Q274" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="R274" s="63" t="s">
-        <v>1379</v>
-      </c>
-      <c r="S274" s="63">
-        <v>0</v>
-      </c>
-      <c r="T274" s="63">
-        <v>0</v>
-      </c>
-      <c r="U274" s="63">
-        <v>0</v>
-      </c>
-      <c r="V274" s="63">
-        <v>0</v>
-      </c>
-      <c r="W274" s="63">
+        <v>1376</v>
+      </c>
+      <c r="R274" s="60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S274" s="60">
+        <v>0</v>
+      </c>
+      <c r="T274" s="60">
+        <v>0</v>
+      </c>
+      <c r="U274" s="60">
+        <v>0</v>
+      </c>
+      <c r="V274" s="60">
+        <v>0</v>
+      </c>
+      <c r="W274" s="60">
         <v>0</v>
       </c>
       <c r="X274" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" s="67" customFormat="1">
-      <c r="A275" s="65">
+    <row r="275" spans="1:24" s="64" customFormat="1">
+      <c r="A275" s="62">
         <v>95530102</v>
       </c>
       <c r="B275" s="16" t="s">
@@ -25477,19 +25489,19 @@
       <c r="C275" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D275" s="67" t="s">
+      <c r="D275" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E275" s="67" t="s">
+      <c r="E275" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F275" s="60" t="s">
-        <v>1380</v>
+      <c r="F275" s="61" t="s">
+        <v>1378</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H275" s="67" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H275" s="64" t="s">
         <v>1041</v>
       </c>
       <c r="I275" s="16" t="s">
@@ -25507,39 +25519,39 @@
       <c r="M275" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N275" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="O275" s="66" t="s">
-        <v>1373</v>
+      <c r="N275" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O275" s="63" t="s">
+        <v>1385</v>
       </c>
       <c r="Q275" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="R275" s="63" t="s">
-        <v>1379</v>
-      </c>
-      <c r="S275" s="63">
-        <v>0</v>
-      </c>
-      <c r="T275" s="63">
-        <v>0</v>
-      </c>
-      <c r="U275" s="63">
-        <v>0</v>
-      </c>
-      <c r="V275" s="63">
-        <v>0</v>
-      </c>
-      <c r="W275" s="63">
+        <v>1376</v>
+      </c>
+      <c r="R275" s="60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S275" s="60">
+        <v>0</v>
+      </c>
+      <c r="T275" s="60">
+        <v>0</v>
+      </c>
+      <c r="U275" s="60">
+        <v>0</v>
+      </c>
+      <c r="V275" s="60">
+        <v>0</v>
+      </c>
+      <c r="W275" s="60">
         <v>0</v>
       </c>
       <c r="X275" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" s="67" customFormat="1">
-      <c r="A276" s="65">
+    <row r="276" spans="1:24" s="64" customFormat="1">
+      <c r="A276" s="62">
         <v>95530103</v>
       </c>
       <c r="B276" s="16" t="s">
@@ -25548,19 +25560,19 @@
       <c r="C276" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D276" s="67" t="s">
+      <c r="D276" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E276" s="67" t="s">
+      <c r="E276" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F276" s="60" t="s">
-        <v>1381</v>
+      <c r="F276" s="61" t="s">
+        <v>1379</v>
       </c>
       <c r="G276" s="16" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H276" s="67" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H276" s="64" t="s">
         <v>1015</v>
       </c>
       <c r="I276" s="16" t="s">
@@ -25578,39 +25590,39 @@
       <c r="M276" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N276" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="O276" s="66" t="s">
-        <v>1373</v>
+      <c r="N276" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O276" s="63" t="s">
+        <v>1385</v>
       </c>
       <c r="Q276" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="R276" s="63" t="s">
-        <v>1379</v>
-      </c>
-      <c r="S276" s="63">
-        <v>0</v>
-      </c>
-      <c r="T276" s="63">
-        <v>0</v>
-      </c>
-      <c r="U276" s="63">
-        <v>0</v>
-      </c>
-      <c r="V276" s="63">
-        <v>0</v>
-      </c>
-      <c r="W276" s="63">
+        <v>1376</v>
+      </c>
+      <c r="R276" s="60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S276" s="60">
+        <v>0</v>
+      </c>
+      <c r="T276" s="60">
+        <v>0</v>
+      </c>
+      <c r="U276" s="60">
+        <v>0</v>
+      </c>
+      <c r="V276" s="60">
+        <v>0</v>
+      </c>
+      <c r="W276" s="60">
         <v>0</v>
       </c>
       <c r="X276" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" s="67" customFormat="1">
-      <c r="A277" s="65">
+    <row r="277" spans="1:24" s="64" customFormat="1">
+      <c r="A277" s="62">
         <v>95530104</v>
       </c>
       <c r="B277" s="16" t="s">
@@ -25619,19 +25631,19 @@
       <c r="C277" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="D277" s="67" t="s">
+      <c r="D277" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E277" s="67" t="s">
+      <c r="E277" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F277" s="60" t="s">
-        <v>1382</v>
+      <c r="F277" s="61" t="s">
+        <v>1380</v>
       </c>
       <c r="G277" s="16" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H277" s="67" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H277" s="64" t="s">
         <v>1249</v>
       </c>
       <c r="I277" s="16" t="s">
@@ -25649,34 +25661,108 @@
       <c r="M277" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N277" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="O277" s="66" t="s">
-        <v>1373</v>
+      <c r="N277" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O277" s="63" t="s">
+        <v>1385</v>
       </c>
       <c r="Q277" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="R277" s="63" t="s">
-        <v>1379</v>
-      </c>
-      <c r="S277" s="63">
-        <v>0</v>
-      </c>
-      <c r="T277" s="63">
-        <v>0</v>
-      </c>
-      <c r="U277" s="63">
-        <v>0</v>
-      </c>
-      <c r="V277" s="63">
-        <v>0</v>
-      </c>
-      <c r="W277" s="63">
+        <v>1376</v>
+      </c>
+      <c r="R277" s="60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S277" s="60">
+        <v>0</v>
+      </c>
+      <c r="T277" s="60">
+        <v>0</v>
+      </c>
+      <c r="U277" s="60">
+        <v>0</v>
+      </c>
+      <c r="V277" s="60">
+        <v>0</v>
+      </c>
+      <c r="W277" s="60">
         <v>0</v>
       </c>
       <c r="X277" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" s="61" customFormat="1">
+      <c r="A278" s="61">
+        <v>95530202</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D278" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="61" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G278" s="61" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H278" s="61" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I278" s="61" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J278" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="K278" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="L278" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="M278" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="N278" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="O278" s="63" t="s">
+        <v>1385</v>
+      </c>
+      <c r="P278" s="61" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q278" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="R278" s="60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S278" s="61">
+        <v>0</v>
+      </c>
+      <c r="T278" s="61">
+        <v>0</v>
+      </c>
+      <c r="U278" s="61">
+        <v>0</v>
+      </c>
+      <c r="V278" s="61">
+        <v>0</v>
+      </c>
+      <c r="W278" s="61">
+        <v>0</v>
+      </c>
+      <c r="X278" s="61">
         <v>0</v>
       </c>
     </row>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="606"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_FICHAS" sheetId="4" r:id="rId1"/>
@@ -4180,80 +4180,80 @@
     <t>Proyecto SURGE</t>
   </si>
   <si>
-    <t>(Proyecto SURGE) Becas educativas</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Cantidad anual de becas educativas otorgadas a personas afrodescendientes</t>
-  </si>
-  <si>
-    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
-  </si>
-  <si>
-    <t>Datos elaborados en el marco de una consultoría del Proyecto SURGE de OACNUDH-Uruguay.</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Porcentaje de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
-  </si>
-  <si>
     <t>Oficina Nacional del Servicio Civil</t>
   </si>
   <si>
-    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en Oficina Nacional del Servcio Civil</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Tenencia insegura de la vivienda</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Porcentaje de personas en hogares con tenencia insegura</t>
-  </si>
-  <si>
     <t>El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aquella en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
   </si>
   <si>
     <t>Ascendencia étnico-racial, región</t>
   </si>
   <si>
-    <t>(Proyecto SURGE) Asentamientos</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Porcentaje de personas que viven en asentamientos</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Tasa de actividad</t>
-  </si>
-  <si>
     <t>Ascendencia étnico-racial, sexo</t>
   </si>
   <si>
-    <t>Datos elaborados en el marco de una consultoría del Proyecto SURGE de OACNUDH-Uruguay. Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+    <t>No poseer cobertura de la seguridad social</t>
+  </si>
+  <si>
+    <t>Encuesta Continua de Hogares INE</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH) con base en OPP  2019 "Acciones afirmativas para personas afrodescendientes"</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH) con base en Oficina Nacional del Servcio Civil</t>
+  </si>
+  <si>
+    <t>Consultoría Proyecto SURGE (ACNUDH) con base en Encuesta Continua de Hogares (INE)</t>
+  </si>
+  <si>
+    <t>Datos elaborados en el marco de una consultoría del Proyecto SURGE (ACNUDH).</t>
+  </si>
+  <si>
+    <t>Datos elaborados en el marco de una consultoría del Proyecto SURGE (ACNUDH). Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
 Los indicadores de trabajo del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario).</t>
   </si>
   <si>
-    <t>(Proyecto SURGE) Tasa de desempleo</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Tasa de empleo</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Tasa de subempleo</t>
-  </si>
-  <si>
-    <t>No poseer cobertura de la seguridad social</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Porcentaje de ocupados que no aporta a la seguridad social</t>
-  </si>
-  <si>
-    <t>(Proyecto SURGE) Porcentaje de ocupados sin aporte a la seguridad social</t>
-  </si>
-  <si>
-    <t>Encuesta Continua de Hogares INE</t>
-  </si>
-  <si>
-    <t>Consultoría Proyecto SURGE (OACNUDH - Uruguay) con base en Encuesta Continua de Hogares (INE)</t>
+    <t>(Proyecto SURGE - ACNUDH) Becas educativas</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Cantidad anual de becas educativas otorgadas a personas afrodescendientes</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Cumplimiento de la couta de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Porcentaje de ingresos de afrodescendientes a cargos públicos (Ley 19.122)</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Tenencia insegura de la vivienda</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Porcentaje de personas en hogares con tenencia insegura</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Asentamientos</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Porcentaje de personas que viven en asentamientos</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Tasa de actividad</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Tasa de desempleo</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Tasa de empleo</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Tasa de subempleo</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Porcentaje de ocupados que no aporta a la seguridad social</t>
+  </si>
+  <si>
+    <t>(Proyecto SURGE - ACNUDH) Porcentaje de ocupados sin aporte a la seguridad social</t>
   </si>
 </sst>
 </file>
@@ -4872,10 +4872,10 @@
   <sheetPr codeName="Hoja1" filterMode="1"/>
   <dimension ref="A1:AL278"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E111" sqref="E111"/>
-      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25138,10 +25138,10 @@
         <v>104</v>
       </c>
       <c r="F270" s="61" t="s">
-        <v>1361</v>
+        <v>1372</v>
       </c>
       <c r="G270" s="16" t="s">
-        <v>1362</v>
+        <v>1373</v>
       </c>
       <c r="H270" s="59" t="s">
         <v>1359</v>
@@ -25165,13 +25165,13 @@
         <v>1356</v>
       </c>
       <c r="O270" s="59" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="Q270" s="59" t="s">
         <v>96</v>
       </c>
       <c r="R270" s="59" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="S270" s="60">
         <v>0</v>
@@ -25209,10 +25209,10 @@
         <v>104</v>
       </c>
       <c r="F271" s="61" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="G271" s="16" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="H271" s="59" t="s">
         <v>1357</v>
@@ -25233,7 +25233,7 @@
         <v>8</v>
       </c>
       <c r="N271" s="59" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="O271" s="61" t="s">
         <v>1368</v>
@@ -25242,7 +25242,7 @@
         <v>17</v>
       </c>
       <c r="R271" s="59" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="S271" s="60">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>36</v>
       </c>
       <c r="F272" s="61" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="G272" s="16" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
       <c r="H272" s="16" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="I272" s="16" t="s">
         <v>38</v>
@@ -25304,19 +25304,19 @@
         <v>8</v>
       </c>
       <c r="N272" s="61" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="O272" s="63" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="P272" s="16" t="s">
         <v>40</v>
       </c>
       <c r="Q272" s="16" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="R272" s="59" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="S272" s="16">
         <v>1</v>
@@ -25354,10 +25354,10 @@
         <v>50</v>
       </c>
       <c r="F273" s="61" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="H273" s="16" t="s">
         <v>375</v>
@@ -25378,16 +25378,16 @@
         <v>8</v>
       </c>
       <c r="N273" s="61" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="O273" s="63" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="Q273" s="16" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="R273" s="59" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="S273" s="16">
         <v>1</v>
@@ -25425,10 +25425,10 @@
         <v>3</v>
       </c>
       <c r="F274" s="61" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="G274" s="16" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="H274" s="64" t="s">
         <v>1248</v>
@@ -25449,16 +25449,16 @@
         <v>8</v>
       </c>
       <c r="N274" s="61" t="s">
-        <v>1384</v>
-      </c>
-      <c r="O274" s="63" t="s">
-        <v>1385</v>
+        <v>1366</v>
+      </c>
+      <c r="O274" s="16" t="s">
+        <v>1369</v>
       </c>
       <c r="Q274" s="16" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="R274" s="60" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="S274" s="60">
         <v>0</v>
@@ -25496,10 +25496,10 @@
         <v>3</v>
       </c>
       <c r="F275" s="61" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="H275" s="64" t="s">
         <v>1041</v>
@@ -25520,16 +25520,16 @@
         <v>8</v>
       </c>
       <c r="N275" s="61" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="O275" s="63" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="Q275" s="16" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="R275" s="60" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="S275" s="60">
         <v>0</v>
@@ -25567,10 +25567,10 @@
         <v>3</v>
       </c>
       <c r="F276" s="61" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G276" s="16" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="H276" s="64" t="s">
         <v>1015</v>
@@ -25591,16 +25591,16 @@
         <v>8</v>
       </c>
       <c r="N276" s="61" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="O276" s="63" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="Q276" s="16" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="R276" s="60" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="S276" s="60">
         <v>0</v>
@@ -25638,10 +25638,10 @@
         <v>3</v>
       </c>
       <c r="F277" s="61" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G277" s="16" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="H277" s="64" t="s">
         <v>1249</v>
@@ -25662,16 +25662,16 @@
         <v>8</v>
       </c>
       <c r="N277" s="61" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="O277" s="63" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="Q277" s="16" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="R277" s="60" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="S277" s="60">
         <v>0</v>
@@ -25709,10 +25709,10 @@
         <v>15</v>
       </c>
       <c r="F278" s="61" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G278" s="61" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="H278" s="61" t="s">
         <v>1253</v>
@@ -25733,19 +25733,19 @@
         <v>8</v>
       </c>
       <c r="N278" s="61" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="O278" s="63" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="P278" s="61" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="Q278" s="16" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="R278" s="60" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="S278" s="61">
         <v>0</v>

--- a/Data/Base_fichas_indicadores.xlsx
+++ b/Data/Base_fichas_indicadores.xlsx
@@ -16,14 +16,14 @@
     <sheet name="REF_COLUMNAS" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_FICHAS!$A$1:$AL$320</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="1670">
   <si>
     <t>id</t>
   </si>
@@ -4266,6 +4266,856 @@
   <si>
     <t>UMAD con base en INE - Estimaciones y proyecciones de población (revisión 2013).</t>
   </si>
+  <si>
+    <t>metodologia</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Fracaso anticonceptivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de nacidos vivos según fracaso de método anticonceptivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de nacidos vivos según fracaso de método anticonceptivo </t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos en que fracasó el método anticonceptivo utilizado/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>2013-2021</t>
+  </si>
+  <si>
+    <t>Estadísticas vitales - MSP</t>
+  </si>
+  <si>
+    <t>UMAD con base en Estadísticas vitales - MSP</t>
+  </si>
+  <si>
+    <t>Homicidios a mujeres</t>
+  </si>
+  <si>
+    <t>Cantidad de homicidios a mujeres</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de homicidios perpetrados a mujeres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad total de homicidios en que las víctimas fueron mujeres</t>
+  </si>
+  <si>
+    <t>Cantidad de homicidios</t>
+  </si>
+  <si>
+    <t>2011-2022</t>
+  </si>
+  <si>
+    <t>Observatorio de violencia y criminadlidad</t>
+  </si>
+  <si>
+    <t>UMAD con base en Observatorio de violencia y criminadlidad</t>
+  </si>
+  <si>
+    <t>Homicidios a mujeres por parte de pareja o expareja</t>
+  </si>
+  <si>
+    <t>Cantidad de homicidios a mujeres por parte de pareja o ex pareja</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de homicidios perpetrados a mujeres por parte de su pareja o expareja</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad total de homicidios en que las víctimas fueron mujeres y el victimario su pareja o expareja</t>
+  </si>
+  <si>
+    <t>Prevalencia de VBG</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 15 años o más que vivieron situaciones de violencia basada en género en los últimos 12 meses en algún ámbito/Cantidad de mujeres de 15 años o más)*100</t>
+  </si>
+  <si>
+    <t>2013, 2019</t>
+  </si>
+  <si>
+    <t>ENVBGG, 2013 y 2019 - INE</t>
+  </si>
+  <si>
+    <t>UMAD con base en ENVBGG, 2013 y 2019 - INE</t>
+  </si>
+  <si>
+    <t>Ascendencia étnico-racial, edad, nivel socioeconómico</t>
+  </si>
+  <si>
+    <t>Prevalencia de VBG en el ámbito educativo</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses en el ámbito educativo</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres que vivieron situaciones de VBG en el ámbito educativo en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 15 años o más que vivieron situaciones de violencia basada en género en los últimos 12 meses en el ámbito educativo/Cantidad de mujeres de 15 años o más que asistieron a un centro educativo en los últimos 12 meses)*100</t>
+  </si>
+  <si>
+    <t>Prevalencia de VBG en el ámbito familiar</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses en el ámbito familiar</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres que vivieron situaciones de VBG en el ámbito familiar en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 15 años o más que vivieron situaciones de violencia basada en género en los últimos 12 meses en el ámbito familiar/Cantidad de mujeres de 15 años o más)*100</t>
+  </si>
+  <si>
+    <t>Prevalencia de VBG en el ámbito laboral</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses en el ámbito laboral</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres que vivieron situaciones de VBG en el ámbito laboral en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 15 años o más que vivieron situaciones de violencia basada en género en los últimos 12 meses en el ámbito laboral/Cantidad de mujeres de 15 años o más que trabajaron asalariadamente en los últimos 12 meses)*100</t>
+  </si>
+  <si>
+    <t>Prevalencia de VBG en el ámbito social</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses en el ámbito social</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres que vivieron situaciones de VBG en el ámbito social en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 15 años o más que vivieron situaciones de violencia basada en género en los últimos 12 meses en el ámbito social/Cantidad de mujeres de 15 años o más)*100</t>
+  </si>
+  <si>
+    <t>Prevalencia de VBG en las relaciones de parjea</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres que vivieron situaciones de VBG en los últimos 12 meses en las relaciones de pareja</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres que vivieron situaciones de VBG en alguna relación de pareja en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 15 años o más que vivieron situaciones de violencia basada en género en los últimos 12 meses en alguna relación de pareja/Cantidad de mujeres de 15 años o más que tuvieron alguna relación de pareja en los últimos 12 meses)*100</t>
+  </si>
+  <si>
+    <t>Controles prenatales (menos de 5)</t>
+  </si>
+  <si>
+    <t>Porcentaje de nacidos vivos con menos de 5 controles prenatales</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de nacidos vivos con menos de 5 controles prenatales</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos en que hubo menos de 5 controles prenatales/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>1995-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redatam+SP, Departamento de Estadísticas Vitales, Ministerio de Salud Uruguay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Redatam+SP, Departamento de Estadísticas Vitales, Ministerio de Salud Uruguay </t>
+  </si>
+  <si>
+    <t>Controles prenatales (menos de 8)</t>
+  </si>
+  <si>
+    <t>Porcentaje de nacidos vivos con menos de 8 controles prenatales</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de nacidos vivos con menos de 8 controles prenatales</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos en que hubo menos de 8 controles prenatales/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>Nacimientos de menores de 20 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de nacidos vivos cuyas madres tienen menos de 20 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de nacidos vivos cuyas madres tienen menos de 20 años </t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos con madres menores de 20 años/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>1997-2021</t>
+  </si>
+  <si>
+    <t>Embarazos no planificados</t>
+  </si>
+  <si>
+    <t>Porcentaje de nacidos vivos de embarazos no planificados</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de nacidos vivos de embarazos no planificados</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos de embarazos no planificados/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>Edad, departamento</t>
+  </si>
+  <si>
+    <t>Enfermedades maternas</t>
+  </si>
+  <si>
+    <t>Porcentaje de nacidos vivos en que las madres tuvieron alguna enfermedad materna durante el embarazo</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de nacidos vivos en que las madres tuvieron alguna enfermedad materna durante el embarazo</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos en que las madres tuvieron alguna enfermedad durante el embarazo/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>Indicación Folatos embarazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de nacidos vivos que no se indicó folatos durante el embarazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de nacidos vivos que no se indicó folatos durante el embarazo </t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos en que no se indicaron folatos durante el embarazo/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>Indicación Hierro embarazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de nacidos vivos que no se indicó hierro durante el embarazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de nacidos vivos que no se indicó hierro durante el embarazo </t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacidos vivos en que no se indicó hierro durante el embarazo/cantidad de nacidos vivos)*100</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna (Por cada 100.000 nacidos vivos)</t>
+  </si>
+  <si>
+    <t>El indicador mide la razón de mortalidad materna por cada 100.000 nacidos vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada año calcular: (Cantidad de defunciones maternas/cantidad de nacidos vivos)*100.000
+</t>
+  </si>
+  <si>
+    <t>Muertes maternas cada 100.000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>1900-2021</t>
+  </si>
+  <si>
+    <t>Fecundidad adolescente</t>
+  </si>
+  <si>
+    <t>Tasa de fecundidad adolescente</t>
+  </si>
+  <si>
+    <t>El indicador mide la tasa de fecundidad adolescente</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de nacivos vivos de madres entre 15 y 19 años de edad/mujeres entre 15 y 19 años de edad)*1000</t>
+  </si>
+  <si>
+    <t>Nacimientos cada 1000 adolescentes</t>
+  </si>
+  <si>
+    <t>Estadísticas vitales - MSP y Proyecciones de Población</t>
+  </si>
+  <si>
+    <t>UMAD con base en Estadísticas vitales - MSP y Proyecciones de Población</t>
+  </si>
+  <si>
+    <t>Homicidios a mujeres - tasa</t>
+  </si>
+  <si>
+    <t>Tasa de homicidios a mujeres</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de homicidios perpetrados a mujeres cada 100.000 mujeres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de homicidios perpetrados a mujeres/Proyección de población de mujeres)*100.000</t>
+  </si>
+  <si>
+    <t>Cantidad de homicidios cada 100.000 mujeres</t>
+  </si>
+  <si>
+    <t>Observatorio de violencia y criminadlidad y proyecciones de población, INE</t>
+  </si>
+  <si>
+    <t>UMAD con base en Observatorio de violencia y criminadlidad y Proyecciones de población, INE</t>
+  </si>
+  <si>
+    <t>Homicidios a mujeres pareja o expareja - tasa</t>
+  </si>
+  <si>
+    <t>Tasa de homicidios a mujeres por parte de su pareja o expareja</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de homicidios perpetrados a mujeres por parte de su pareja o expareja cada 100.000 mujeres</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de homicidios perpetrados a mujeres por parte de su pareja o expareja/Proyección de población de mujeres)*100.000</t>
+  </si>
+  <si>
+    <t>Seguridad social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidio por cuidados parentales </t>
+  </si>
+  <si>
+    <t>Beneficiarios de subsidio por cuidados parentales</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad de personas beneficiarias del subsidio por cuidados parentales</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad total de personas beneficiarias del subsidio por cuidados parentales</t>
+  </si>
+  <si>
+    <t>Boletín estadístico - BPS</t>
+  </si>
+  <si>
+    <t>UMAD con base en Boletín estadístico - BPS</t>
+  </si>
+  <si>
+    <t>Subsidios por maternidad, paternidad y cuidados parentales</t>
+  </si>
+  <si>
+    <t>Beneficiarios del subsidio por maternidad, paternidad y cuidados parentales</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad total de personas beneficiarias del subsidio por maternidad, paternidad y cuidados parentales</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad total de personas beneficiarias del subsidio por maternidad, paternidad y cuidados parentales</t>
+  </si>
+  <si>
+    <t>Subsidio por maternidad</t>
+  </si>
+  <si>
+    <t>Beneficiarios del subsidio por maternidad</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad total de personas beneficiarias del subsidio por maternidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada año calcular: Cantidad total de personas beneficiarias del subsidio por maternidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidio por paternidad </t>
+  </si>
+  <si>
+    <t>Beneficiarios del subsidio por paternidad</t>
+  </si>
+  <si>
+    <t>El indicador mide la cantidad total de personas beneficiarias del subsidio por paternidad</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: Cantidad total de personas beneficiarias del subsidio por paternidad</t>
+  </si>
+  <si>
+    <t>Autonomía económica - sin ingresos propios</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres de 24 años o más que no perciben ingresos propios</t>
+  </si>
+  <si>
+    <t>El indicador midel el porcentaje de mujeres que no tienen ingresos propios</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 24 años o más que no perciben ingresos propios/Cantidad de mujeres de 24 años o más)*100</t>
+  </si>
+  <si>
+    <t>2006-2022</t>
+  </si>
+  <si>
+    <t>Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2019 Versión 12 DOI: http://doiorg/1047426/ECHINE, ECH 2020-2022, INE</t>
+  </si>
+  <si>
+    <t>UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2019 Versión 12 DOI: http://doiorg/1047426/ECHINE, ECH 2020-2022, INE</t>
+  </si>
+  <si>
+    <t>Ascendencia étnico-racial, edad, quintil de ingresos</t>
+  </si>
+  <si>
+    <t>Distribución de carga global de trabajo</t>
+  </si>
+  <si>
+    <t>Distribución de carga global de trabajo por sexo</t>
+  </si>
+  <si>
+    <t>El indicador mide la participación de mujeres y varones en la carga global de trabajo (reunerado y no remunerado)</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Total de horas destinadas a las actividades de trabajo remunerado y no remuerado por parte de mujeres (o varones)/Total de horas destinadas a las actividades de trabajo remunerado y no remuerado)*100</t>
+  </si>
+  <si>
+    <t>2007, 2013 y 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguirre, R (ed.). (2009.). Las bases invisibles del bienestar social : el trabajo no remunerado en Uruguay. Udelar, UNIFEM, INE, INMUJERES; Batthyány, K (ed.) (2015.). Los tiempos del bienestar social: género, trabajo no remunerado y cuidados en Uruguay. Udelar. FCS, MIDES, InMujeres y Inmujeres (2023). Encuesta sobre uso del tiempo y trabajo no remunerado. Inmujeres-MIDES. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Aguirre, R (ed.). (2009.). Las bases invisibles del bienestar social : el trabajo no remunerado en Uruguay. Udelar, UNIFEM, INE, INMUJERES; Batthyány, K (ed.) (2015.). Los tiempos del bienestar social: género, trabajo no remunerado y cuidados en Uruguay. Udelar. FCS, MIDES, InMujeres y Inmujeres (2023). Encuesta sobre uso del tiempo y trabajo no remunerado. Inmujeres-MIDES. </t>
+  </si>
+  <si>
+    <t>Personal ocupado en empresas</t>
+  </si>
+  <si>
+    <t>Porcentaje de personal ocupado en empresas por sexo</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de mujeres y varones ocupados en empresas</t>
+  </si>
+  <si>
+    <t>Para cada trimestre calcular: (Cantidad de mujeres (o varones) ocupados en empresas/Cantidad de personas ocupadas en empresas)*100</t>
+  </si>
+  <si>
+    <t>2018-2022</t>
+  </si>
+  <si>
+    <t>Demografía de empresas del Uruguay, INE</t>
+  </si>
+  <si>
+    <t>UMAD con base en Demografía de empresas del Uruguay, INE</t>
+  </si>
+  <si>
+    <t>Horas de TNR</t>
+  </si>
+  <si>
+    <t>Horas semanales promedio de trabajo no remunerado</t>
+  </si>
+  <si>
+    <t>El indicador mide las horas semanales promedio de trabajo no remunerado</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de horas destinadas a actividades de trabajo no remunerado/cantidad de personas que realizan actividades de trabajo no remunerado)*100</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Horas de TNR (ayuda a otros hogares)</t>
+  </si>
+  <si>
+    <t>Horas semanales promedio de actividades no remuneradas de ayuda a otros hogares</t>
+  </si>
+  <si>
+    <t>El indicador mide las horas semanales promedio de actividades no remuneradas de ayuda a otros hogares</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de horas destinadas a actividades de ayuda a otros hogares no remuneradas/cantidad de personas que realizan actividades de ayuda a otros hogares no remuneradas)*100</t>
+  </si>
+  <si>
+    <t>2013, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batthyány, K (ed.) (2015.). Los tiempos del bienestar social: género, trabajo no remunerado y cuidados en Uruguay. Udelar. FCS, MIDES, InMujeres y Inmujeres (2023). Encuesta sobre uso del tiempo y trabajo no remunerado. Inmujeres-MIDES. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Batthyány, K (ed.) (2015.). Los tiempos del bienestar social: género, trabajo no remunerado y cuidados en Uruguay. Udelar. FCS, MIDES, InMujeres y Inmujeres (2023). Encuesta sobre uso del tiempo y trabajo no remunerado. Inmujeres-MIDES. </t>
+  </si>
+  <si>
+    <t>Horas de TNR (cuidados)</t>
+  </si>
+  <si>
+    <t>Horas semanales promedio de actividades no remuneradas de cuidados</t>
+  </si>
+  <si>
+    <t>El indicador mide las horas semanales promedio de actividades no remuneradas de cuidados</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de horas destinadas a actividades de cuidados no remunerados/cantidad de personas que realizan actividades de cuidados no remunerados)*100</t>
+  </si>
+  <si>
+    <t>Horas de TNR (trabajo doméstico)</t>
+  </si>
+  <si>
+    <t>Horas semanales promedio de actividades no remuneradas de trabajo doméstico</t>
+  </si>
+  <si>
+    <t>El indicador mide las horas semanales promedio de actividades no remuneradas de trabajo doméstico</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de horas destinadas a actividades de trabajo doméstico no remunerado/cantidad de personas que realizan actividades de trabajo doméstico no remunerado)*100</t>
+  </si>
+  <si>
+    <t>Horas de TNR (trabajo voluntario)</t>
+  </si>
+  <si>
+    <t>Horas semanales promedio de actividades no remuneradas de trabajo voluntario</t>
+  </si>
+  <si>
+    <t>El indicador mide las horas semanales promedio de actividades no remuneradas de trabajo voluntario</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de horas destinadas a actividades de trabajo voluntario no remunerado/cantidad de personas que realizan actividades de trabajo voluntario no remunerado)*100</t>
+  </si>
+  <si>
+    <t>Pobreza de tiempo</t>
+  </si>
+  <si>
+    <t>Porcentaje de la población pobre de tiempo</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje de personas con pobreza de tiempo</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de personas de 14 años o más que destinan al trabajo no remunerado más de 1,5 veces la mediana de horas de trabajo no remunerado/cantidad de personas de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Batthyány, K (ed.) (2015.). Los tiempos del bienestar social: género, trabajo no remunerado y cuidados en Uruguay. Udelar. FCS, MIDES, InMujeres</t>
+  </si>
+  <si>
+    <t>UMAD con base en Batthyány, K (ed.) (2015.). Los tiempos del bienestar social: género, trabajo no remunerado y cuidados en Uruguay. Udelar. FCS, MIDES, InMujeres</t>
+  </si>
+  <si>
+    <t>Sexo, edad</t>
+  </si>
+  <si>
+    <t>Autonomía económica</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres de 24 años o más sin ingresos propios</t>
+  </si>
+  <si>
+    <t>Participación laboral</t>
+  </si>
+  <si>
+    <t>Porcentaje de mujeres en edad de trabajar que no se encuentran trabajando</t>
+  </si>
+  <si>
+    <t>El indicador midel el porcentaje de mujeres de 14 años o más que no se encuentran trabajando</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres de 14 años o más que no se encuentran trabajando/cantidad de mujeres de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Ascendencia étnico-racial, edad, quintil de ingresos, menores de 13 en el hogar</t>
+  </si>
+  <si>
+    <t>Participación laboral con menores</t>
+  </si>
+  <si>
+    <t>Tasa de actividad de varones y mujeres jefe, jefa y cónyuge entre 14 y 49 años de edad según sexo y presencia de menores de 13 años en el hogar</t>
+  </si>
+  <si>
+    <t>El indicador mide el pocentaje de mujeres y varones trabajando o buscando trabajo que son jefe, jefa y cónyuge entre 14 y 49 años de edad con presencia de menores de 13 años en el hogar</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de mujeres y varones trabajando o buscando trabajo que son jefe, jefa y cónyuge entre 14 y 49 años de edad con presencia de menores de 13 años en el hogar/Cantidad de mujeres y varones que son jefe, jefa y cónyuge entre 14 y 49 años de edad con presencia de menores de 13 años en el hogar)*100</t>
+  </si>
+  <si>
+    <t>Sexo, ascendencia étnico-racial, edad, quintil de ingresos</t>
+  </si>
+  <si>
+    <t>Parcicipación en TNR</t>
+  </si>
+  <si>
+    <t>Tasa de participación en trabajo no remunerado</t>
+  </si>
+  <si>
+    <t>El indicador mide la participación de las personas en las actividades de trabajo no remunerado</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de personas de 14 años o más que realizan actividades de trabajo no remunerado/cantidad de personas de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Parcicipación en TNR (ayuda a otros hogares)</t>
+  </si>
+  <si>
+    <t>Tasa de participación en actividades no remuneradas de ayuda a otros hogares</t>
+  </si>
+  <si>
+    <t>El indicador mide la participación de las personas en actividades no remuneradas de ayuda a otros hogares</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de personas de 14 años o más que realizan actividades de ayuda a otros hogares no remuneradas/cantidad de personas de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Parcicipación en TNR (cuidados)</t>
+  </si>
+  <si>
+    <t>Tasa de participación en actividades no remuneradas de cuidados</t>
+  </si>
+  <si>
+    <t>El indicador mide la participación en actividades no remuneradas de cuidados</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de personas de 14 años o más que realizan actividades de cuidados no remunerados/cantidad de personas de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Parcicipación en TNR (trabajo doméstico)</t>
+  </si>
+  <si>
+    <t>Tasa de participación en actividades no remuneradas de trabajo doméstico</t>
+  </si>
+  <si>
+    <t>El indicador mide la participación en actividades no remuneradas de trabajo doméstico</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de personas de 14 años o más que realizan actividades de trabajo doméstico no remunerado/cantidad de personas de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Parcicipación en TNR (trabajo voluntario)</t>
+  </si>
+  <si>
+    <t>Tasa de participación en actividades no remuneradas de trabajo voluntario</t>
+  </si>
+  <si>
+    <t>El indicador mide la participación en actividades no remuneradas de trabajo voluntario</t>
+  </si>
+  <si>
+    <t>Para cada año calcular: (Cantidad de personas de 14 años o más que realizan actividades de trabajo voluntario no remunerado/cantidad de personas de 14 años o más)*100</t>
+  </si>
+  <si>
+    <t>Brecha de ingresos</t>
+  </si>
+  <si>
+    <t>Porcentaje del ingreso de las mujeres respecto al de los varones por hora de trabajo en ocupación principal</t>
+  </si>
+  <si>
+    <t>El indicador mide el porcentaje del ingreso de las mujeres respecto al de los varones por hora de trabajo en la ocupa